--- a/기사데이터/토스/엑셀파일/news(토스, 2023.08.01~2023.08.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.08.01~2023.08.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2023.08.09.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>신한카드-토스, ‘데이터 공동사업 위한 신용평가·금융서비스 개발 협약’ 맞손</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002181055?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>문동권(왼쪽) 신한카드 사장과 이승건 토스 대표가 기념촬영을 하고 있다.[신한카드 제공][헤럴드경제=홍승희 기자] 신한카드는 토스와 ‘데이터 공동 사업을 위한 신용평가모델 및 금융서비스 개발 업무협약’을 체결했다고 9일 밝혔다. 양사는 빅데이터를 바탕으로 금융 소외 계층에 대한 정교한 신용평가 모델과 금융서비스 개발에 나선다.이번 협약식은 문동권 신한카드 사장, 이승건 토스 대표 및 관계자들이 참석한 가운데 서울 을지로 신한카드 본사에서 8일 오후 진행됐다.이를 통해 양사는 신한카드가 보유한 소비행동패턴정보, 디지털 로그 데이터 등 빅데이터 역량과 토스가 보유한 데이터, 플랫폼 경쟁력을 활용해 사회초년생 및 소상공인 등 금융소외계층을 비롯한 개인 및 개인사업자가 다양한 금융서비스를 이용할 수 있도록 정밀한 대안평가지표와 특화된 금융상품 및 서비스를 개발키로 했다.향후 개발한 대안평가지표를 개인 또는 개인사업자들이 이용할 수 있는 대출 상품에 활용하고, 개인사업자용 신용관리 서비스를 공동 개발, 토스에 적용해 소상공인들이 편리하게 이용할 수 있도록 할 예정이다.더불어 양사는 민간 기업을 대상으로 한 데이터 사업도 추진한다. 통계화된 소비정보를 기반으로 시장, 경쟁환경, 고객 및 고객여정 등에 대한 인사이트를 도출, 이용 기업에게 구독형식으로 제공하는 비즈니스 모델 론칭에 협업하기로 했다.신한카드는 '21년 9월 금융사 최초로 개인사업자 신용정보업 허가를 획득해 개인사업자CB 사업 ‘마이크레딧’을 진행하고 있다. 개인사업자 신용평가, 매출 추정, 휴폐업 지수 등을 개발해 관련 데이터를 금융, 공공기관에 제공하고 있다.또, 신용카드 거래 데이터, 신한플레이 플랫폼 데이터를 바탕으로 분석한 ‘소비행동패턴정보서비스(BPS)’를 개인사업자CB와 함께 사업화하고 있다. 상품별 카드 거래 패턴, 디지털 로그, 라이프스타일 등을 종합적으로 분석해 차별적인 정보 서비스로 주목받고 있다.한편, 모바일 금융 플랫폼 토스의 운영사 비바리퍼블리카는 2015년 출시한 간편 송금을 시작으로, 대출비교, 결제서비스 등의 금융서비스를 제공하며, 2600만명의 고객이 사용하는 플랫폼으로 자리잡았다.이승건 토스 대표는 이번 협약에 대해 “금융 소비자들이 금융 이력 뿐 아니라 다양한 비금융 활동까지 반영한 최적의 신용평가를 받을 수 있도록 다각도로 노력할 것”이라며 “신한카드와의 MOU는 토스 신용데이터 사업 여정의 시작"이라고 말했다.신한카드 관계자는 “3100만 고객을 바탕으로 당사가 보유한 빅데이터와 CB사업 역량은 2600만 고객의 토스 데이터와 함께 다양성과 정교한 분석을 바탕으로 금융 소외 계층을 비롯한 자영업자, 소상공인에 대한 더욱 촘촘한 금융서비스를 가능케할 것으로 기대한다”며 “소상공인의 창업 지원부터 마케팅, 매출 증대를 위한 데이터 기반 지원 서비스 등 신한금융그룹의 상생 철학인 ‘보이지 않는 금융’의 역할을 통해 더 많은 고객이 금융시장에서 혜택을 누릴 수 있도록 지속 노력해 나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2023.08.07.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>토스뱅크, KB증권 최대 연 4.55% 발행어음 소개 개시</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000940474?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>사진=토스뱅크 토스뱅크는 '목돈 굴리기' 서비스에서 연 최대 4.55% 수익률을 제공하는 KB증권 발행어음을 소개한다고 7일 밝혔다. KB증권 발행어음은 토스뱅크를 통해서만 소개되는 특판 상품으로 최소 100만원부터 가입이 가능하고 가입대상은 토스뱅크에서 KB증권 증권계좌를 개설한 고객이다. 이번 KB증권 특판 발행어음은 고객의 투자 성향에 따라 수시식 발행어음과 스텝업식 발행어음을 선택할 수 있다. 수시식 발행어음은 자유만기식 상품으로 지난 1일부터 360일 이내에서 만기를 자유롭게 가져갈 수 있고 연 3.7%의 수익률을 제공한다. 스텝업식 발행어음은 처음 6개월까지는 연 4.4%의 수익률을 제공하고 이후 6개월 추가 유치시 연 4.55%의 수익률을 제공한다.  특히 KB증권의 스텝업식의 발행어음은 고객이 편의에 따라 재투자 여부를 선택할 수 있는 상품으로 처음 가입한 6개월 후에 상환할 수도 있고 최초 6개월 이후 투자기간을 더 연장하면 더 높은 수익률을 받을 수 있는 KB증권만의 특화된 상품이다. 이번 토스뱅크의 KB증권 발행어음 소개 개시를 기념해 8월 말까지 다양한 혜택을 제공하는 이벤트도 진행한다.  토스뱅크를 통해 KB증권 증권계좌를 최초 신규로 개설한 고객에게는 해외주식쿠폰 1만원을 지급하고 지급받은 해외주식쿠폰을 이벤트 기간 안에 사용하면 국내 주식 5000원과 해외주식 5000원 쿠폰을 추가로 지급한다. 국내 주식 수수료도 5년동안 우대 혜택을 제공한다. 발행어음 가입을 위한 KB증권 계좌 개설은 토스뱅크 내에서 '목돈 굴리기' 메뉴를 선택하고 계좌개설에 필요한 본인실명확인 절차 등을 거치면 개설이 가능하다. 토스뱅크의 '목돈 굴리기'는 다양한 금융투자상품들 가운데 최고 수준의 경쟁력을 가진 상품들을 토스뱅크가 선별해 소개하는 서비스로 지난 해 8월 서비스를 출시한 이후 4일만에 준비한 발행어음 특판 한도를 모두 소진하는 등 큰 인기를 끌었다. 8월 현재 '목돈 굴리기'를 통해 소개한 금융투자상품은 2조5000억원에 달한다.  토스뱅크 관계자는 "시중금리 보다 높은 수익률을 추구하는 고객들의 니즈를 해소할 수 있는 KB증권의 발행어음 상품을 토스뱅크에서 편리하게 만나볼 수 있다"며 "국내 대형증권사들의 경쟁력있는 금융투자상품을 더욱 다양하게 소개할 수 있도록 할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2023.08.02.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>위축된 벤처 투자… 정부, 민간 자금 규제부터 녹인다</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003779376?sid=105</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>중기부 ‘벤처 투자 위축’ 해법 찾기 골몰							창업 8년 차 국내 커머스(전자상거래) 스타트업 A업체는 수십억원대 투자 유치가 6개월째 불발되고 있다. 중소벤처기업부로부터 유망 스타트업 지정까지 받았지만, 얼어붙은 투자 시장 탓에 벤처투자자들이 선뜻 금고를 열지 않고 있다. A업체 대표는 “정책자금 대출도 알아봤지만 ‘자금 사정이 더 급한 스타트업이 많다’는 이유로 심사도 받지 못하고 있다”고 말했다. 창업 3년 차 인공지능(AI) 스타트업 B업체 대표도 “기업가치를 절반으로 낮춰 겨우 투자를 받았다”며 “최근 주변에서 아예 투자 유치를 포기하고 폐업을 선택한 대표가 둘이나 나왔다”고 말했다.올해 1분기 국내 벤처·스타트업에 투자된 투자금은 약 9035억원으로 전년 동기(2조2214억) 대비 약 60%가량 줄었다. 2018년도 분기당 투자금과 비슷한 수치(평균 8600억원)로, 2021년 한 해 7조원 이상의 투자금이 벤처·스타트업에 몰렸던 것과 비교하면 투자 빙하기라고 해도 과언이 아니다. 벤처캐피털 펀드 조성 금액도 1분기 5190억원에 그쳐 지난해 같은 기간 대비 73%나 줄었다. 한 벤처캐피털 심사역은 “스타트업은 대부분 적자를 감수하면서 빠른 성장을 목표로 하는 경우가 많은데, 경기가 얼어붙다 보니 당장 수익을 내지 못하는 스타트업에는 투자를 꺼리게 된다”며 “펀드에 출자할 LP(기관투자자)를 모으기도 쉽지 않다”고 했다.그래픽=양진경 그래픽=양진경 벤처·스타트업 투자하면 세제 인센티브 준다							중소벤처기업부와 금융 당국은 얼어붙은 벤처 투자시장을 녹이기 위해 다양한 대책을 내놓고 있다. 지난 4월 중기부와 금융위원회는 벤처·스타트업 투자 시장으로의 민간 자금 유입을 막는 규제를 대폭 줄이고, 각종 인센티브를 제공하는 방안을 발표했다. 은행이 벤처 펀드에 낼 수 있는 자금의 한도는 현행 자기자본의 0.5%에서 1% 수준으로 확대하기로 했다. 5대 시중은행의 자기자본(약 150조원)을 기준으로 최대 7500억원의 자금이 벤처·스타트업 투자 시장으로 흘러들어 갈 수 있게 됐다.벤처 펀드 관련 세제 인센티브도 27일 발표됐다. 법인이 민간 벤처펀드에 출자할 경우 출자액의 최대 8%가 세액공제, 개인은 최대 10%가 소득공제된다. 국내 벤처 투자시장은 60% 이상이 모태펀드를 비롯해 정부가 낸 자금으로, 2021년 결성된 전체 벤처펀드 약 9조2000억원의 64%(5조9000억원)가 정책자금이었다. 민간에서만 연간 70조원 이상을 벤처 펀드에 투자하는 미국에 비하면 20분의 1 수준으로, 부족한 민간 자금을 끌어들이기 위해 정부가 시장에 당근을 제시한 것이다. “해외 자본도 한국 스타트업에 적극 투자할 수 있게 해야”							벤처·스타트업 업계와 투자 시장에선 더욱 적극적이고 과감한 벤처 투자 관련 규제 철폐와 혁신이 필요하다고 주장한다. 대표적인 제도가 ‘기업성장집합투자기구(BDC)’로, 민간 벤처펀드를 거래소에 상장해 개인도 주식 투자하듯 벤처펀드에 투자할 수 있도록 하는 방식이다. 성상엽 벤처기업협회 회장은 “BDC는 다양한 투자자들이 참여할 수 있어 대규모 민간 자금 유치가 가능하다”며 “국회에 계류된 관련 법이 속히 통과돼야 한다”고 말했다.한국 스타트업에 투자하는 해외 자본을 유치하는 것도 대안이 될 수 있다. 토스·컬리와 같은 유니콘 기업들은 한 번에 1000억원 이상 투자금을 모아야 하는데, 이를 지원할 만한 여력이 되는 자금줄은 해외 투자은행과 벤처펀드가 대부분이기 때문이다. 중기부 관계자는 “해외 벤처캐피털사와 함께 글로벌 투자자들을 모아 국내 특정 스타트업에 대규모 투자하는 프로젝트성 펀드를 추진 중”이라며 “해외 투자자를 유치하는 코리아 벤처창업 투자센터도 올해 유럽 센터를 개소하고 중동까지 확장할 계획”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2023.08.04.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>中 상륙한 넥슨 '블루 아카이브'…첫날 성적은?</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004222364?sid=105</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>3일 중국 정식 출시한·일 등에서 인기 여전김용하 PD 서브컬처 높은 이해도 강점탄탄한 스토리·매력적인 캐릭터 구현[서울경제] 넥슨게임즈(225570)의 서브컬처(일본 애니메이션풍) 수집형 역할수행게임(RPG) ‘블루 아카이브’가 3일 중국 시장에 정식 출시됐다. ‘블루 아카이브’는 출시 4시간 만에 중국 앱스토어 매출 37위 진입했다. '블루 아카이브'가 중국에서도 인기 몰이에 성공할 것이라는 기대감이 나온다.‘블루 아카이브’는 플레이어가 다양한 학원 소속의 학생들을 이끌며 도시에서 발생한 사건을 해결해 나가는 캐릭터 역할수행게임이다. 이 게임은 2021년 2월 일본 지역에, 2021년 11월 한국, 북미, 태국 등 237개국에 출시된 바 있다. 일본 구글 플레이스토어와 애플 앱스토어에서 최고매출 순위 1위를 기록하기도 했다. 또 한국 애플 앱스토어 최고매출 순위 1위도 달성했다. 지난해 ‘대한민국 게임대상’, ‘구글플레이 2022 올해를 빛낸 수상작 어워즈’에서 각각 ‘인기게임상’, ‘올해를 빛낸 인기 게임’을 받았다.김용하 넥슨게임즈 총괄 PD. 블루 아카이브 유튜브 캡처'블루 아카이브'가 중국에서도 흥행을 이어갈 것이라는 기대감이 나온다. 지난 6월 진행된 중국 시범 테스트 당시 주요 앱 마켓에서 인기 게임 순위 1위에 올랐고, 사전 예약자 수는 425만 명을 기록했다. '블루 아카이브'의 현지 서비스를 맡은 상하이 로밍스타는 '블루 아카이브' 출시를 앞두고 대규모 오프라인 2차 창작 페스티벌 '빌리빌리 월드'에 '블루 아카이브'를 선보이는 등 적극적인 홍보를 진행하고 있다. 김하정 다올투자증권 연구원은 “중국 앱스토어 매출 37위로 시작했다”며 “시작 순위는 에픽세븐과 같지만 1시간 30분 가량 빠르다”고 말했다. 임희석 미래에셋증권 연구원은 “웨이보 일 검색량도 700만 건으로 중국 매출 10위 이내의 게임들과 비슷한 수치를 기록하고 있다”며 “일본, 국내, 글로벌 지역에서 증명된 라이프사이클을 고려하면 급격한 하향 안정화 없이 견조한 매출을 장기적으로 이어 나갈 것으로 기대한다”고 전했다.‘블루 아카이브’는 여전히 서브컬처의 고향인 일본에서 인기를 유지하고 있다. 지난달 일본에서 2.5주년 업데이트가 적용된 직후 일본 애플 앱스토어 실시간 매출 순위 1위를 기록하기도 했다. ‘블루 아카이브’는 TV 애니메이션 제작도 확정지었다. 이 게임의 일본 서비스를 담당하고 있는 ‘요스타’의 자회사 ‘요스타 픽처스’가 제작한다. 감독은 ‘야마기시 다이고’가 맡으며 총작화 감독은 ‘하기와라 히로미츠’다.‘블루 아카이브’의 흥행 비결은 공감을 일으키는 탄탄한 스토리와 매력적인 캐릭터 덕분이라는 분석이 제기된다. 이 게임에서는 학원도시 ‘키보토스’에 부임한 선생님 역할의 플레이어가 학생들을 인솔해 미션을 수행하는 밝고 유쾌한 스토리가 특징으로 꼽힌다. 넥슨 게임즈는 “다채로운 개성을 갖춘 매력적인 캐릭터들가 스토리에 설득력을 더한다"며 "이를 통해 게임 이용자들의 흥미를 더욱 높인다”고 설명했다.김용하(왼쪽 세번째) 넥슨게임즈 총괄PD가 블루 아카이브 중국 이용자를 대상으로 한 특별 방송을 촬영하고 있다. 사진제공=넥슨게임즈서브컬처에 대한 높은 이해와 경험을 갖춘 '블루 아카이브' 개발진이 게임의 몰입도를 끌어올렸다는 평을 받는다. 아울러 김용하 총괄PD를 비롯한 블루 아카이브 관계자들의 적극적인 소통 노력으로도 빛을 발했다는 분석이 나온다. 김 총괄PD, 박병림 PD, 임종규 디렉터 등 개발 리더들은 ‘블루 아카이브 1.5주년 페스티벌’, ‘AGF 2022’, ‘서울 코믹월드’ 등 주요 행사장에서 이용자들과 교류하고 있다. 또 일본, 한국, 대만 등 각 서비스 권역별 주요 방송에 출연해 새로운 정보를 소개하고, 개발과 관련한 다양한 스토리를 생동감 있게 전달하고 있다.김 총괄 PD는 "‘선생님’(블루 아카이브 이용자의 애칭)에게 오랜 기간 사랑 받을 수 있도록 모든 구성원이 최선을 다할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2023.08.04.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>필요 보장만 쏙 쏙 골라…MZ세대는 보험 가입도 다르네</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004222657?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>■토스인슈어런스 올 상반기 판매데이터 살펴보니'보장범위 넓히고 비용은 싸게'특약 샅샅이 분석후 분산 가입평균 1.8개 보험 상품 가입하고건당 평균보험료는 4만 5800원[서울경제] 한 가지 손해보험 상품에만 가입하는 기성세대와 달리 MZ세대는 보장 범위를 넓히기 위해 보험료가 싼 여러 상품에 분산 가입하는 것으로 나타났다.4일 토스의 보험대리점(GA) 토스인슈어런스가 올해 상반기 판매된 보험 상품을 분석한 결과 보험 가입자들은 평균 1.8개의 보험 상품에 가입했고 1건당 납부하는 평균 보험료는 4만 5800원인 것으로 조사됐다. 토스인슈어런스 이용자들은 대부분 MZ세대로 불리는 20~30대여서 보험 업계에서는 토스인슈어런스를 ‘MZ세대의 보험 테스트베드’로 평가하고 있다.분석 결과에 따르면 올해 상반기 토스인슈어런스가 판매한 3만 8000여 개 상품 중 약 90%는 손해보험 상품인 것으로 나타났다. 생명보험보다는 손해보험 상품 판매가 많은 영향도 있다. 하지만 토스인슈어런스는 MZ세대가 먼 미래를 대비하는 종신보험보다 당장 질병과 상해를 보장해주는 손해보험 상품에 대한 관심이 높은 것도 이 같은 판매 양상에 영향을 끼친 것으로 풀이했다.사진 설명손해보험 상품 중에서도 종합 건강보험이 가장 많이 팔렸고 운전자 보험과 간편 건강보험이 그 뒤를 이었다. 종합 건강보험은 흔히 말하는 장기인(人)보험으로 암보험 등을 포함한다. 간편 건강보험은 유병자 보험이라고도 불리는데 보험 가입이 쉽지 않은 유병자 소비자들이 보험사로 알려야 하는 내용이 간소화된 상품을 말한다. 예전보다 젊은 층에서도 경증 질환, 만성질환 환자가 많아지면서 가입이 늘어난 모습이다.한 건당 평균 보험료는 종합 건강보험이 약 3만 7700원, 운전자 보험이 약 1만 3000원, 간편 건강보험이 약 7만 7400원을 기록했다. 종합 건강보험료가 상대적으로 낮은 것은 가입자가 특약에 따라 여러 개를 가입하기 때문이라는 것이 토스인슈어런스의 설명이다. 상품마다 특정 부분의 보험료 대비 보장 범위가 넓거나 보장액이 높은 경우가 많은데 최근 꼼꼼한 MZ 소비자들은 각 상품마다 강점이 있는 특약을 확인한 후에 건강 보험상품을 2~3개로 나누어 가입하는 경우가 많다는 것이다. 실제로 올해 상반기 토스인슈어런스를 통한 손해보험의 평균 상품 가입 건수는 1.8개로 나타나기도 했다.기성세대는 설계사가 제안한 상품 그대로 가입하는 경우가 많지만 MZ세대는 보험료뿐 아니라 특약을 자세히 확인해 상품을 선택하는 편이었다. 가장 많이 찾는 특약은 악성 세포만 공격해 부작용이 적은 ‘표적항암치료비’, 넓은 범위를 보장 받을 수 있는 ‘심뇌혈관진단비’, 작은 질환부터 큰 질환까지 커버하는 ‘수술비 특약’ 순이었다. 의료 기술의 발전으로 새로운 치료법을 보장해 주는 특약을 포함시켜 가입을 한다는 설명이다.토스인슈어런스 관계자는 “토스인슈어런스 고객은 평상시에도 금융 상품을 비교하는 데 익숙한 MZ세대가 많은 편”이라며 “보험 상품도 꼼꼼하게 비교하는 경우가 많아 고객의 연령과 건강 등에 맞는 적정 보험료를 고려한 상품을 소개해 주고 고객 스스로 상품을 선택할 수 있도록 해야 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>LG유플러스, 알뜰폰 고객 매달 영화 무료…CGV요금제 출시</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002177312?sid=105</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>매달 영화 관람권 2매 무료…팝콘 할인도‘11GB요금제’와 ‘일 5GB요금제’로 출시토스모바일, KCT, KG모바일 통해 가입LG유플러스 모델이 LG유플러스와 CJ CGV가 알뜰폰 이용 고객을 대상으로 출시한 CGV요금제를 소개하고 있다. [LG유플러스 제공][헤럴드경제=이영기 기자] LG유플러스가 알뜰폰(MVNO) 이용 고객을 위해 문화생활 맞춤 요금제를 내놨다. 매월 무료 영화 관람과 팝콘 세트 할인권이 제공된다.LG유플러스는 CJ CGV와 영화 관람권과 콤보 할인권을 제공하는 ‘CGV요금제’를 출시했다고 1일 밝혔다.CGV요금제는 LG유플러스 망을 사용하는 중소 알뜰폰 사업자 ▷토스모바일 ▷KCT △KG모바일 등 세 업체를 통해 가입할 수 있다. 해당 요금제 신규 가입 고객은 12개월간 매월 CGV 일반관 영화 관람권 2매와 팝콘(L) 1개+탄산음료(M) 2잔으로 구성된 ‘CGV콤보’ 2000원 할인권을 받는다.요금제는 ‘11GB요금제’와 ‘일 5GB요금제’ 등 두 종류로 구성됐다. 월 이용요금은 중소 알뜰폰 상생 파트너십 브랜드인 ‘+알파’에서 확인할 수 있다.이번에 출시된 CGV요금제는 알뜰폰 요금제 이용자에게 부족했던 멤버십 서비스를 제공하고, 중소 사업자와 상생을 넓히기 위해 기획됐다는 게 LG유플러스 관계자의 설명이다.이외에도 LG유플러스와 CGV는 요금제 출시를 기념해 폭넓은 혜택도 준비했다. 알뜰폰 이용 고객이 영화 할인 혜택을 받을 수 있도록 CGV 일반관 영화 2000원 할인권을 제공한다. 이 혜택은 U+망 알뜰폰 이용 고객이라면 사용 중인 요금제와 관계없이 누구나 받을 수 있다.앞서 LG유플러스는 알뜰폰 이용 고객이 받을 수 있는 혜택을 다양화하고자 카카오 요금제, SPC요금제 등 할인 혜택을 제공하는 요금제도 선보인 바 있다.유호성 LG유플러스 MVNO사업담당은 “U+망 알뜰폰 사용 고객이 알뜰폰 멤버십 혜택처럼 사용할 수 있도록 CGV요금제를 구상했다”며 “앞으로도 더 많은 고객이 알뜰폰을 경험할 수 있도록 파격적인 혜택을 제공하고, 중소 알뜰폰 사업자와 상생을 위해 다양한 제휴를 추진하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2023.08.15.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>[미리보는 이데일리 신문]尹 “일본, 이젠 경제·안보 파트너”</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005551826?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>[이데일리 김경은 기자] 다음은 16일자 미리보는 이데일리 신문 주요 뉴스다.△1면-尹 “일본, 이젠 경제·안보 파트너”-尹대통령 부친 윤기중 교수 별세-엔저 업은 日, 25년 만에 韓 성장률 추월 예고-美 IRA 우회로로…中, K배터리 투자 6조원 육박△尹 대통령 부친 윤기중 교수 별세-尹대통령 “아버지는 제1멘토”…인생철학·자우주의 경제관 큰 영향-정쟁 멈추고 조문…여야, 한목소리로 애도△尹대통령 광복절 경축사-“자유민주주의 필승” 외친 尹 “패륜공작 일삼는 공산세력에 맞서야”-‘자유’ 최다 언급…‘공산전체주의’ 거듭 강조-정치권 ‘광복절’ 동상이몽…與 “북핵 대응” 野 “한반도 평화△美 IRA 파고 넘은 K배터리-美진출 징검다리 찾은 中, 원재료 공급망 확보한 韓…배터리 윈윈게임-美에 45조 투자 나선 韓 배터리 3사 3년 뒤 IRA세액공제 ‘수십조’ 받는다△내 펀드, AI에 맡겨도 될까-인간 맹추격하는 AI펀드매니저…코스피 상승률 3배 벌기도-상반기 AI, 주식 비중 늘리고 일본 지수 담았다-상승장 이후 대비 나선 AI…하반기 담은 종목은 ‘채권ETF’△종합-수출 앞세워 부활 날개단 日 vs 경기둔화 더 뚜렷해진 中-세수 펑크에도 물가 자극 우려…‘유류세 인하’ 연장 가닥-“기업인, 대거 경영 현장 복귀 경제 살리기 효과 나타날 것”-대출규제 상관없는 ‘현금부자’ 몰렸다…강남아파트 ‘신고가’ 행진△정치-잼버리·이동관…8월 국회 문열자마자 격돌-‘광복절 특사’ 김태우 재출마 시사 與, 서울 강서구청장 공천 고심-‘잼버리 파행’ 전북도 책임론 놓고…국민의힘 파열음-어머니 기일 맞아 부친 생가 찾은 朴 전 대통령-기강 해이해진 선관위, 지난해 범죄·비위 징계 두배 늘어△경제-8월 원화 가치 4.4% 뚝…하락폭 16개국 중 4위-오염수 브리핑, 누구를 위해 계속되나-미국채 2년물, 5%대 코앞…FOMC 의사록에 쏠린 눈-‘농지 투기’ 차단…3년 이상 소유해야 주말·체험농장 임대△글로벌-취업난 심각한 中, 청년실업률 발표 돌연 중단-루블화 폭락에…러 금리 3.5%p ↑-사우디도 ‘AI칩 사재기’…날개 단 엔디비아, 반도체시장 살릴까-美 기대 인플레, 2년만에 최저치-경제난 아르헨, 기준금리 21%p 올려 118% ‘초강수’-하와이 산불 사망자 100명 육박…“두 배로 늘 수도”△산업-식물서 기름 콸콸…‘화이트 바이오’ 꽂힌 기업들-고사양 폰·카 OLED 초격차 K디스플레이, 中 추격 따돌린다-아시아나, 합병지연에 적자 눈덩이…플랜B 가동하나-현대차그룹 ‘레드 닷 어워드’ 본상 7개 휩쓸어…디자인 경쟁력 입장-세탁기 이지핸들, 냉장고 회전선반 LG전자 ‘업 키트’ 가전 접근성 ‘업’△ICT-주인 있고 없고 큰 차이…남궁훈, 구현모 3배-메타·애플 관리사 사칭 해킹 주의보-“쓱페이, 토스페이로 통합 추진…오프라인 결제 승부”-IT서비스 ‘빅2’ 실적 희비…클라우드 매출은 모두 증가△산업-매월 할인행사, 쿠폰 최대 8만원…컬리, 고객 확대에 안간힘-스타벅스 887ml 대용량 아이스커피로도 즐기세요-엔데믹 잔치 끝…패션업계 ‘실적 보릿고개’ 오나-상조업계 선수금 8조 돌파…라이프 케어 서비스 확대 구슬땀△퓨처 테크-오감 자극 생생한 기술…현실보다 현실같은 신세계가 열린다-“스마트폰 다음은 XR…교육·쇼핑·의료 등 활용범위 무궁무진”-VR은 메타, AR은 엑스리얼 XR 시장에서도 미중 전쟁△증권-배터리 편식 끝났다…중소형주까지 골고루 맛볼까-47.5조 적자에 짓눌린 한전주-미 국채금리 고공행진에 서학개미 장기채 물타기-이번엔 다를까…中 리오프닝 주시하는 투심-메리츠證 2분기 영업이익 2.3%↑…부동산PF 우려 털어△부동산-서울 아파트 취득세 부담에…“증여 대신 매매”-경매시장 투자자, 강남으로 몰린다-안산에 있는데 서서울?…톨게이트 이름찾기 속도-원희룡 장관 “LH전관업체 용역계약 전면 중단하라”△건강-자다가 숨 멎는 증상 방치땐 뇌질환 위험도…수면다원검사로 원인 찾아야-만사 귀찮다는 부모님, 노년기 우울증 의심을-성장통인 줄 알았던 우리 아이 무릎 통증…알고보니 ‘오스굿씨’병△Book-서점가 ‘세이노의 가르침’ 열풍-가짜뉴스로 인한 관동대지진 조선인 학살-의술과 상술사이…한국병원의 민낯△이데일리가 만났습니다-치킨집에 쏠린 제조업 퇴직 인력, ‘고부가 서비스업’ 진출 유도해야-“역전세 대출 완화, 시장서 ‘투기 용납’으로 잘못 읽어…보완책 필요”△오피니언-미중 디리스킹 시대 한국이 갈 길-우물안 플랫폼 정책은 그만-살인예고 10대 불장난에 까맣게 탄 대한민국△피플-형기 길든 짧든…합창 통해 삶에 희망 가졌으면-순살 아파트 사태 LH 전관예우가 키웠다-“北 인권은 안보문제…안보리서 의제화할 것”-KAIST “AI로 파킨슨병 맞춤형 치료 가능해져”△사회-33도 폭염 속…광복절 서울 도심 곳곳 메운 태극기 부대-학생인권조례에 ‘폭력 금지’ 담기로…‘제재 조항’은 빠져-국민 2명 중 1명 이상 “정직하면 바보되는 사회”-5조 ‘서울비전펀드’ 시동…유니콘 기업 키운다-대학생 2학기 국가장학금 9월 14일까지 신청하세요-잼버리 외국 대원 3명, 코엑스몰서 옷 훔쳐</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2023.08.14.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>매각 시동 꺼진 ‘타다’…다음 목적지는?</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005299696?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>진모빌리티에 이어 더스윙과도 매각 협상 불발자체 운영으로 방향 선회…“매각 계획 철회하진 않아”더스윙과 매각 협상을 진행하던 '타다'가 결국 마지막 도장을 찍지 못했다. 앞서 아이엠택시 운영사인 진모빌리티와의 합병이 물거품이 된 데 이어 이번 매각도 불발로 끝났다. 타다 운영사인 브이씨앤씨(VCNC)의 최대주주 비바리퍼블리카(토스)는 타다를 자체적으로 운영하면서 다른 매각처를 찾을 계획이다.업계에 따르면 퍼스널·마이크로 모빌리티 공유 서비스 업체 더스윙과 토스를 운영하는 비바리퍼블리카는 타다 운영사 VCNC 경영권 지분 60%의 매매 계약을 체결하지 않기로 했다. 더스윙의 지분 인수가격은 약 240억원으로 알려졌다. 이를 바탕으로 계산하면 VCNC 지분 100%의 가치는 약 600억원으로 추산된다.이번 매각이 결렬된 이유 중 하나는 VCNC의 나머지 지분 40%에 대한 인수 협상이 지지부진했기 때문으로 알려졌다. 타다의 2대 주주인 쏘카는 VCNC에 대여한 70억원의 차입금과 이자에 해당하는 더스윙 지분과 이사회 참석권 등을 요구한 것으로 전해졌다. 하지만 더스윙이 이를 받아들이지 않으면서 갈등이 커졌다. 결국 두 회사는 의견 조율에 실패했다. 이에 따라 매각 협상도 결국 결렬됐다.하지만 더스윙은 협상결렬이 토스의 변심 때문이라고 말한다. 더스윙 관계자는 "쏘카와 해당 부분도 합의를 했다"며 "계약 결렬은 토스의 일방적인 거절 때문"이라고 말했다.다른 이유는 매각 가격 때문이다. 토스가 2021년 타다를 쏘카로부터 인수했을 당시 지분 60%를 600억원에 인수한 것으로 알려졌다. 당시 대비 현재 가격이 절반 넘게 줄어든 상태다. 여기에 토스가 앞으로 기업공개(IPO) 계획을 가지고 있는 만큼 기업가치 측면을 고민했을 가치를 더 높여 파는 게 유리하다. 업계는 토스가 2년 안에 IPO에 나설 것으로 전망하고 있다. 업계 관계자는 "급하게 손해를 보고 팔기보다는 기업가치를 좀 더 높여서 가지고 가거나 팔려는 계획을 갖고 있을 가능성이 크다"고 분석했다.여기에 최근 타다의 경영상황이 다소 개선된 것도 매각 불발의 요인이 된 것으로 보인다. VCNC는 2021년 영업수익 38억원, 영업손실 177억원을 기록한 후 지난해는 영업수익 41억원, 영업손실 262억원을 기록하는 등 실적이 악화됐다. 특히 지난해 결손금이 592억3844만원에 이르는 등 재무상황이 악화된 상태다. 다만 올해 고강도 구조조정을 실시했다. 타다는 최근 인력의 50%를 줄이는 대규모 구조조정을 진행했다. 회사 입장에서는 고정비를 이전 대비 절반으로 줄인 것이다.최근 타다 사업 자체도 개선되고 있다. 택시 수요와 공급에 따라 요금을 조정하는 탄력요금제를 개선한 결과 이용객이 증가했다. 또 이달부터 탄력요금제 할증률을 인하하는 등 공격적으로 고객 모집에 나서고 있다. 다만 토스 측은 여전히 좋은 인수처가 있으면 매각에 나설 계획이다. 비바리퍼블리카 관계자는 "최근 타다는 구조조정으로 비용을 크게 줄였고 고객 증가로 실적도 개선되고 있다"며 "내부적으로 좀 더 긴 호흡으로 볼 수 있는 상황"이라고 말했다. 다만 "언제든지 원하는 매수자가 나타나면 매각할 계획에는 변함이 없다"라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2023.08.07.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>토스뱅크, '연 최대 4.55%' KB증권 발행어음 소개</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012017468?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]이주혜 기자 = 토스뱅크는 '목돈 굴리기' 서비스에서 연 최대 4.55% 수익률을 제공하는 KB증권 발행어음을 소개한다고 7일 밝혔다. KB증권 발행어음은 토스뱅크를 통해서만 소개되는 특판 상품으로 최소 100만원부터 가입이 가능하다. 가입대상은 토스뱅크에서 KB증권 증권계좌를 개설한 고객이다. 이번 KB증권 특판 발행어음은 고객의 투자 성향에 따라 수시식 발행어음과 스텝업식 발행어음을 선택할 수 있다. 수시식 발행어음은 자유만기식 상품으로 1일부터 360일 이내에서 만기를 자유롭게 가져갈 수 있고 연 3.7%의 수익률을 제공한다. 스텝업식 발행어음은 처음 6개월까지는 연 4.4%의 수익률을 제공하고 이후 6개월 추가 유치시 연 4.55%의 수익률을 제공한다. KB증권의 스텝업식의 발행어음은 고객이 편의에 따라 재투자 여부를 선택할 수 있는 상품으로 처음 가입한 6개월 후에 상환할 수도 있고 최초 6개월 이후 투자기간을 더 연장하면 더 높은 수익률을 받을 수 있다. 토스뱅크는 KB증권 발행어음 소개 개시를 기념해 이달 말까지 다양한 혜택을 제공하는 이벤트도 진행한다. 토스뱅크에서 KB증권 증권계좌를 최초 신규로 개설한 고객에게는 해외주식쿠폰 1만원을 지급하고 지급받은 해외주식쿠폰을 이벤트 기간 내에 사용하면 국내 주식 5000원과 해외주식 5000원 쿠폰을 추가로 지급한다. 국내 주식 수수료도 5년 동안 우대 혜택을 제공한다. 발행어음 가입을 위한 KB증권 계좌 개설은 토스뱅크 내에서 '목돈 굴리기' 메뉴를 선택하고 계좌개설에 필요한 본인실명확인 절차 등을 거치면 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>토스뱅크, 고객 700만명 돌파…실사용 고객 비중 76%</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/117/0003756532?sid=103</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>[마이데일리 = 구현주 기자] 토스뱅크는 7월 말 기준 누적 가입 고객이 총 700만명에 달한다고 1일 밝혔다. 또한 토스뱅크 실사용 고객 비중은 약 10명 중 8명(76%)에 달했다. 토스뱅크통장 고객은 1인당 평균 274만원을 맡기고 사용했다.지금 이자 받기, 먼저 이자 받는 정기예금 등 혁신 서비스가 두터운 고객층 형성에 기여했다. 지금 이자 받기는 373만명 고객이 총 2억4000만회 이용할 만큼 ‘국민 금융 서비스’로 거듭나며, 다른 은행으로 확산됐다. 예치 즉시 이자를 먼저 지급하는 먼저 이자 받는 정기예금은 잔액이 4개월 만에 3조5000억원을 넘어섰다.아울러 토스뱅크는 출범 만 2년을 앞두고 ‘이전으로 돌아갈 수 없는 새로운 은행 경험을 제공한다’를 새로운 기업 미션으로 선언했다.새로운 은행 경험은 스마트폰, 자동차 내비게이션 등 그것이 없던 시절을 상상하기 힘들 만큼 우리 삶에 깊숙이 스며들어 긍정적인 변화를 이끄는 혁신 상품·서비스와 같은 개념이다. 시장 점유율을 높이는 대신 ‘새롭게 시장을 창출’하고 고객 인지를 높이는 데서 나아가 ‘고객의 삶을 바꾸’고 우수한 상품 대신 ‘한 번 쓰면 포기할 수 없는 상품과 서비스’를 지속적으로 만들어 나갈 방침이다. 토스뱅크 관계자는 “‘이전으로 돌아갈 수 없는 새로운 은행 경험’을 새로운 미션으로 고객 삶에 녹아드는 은행이 될 것”이라고 말했다. [사진 = 토스뱅크](구현주 기자 winter@mydaily.co.kr)</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2023.08.13.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>5대 시중은행 주담대 열흘간 1조2000억↑… 50년 만기 주담대 연령제한 가닥</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000924099?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>4곳 시중은행, 50년 만기 주담대 출시 한 달 만에 1조원 넘겨가계부채현황 점검회의 개최… 만 34세 이하 연령제한 유력인터넷전문은행 주담대 규제 강화 예상주택담보대출 현수막. /뉴스1        이달 들어 열흘 만에 주택담보대출이 1조원 이상 또 불어나는 등 가계대출 증가세가 꺾이지 않고 있다. 이에 은행권은 정부의 권고를 받아들여 최근 출시되고 있는 50년 만기 초장기 주담대에 연령 제한을 두는 등 방안으로 가계대출을 관리할 예정이다. 아울러 금융당국은 인터넷전문은행이 ‘중·신용자 대상 중금리 대출’이라는 인가 취지에 맞지 않게 공격적으로 비대면 주담대 영업에 나서는 데 문제가 없는지도 들여다본다는 방침이다.13일 금융권에 따르면 5대 은행(KB국민·신한·하나·우리·NH농협)의 가계대출 잔액은 10일 현재 679조8893억원으로 집계됐다. 7월 말(679조2208억원)과 비교해 이달 들어 열흘 만에 6685억원 늘었다. 특히 최근 가계대출 증가세를 주도하는 주담대는 같은 기간 1조2299억원(512조8875억원→514조1174억원)이나 증가했다. 이런 추세로 볼 때 전체 은행권과 금융권의 가계대출 증가세가 4월 이후 5개월 연속 이어질 가능성이 커졌다. 지난달 은행권과 금융권 가계대출은 각 6조원, 5조4000억원 불었다.가계대출 증가세가 계속되자 당국과 금융권이 관리에 나섰다. 11일 은행연합회는 소속 은행들에 일제히 공통 양식을 보내 50년 만기 주담대 판매 실적과 조건 등을 채워 회신해달라고 요청했다. 앞서 10일 기획재정부·국토교통부·한국은행·금융감독원·주택금융공사·은행연합회 등이 참석한 가운데 열린 ‘가계부채현황 점검회의’에서 50년 만기 주담대가 가계대출 증가의 한 요인으로 거론된 데 따른 조치다.50년 만기 주담대는 원리금을 50년에 걸쳐 상환할 수 있는 대출 상품으로, 지난 1월 수협은행이 선보인 뒤 5대 은행도 지난달 이후 줄줄이 내놓고 있다. 은행권에 따르면 지난 10일 기준으로 KB국민·신한·하나·NH농협은행의 50년 만기 주담대 취급액은 1조2379억원에 이른다. 출시 이후 한 달여 만에 대출 잔액이 1조원을 넘었다.만기가 길어질수록 대출자가 갚아야 할 전체 원리금은 늘어나지만, 총부채원리금상환비율(DSR)이 1년 단위로 소득 대비 원리금 감당 능력을 보기 때문에 당장 현재 차주(돈 빌린 사람) 입장에서는 전체 대출 한도를 늘릴 수 있는 이점이 있다. 당국이 50년 만기 주담대를 DSR 우회 수단으로 지목하는 이유다.서울시내에 설치된 주요 시중은행 현금인출기 모습. /뉴스1        이처럼 초장기 만기 상품이 주담대 수요를 자극하는 부작용을 막기 위해 연령 제한이 도입될 전망이다. 가계부채현황 점검회의 참석자는 “50년 만기 상품에 나이 제한을 두는 쪽으로 참석자들의 의견이 거의 모아졌다”고 전했다. 대출 상한 연령은 만 34세 이하가 유력하게 거론되고 있다.5대 은행 중에서는 신한은행이 유일하게 현재 만기가 40년이 넘는 주담대에 만 34세 이하 연령 제한을 두고 있다. 만 35세 이상 대출자는 초장기 대출을 받을 수 없는 것이다. 신한은행은 주택금융공사 정책모기지 상품의 기준을 차용했다. 가령 주택금융공사는 현재 40년 만기 특례보금자리론에 ‘만 39세 이하 또는 신혼가구’, 50년 만기에 ‘만 34세 이하 또는 신혼가구’라는 조건을 걸고 있다. 나머지 주요 은행은 초장기 주담대에 제한이 거의 없는 상태다.인터넷전문은행의 주담대 규제도 강화될 것으로 보인다. 카카오뱅크의 경우 2분기 말(6월 말) 현재 주담대 잔액이 17조3220억원으로, 1분기 말(13조8690억원)과 비교해 3개월 만에 3조4530억원(24.9%) 급증했다. 2분기 석 달 동안 새로 취급한 주담대로만 3조5290억원에 이른다. 케이뱅크의 주담대도 1분기 말 2조8300억원에서 2분기 말 3조7000억원으로 30.1% 증가했다.정부와 금융권에서는 이처럼 주담대를 빠르게 늘리는 인터넷전문은행들의 영업 행태가 인가 취지에 맞지 않는다는 지적이 나온다. 실제 올해 1분기 기준 중·저신용자 대출 비중(잔액 기준)은 ▲카카오뱅크 25.7% ▲케이뱅크 23.9% ▲토스뱅크 42.06%로 연말 목표치(30%·32%·44%)에 모두 미달한 상태다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2023.08.13.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>BNPL 서비스 연체율 6% 육박…관리 필요해</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/468/0000970686?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>사진|각 사[스포츠서울 | 홍성효기자] 혁신금융을 표방하며 시작된 후불결제 서비스(BNPL·Buy Now Pay Later) 의 연체율이 증가하고 있는 것으로 나타났다.13일 국회 정무위원회 소속 최승재 의원이 금융감독원을 통해 제출받은 자료에 따르면, BNPL 서비스를 제공하는 네이버파이낸셜 , 카카오페이 , 비바리퍼블리카(토스) 3사의 6월말 기준 BNPL 연체율은 각각 2.45%, 0.54%, 7.76%로 평균 5.8%에 달하는 것으로 집계됐다. 3월말 기준 각각 연체율이 2.7%, 0.51%, 5%로 평균 4.4%였던 것과 비교하면 3개월 만에 0.25% 증가 , 0.03% 감소 , 2.26% 증가했으며, 평균은 1.2%가 증가한 것이다 .BNPL 서비스는 물품을 구매하는 거래가 이루어질 경우, 업체가 가맹점에 먼저 대금을 지급하고, 소비자는 물품을 받은 뒤 여러 차례에 걸쳐 업체에 상환을 할 수 있도록 만든 서비스다. 미리 구매하고 할부로 대금을 상환한다는 점에서 신용카드와 유사하지만 BNPL은 신용이력이 적어 신용카드 발급이 어려운 학생, 주부, 사회초년생 등 씬파일러들도 이용할 수 있어 해외에서는 이미 주요 결제 수단의 하나로 자리 잡고 있다.국내에서는 금융당국의 혁신금융서비스 중 하나로 도입이 됐다. 네이버파이낸셜은 2021년, 카카오페이와 토스는 지난해부터 서비스를 시작했다. 서비스 개시 1년여 만에 누적 가입자가 총 300만명에 이를 정도로 사용자가 빠르게 늘어났다.문제는 짧은 기간 내 급등한 연체율이다. 특히 빅테크 3사 중 서비스 이용자와 규모가 가장 큰 토스가 전체 연체율 평균을 끌어올린 것으로 분석된다.네이버파이낸셜의 2분기 연체채권은 3억원으로 전분기 3억4000만원보다 11.8% 감소했으며, 연체율 또한 2.7%에서 2.5%로 0.2%p가 감소했다. 카카오페이의 경우 연체채권이 같은 기간 44% 증가했다. 하지만 금액이 90만~130만원 수준으로 소액에 불과했으며, 연체율도 0.5% 수준에 그쳤다.하지만 토스의 연체채권은 같은 기간 15억9000만원에서 17억1000만원으로 7.4% 증가했다. 연체율은 5%에서 7.76%로 큰 폭 증가했다. 연체율이 계속 증가세를 보이자 채권을 회수하며 규모를 줄였지만, 연체채권은 회수하지 못한 것으로 풀이된다.최승재 의원은 “혁신금융, 포용금융이라는 명목으로 빅테크 업체들에게 금융사업의 진출 기회를 주었지만, 혁신금융사업에만 집중하기보다 정보·데이터 수집을 통해 타 권역에서 수익을 보전하는 등 되려 시장을 교란한 측면이 있다”며 “빅테크 업체들의 각종 금융서비스를 재점검하고, 건전성 확보를 위한 논의를 반드시 시작해야 한다”고 말했다 .shhong0820@sportsseoul.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2023.08.03.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>연인 대신 송금·결제…토스뱅크 '커플통장' 서비스</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014110148?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>(서울=연합뉴스) 신호경 기자 = 토스뱅크가 3일 '커플통장' 서비스를 선보였다. 연인·부부가 함께 자산을 관리하고 소중한 순간도 기록할 수 있는 통장이다.    부부나 연인이 함께 커플통장의 메인 화면을 원하는 사진으로 꾸밀 수 있고, 입·출금이나 카드 결제 내역에 댓글을 남기는 방식으로 기념일 등을 저장하고 공유할 수도 있다.      아울러 배우자나 연인을 '공동모임장'으로 지정하면 출금·송금, 카드 발급·결제 권한도 나눠 가진다. 부부의 생활비 통장, 연인의 데이트 통장 등을 공동 관리하는 기능이다.    토스뱅크 관계자는 "토스뱅크 모임통장의 공동모임장 기능에 댓글 남기기 등까지 더해 커플통장을 출시했다"며 "계속 혜택과 기능을 업그레이드할 예정"이라고 밝혔다. 연인 대신 송금·결제…토스뱅크 '커플통장' 서비스[토스뱅크 제공.재판매 및 DB 금지]    shk999@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2023.08.08.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>“은행 갈 시간 없는데, 금리까지 착해”...동네 사장님들 몰려간 ‘이곳’</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005170079?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>카카오 케이뱅크 이달 대출금리 인하시중은행과 달리 담보 요구 안해개인사업자 대출성장률 월등히 높아 [사진 = 연합뉴스]인터넷은행 개인사업자 대출 증가세가 가파르다. ‘비대면 무담보’로 받울 수 있는 신용대출인데다 금리도 최저 연 4%대까지 낮아지면서, 시중은행 상품에서 갈아타는 고객들이 늘고 있다. 인터넷은행 설립 취지대로 대출 문턱을 낮추고 자영업자를 위한 ‘포용금융’을 강화한 것이지만, 일각에서는 향후 대출 건전성 관리가 어려워질 것이라는 우려도 나온다.8일 은행연합회에 따르면 카카오뱅크가 지난 6월 취급한 개인사업자 신용대출 평균 금리는 연 5.84%였다. 작년 11월 개인사업자 대출을 시작한 이 은행은 매달 금리를 인하했다. 카카오뱅크 관계자는 “지난 3월부터 6월까지 4개월간 개인사업자 신용대출 금리를 최대 0.4%P 내렸고, 이달 기준 최저금리는 연 4.33%로 금융권에서 가장 낮은 수준”이라고 말했다.케이뱅크는 지난 1월~5월까지 연 5% 후반대로 4대 은행과 엇비슷했다. 이달에는 개인사업자 대출 금리를 최대 0.4%P 낮춰 최저금리는 연 5.42%다. 토스뱅크 금리는 올 초 연 8%에서 지난 6월 7% 후반대에 진입했다.국민·신한·하나·우리 등 4대 은행은 연 5.24%~5.94% 수준이지만, 사실상 담보를 요구한다. 금융권 관계자는 “인터넷은행은 개인사업자의 ‘신용’만 보고 대출을 내준다”며 “시중은행이 같은 신용대출이라도 부동산 등을 담보로 취급한다는 점을 감안하면 인터넷은행의 금리 경쟁력이 높아진 것”이라고 말했다.인터넷은행 3사의 개인사업자 대출 잔액도 증가하고 있다. 올 2분기 기준 대출 잔액은 2조8890억원으로 직전 분기대비 23.5% 증가할 것으로 예상된다. 같은 기간 4대 은행의 개인사업자 대출성장률(0.32%)과 비교하면 월등히 높다.인터넷은행들은 비금융데이터 등을 바탕으로 만든 자체 신용평가 모델을 활용해 틈새 고객을 공략하기 때문이라고 주장한다. 실제로 지난달 말 기준 카카오뱅크에서 대출을 받은 개인사업자 가운데 35%는 사업 경력이 3년 미만인 ‘새내기 사장님’ 인 것으로 조사됐다. 도소매업과 음식업, 서비스업의 개인사업자 비중이 가장 높다. 시중은행들이 업력이 길고 신용과 담보가 확실한 제조업 위주로 개인사업자 대출을 내주는 것과 사뭇 다른 행보다.카카오뱅크 관계자는 “음식점 등 일부 업종별로 특화 모델을 개발해 더 많은 개인사업자에게 대출 서비스를 제공하고 있다”고 말했다.토스뱅크는 개인사업자 대출을 늘려 중저신용자 비중 목표치(44%)를 맞추고 있다. 토스뱅크는 올 하반기 경기신용보증재단과 개인사업자 보증부 대출 상품을 출시할 예정이다. 토스뱅크 관계자는 “중신용 소기업과 소상공인 특례보증대출 상품을 준비하고 있다”고 말했다.차별화된 서비스도 강점이다. 인터넷은행들은 사업 솔루션을 추가해 생업에 바쁜 개인사업자를 위한 ‘만능 플랫폼’을 지향한다. 카카오뱅크는 간편 세금조회에 이어 매출과 사업장 관리 서비스를 선보일 예정이다. 지난 5월 출시한 보증서대출도 은행권 최초로 모든 실행과정을 비대면화해 화제가 됐다. 케이뱅크도 제휴 서비스를 활용해 개인사업자의 매출관리와 상권분석, 세금환급액 조회 서비스를 제공한다.문제는 인터넷은행들의 대출 리스크 관리 능력이다. 업계는 당장 다음달부터 자영업자·소상공인 대상 대출만기 연장과 이자상환 유예조치가 종료되면서 부실 위험이 본격화할 가능성이 높다고 보고 있다. 시중은행 관계자는 “개인사업자 상당수가 사업을 위해 가계대출도 함께 받는 다중채무자”라며 “부실이 일시에 악화할 경우 차주의 담보가 약한 인터넷은행은 타격이 더 클 수 있다”고 말했다.실제로 인터넷은행의 연체율은 시중은행 대비 높은 수준이다. 올 1분기 토스뱅크 연체율은 1.32%, 케이뱅크 0.82%였고, 카카오뱅크의 2분기 연체율은 0.58%로 집계됐다. 작년말부터 대대적인 부실 위험 차주 관리에 나선 4대 시중은행의 올해 상반기 평균 연체율은 0.26%다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2023.08.13.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>“혁신금융이라더니”…‘네카토’ 후불결제 연체율 ‘빨간불’ 켜졌다</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000048742?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>6월 말 기준 토스 BNPL 연체율 7.76%최승재 의원 “건전성 관리방안 논의해야”(왼쪽부터) 네이버페이, 카카오페이, 토스 CI. [사진 각 사][이코노미스트 윤형준 기자] 혁신금융을 표방하며 시작된 빅테크의 후불결제 서비스(BNPL·Buy Now Pay Later) 연체율이 최근 급격하게 증가하고 있는 것으로 나타났다.국회 정무위원회 소속 최승재 국민의힘 의원이 13일 금융감독원을 통해 제출받은 자료에 따르면, BNPL 서비스를 제공하는 네이버파이낸셜, 카카오페이, 비바리퍼블리카(토스) 3사의 올해 6월 말 기준 BNPL 연체율 평균은 5.8%로 집계됐다. 이는 3월 말 평균 4.4%와 비교하면 1분기 만에 평균 1.2%p가 증가한 수치다.BNPL 서비스는 BNPL 업체가 가맹점에 먼저 대금을 지급하고, 소비자는 물품을 받은 뒤 여러 차례에 걸쳐 업체에 상환을 할 수 있도록 만든 서비스다. 미리 구매하고 할부로 대금을 상환한다는 점에서 신용카드와 유사하다. 하지만 BNPL은 신용카드 발급이 어려운 학생, 주부, 사회초년생 등 씬파일러(금융이력 부족자)들도 이용할 수 있다. 해외에서는 이미 주요 결제수단의 하나로 자리 잡았다.국내에서는 금융당국의 혁신금융서비스 중 하나로 도입이 됐다. 네이버파이낸셜은 2021년, 카카오페이와 토스는 지난해부터 서비스를 시작했다. 서비스 개시 1년여 만에 누적가입자가 총 300만명에 이를 정도로 사용자가 빠르게 늘어났다.BNPL 서비스 제공 빅테크 3사 누적 가입자 수. [제공 최승재 의원실]문제는 짧은 기간 내 급등한 연체율이다. 특히 빅테크 3사 중 서비스 이용자와 규모가 가장 큰 토스가 전체 연체율 평균을 끌어올린 것으로 분석된다.네이버파이낸셜의 2분기 연체채권은 3억원으로 전분기 3억4000만원보다 11.8% 감소했으며, 연체율 또한 2.7%에서 2.5%로 0.2%p가 감소했다. 카카오페이의 경우 연체채권이 같은 기간 44% 증가했다. 하지만 금액이 90만~130만원 수준으로 소액에 불과했으며, 연체율도 0.5% 수준에 그쳤다.그런데 토스의 연체채권은 같은 기간 15억9000만원에서 17억1000만원으로 7.4% 증가했다. 연체율은 5%에서 7.76%로 큰 폭 증가했다. 연체율이 계속 증가세를 보이자 채권을 회수하며 규모를 줄였지만, 연체채권은 회수하지 못한 것으로 풀이된다.BNPL 서비스 제공 빅테크 3사 연체채권 현황. [제공 최승재 의원실]최승재 의원은 “빅테크들이 혁신금융사업에만 집중하기보다 정보·데이터 수집을 통해 다른 권역에서 수익을 보전하는 등 되려 시장을 교란한 측면이 있다”며 “급증하는 연체율을 방치하다가 비상 사태가 발생하기 전에 빅테크의 각종 금융서비스를 재점검하고, 건전성 확보를 위한 논의를 시작해야 한다”고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2023.08.05.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>'티끌 모아 목돈' 카뱅 VS 토스뱅크, '짠테크 적금' 어디가 좋을까</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000940126?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>사진=이미지투데이 소액으로 목돈 마련을 할 수 있는 '짠테크 적금'이 인기를 얻고 있다. 그동안 적금은 가입한 뒤 한 달에 한 번 돈이 나가는 상품으로만 여겨졌지만 저축 부담을 줄이고 재미와 성취감을 느낄 수 있는 요소를 더하면서 쏠쏠한 재테크 수단으로 호응을 얻고 있다. 카카오뱅크는 '26주적금', 토스뱅크는 '굴비적금'을 전면에 내세워 고객 확보에 한창이다.5일 카카오뱅크에 따르면 2018년 6월 출시된 26주적금은 지난 7월말 5년여만에 누적 개설 계좌수 2000만좌를 돌파했다.26주적금은 최초 가입 금액에 따라 매주 납입 금액을 최초 가입금액만큼 늘려가는 방식의 적금 상품이다. 최초 가입금액은 1000원·2000원·3000원·5000원, 1만원 중 선택할 수 있다. 기본금리는 연 3.5%, 적금 납입에 성공하면 연 3.5% 우대금리가 더 붙는다.만약 1만원을 선택하면 첫 주 1만원, 2주차 2만원, 3주차 3만원 등 26주가 채워지는 총 6개월 간 자동으로 증액해 납입되는 구조다. 26주간 돈을 넣을 경우 만기 원금은 351만원이며 최대 연 7% 금리가 적용된 예상이자는 세후 3만7219원으로 계산된다. 꼬박꼬박 돈을 넣을 경우 최종 354만7219원을 받을 수 있다.카카오뱅크 관계자는 "소확행(소소하지만 확실한 행복), 성취감, 도전 의식을 중요하게 생각하는 고객에게 큰 호응을 얻고 있다"고 평가했다.토스뱅크는 자린고비 밥상에서 영감을 얻은 굴비적금이 대표적이다. 고객이 매번 적금 계좌로 입금할 때마다 천장 위의 줄에 매달려 있는 굴비가 바닥에 놓여 있는 밥상으로 이동하는 식이다. 5번 저축하면 굴비가 밥상에 도달하고 반찬을 추가할 수 있게 되며 굴비는 다시 천장 위로 이동한다.가입기간은 6개월 만기로 납입한도는 매달 최대 30만원까지다. 한도 내에서 횟수 제한 없이 자유롭게 납입할 수 있으며 1원도 가능하다. 금액, 시기와 상관없이 자유롭게 돈을 저축할 수 있는 게 강점으로 납입시 '여행경비', '외식비' 등 원하는 메모를 남길 수 있는 것도 눈길을 끈다.'굴비 적금' 금리는 최고 연 5%(세전)로 기본금리 연 2%에 연 3%포인트 우대금리가 최대 적용된다. 별다른 조건 없이 6개월 만기까지 유지할 경우 자동으로 우대금리가 적용된다.금융업계 관계자는 "소액을 저축할 수 있어 목돈 마련 부담을 낮춘 건 물론 재미 요소까지 더해 인터넷은행의 이른바 '짠테크 적금'이 젊은층을 중심으로 인기를 얻고 있다"며 "가입기간이 짧은 만큼 단기간 돈을 모을 때 많이 찾는 것으로 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2023.08.15.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>'올땐 맘대로지만 나갈 땐 아니란다'…기준 없는 알뜰폰 해지</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000018723?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>가입과 달리 복잡한 해지 절차…사업자마다 달라알뜰폰 가입은 간편했지만, 해지는 그렇지 않았다./그래픽=비즈워치알뜰폰의 간편한 가입과 달리 해지 절차는 불편했다. SK텔레콤과 같은 기존 통신사업자는 전화 통화나 홈페이지 접속 한 번으로 해결할 수 있지만 알뜰폰은 별도의 서류를 쓰고 제출하는 과정이 필요했다. 6개월간 쓴 알뜰폰을 해지해봤다.'토스모바일'의 경우 토스 앱을 통해 간단하게 가입할 수 있는 특징을 갖고 있다. 토스모바일은 서울을 비롯한 전국 주요 대도시에서의 빠른 유심 배송 서비스로 주목을 받기도 했다.해지는 쉽지 않았다. 지난 4일 오후 6시경 해지 절차를 밟기 위해 토스모바일 고객센터에 전화했으나 받지 않았다. 토스모바일 고객센터는 오후 8시까지 영업한다. 두 차례 더 연결하니 직원의 안내를 들을 수 있었다.콜센터 직원과 통화가 끝나자 곧 알뜰폰 해지 안내 메일이 왔다./사진=비즈워치직원은 자필로 작성한 해지신청서, 신분증 사본이 필요하다고 말했다. "컴퓨터 작성, 대리인 작성 시 연락 없이 바로 폐기될 수 있다"는 내용과 함께 메일을 받았다. 인쇄기가 고장 나 근처 PC방에서 해지신청서를 인쇄한 뒤 자필로 서류를 채웠다. 신분증 사진과 함께 토스모바일 고객센터 메일로 보내니 영업일 기준 하루만에 해지 신청이 정상 접수됐다는 전화를 받았다.간편한 가입과 대조되는 번거로운 해지 절차는 토스모바일만의 문제는 아니다. '모빙'이나 '스노우맨' 등의 대부분의 알뜰폰 사업자도 해지신청서와 신분증 사본을 해당 사업자의 고객센터로 보내야 한다.간단한 해지 절차를 제공하는 사업자도 있었다. '세븐모바일'의 경우 홈페이지에 있는 해지 신청 메뉴를 통해 계약을 끊을 수 있었다. '프리티모바일'과 '리브엠모바일'도 같은 방식으로 진행할 수 있다.SK텔레콤, KT, LG유플러스와 같은 기존의 통신사업자는 해지 절차가 간편하다. 다른 통신사와 계약을 맺으면 자동 해지되거나 모바일 앱이나 홈페이지를 통해 계약을 끊을 수 있다.알뜰폰 업계의 해지 절차가 이래저래 다른 이유는 구체적인 기준이 없어서다.2014년 말 당시 과기정통부의 전신인 미래창조과학부는 알뜰폰 사업자의 허위·과장 광고 금지와 민원처리 조직 설치를 골자로 하는 '알뜰폰 이용자 보호를 위한 가이드라인'을 제정했다. 해당 가이드라인은 콜센터가 제대로 기능하지 않는 경우나 서비스 해지 요청을 즉시 처리하지 않는 경우 '부당한 민원처리'에 해당한다고 봤지만, 해지 절차와 관련한 명확한 기준은 제시하지 않았다.과기정통부 관계자는 "기존에 비해 규제가 많이 완화된 상태"라며 "상당 부분 자율적으로 사업을 운영하지만 방송통신위원회의 분쟁조정위를 통해 해지를 방해하는 경우 제재를 받도록 하고 있다"고 말했다.통신업계 관계자는 "기존 통신사는 이용약관을 신고하는 등 여러 기준을 충족해야 하지만 알뜰폰은 그렇지 않은 상황"이라며 "알뜰폰 사업자가 0원 요금제를 비롯한 여러 판촉행사를 하는 동안 가입한 이용자가 해지에 어려움을 겪는 경우도 일어날 수 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2023.08.02.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>신용대출 금리…일반은 KB, 마통은 신한銀 유리</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012008617?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>주담대는 카카오뱅크, 전세대출은 케이뱅크 금리경쟁력[서울=뉴시스] 김선웅 기자 = 주택담보대출을 중심으로 가계대출이 큰 폭으로 늘었다. 한국은행에 따르면 지난 6월 말 기준 은행권 가계대출 잔액이 역대 최대치인 1062조3000억원으로 집계됐으며 이는 석 달 연속 증가세를 기록한 것이다. 또한 올해 상반기 생애 첫 부동산 매수자가 역대 최고치를 기록한 가운데 3040세대가 전체 매수자의 절반을 넘어섰다. 이는 부동산 시장을 움직이는 3040세대 움직임이 활발해지면서 시장이 회복세에 들어선 것으로 풀이된다. 23일 서울 도심 아파트단지의 모습이 보이고 있다. 2023.07.23. mangusta@newsis.com[서울=뉴시스] 이정필 기자 = 최근 은행권의 가계대출 금리 공시 체계가 개선되면서 매월 금융사들의 신규 취급과 잔액 기준 금리 정보를 은행연합회에서 확인할 수 있게 됐다. 금융소비자는 신용점수별 대출상품 신규 취급 금리와 함께 그동안 적용된 잔액 기준 금리를 보고 상대적으로 유리한 은행을 가늠해볼 수 있다.2일 은행연합회 소비자포털 가계대출금리 비교 공시에 따르면, 고객이 많이 찾는 KB국민·신한·하나·우리·NH농협 등 5대 시중은행과 인터넷전문은행 3사 중 일반신용대출 금리는 국민은행이 경쟁력을 보였다.6월말 잔액기준 평균금리 연 5.73%로 이들 8개사 중 가장 낮았다. 우리은행은 5.76%, 농협은행은 5.79%로 뒤를 이었다.신한은행은 6.03%, 하나은행은 6.16%를 나타냈다. 인터넷은행은 카카오뱅크 6.52%, 케이뱅크 7.07%, 토스뱅크 7.84% 순으로 높아졌다.신용한도대출(마이너스통장) 금리를 보면 신한은행이 6월말 잔액기준 평균 5.93%로 경쟁력을 보였다. 농협은행은 6.16%로 뒤를 이었다.이어 ▲우리은행 6.43% ▲하나은행 6.45% ▲카카오뱅크 6.63% ▲국민은행 6.72% ▲토스뱅크 6.85% 순으로 집계됐다. 케이뱅크는 7.34%로 가장 높았다.신용대출과 마이너스통장 금리가 시중은행 대비 높은 인터넷은행은 주택담보대출과 전세자금대출에서 경쟁력을 보였다.만기 10년 이상 분할상환방식 주담대에서 카카오뱅크와 우리은행은 6월말 잔액기준 평균금리 4.06%를 나타냈다. 케이뱅크는 4.14%로 뒤를 이었다.다음으로는 신한은행 4.18%, 하나은행 4.26%, 농협은행 4.44%, 국민은행 4.46% 순이다.6월말 잔액기준 전세대출 금리는 케이뱅크가 3.90%로 8개사 중 가장 낮았다. 카카오뱅크는 4.54%로 뒤를 이었다.5대 은행의 경우 국민 4.73%, 농협 5.05%, 우리 5.29%, 신한 5.31%, 하나 5.58% 순으로 올라갔다.주담대와 전세대출, 신용대출 잔액을 합산해 가중평균으로 산출한 가계대출 금리는 신한은행이 4.92%로 경쟁력을 나타냈다. 우리은행은 5.03%로 뒤를 이었다.이어 ▲농협은행, 케이뱅크 5.10% ▲국민은행 5.12% ▲하나은행 5.34% ▲카카오뱅크 5.37% ▲토스뱅크 7.63% 순으로 집계됐다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2023.08.14.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>토스뱅크, AI 기술로 가짜 신분증 잡았다</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003125789?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>토스뱅크(대표 홍민택)는 자체적으로 개발한 AI 기반 실시간 신분증 이상 탐지 시스템이 지난 6개월간 약 600건의 가짜 신분증을 잡아냈다고 14일 밝혔다.토스뱅크의 실시간 신분증 이상 탐지 시스템은 계좌개설을 위해 고객이 제출한 신분증 사진이 고객 본인의 원본 신분증을 직접 촬영한 것인지 여부를 실시간으로 탐지할 수 있다. 탐지 결과 제출된 신분증 사진의 정보가 고객 정보와 일치하지 않거나 스마트폰 화면이나 모니터 상 혹은 인쇄된 신분증을 촬영한 재촬영물일 가능성이 높다고 판별될 경우 재검증을 마칠 때까지 계좌개설을 포함한 모든 금융 거래는 제한된다.지난해 5월부터 개발을 시작해 그해 10월부터 필드테스트를 거친 실시간 탐지 시스템은 올해 2월부터 정식으로 도입되었다. 지난 6개월간 실시간 탐지 시스템이 잡아내 금융거래를 제한한 가짜 신분증 사례는 600건에 달한다.토스뱅크는 해당 시스템을 외부의 도움 없이 자체적인 역량으로 개발했다. AI 기반의 실시간 신분증 이상 탐지 시스템은 94%의 높은 정확도로 이상 신분증을 탐지하고 선제적으로 금융거래 제한 조치를 내린다. 토스뱅크는 자체 개발 시스템을 기반으로 '삼중 검증' 신분증 사진 확인 절차를 수립했다.토스뱅크가 이 같이 철저한 신원 확인 절차를 확립한 이유는 최근 스마트폰이나 PC에 저장된 타인의 신분증 사진을 도촬해 대포통장을 개설하거나 명의도용 대출을 실행하는 금융사기 사례가 늘어나고 있기 때문이다.토스뱅크 관계자는 “인터넷전문은행으로서 비대면 신원 확인 절차와 같이 안전한 서비스를 위한 필수적인 요소에는 외부 솔루션보다 자체적인 기술과 역량을 갖추는 것이 중요하다고 판단했다” 며 “AI 및 데이터 관련 기술을 내재화하고 고도화하는데 투자를 아끼지 않을 것”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2023.08.10.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>에콰도르 대선 후보, 유세 현장서 총격으로 사망</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003241804?sid=104</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>페르난도 비야비센시오 후보/AFP연합뉴스남미 에콰도르 조기 대선에 출마한 한 후보가 9일(현지시간) 유세장에서 괴한의 총에 맞아 숨졌다.AP통신 등에 따르면 야당인 ‘건설운동’ 소속 페르난도 비야비센시오 후보(59)는 이날 오후 6시 20분쯤 에콰도르 수도 키토에 있는 한 체육관에서 선거 유세를 마친 뒤 괴한의 총격을 받았다. 그는 곧바로 병원에 후송됐지만, 숨졌다.현지 일간지 엘우니베르소는 비야비센시오 후보가 머리 3곳에 총상을 입었다고 보도했다. 유세 참석자들은 현장에서 여러 발의 총성을 들었다고 경찰에 진술했다.비야비센시오 후보 외에도 여러 명의 부상자가 나온 것으로 전해졌다. 이들은 인근 병원으로 옮겨져 치료받고 있다. 경찰은 용의자 수색에 나섰다.앞서 에콰도르에서는 탄핵 위기에 몰린 기예르모 라소 에콰도르 대통령이 스스로 자리 에서 물러나며 국회를 해산하는 이른바 ‘동반 사망’ 권한을 행사하면서, 조기 대선 모드에 돌입했다.언론인 출신인 비야비센시오 후보는 오는 20일(현지시간) 치러질 대선에 출사표를 던진 8명의 후보 증 한 명이다. 현지 여론조사에서 대체로 중위권의 지지율을 얻고 있던 것으로 나타났다. 지난 달 18일 공개된 ‘세다토스’ 발표에서는 ‘깜짝 2위’를 차지했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2023.08.03.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>토스뱅크, 커플통장 서비스 출시</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005295553?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>기존 모임통장 혜택 그대로토스뱅크는 연인이나 부부가 함께 사용할 수 있는 ‘커플통장 서비스’를 출시했다고 3일 밝혔다.커플통장 서비스는 기존 ‘토스뱅크 모임통장’에 추가될 예정으로, 통장 메인 화면을 원하는 사진으로 설정하고 입출금 내역이나 카드 결제 내역에 댓글을 남겨 데이트나 여행, 기념일 등을 기록할 수 있도록 구성됐다.토스뱅크가 모임통장에 은행권 최초로 도입한 '공동모임장' 기능은 커플통장에서도 그대로 사용할 수 있다. 연인, 부부를 모두 공동모임장으로 지정해 출금, 송금, 카드 발급, 결제 권한을 공유할 수 있다. 카드 발급도 각자 할 수 있다. 이미 토스뱅크 모임통장을 보유하고 있는 고객은 모임통장 계좌 상세 화면에서 ‘커플통장으로 바꾸기’를 눌러 손쉽게 전환할 수 있다.커플통장 혜택은 모임통장과 동일하다. 하루만 맡겨도 연 2%(세전) 금리를 적용하며 모임통장에 적용되는 캐시백 혜택도 제공한다. 카드 사용 시에도 ▲외식(음식점, 주점에서 오후 7시~자정 사이 결제 시) ▲놀이(노래방, 볼링장, 당구장, 골프장, 골프연습장 등) ▲장보기(이마트, 이마트트레이더스, 농협하나로마트·클럽 등) 영역에서 1만원 이상 결제한 경우 건당 500원, 1만원 미만 결제한 경우 건당 100원을 즉시 돌려받는다.토스뱅크 관계자는 “토스뱅크 모임통장의 공동모임장 기능에 통장 커스터마이징, 댓글 남기기 등 커플 특화 기능을 더해 커플통장 서비스를 출시했다”며 “자금 관리와 추억 공유에 의미 있게 이용할 수 있도록 지속적으로 업그레이드해 나갈 것”이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2023.08.08.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>인터넷 은행 호실적에 지방은행 위기감 고조</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001226163?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>토스·케이뱅크 실적 발표 임박카뱅 이어 호실적 관측 지배적접근성·저금리로 경쟁력 강화서울 강남구 토스뱅크 본사 모습. 연합뉴스토스뱅크와 케이뱅크의 상반기 실적 발표가 임박했다. 카카오뱅크에 이어 이들도 호실적 대열에 합류할 것이란 관측이 나오면서 지방은행의 입지가 위태로워지고 있는 모습이다.8일 금융권에 따르면, 토스뱅크와 케이뱅크는 이달 중순께 상반기 실적을 공개한다. 토스뱅크와 케이뱅크 상반기 실적을 두고 다양한 관측이 나오는 가운데 전년 동기에 비해 개선될 것으로 예상된다.실제 케이뱅크는 2021년 2분기부터 9분기 연속 영업 흑자를 이어가고 있다. 올해 2분기에도 고객수와 수신·여신 등 모든 영업 지표가 지속 성장했다. 또한 토스뱅크도 지난달 말 기준 누적고객이 700만 명을 넘어섰는데, 이는 지난해 상반기 360만 명의 고객을 모은 뒤 1년 만에 2배 가까이 증가한 규모다.이에 지방은행 위기감은 고조되고 있다. 앞서 지난 3일 카카오뱅크가 상반기 당기순이익을 공개했는데, 전년 동기 대비 48% 성장한 1838억 원을 기록했다. 이는 지방은행계 ‘리딩뱅크’ 부산은행(2662억 원)과의 격차가 불과 824억 원에 불과하며 2위 대구은행(2504억 원)과는 666억 원에 그친다.경남은행(1613억 원), 광주은행(1417억 원), 전북은행(1025억 원) 등은 카카오뱅크보다 낮은 상반기 당기순익을 기록했다. 전년도 상반기까지만 해도 카카오뱅크 당기순이익은 1238억 원으로 경남은행(1590억 원)보다 낮았다.문제는 당기순이익 성장률에서 확연한 차이를 보이고 있다는 점이다. 카카오뱅크의 경우 상반기 당기순이익이 1년 새 48% 증가하는 가파른 성장세를 보인다.하지만 지방은행 가운데 가장 높은 곳인 대구은행이 16.4%에 그치며 이 밖에 광주은행 13.4%, 부산은행 8.4%, 경남은행 1.4%, 전북은행 -2.9% 수준에 불과하다.금융권에서는 앞으로 인터넷 은행과 지방은행의 격차가 더욱 벌어질 가능성이 높다고 내다본다. 인터넷 은행은 ‘비대면’ 대출이라는 편의성을 무기로 금융 접근성이 낮은 지역 고객들을 적극적으로 공략하고 있다.여기다 지방은행에 비해 영업점 운영비, 인건비 등 지출이 적어 보다 낮은 금리로 대출 상품을 취급할 수 있다는 점도 위기 요인이다. 실제로 지난 2월부터 6월까지 은행 영업점이 비교적 적은 지방 고객이 카카오뱅크 대환대출을 통해 평균적으로 감면받은 금리는 1.38%에 달하는 것으로 나타났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2023.08.09.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>토스뱅크, 최고 연 5% ‘토스뱅크 자유 적금’ 출시</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005297973?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>12개월 이상 매달 자동이체 시토스뱅크가 매달 자동이체로 저금만 하면 우대금리를 적용, 최고 연 5% 금리를 주는 ‘토스뱅크 자유 적금’을 출시한다고 9일 밝혔다.가입기간은 최소 3개월부터 최대 36개월까지로 고객이 원하는 기간을 선택할 수 있다. 월 납입한도는 최대 300만원으로 가입 시 설정되는 자동이체 이외에도 한도 범위 내에서 자유롭게 추가 적립이 가능하다. 기본 금리는 가입기간에 따라 차등 적용되며, 12개월 이상 가입하고 매월 자동이체하면 최고 연 5% 금리 혜택을 받을 수 있다.고객이 받을 이자도 적금 가입 전 미리 계산해볼 수 있다. 가입 과정에서 고객이 원하는 월 적립액, 가입기간 등을 설정하면 만기 시 받을 수 있는 이자(세전)를 확인할 수 있다. 또 비과세종합저축 가입 대상자는 ‘비과세 적용하기’를 클릭해 별도 서류제출 없이 비과세 혜택도 누릴 수 있다.토스뱅크 관계자는 “‘토스뱅크 자유 적금’은 복잡한 우대조건을 신경 쓸 필요 없이 오로지 저축에만 집중할 수 있게 했다”며 “앞으로도 고객들이 좋은 혜택들을 쉽고 간편하게 누릴 수 있도록 노력할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>신용점수 900점에도 막힌 대출…저신용자 어디로</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000018375?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>시중은행 평균 신용점수 927.4점…반년 새 23.6점 ↑치솟는 연체율이 원인…풍선효과로 중·저신용자 밀려'대출 절벽' 현상이 고신용자까지 확대되고 있다. 신용점수가 850점을 넘어도 시중은행에서는 대출이 어려워진 것이다. 최근 고금리 장기화 등으로 연체율 악화 우려가 나오면서 은행들이 건전성 관리를 강화한 영향으로 풀이된다. 특히 중·저신용자 비중을 넓히던 인터넷전문은행들마저 최근에는 평균 신용점수가 900점을 넘나드는 수준으로 대출 문턱을 크게 높이고 있다. 900점대만 신용대출 내주는 시중은행5대 시중은행 및 인터넷전문은행 3사 신용대출자 평균 신용점수 추이 /그래픽=비즈워치1일 은행연합회에 따르면 지난 6월 기준 5대 시중은행(KB국민·신한·하나·우리·NH농협은행)의 가계신용대출(신규취급액 기준) 평균 취급 신용점수는 927.4점으로 지난해 12월(903.8)에 비해 23.6점 올랐다. 900점을 밑돈 지난해 11월(899.4점)보다는 28점이나 높아졌다.지난 4월까지 800점대 중후반을 유지하던 농협은행과 토스뱅크의 대출차주 신용점수 평균이 5월 들어 900점대로 올라섰다. 카카오뱅크를 제외하고는 6월 기준으로 평균 신용점수는 모두 900점대다.카카오뱅크의 평균 취급 신용점수는 지난 5월(866점)에 이어 이번 달 833점으로 두 달 연속 하락했다. 신용대출 대상자 신용점수를 좀 더 낮춰 전체 대출에서 중·저신용자 비중을 높이려는 의도다.카카오뱅크 관계자는 "중신용 및 신파일러 신용평가 모형 개발 이후 중위 구간에 집중된 금융이력 부족 차주들 중 대출이 가능한 차주가 많아진 결과"라고 설명했다. 다만 카카오뱅크 한 곳에서의 수요 소화규모는 한계가 있다.신용등급의 기준이 되는 신용평가사인 KCB(코리아크레딧뷰로) 점수를 기준으로 살펴보면 △1등급 942~1000점 △2등급 891~941점 △3등급 832~890점 △4등급 768~831점으로 통상 3등급까지 고신용차주로 분류된다. 하지만 3등급 차주는 시중은행 대출을 받기가 어려워진 것을 의미한다.고신용자에게도 대출이 막히는 건 연체율이 빠르게 상승하고 있어서다. 금융감독원에 따르면 5월 말 기준 국내은행 연체율은 전월보다 0.03%포인트 오른0.4%로, 2020년 8월 말(0.38%) 이후 33개월 만에 최고치다. 특히 주택담보대출을 제외한 가계대출(신용대출 등)의 연체율은 0.75%로 전월 말(0.67%) 대비 0.08%포인트 높아졌다. ▷관련기사:5월말 은행 대출 연체율 0.4%…2년9개월 만에 최고(7월27일)갈 곳 잃은 중·저신용자이런 탓에 기존에 1금융권을 이용하던 고신용자들이 2금융권으로 밀려나는 경우도 많아졌다. 저축은행중앙회에 따르면 지난 6월 자산 규모 상위 4개 사(SBI·OK·한국투자·웰컴저축은행)에서 나간 신규 신용대출 중 700점대 이상 차주 비중은 전체의 77.84%였다. 이는 지난해 말보다 2.35%포인트 상승한 수치다.카드론 잔액도 빠르게 늘어나고 있다. 여신금융협회에 따르면 7개 전업 카드사(신한·삼성·KB국민·현대·롯데·하나·우리카드)의 6월 말 기준 카드론 잔액은 34조8326억원으로 지난해 말(33조6404억원)보다 3.54% 증가했다.2금융권 관계자는 "신용점수가 낮을수록 연체율 관리가 힘들기 때문에 1, 2금융권을 막론하고 고신용자 모시기에 집중하고 있다"며 "고신용자들이 1금융권에서 대출을 못 받을 경우 당연히 2금융권으로 밀리게 되고, 그러면 2금융권 이용 중·저신용 차주들은 대부업으로 밀려날 수밖에 없다"고 말했다.전문가들은 하반기에는 중·저신용자 대출 절벽은 더 심해질 것이라고 예상했다. 서지용 상명대 경영학부 교수는 "하반기에 연체율이 높아질 것으로 전망됨에 따라 신용위험이 높은 차주들에 대한 대출을 기피하는 현상이 더욱 심화될 것"이라며 "기존 2금융권을 이용하던 차주들은 갈 곳을 잃게 될 수 있다"고 우려했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>카카오페이·토스證, 하반기 실적 격차 더 벌어지나</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002735955?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>카카오페이, 홀세일 등 수익원 다각화 미미토스, 해외 주식 위탁매매 실적 급성장-ing토스증권(위), 카카오페이증권(아래) 로고. ⓒ각사[데일리안 = 노성인 기자] 증권업계 후발주자인 카카오페이증권과 토스증권이 올해 상반기에 이어 하반기에도 실적 희비가 엇갈릴 것이라는 전망이 제기된다. 카카오페이증권이 법인영업(홀세일)과 펀드 판매 등 수익원 다각화, 해외 증권사 인수 시너지 등의 효과가 미미한 가운데 토스증권은 빠르게 성장 중인 위탁매매(리테일) 부문 등이 성장동력으로 작용할 것이라는 기대감이 나오고 있어서다.1일 금융투자업계에 따르면 카카오페이증권과 토스증권이 상반기 엇갈린 실적을 낸 데 이어 하반기에는 격차가 더 크게 벌어질 것이라는 예상이 나오고 있다.앞서 카카오페이증권은 올해 1분기 126억원의 영업손실을 기록,  전년 동기 대비 적자 폭이 23억원 증가했다. 반면 토스증권은 올 1분기 영업손실 4억원으로 적자 폭이 전년 동기(104억원) 대비 96.1% 감소한 수준이다.업계에서는 올 2분기에도 두 증권사의 실적이 희비가 갈릴 것으로 보고 있다. 이날 오후 2분기 실적을 발표하는 카카오페이증권은 크게 개선되지 못할 것으로 예상된다. 신한투자증권은 카카오페이증권의 올 2분기 순영업수익과 영업손실은 각각 113억원, 129억원으로 추정했다.증권가의 예상대로 실적이 나온다면 카카오페이는 오히려 전 분기에 비해 적자 폭이 커지는 것으로 전년동기돠 비교하면 배 이상 늘어나는 것이다. 카카오페이증권은 지난해 2분기 65억원의 적자를 기록한 바 있다.카카오페이의 적자가 지속될 것으로 보이는 배경에는 난항을 겪고 있는 위탁매매 부문 실적 개선이 있다. 1분기 카카오페이증권의 총 수수료 수익은 약 90억원으로 이 중 위탁수수료 17억원에 불과했다. 이는 오히려 전년 동기(19억원) 대비 약 10% 수준 감소한 것이다.아울러 ‘투트랙 전략’ 중 하나로 내세웠던 부동산 프로젝트파이낸싱(PF) 인수·주선 등 홀세일 부문 및 펀드 판매 수익도 아직 미미한 상황이다. 카카오페이증권의 부동산 PF 인수·주선 등 홀세일 수수료는 지난 1분기 7억원 수준에 불과했다. 주식 거래보다 먼저 출시했던 펀드 매매 서비스로도 6억원을 벌어들이는 데 그쳤다.반면 토스증권은 2분기 적자개선 및 흑자전환 가능성이 더 높다는 관측으로 일각에서는 올해 첫 연간 손익분기점 달성을 기대하는 목소리도 나온다.토스증권의 경우 위탁매매 부분 그중에서도 해외주식 부문이 빠르게 증가하고 있는 점이 수익성 개선으로 이끌고 있다는 분석이다. 실제 토스증권의 3월 말 기준 해외주식 위탁매매 시장점유율은 21.5%로 나타났다. 작년 1월 말 점유율은 3.4%에 불과했다.이에 올해 1분기 국내 증권사의 외화증권 수탁 수수료는 1940억원으로 전년 동기(1983억원) 대비 2.17% 감소한 가운데 같은 기간 토스증권은 173억375만원으로 371.85% 증가하며 업계 10위에서 5위로 올라섰다.현재도 토스증권을 이용하는 투자자들이 빠르게 늘고 있는 모양새다. 토스증권은 지난 5월 회사의 모바일트레이딩시스템(MTS) 가입자가 500만명을 넘어섰다고 밝히기도 했다.전문가들 사이에서는 하반기에 카카오페이증권과 토스증권의 실적 격차가 벌어질 가능성이 있다는 전망도 나온다.금융투자업계 한 관계자는 “카카오페이의 경우 투자자확보를 위해 수수료를 업계 최저 수준으로 낮추면서 수수료 순익 증가가 제한적인 가운데 올해 인수한 미국 현지 증권사 시버트와 시너자 효과도 반영되기까지 시간이 걸릴 것”이라고 진단했다.이어 “반면 토스증권의 경우, 해외 투자자들의 중심으로 시장 점유율을 높이고 있는 동시에 틱톡 출신 김승연 신임 대표 영입과 함께 하반기 맞춤형 해외주식 옵션거래에 대한 기대감도 확대되고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>토스뱅크, 2년 만에 700만 고객 돌파</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005541670?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>[이데일리 정병묵 기자] 토스뱅크는 7월 말 기준 누적 가입 고객이 총 700만명을 돌파했다고 1일 밝혔다. 2021년 말 125만명에서 지난해 상반기 기준 360만명의 고객을 모은 데 이어 1년 만에 2배 가까이 고객이 늘었다. 일평균 1만1000명이 새 고객이 됐다. 토스뱅크 고객 연령대는 20대가 26%로 가장 많았지만, 30대(23%) 40대(23%) 50대 이상(22%)으로 고루 포진했다. 실사용하는 고객은 약 10명 중 8명(76%)이다. 1인당 평균 274만원을 맡기고 사용했다.‘지금 이자 받기’, ‘먼저 이자 받는 정기예금’ 등 서비스가 좋은 반응을 얻었다. ‘지금 이자 받기’는 373만명이 총 2억4000만회를 이용했다. 예치 즉시 이자를 먼저 지급하는 ‘먼저 이자 받는 정기예금’은 4개월 만에 3조5000억원을 넘어섰다.고객 10명 중 7명 이상(71.4%)은 직관적인 캐시백 혜택을 담은 ‘토스뱅크 체크카드’를 사용했다. ‘목돈 굴리기’는 높은 금리와 안정성을 모두 잡은 채권을 소개하며 누적 판매액 2조5000억원에 달했다.토스뱅크는 출범 만 2년을 앞두고 ‘이전으로 돌아갈 수 없는 새로운 은행 경험을 제공한다’를 새로운 기업 미션으로 선언했다. 5개월 간 국내외 혁신 기업의 사례를 벤치마크하고 전 직원의 의견을 수렴해 탄생한 이번 미션엔 기존의 관습화된 은행 경험을 고객 중심의 완전히 새롭게 대체하겠다는 포부가 담겼다.토스뱅크 관계자는 “고객들에게 최고의 혜택을 드리겠다는 일념으로 이어온 도전이 700만 고객들의 발걸음으로 인정받았다고 생각한다”며 “‘이전으로 돌아갈 수 없는 새로운 은행 경험’을 새로운 미션으로 고객의 모든 삶에 녹아드는 은행이 될 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2023.08.09.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>토스뱅크, '자유 적금' 선봬…최고 연 5% 금리</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004224505?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>[서울경제] 인터넷전문은행 토스뱅크는 연 최고 5% 금리의 '토스뱅크 자유적금'을 출시한다고 9일 밝혔다. 가입 기간은 3개월부터 36개월까지이며 월 납입 한도는 300만원이다. 기본 금리는 가입 기간에 따라 차등 적용된다. 12개월 이상으로 가입하는 경우 매월 자동이체를 하면 최고 연 5% 금리가 적용된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2023.08.15.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>주담대 확 늘린 인뱅... 중저신용자 대출의무 손질하나</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004925320?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>금융당국이 인터넷전문은행의 중·저신용자 대출 의무비율 규제 개선방안을 검토하고 있다. 인터넷은행이 설립 취지인 중·저신용자 대출을 등한시하고 주택담보대출(주담대)로 몸집을 불리고 있다는 지적이 나와서다. 15일 금융업권에 따르면 금융당국은 인터넷은행의 중·저신용자 대출 의무비율 규제를 들여다보고 있다. 내년에 적용되는 의무비율과 함께 개선방안도 살피고 있다. 인터넷은행의 중·저신용자 대출 의무비율 규제는 2021년 도입됐다. 2020년 국정감사 당시 인터넷은행이 설립 취지에 맞지 않게 고신용자 중심으로 대출을 취급했다는 비판을 받았다. 이에 금융당국은 중·저신용자 대출 확대라는 설립 취지를 지키기 위해 의무비율 규제를 만들었다. 카카오뱅크, 케이뱅크, 토스뱅크는 올해말까지 올해말까지 전체 신용대출의 30%, 32%, 44%를 신용점수 하위 50%를 대상으로 하는 중·저신용자 대출로 취급해야 한다.개선방안으로는 신용대출에 주담대를 포함해 의무비율을 정하는 방안이 거론되고 있다. 현재 의무비율은 신용대출 중 중·저신용자 대출비율로 계산되는데 최근 인터넷은행들이 신용대출은 크게 늘리지 않고 주담대만 공격적으로 확대해서 있어서다. 실제로 카카오뱅크의 전월세 대출과 주담대 잔액의 합은 지난해말 13조3000억원에서 올 상반기 17조3000억원으로 30% 증가했다. 특히 전월세 대출은 3000억원 줄었지만 주담대는 1조2000억원에서 5조5000억원으로 급증했다. 반면 같은 기간 마이너스통장을 포함한 신용대출 잔액은 14조5000억원에서 16조1000억원으로 1조6000억원 늘어나는데 그쳤다. 케이뱅크 역시 아파트담보대출과 전세대출을 합한 잔액이 지난해말 2조2900억원에서 올 상반기 3조7000억원으로 61.5% 늘어날 정도로 주담대 성장 속도가 빨랐다.다만 주담대를 포함하는 경우 부작용도 만만치 않을 것이란 목소리도 있다. 의무비율을 맞추기 위해 인터넷은행 영업자체가 위축될 수도 있다. 아직 인터넷은행에서 주담대가 차지하는 비중은 시중은행보다 적다. 시중은행은 가계대출 가운데 주담대 비중이 70~80%인 반면 인터넷은행은 절반에도 미치지 못한다. 인터넷은행들은 중·저신용대출 공급도 꾸준히 늘리고 있다는 입장을 보이고 있다. 실제로 카카오뱅크는 중·저신용대출 공급액을 2020년 4679억원, 2021년 1조8166억원, 지난해 2조5975억원, 올 4월까지 1조900억원 등 매년 확대하고 있다. 한편, 금융당국은 인터넷은행들이 주담대 영업을 확 늘리는 과정에서 대출자의 소득 심사 등을 제대로 했는지 점검하기로 했다. 특히 한국주택금융공사 등이 보증하는 전세대출을 중심으로 인터넷은행의 연체율이 높아지고 있는 것으로 전해졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2023.08.09.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>토스-신한카드, 금융소외계층 지원 위한 신용평가모델 개발</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002818466?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>이승건 토스 대표(오른쪽)와 문동권 신한카드 사장이 데이터 공동 사업을 위한 신용평가모델 및 금융서비스 개발 업무협약식에 참석해 기념촬영을 하고 있다. 토스 제공.    비바리퍼블리카(토스)가 신한카드와 손잡고 대안신용평가모델 개발로 금융소외계층 지원에 나선다. 토스는 지난 8일 서울 을지로 신한카드 본사에서 '데이터 공동 사업을 위한 신용평가모델 및 금융서비스 개발 업무협약(MOU)'을 체결했다고 9일 밝혔다. 협약식 참석한 이승건 토스 대표와 문동권 신한카드 사장은 다양한 대안정보 중심 신용평가모델을 개발해 금융이력 부족자(Thin Filer, 씬파일러)에게 필요한 혁신서비스를 만들겠다는 데 뜻을 모았다. 토스는 플랫폼 내 데이터를 활용해 기존 금융 불이익 정보 위주의 신용평가 시스템을 보완할 신용평가모델 기반을 만들 계획이다. 토스는 약 2600만 가입자를 보유하고 있으며 매달 1500만 이상 유저가 사용하는 국민 금융 플랫폼으로 차별적인 데이터 모델링이 가능하는 게 토스 측의 설명이다.신한카드는 소비행동패턴정보, 디지털 로그 데이터 등 빅데이터 정보 제공으로 대안신용평가모델을 강화할 예정이다. 그동안 사회초년생이나 주부, 소상공인, 프리랜서 등 금융 이력은 부족하지만 상환능력이 있는 소비자에게 현재 상황에 걸맞은 금융서비스를 이용할 수 있도록 하는 대안신용평가모델에 대한 요구가 지속적으로 존재했다. 토스는 이번 신한카드와의 협업을 시작으로 다양한 제휴사와 금융소외계층을 포용하는 데이터 공동 사업을 전개할 계획이다.양사는 익명처리된 소비정보를 기반으로 한 통계정보로 인사이트 데이터를 만드는 사업 영역까지 협업할 예정이다. 인사이트 데이터를 통해 기업은 시장 분석이 가능하고 향후 마케팅, 기획 전략 수립에까지 도움을 받을 수 있다. 이승건 토스 대표는 "금융 소비자들이 금융 이력 뿐 아니라 다양한 비금융 활동까지 반영한 최적의 신용평가를 받을 수 있도록 다각도로 노력할 것"이라며 "신한카드와의 MOU는 토스 신용데이터 사업 여정의 시작"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2023.08.08.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>박준하 토스뱅크 CTO, '2023 뉴스1 대학생 미래캠프' 특별강연</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006977496?sid=102</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>(서울=뉴스1) 김도우 기자 = 박준하 토스뱅크 CTO가 8일 오전 서울 종로구 SC제일은행 본사 대강당에서 열린 '2023 뉴스1 대학생 미래캠프'에서 '토스뱅크 이야기'를 주제로 특별강연을 하고 있다.뉴스1과 청년재단이 개최한 이번 행사는 청년들에게 정치, 경제, 금융 등 각계각층의 전문가 강연과 산업현장 탐방을 통해 다양한 진로탐색 기회를 제공하고 국내 미래산업 전반에 대한 견문을 넓혀주고자 마련됐다. 2023.8.8/뉴스1</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2023.08.07.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>더스윙, 타다 매각 불발…인수전 '안갯속'</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001118030?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>모빌리티 플랫폼 타다의 매각 협상이 최종 결렬됐다.비바리퍼블리카 관계자는 7일 "더스윙은 타다 인수의 유력한 후보였지만, 다양한 측면에서 검토한 결과 최적의 인수처라는 결론에 이르지 못했다"며 이같이 밝혔다. 퍼스널·마이크로 모빌리티 공유 서비스업체로 잘 알려진 더스윙은 타다의 운영사 브이씨엔씨(VCNC)의 경영권 지분 60%를 인수하는 방향으로 비바리퍼블리카와의 계약 성사를 목전에 뒀으나, 더스윙과 브이씨엔씨의 2대 주주인 쏘카(지분율 40%)와의 갈등이 봉합되지 않으면서 결국 협상이 결렬됐다.쏘카는 브이씨엔씨에 대여한 70억원의 차입금과 이자에 해당하는 수준만큼 더스윙에 지분을 요구했지만, 더스윙이 이를 받아들이지 않으면서 갈등이 커졌다. 앞서 2021년 타다의 모기업이었던 차량 공유 플랫폼 쏘카는 모바일 금융 플랫폼 토스를 운영하는 비바리퍼블리카에 경영권을 매각한 바 있다.타다는 아이엠택시를 운영하는 진모빌리티에 매각을 타진했으나 재무 상황 등으로 최종 무산됐다. 이후 타다는 지난달까지 인력을 절반으로 줄이는 고강도 구조조정을 단행했다.(사진=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>"FIU 실명계정 발급, 특금법 개정 이후해야"</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002817002?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>KDA, 발급기준 강화 목소리"5대거래소 체제 고착화 행위"한국디지털자산사업자연합회(KDA)가 1일 금융정보분석원(FIU)이 준비 중인 '가상자산거래소 은행 실명계정 발급 기준'에 대해 "업비트 중심의 5개 원화거래소 거래소 체제를 공고화 하는 것"이라며 반발했다.가상자산업계에 따르면 FIU는 최근 '가상자산거래소 은행 실명계정 발급 기준(안)'을 마련, 조만간 발표할 예정이다. KDA는 이날 자료를 내고 "기준을 마련하는 과정에서 은행 및 기존 5개 원화 거래소들만을 대상으로 의견을 수렴했다"며 "FIU가 신고수리한 27개 거래소의 82%에 해당하는 22개 코인마켓 거래소에 대한 의견수렴을 배제한 것은 헌법 및 행정기본법에 의한 평등권과 행정절차법에 의한 '의견수렴을 거치치 않은 위법한 행정행위'"라고 주장했다.FIU가 마련 중인 '은행 실명계좌 발급 기준(안)'에 따르면 실명계정을 발급할 수 있는 은행은 금감원의 AML(자금세탁방지) 이력이 있고, 최근 2년간 4회 이상 FIU 제도이행 평가 중 위험관리평가 등급 '보통' 이상 받고, 실명계정 발급은행 대상 공통적용 표준(안)을 이행하는 은행으로 한정된다.복수 거래소에 실명계정을 발급할 수 있는 은행은 2년 이상의 실명계정 운영 경험이 있어야 하며, 근 2년간 4회 이상 위험관리 평가결과 양호 이상 및 최근 2년간 4회 이상 STR(의심거래보고) 상세 분석율 상위 35% 이내에 해당돼야 한다.KDA는 "토스와 같은 업력이 짧은 신생은행이나 규모가 작은 지방은행은 실명계정을 발급할 수 없는 대상으로 한정하는 등 지나치게 과도한 기준"이라면서 "만일 FIU가 이 기준을 확정해 시행한다면, 사실상 은행들로 하여금 22개 코인마켓거래소에게 실명계정을 발급하지 말라고 하는 것과 같다"고 강조했다.또 해당 기준안은 특정금융정보법 및 시행령에도 근거가 없다고도 주장했다. 특정금융정보법(제7조 2항 2호) 및 가상자산 사업자 신고 메뉴얼에도 가상자산 사업자 신고 조건에 '은행 실명계정 발급 확인(서)'라고만 규정하고 있을 뿐, 그 외에 어떤 추가적인 내용도 규정하지 않고 있다는 것이다. 강성후 KDA 회장은 "은행 실명계정 발급 기준을 제정해 시행하려면, 사전에 이해 당사자들과의 충분한 소통 및 의견수렴 과정을 거치고, 위법성 논란을 해소할 수 있도록 특금법을 개정, 근거를 확보한 후에 추진할 것"을 제안했다.이어 "해당 기준을 강행할 경우, 은행들이 금융당국의 행정지도를 법령보다도 어렵게 여기는 관행에 의해 적법성 여부 등을 제기하지 않은 채 사실상 실명계정을 발급하지 않을 가능성이 높다"고 전했다. 한국디지털자산사업자연합회(KDA) 제공.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>토스뱅크 가입자 700만명 넘어섰다</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004874749?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>사진=연합뉴스토스뱅크는 지난 7월 말 기준 누적 가입자가 700만명을 돌파했다고 1일 발표했다. 2021년 10월 새로 출범한 인터넷전문은행인 토스뱅크에 하루 평균 1만1000명이 새로 가입한 셈이다. 토스뱅크는 가입자 700만명 돌파를 계기로 이날 ‘이전으로 돌아갈 수 없는 새로운 은행 경험’을 새 미션으로 선언했다.2021년 10월 출범한 토스뱅크 가입자는 2021년 말 125만명, 지난해 상반기 360만명을 기록한 데 이어 올해 7월 말 700만명을 넘었다. 하루 평균 1만1000명, 7초에 1명 꼴로 토스뱅크 신규 가입자가 늘었다는 게 토스뱅크의 설명이다.토스뱅크 제공토스뱅크는 모든 연령대가 고르게 이용하는 인터넷은행으로 성장했다. 20대가 26%로 가장 많았지만, 30대(23%) 40대(23%) 50대 이상(22%) 등 연령별 사용자 비중에 큰 차이가 없었다. 가입자 중 10대 비중이 6%로 가장 낮았는데, 이는 은행 가입 고객 연령이 만 17세 이상으로 제한된 데 따른 결과다.토스뱅크는 또 가입자 중 실사용 고객 비중이 76%로 집계됐다고 발혔다. 토스뱅크통장 이용 고객은 1인당 평균 274만원을 맡기고 있는 것으로 집계됐다.토스뱅크는 ‘지금 이자 받기’, ‘먼저 이자 받는 정기예금’ 등 은행권의 기존 관습에서 벗어난 혁신 서비스가 두터운 고객층 형성에 기여했다고 설명했다. 파킹통장의 이자를 매일 받을 수 있는 ‘지금 이자 받기’ 서비스는 지난달 말 기준 373만명의 고객이 총 2억4000만회 이용한 것으로 조사됐다. 정기예금 이자를 예치 즉시 지급하는 ‘먼저 이자 받는 정기예금’ 서비스는 지난 3월 출시 이후 약 4개월 만에 예치금액이 3조5000억 원을 넘어섰다.토스뱅크 고객 10명 중 7명(71.4%)은 ‘토스뱅크 체크카드’를 사용했다. 토스뱅크 앱 내에서 채권 등에 투자할 수 있는 서비스인 ‘목돈 굴리기’는 누적 판매액이 지난달 말 기준 2조5000억원에 달했다.토스뱅크는 출범 2주년을 앞두고 ‘이전으로 돌아갈 수 없는 새로운 은행 경험을 제공한다’를 새로운 기업 미션으로 선언했다.토스뱅크는 올해 초 빠르게 변화하는 시장 상황과 소비자의 요구에 발 맞춰 은행이 추구해나가야 할 가치와 방향성을 담은 새로운 미션 수립 작업에 착수했다. 5개월 동안 국내·외 혁신 기업 사례를 벤치마크하고 전 직원의 의견을 수렴해 탄생한 이번 미션엔 기존의 관습화된 은행 경험을 고객 중심으로 완전히 새롭게 대체하겠다는 포부가 담겼다는 게 토스뱅크의 설명이다.토스뱅크가 정의하는 ‘새로운 은행 경험’은 스마트폰이나 자동차 내비게이션과 같이 해당 제푸밍나 서비스가 없던 시절을 상상하기 힘들 만큼 우리 삶에 깊숙이 스며들어 긍정적인 변화를 이끄는 혁신 상품 및 서비스를 의미한다. △시장 점유율을 높이는 대신 ‘새롭게 시장을 창출’하고 △고객의 인지를 높이는 데서 나아가 ‘고객의 삶을 바꾸’고 △우수한 상품 대신 ‘한 번 쓰면 포기할 수 없는 상품과 서비스’를 지속적으로 만들어 나가겠다는 것이다.토스뱅크가 은행권 최초로 출시한 ‘지금 이자 받기’ 서비스가 ‘왜 이자는 한 달에 한 번만 받아야 하지?’라는 물음에서 출발해 이제는 전 은행권으로 확산되고 있는 것과 같이 토스뱅크는 앞으로도 한 번 경험하면 ‘이전으로 돌아가기 힘든’ 상품과 서비스를 내놓을 방침이다.토스뱅크 관계자는 “‘이전으로 돌아갈 수 없는 새로운 은행 경험’을 새로운 미션으로 삼아 고객의 모든 삶에 녹아드는 은행이 될 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>빗썸, 업비트 추격 위한 승부수 던졌다…일부 코인 '수수료 무료'</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006964099?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>앱토스·스택스·수이 등 수수료 무료 적용 코인 10종 우선 공개일주일 간격으로 10종씩 추가…별도 공지 전까지 이벤트 진행가상자산 가격이 연일 상승하고 있는 18일 서울 강남구 빗썸고객센터 전광판에 비트코인 등 주요 가상자산(암호화폐) 시세가 표시되고 있다. 이날 비트코인의 가격은 국내 거래소를 기준으로 2650만원대 까지 오르며 약 3개월만에 최고치를 기록했다. 2023.1.18/뉴스1 ⓒ News1 장수영 기자(서울=뉴스1) 김지현 기자 = 국내 가상자산(암호화폐) 거래소 빗썸이 1일부터 빗썸 원화마켓에서 거래 지원하는 일부 가상자산에 대해 수수료 무료 이벤트를 진행한다고 밝혔다.빗썸에 따르면 이번 이벤트는 가상자산 투자자들의 자산 포트폴리오 다양화를 지원함과 동시에 빗썸 거래소 이용자 유입을 증가시켜 거래 유동성을 높이겠다는 취지다. 거래 유동성이 풍부해지면 투자자들의 매수, 매도 가격에 대한 선택의 폭도 넓어지는 효과가 발생하며 이를 통해 자연스럽게 시장 점유율도 높일 수 있다. 국내 1위 거래소인 업비트와의 현물 거래량차를 좁히기 위한 빗썸의 승부수로도 해석된다.이벤트는 별도 공지 전까지 진행 될 예정이며, 수수료 무료 적용 대상 가상자산은 1주일 간격으로 10종씩 추가된다. 앞으로 공개될 가상자산들은 국내외 투자가 활발히 이뤄지고 있는 종목들로, 빗썸은 유동성을 확대시킬 수 있는 가상자산들을 전략적으로 선정해 선보일 예정이다.8월 1일 처음 공개되는 수수료 무료 적용 가상자산 10종은 △앱토스(APT) △스택스(STX) △플로우(FLOW) △수이(SUI) △비트코인 골드(BTG) △피르마체인(FCT2) △블러(BLUR) △웨이브(WAVES) △메탈(MTL) △룸네트워크(LOOM) 등이다.현재 진행 중인 비트코인(BTC) 마켓 거래 수수료 무료 이벤트와 함께 이번 원화마켓의 거래 수수료 무료존 이벤트가 동시 진행되면 빗썸 고객들의 혜택은 더욱 커질 것으로 예상된다.수수료 없이 거래할 수 있는 가상자산은 종목명에 표시된 파란색의 '무료' 배지로 쉽게 구분이 가능하며, 차트 상단의 ‘수수료 무료’ 카테고리를 통해서도 확인 가능하다.문선일 빗썸 서비스부문장은 "빗썸은 이러한 이벤트를 통해 투자자들의 투자 진입 장벽을 낮추고, 신규 유입 증대를 통한 유동성을 확보하는 것이 목적"이라며 "이번 수수료 무료존 이벤트를 시작으로 보다 적극적이고 다양한 서비스를 선보일 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2023.08.08.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>무량판 아파트 293개 전수조사…주거동 하자발견 시 파장</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000346590?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>정부가 LH 아파트 '철근 누락' 사태의 후속 조치로 무량판 구조로 지어진 민간아파트에 대한 전수조사에 돌입합니다. 공정거래위원회도 아파트 건설 과정에서 철근을 누락한 시공사에 대한 현장 조사에 착수했습니다. 이 가운데 전국경제인연합회인 전경련의 새 수장으로 류진 풍산그룹 회장이 확정됐습니다. 박규준 기자, 우선 철근 누락 사태 관련해 전수조사 대상이 되는 아파트가 어느 정도 되나요?조사 대상은 무량판 공법이 적용된 민간 아파트 293개 단지입니다.  2017년 이후 준공된 188개 단지와 현재 공사 중인 105개 단지를 합친 규모고요, 총 25만 가구가 대상입니다.안전점검 기관은 도면 확인 후 시공 상태를 살피고, 콘크리트 내부 검사 장비를 동원해 철근이 제대로 들어있는지 확인할 것으로 보입니다.관건은 293개 단지 중 사람들이 거주하는 '주거동' 105개 단지입니다.주거동에서 철근 누락 등 부실시공이 확인되면 파장이 커질 것으로 보입니다.이 가운데 어제(7일) 공정위도 철근 누락 아파트 시공사 13곳 중 에이스건설 등 3곳을 대상으로 현장조사에 착수했습니다.나머지 업체를 대상으로도 순차적으로 현장조사에 돌입하는데요.공정위는 이들 건설사가 설계 및 감리 과정에서 담합을 했는지, 또 하도급업체에 대금을 제때 줬는지 등을 살펴보는 것으로 알려집니다.한편, 한국토지주택공사(LH)는 '철근 누락'과 관련 경찰에 수사 의뢰했는데요.그 대상에 내부 직원들도 다수 포함된 것으로 알려졌습니다.다른 소식 알아보죠. 전경련 새 수장이 사실상 확정이 됐죠?류진 풍산그룹 회장이 오는 22일 전경련 임시총회에서 회장으로 추대됩니다.이날 전경련은 명칭도 한국경제인협회인 '한경협'으로 바꿉니다.2001년부터 전경련 부회장으로 활동한 류진 회장은 재계의 대표적인 미국통입니다.선대 회장인 고 류찬우 회장 때부터 조지 부시 전 대통령 부자와 깊은 인연이 있는 등 탄탄한 미 정계 인맥을 보유한 것으로 알려집니다.  전경련은 삼성, SK 등 4대 그룹에 재가입 여부를 결정해달라고 요청해 뒀는데, 22일 임시총회에서 재가입이 성사될지 주목되는 상황입니다.산업계 소식 하나 더 알아보죠. 타다 매각이 불발됐다는 소식이 있어요?타다 모회사이자 토스 운영사인 '비바리퍼블리카'의 타다 매각이 불발됐습니다.유력한 인수 후보자였던 '더스윙'이라는 전동킥보드 운영사와의 매각 협상이 결렬된 건데요.애초 더스윙은 타다 운영사인 '브이씨엔씨' 경영권 지분 60%를 인수하는 방향으로 계약이 추진되고 있었습니다.하지만 브이씨엔씨의 2대 주주인 '쏘카'와 '더스윙'과의 지분관련 이견으로 결국 협상이 결렬된 것으로 알려집니다.앞서 타다는 아이엠택시 운영사에도 매각을 타진했지만, 무산된 적 있고요, 최근까지 타다는 인력을 절반으로 줄이는 등 상황이 좋지 않습니다.물가 소식 하나 짚어보죠. 최근 경유 가격 오름세가 심상치 않군요?국내 주유소 경유 가격이 리터당 1,500원을 넘어섰습니다.어제(7일) 기준 전국 경유 평균 판매 가격은 1,507원을 보였습니다.경유 가격이 1,500원대를 기록한 건 올해 5월 10일 이후 약 3개월 만입니다.어제 기준 휘발유 판매 가격도 1,684원으로, 1,700원대 진입을 눈앞에 두고 있습니다.이처럼 기름값이 뛴 데는 글로벌 에너지 수요 증가 속에서 산유국들이 감산에 나선 점이 영향을 줬습니다.특히 경유는 선박 및 산업 등에 다양한 용도로 쓰이는 만큼, 수급에 문제가 있으면 가격이 더 오를 수 있다는 전망입니다.박규준 기자, 잘 들었습니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2023.08.14.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>노랑풍선, 늦캉스 기획전 오픈…출발 임박 특가</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003125850?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>노랑풍선은 바쁜 일상 탓에 아직 여름휴가 계획을 세우지 못한 여행객을 위해 '늦캉스 기획전'을 연다고 14일 밝혔다.'캉스 기획전에서는 국내를 비롯해 유럽, 중국, 동남아를 포함한 전 지역의 인기 패키지 상품을 판매한다. 8월은 '출발 임박 특가' 상품, 9월에는 '추석 황금연휴 출발 확정' 상품으로 월별 카테고리를 구분했다.8월 출발 임박 특가 카테고리에서는 '보홀 4/5일' 상품을 판매한다. 리조트에서의 편안한 숙박은 물론 시내관광, 마사지, 특식까지 제공되는 세미패키지 상품이다. 자유시간도 포함되어 있으며 고객의 선택에 따라 호핑투어, 다이빙 체험도 즐길 수 있다.9월 '추석 황금연휴 출발 확정' 카테고리에서 추천하는 '괌 두짓비치 5일' 상품은 늦은 국적기인 티웨이항공을 이용한다. 늦은 밤 항공 일정으로 직장인의 경우 연차를 사용하지 않고 퇴근 후 바로 출발할 수 있어 더욱 알찬 황금연휴를 즐길 수 있다는 장점이 있다.이번 '늦캉스 기획전'에서는 예약자를 대상으로 할인혜택을 제공하는 프로모션도 마련했다.토스페이X신한카드 제휴카드로 1만원 이상 결제하는 고객에게는 7% 즉시할인 혜택을 제공하며 그 중 생애 첫 결제고객에게는 7% 토스포인트가 추가 적립된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>매월 영화 관람권에 팝콘 할인…LGU+, 알뜰폰 요금제 출시</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006964087?sid=105</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>토스모바일·KCT·KG모바일서 신규 가입 시 1년간 혜택'CGV요금제'를 소개하는 LG유플러스 모델. (LG유플러스 제공)(서울=뉴스1) 조재현 기자 = LG유플러스(032640)가 알뜰폰(MVNO) 이용 고객을 대상으로 영화 관람권과 팝콘·음료 할인권을 제공하는 'CGV요금제'를 출시했다고 1일 밝혔다.LG유플러스 망을 사용하는 중소 알뜰폰 사업자 '토스모바일', 'KCT', 'KG모바일'에서 가입할 수 있다. 신규 가입 고객은 1년간 매월 CGV 일반관 영화 관람권 2매와 팝콘(L) 1개+탄산음료(M) 2잔으로 구성된 'CGV콤보' 2000원 할인권을 받는다. 요금제는 '11GB요금제'(3만5200원~)와 '일 5GB요금제'(4만1800원~) 총 두 종류로 구성됐다. LG유플러스와 CJ CGV(079160)는 요금제 출시를 기념해 일반관 영화 2000원 할인권도 마련했다. 이 혜택은 LG유플러스 망 알뜰폰 이용 고객이면 누구나 받을 수 있다.유호성 LG유플러스 MVNO사업담당은 "알뜰폰 멤버십 혜택처럼 사용할 수 있는 요금제를 구상했다"며 "알뜰폰 사용자에게도 파격적인 혜택을 제공하고 중소 알뜰폰 사업자와 상생하도록 노력하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2023.08.03.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>[기고] 경직된 고향사랑기부제와 광주 동구의 시도</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002736880?sid=103</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>윤석열 대통령 강조한 지방시대의 길, 고향사랑기부제 어디에?[데일리안 = 데스크] 시행 8개월째로 들어선 고향사랑기부제가 여전히 자리를 잡지 못하고 있다. 제도 초기부터 국회에는 열 개가 훌쩍 넘는 개정안이 상정되었으며, 모금 실적 또한 신통치 않다. 지방자치단체(이하 지자체)가 지역문제 해결을 위한 모금 권한을 가졌다지만, 실제로는 행정안전부의 통제 아래 스스로 모금할 수 있는 권한은 없어 보인다.ⓒ고향사랑기부제는 지방재정 자립, 지역문제 해결 등 장밋빛 미래를 상상하며 시작됐지만, 현실은 다르다. 지자체는 제도 홍보만 할 수 있고, 모금을 권유할 수 없다. 지역문제를 해결하기 위해 어떤 모금을 한다고 알리는 ‘지정기부’는 행정안전부가 구축한 플랫폼 ‘고향사랑e음’에서 구현되지 않아 ‘깜깜이 모금’이란 지적도 받는다. 이러다보니 모금의 취지는 설명하지 못한 채, ‘세액공제’와 ‘답례품’이라는 혜택 중심의 홍보만을 모두가 반복하고 있다.8개월 간, 수많은 언론과 전문가들은 제도의 성공보다 제도 자체의 운용에만 집중된 행정안전부의 태도 변화를 요구해 왔지만, 여전히 변화는 없다.최근 광주광역시 동구에선 지역의 오래된 문제인 발달장애 청소년 야구단 지원과 국내에서 가장 오래된 단관 상영관 광주극장 지원을 하기 위해 고향사랑기부제를 활용하고 있다. 고향사랑e음을 통해 지정기부가 불가능하니, 고향사랑기부제 민간플랫폼을 통해 모금을 진행 중이다.그러나 이러한 광주 동구의 시도는 바로 위기에 직면했다. 행정안전부가 기부자의 주소지를 확인하고 모금한도액인 500만원을 확인해야 한다는 이유를 들면서부터였다. 사실 이 문제는 다음과 같이 해결할 수 있다. 고향사랑기부금법 제 14조 제1항 제1호에 따라 주소지가 다를 시 기부금을 기부자에게 반환하면 되고, 민법 제741조에 따라 500만원을 초과하는 부당이득은 기부자에게 반환하면 된다. 해결하자고 노력하면, 얼마든지 해결 가능한 문제인 셈이다.유사한 제한 조건을 가진 정치후원금은 역시 행정안전부가 구축한 플랫폼 ‘정치후원금센터’, 토스와 도너스 같은 민간플랫폼, 계좌이체 등 다양한 방식으로 기부자의 편의를 높인다. 고향사랑기부금과 마찬가지로 정치후원금을 관리하자고 들면, ‘정치후원금센터’에서만 기부금을 접수하고, 모든 것을 확인해야 하는 통제가 불가피해진다.광주 동구는 대도시 기초지자체 중 대표적인 지방소멸 지자체로서, 행정안전부가 ‘2022-2023년도 지방소멸대응기금’ 투자계획 평가에서 최고 등급을 받은 지자체다. 인구는 10만명 남짓이지만, 지난 3년 간 인구가 꾸준히 늘고 있는 보기드문 지자체며, 구도심 공동체 활성화, 도시재생 사업 등을 중앙정부 협업하며 훌륭하게 소화해 낸 모범 지자체다. 이들은 미래를 위해 보다 많은 대중과 공감하는 길을 선택한 셈이다.윤석열 정부의 주요 국정과제 중 하나는 ‘지방시대 실현을 위해 중앙정부 역할을 줄이고, 반대로 지방자치단체 역할은 대폭 키우겠다’는 것이다. 윤석열 대통령은 취임 60일만에 민선 8기 시·도지사와의 상견례 자리에서부터 “내치 권한을 지방으로 대폭 이양해야 한다. 중앙정부와 지방정부 간 권한 재조정을 통해 지방정부가 비교 우위에 있는 산업을 스스로 육성할 수 있도록 해야 한다”고 밝혔고, 지난 2월 중앙지방협력회의에서는 지자체 관련 규제 완화를 요청하는 시·도지사들에게 “중앙정부는 외교·안보·통상·산업 기본정책 등 꼭 필요한 부분 위주로 하고 나머지는 지방정부가 우선적으로 해야 한다”며 “각 지역의 일은 지역에서 책임을 갖고 스스로 해야 한다는 문화와 인식도 중요하다”고 덧붙였다.지자체에게 모금 권한을 줬다면, 그들이 스스로 지속가능한 생존을 모색할 수 있게끔 관리하는 것이 아닌 조력하는 형태로 지원하는 것이 행정안전부의 길이다. 고향사랑기부제에서 대통령이 강조한 지방시대 실현의 길을 목도했으면 하는 바람이다.글/권선필 한국지방자치학회 고향사랑기부제 특별위원장·목원대학교 경찰행정학부 교수</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2023.08.09.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>에이비일팔공(AB180), 120억원 규모 시리즈B 투자 유치</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005170163?sid=105</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>실리콘밸리 VC 스톰벤처스, KB인베스트먼트, SL인베스트먼트 신규 투자… 코오롱인베스트먼트 후속 투자로 총 120억원 신규 투자금 확보 데이터 머신러닝 기반 에이비일팔공(AB180) 솔루션의 글로벌 경쟁력과 성장성에 주목기술 및 서비스 고도화 통한 해외 공략 강화로 한국 SaaS 기업의 글로벌 성공 모델 자신 에이비일팔공 로고마케팅 테크놀로지 기업 에이비일팔공(AB180, 대표 남성필)이 최근 총 120억원 규모의 시리즈B 투자를 유치했다고 9일 공식 발표했다.이번 투자는 미국 실리콘밸리에 기반을 둔 벤처캐피탈(VC) 스톰벤처스(Storm Ventures)와 KB인베스트먼트, SL인베스트먼트가 신규 투자자로 참여했으며, 기존 투자자인 코오롱인베스트먼트도 후속 투자에 나섰다.2015년 설립된 에이비일팔공(AB180)은 기업이 데이터에 기반한 의사결정을 통해 마케팅 성과를 극대화할 수 있도록 돕는 마테크 애드테크 기업이다. 모바일 앱과 웹을 통합해 사용자의 행동 및 광고 기여도를 측정하고 분석하는, 자체 개발 솔루션인 ‘에어브릿지(Airbridge)’를 핵심으로, 프로덕트 분석 툴 ‘앰플리튜드(Amplitude)’, 마케팅 자동화 솔루션 ‘브레이즈(Braze)’ 등을 통해 기업 고객들에게 마케팅 전반에 대한 컨설팅 및 솔루션을 제공하고 있다.에이비일팔공(AB180)은 GS홈쇼핑, SC제일은행, SK텔레콤, 버거킹, 카카오스타일, 퀸잇, 토스 등 식품, 커머스에서 금융 업계에 이르기까지 다양한 산업군에 걸친 국내외 고객사들에게 서비스를 제공하고 있다. 책정된 마케팅 예산을 통해 최대의 매출 증진 효과를 달성하도록 돕는 에이비일팔공(AB180) 솔루션의 효과를 체감한 기업들의 수요가 높아지면서, 에어브릿지(Airbridge)는 2022년 말 기준, 전년 대비 200%가 넘는 연간반복매출(ARR) 성장을 기록했다.에이비일팔공(AB180)은 이번 투자 유치를 통해 데이터 머신러닝 기반의 기술을 고도화하고, 인프라 확충 등 서비스 역량을 강화해 해외 진출 및 글로벌 고객사 확보에 더욱 박차를 가할 계획이다. 현재 에이비일팔공(AB180)은 미국, 캐나다, 베트남, 말레이시아 등 전세계 20여개 국에 에어브릿지(Airbridge)를 판매하고 있으며, 에어브릿지(Airbridge)를 통해 전세계 약 200여개국 약 5,400만개의 디바이스에서 발생하는 광고 및 고객 데이터를 분석하고 있다.남성필 에이비일팔공(AB180) 대표는 “이번 투자 유치는 디지털 광고 및 마케팅 생태계에서 기술력을 인정받고, 글로벌 수준에서의 높은 시장성과 성장성이 입증된 결과”라며 “에이비일팔공(AB180)이 애드테크 산업의 글로벌 리딩 SaaS 기업으로 성장할 수 있도록 최선을 다할 것”이라고 포부를 밝혔다.스톰벤처스 관계자는 “한국 SaaS 기업의 성장성에 주목하고 있던 차에, 올해 한국 첫 투자사로 에이비일팔공(AB180)을 선택했다”라며 “한국 및 아시아권에서는 유일한 구글과 메타의 공식 인증 파트너라는 점에서 앞으로의 글로벌 성장 가능성과 비전을 높이 평가했다”고 투자 결정 이유를 밝혔다.지난 2019년 시리즈A부터 투자에 참여해 온 코오롱인베스트먼트 관계자는 “개인정보 보호 정책 등 디지털 광고 시장이 급변하는 환경에서, AI, 머신러닝 기술 등을 기반으로 기업들이 마케팅과 관련한 최적의 의사결정을 내릴 수 있도록 하는 솔루션의 도입은 더욱 가속화될 것” 이라며 “앞으로도 에이비일팔공(AB180)의 빠른 성장이 계속될 것으로 기대한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2023.08.07.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>크레텍, 산업공구 온라인 거래에 최고보안 서비스 탑재</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004876908?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>공구유통사 크레텍, 과기부 ISMS(정보보호관리체계) 인증 통과크레텍(대표 최영수)이 공구유통 전자상거래 서비스 최초로 정부가 주관하는 정보보호관리체계(ISMS, Information Security Management System) 인증을 획득했다고 7일 발표했다. 공구유통의 정보관리와 보안 수준을 끌어올림은 물론 산업공구 고객들이 안전하게 주문 거래를 하고 정보보호를 받을 수 있게 됐다.ISMS 제도는 과학기술정보통신부와 개인정보보호위원회가 고시하는 정보보호인증제다. 정보자산을 안전하게 관리하기 위한 위험관리, 대책, 사후관리, 조직 등 총 80개 세부기준에 대한 평가를 통과해야만 인증을 받으수 있다.크레텍의 산업공구온라인 주문시스템 CTX. 크레텍 제공.최근 인터넷 은행 토스, 국내최대 온라인편집숍 무신사 등에서 이 인증을 받은 바 있다. 인증 의무대상은 인터넷서비스제공사(ISP), 인터넷데이터센터(IDC), 정보통신서비스 부문 매출액 100억원 이상, 정보통신서비스 일일평균 이용자 수 100만명 이상 사업자 등이 해당되며, 의무대상이 아니어도 자율신청이 가능하다.크레텍은 이번 인증을 통해 공구업 보안 수준을 크게 향상시키게 됐다. 크레텍의 온라인주문시스템(CTX)과 홈페이지, 공구포털 등 모든 온라인 시스템에 안전성과 신뢰성이 강화됐다. 김진용 경영정보실 상무는 “앞으로도 정보보호에 지속적으로 힘써 고객이 안전하고 편리하게 이용할 수 있는 서비스를 제공하겠다” 고 밝혔다.오경묵 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2023.08.03.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>금감원, 토스 제재 여부 결론 '장고'…연내 조치가 목표</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003122606?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>토스금융당국이 주요 빅테크 3사(토스·카카오페이·네이버파이낸셜)에 대한 수시검사 일정을 마무리한 가운데, 토스에 대한 검사사후관리 조치만 결론이 나오지 않고 있어 그 배경에 관심이 쏠리고 있다. 금융감독원은 토스의 자금세탁방지(AML) 의무 위반, 신용정보법 위반 등에 대한 조사를 이미 끝마쳤지만 제재 여부 등에 대해서는 고심하고 있는 것으로 알려졌다.3일 업계에 따르면 금감원은 올해 토스를 대상으로 실시했던 수시검사 일정을 마무리하고 사후관리 조치에 대한 검토를 진행 중이다. 연내 결론을 내놓는 것이 목표다.금감원이 토스에 대한 수시검사에 나선 것은 지난해 3월이다. 당시 금감원은 빅테크의 금융업 진출 확대에 따른 소비자 피해를 예방하기 위해 대형 금융업자를 대상으로 현장검사를 벌였다.이어 카카오페이, 이듬해 네이버파이낸셜을 대상으로 수시검사가 진행됐고, 올해 2월 두 회사에 대해서는 AML과 고객확인업무 등에 대한 조치가 이뤄졌다. 의심스러운 거래 추출 기준 운영 및 고객 운영의 불합리 등이 적발돼 카카오페이 4건, 네이버파이낸셜 7건에 대해 각각 개선사항 통보가 진행됐다.이와 더불어 카카오페이의 경우 최근 금감원 수시검사에서 밴업체로부터 불법 지원금을 수수했다는 정황이 발견돼 경찰이 수사에 착수한 상태다. 이 같은 상황에서 유독 토스에 대한 금융당국의 제재만 결론이 늦어지는 것에 대한 업계 의구심이 커지는 상황이다. 통상적인 수시검사의 경우 검사 착수에서 결과 통보까지 길어봐야 6개월 가량 소요되는 것으로 알려져 있다.한 금융업계 관계자는 “금감원이 수시검사를 나갔는데 위반여부에 대한 증거가 없거나, 적발된 위반사항이 너무 중대해 결론을 내리기 어렵거나 둘 중 하나”라고 분석했다.토스에 대한 검사 결과가 너무 모범적이거나 부적합한 것이 원인일 수 있다는 해석이다. 만약 위반 사항이 중대하다면 제재가 미칠 여파를 고려해 연착륙을 방안을 고려해야 하는데, 이를 조율하는 과정에서 결론이 지연되고 있다는 시각도 있다. 앞서 금감원은 지난 2021년 케이뱅크와 업무협약을 맺고 AML 운영체계를 점검하는 협력을 진행한 바 있다.금감원 관계자는 “검사 대상 기업과 협력사안에 대한 구체적인 내용은 공개하기 어렵다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2023.08.08.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>토스뱅크 박준하 "200만원 송금의 한계…은행까지 열었다"[대학생 미래캠프]</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006978342?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>"직접 개발한 신용평점모형으로 중저신용자 대출↑""끊임없는 테스트 반복, 성과에 큰 영향…현재도 'ing'"박준하 토스뱅크 CTO가 8일 오전 서울 종로구 SC제일은행 본사 대강당에서 열린 '2023 뉴스1 대학생 미래캠프'에서 '토스뱅크 이야기'를 주제로 특별강연을 하고 있다.2023.8.8/뉴스1 ⓒ News1 김도우 기자(서울=뉴스1) 김정현 기자 = 박준하 토스뱅크 최고기술책임자(CTO)가 개발자와 스타트업 창업을 꿈꾸는 대학생들에게 '제한과 제약을 깨는 정신'과 끊임없는 '테스트'의 중요성을 강조했다.박 CTO는 8일 오전 서울 종로구 SC제일은행 대강당에서 열린 '청년재단과 함께 하는 2023 뉴스1 대학생 미래포럼'에서 토스와 토스뱅크가 걸어온 길에 대해 100여명의 대학생들을 대상으로 특강을 진행했다. 이날 박 CTO는 IT기업의 CTO답게 반팔·반바지의 자유로운 복장으로 연단에 섰다.한국과학기술원(KAIST) 전산학과 출신인 박 CTO는 지난 2002년 창신소프트에서 커리어를 시작하며 IT 스타트업 생태계에 뛰어들었다. 2004년 네이버로 자리를 옮겨 유저 분석 시스템, 메인 페이지, 부동산 서비스 개발을 담당했다. 이후 매드스마트, 파이낸시스, 열두시, 플레이독소프트 등을 거쳐 지난 2017년 비바리퍼블리카(토스)에 합류했고, 현재는 토스뱅크의 CTO를 맡고 있다.박준하 토스뱅크 CTO가 8일 오전 서울 종로구 SC제일은행 본사 대강당에서 열린 '2023 뉴스1 대학생 미래캠프'에서 '토스뱅크 이야기'를 주제로 특별강연을 하고 있다. 2023.8.8/뉴스1 ⓒ News1 김도우 기자이날 박 CTO는 송금 시스템으로 시작해 성장·발전한 토스 및 토스뱅크에 대해 "원래 은행을 직접 경영하는 대신 플랫폼만 운영할 생각이었는데, 기존 금융에서 안되는 것들이 많아 이를 IT 기반 회사라면 뭔가 바꿔볼 수 있지 않을까라고 생각이 있었다"고 말했다.이어 "또 기존 토스의 선불전자지급사업자의 송금한도인 200만원에 대해 한계를 넘으려면 은행을 해야한다는 목소리도 있었다"며 "이같은 200만원의 한계 때문에 정말로 큰 일인 은행을 한다는 결정까지 갈 정도로 제약을 깨는 일을 계속하셔야 한다"고 당부했다.박 CTO는 이 성과로 현재 토스뱅크의 '중저신용자 대출'이 있다고 설명했다. 현재 토스뱅크에서는 직접 개발한 신용평점모형으로 기존 1금융권에서 대출을 못받는 사람 중 갚을 능력이 있는 사람을 가려내 중저신용자 대출 서비스를 제공하고 있어, 중저신용대출 비중이 약 42%에 달한다.8일 오전 서울 종로구 SC제일은행 본사 대강당에서 열린 '2023 뉴스1 대학생 미래캠프'에서 한 참가자가 박준하 토스뱅크 CTO에게 질문을 하고 있다.  2023.8.8/뉴스1 ⓒ News1 김도우 기자또 박 CTO는 "성과가 좋은 팀에 대한 분석 결과 '테스트 숫자'가 가장 큰 영향을 끼쳤다"며 "끊임없는 테스트의 반복이 중요하다"고 강조했다.이어진 질의응답에서 스타트업 창업을 꿈꾸는 학생의 '의사결정 검증' 대한 질문에도 "토스의 간편송금도 성공 여부를 창업자들끼리 이야기해본다고 결론을 낼 수 있는 게 아니라 테스트를 통해 검증했어야 했다"며 "현재도 토스뱅크에서는 버튼 위치 등 사소한 것들까지도 '페이크 테스트'까지 동원해 여러 방식의 테스트를 반복하고 있는데, 이같은 작고 빠른 변화들이 결국 성과를 내는데 굉장히 큰 효과가 있었다"고 답변하기도 했다.마지막으로 박 CTO는 개발자에게 중요한 자질을 묻는 질문에 대해서는 "아무리 가벼워 보이는 단순한 문제라도 회피해서는 안된다"며 "문제가 해결된 뒤에도 왜 이런 문제가 생겼는지 끊임없이 파고들어야 한다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2023.08.07.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>KB證, 토스뱅크 고객 대상 특판 발행어음 판매 실시</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005296783?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>KB증권이 7일 오전 11시부터 토스뱅크를 통해 연 최대 세전 4.55% 수익률을 지급하는 발행어음 특판을 실시한다고 밝혔다.KB증권은 토스뱅크를 통한 발행어음 판매를 기념하며 2000억원 한도로 특판 발행어음을 준비했다. 특판 발행어음은 토스뱅크를 통해 KB증권 계좌를 개설한 개인고객을 대상으로 판매를 진행하며 개인별 최소 100만원부터 매수가 가능하다.특판 발행어음은 정해진 기간없이 사고팔 수 있는 수시식(세전 연 3.7%) 발행어음과 6개월마다 더 높은 수익률로 1년까지 재투자하는 스텝업(1회차 세전 연 4.4%, 2회차 세전 연 4.55%) 발행어음으로 구성돼 투자목적에 맞게 상품을 선택할 수 있다.특히 스텝업 발행어음은 발행어음 판매사 중 유일하게 KB증권만 판매하는 상품으로, 최초 가입시 약속한 6개월 단위의 수익률을 제공하며 최초 6개월 이후 더 높은 수익률로 원금 또는 원금+이자로 재투자 여부를 결정할 수 있다. 가입 당시 재투자 수익률이 결정되기 때문에 향후 금리 하락을 예상하는 경우 유리한 상품이다.또한 토스뱅크 연계계좌 개설 이벤트로 8월 말까지 토스뱅크를 통해 KB증권 위탁계좌를 최초 개설한 신규 고객대상으로 해외주식쿠폰 1만원권을 지급하며 지급받은 해외주식쿠폰을 이벤트 기간 내에 사용한 경우 주식쿠폰 1만원권(국내주식 5000원+해외주식 5000원)을 추가로 지급하는 이벤트도 진행중이다.하우성 KB증권 플랫폼총괄본부장은 "이번 특판 발행어음 판매를 통해 고객에게 약속된 수익금을 지급받는 경험을 제공할 수 있게 됐다"며 "향후 KB증권의 경쟁력 있는 금융상품 라인업을 지속적으로 확대해 고객 자산관리에 도움이 될 수 있도록 노력할 것"이라고 말했다.발행어음은 발행한도 초과 시 신규 또는 추가매수가 사전예고 없이 중단될 수 있고 발행사인 KB증권의 신용위험(부도 또는 파산)으로 원금 및 수익금을 제때 지급받지 못하거나 원금의 손실이 발생할 수 있으며 이는 투자자에게 귀속된다. 기타 자세한 사항은 KB증권 홈페이지나 고객센터로 문의하면 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2023.08.12.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>주담대 키우는 인뱅, 영끌 조장?… 올 상반기 카뱅 5배·케뱅 2배 폭증</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000941755?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>서울 용산구 카카오뱅크 서울오피스./사진=장동규 기자 카카오뱅크와 케이뱅크 등 두 인터넷전문은행이 올 상반기 주택담보대출 영업에 공격적으로 나서면서 금융당국이 이들 주담대 확대 행태에 대한 집중 점검을 예고했다. 은행권 가계대출이 사상 최대치를 찍은 가운데 중저신용자 포용이라는 설립 취지와 무색하게 인터넷은행들이 주담대 자산을 늘리는 데 몰두하자 금융당국이 제동에 나서는 것으로 분석된다.12일 금융권에 따르면 금융위원회는 지난 10일 기획재정부, 국토교통부, 한국은행, 금융감독원, 은행연합회, 주택금융공사 등 유관기관과 '가계부채 현황 점검회의'를 열고 최근 가계대출 증가의 주요인으로 주담대를 꼽았다.지난달 은행권 가계대출 잔액이 1068조1000억원으로 사상 최대치를 기록, 4개월 연속 증가세를 보였다. 7월 주담대 규모는 820조8000억원으로 한달만에 6조원 증가했는데 이는 5개월 연속 상승인 동시에 지난 2021년 7월(6조원) 이후 가장 큰폭의 증가세다.금융당국은 최근 인터넷은행들이 주담대 규모를 공격적으로 늘리고 있다는 데 주목했다. 인터넷은행 주담대는 대출 심사와 실행 등 전 과정이 100% 비대면으로 진행되는 만큼 대출자에 대한 심사가 제대로 이뤄지고 있는지 등을 집중 점검하겠다는 게 금융당국의 계획이다.━인뱅 주담대 증가가 가계빚 증가 불쏘시개?━주담대를 통해 실적 개선을 일구고 있는 인터넷은행들은 '억울하다'는 입장이다. 한 인터넷은행 관계자는 "5대 은행 주택담보대출 잔액이 지난달 말 기준 약 513조인데 이중 약 1%에 해당하는 인터넷은행 주담대가 전체 가계대출 잔액에 끼치는 영향은 무척 미미하고 가계대출 증가 견인의 불쏘시개가 아니다"고 토로했다.현재 인터넷은행 3사 중 주담대를 취급하는 곳은 카카오뱅크와 케이뱅크 두곳 뿐이다. 토스뱅크의 경우 내년 주담대를 출시할 계획이다.카카오뱅크의 올 2분기 말 기준 주담대 잔액은 5조5200억원으로 지난해 말(1조1960억원)과 비교해 약 4.6배 급증했다.지난해 2월 주담대를 출시한 카카오뱅크는 그해 1분기 말 460억원에서 2분기 1920억원, 3분기 5040억원, 4분기 1조1960억원으로 주담대 규모를 점차 키워왔다.특히 올해 들어 카카오뱅크의 주담대 증가세는 더 가팔라진 모습이다. 올 상반기에만 카카오뱅크 주담대가 4조3240억원 증가했다.전체 대출에서 주담대가 차지하는 비중도 지난해 1분기 0.2%에서 2분기 0.7%, 3분기 1.8%, 4분기 4.3%, 올 1분기 8.0%로 한 자릿수를 보이다가 올 2분기 16.3%로 급등했다.카카오뱅크 관계자는 "올 2분기 주담대 신규 취급액 3조5000억원 중 약 60%(2조1000억원)가 대환 목적이었다"며 "이미 시중은행에서 주담대를 갖고 있는 고객들의 갈아타기 수요가 높아진 것으로 전체 주담대 증가를 이끌었다고 보기엔 어렵다"고 말했다.카카오뱅크는 시중은행 대비 낮은 금리의 주담대 상품을 판매하고 중도상환해약금 면제 등 혜택을 제공해 주택 구입을 희망하는 실수요자들의 금융비용 부담을 덜어줬다는 게 카카오뱅크 츨 설명이다.케이뱅크는 아파트담보대출 잔액은 지난해 12월 말 1조2000억원에서 6월 말 2조4000억원으로 두배 증가했다.━인뱅 주담대 늘리는 이유는… 중저신용자 목표치는 모두 하회━이처럼 인터넷은행들이 주담대를 크게 늘리는 이유는 대출 포트폴리오를 다각화하고 건전성을 높이기 위해서다.주담대는 연체가 발생해도 주택을 경매로 매각해 원금을 대부분 회수할 수 있어 신용대출에 비해 상대적으로 리스크가 적은 대출로 분류된다.이에 인터넷은행은 시중은행 대비 낮은 대출금리를 내세워 주담대 규모를 급격하게 늘려왔다. 은행연합회에 따르면 지난달 신규 취급액 기준 카카오뱅크의 분할 상환 주담대 평균 금리는 연 4.02%로 은행권에서 가장 낮았다. 이어 케이뱅크가 4.09%였다. 5대 시중은행은 연 4.3~4.74%로 집계됐다.일각에선 인터넷은행들이 최대 과제인 중저용자 대출 확대에는 소홀하고 주담대 확대라는 외형성장에만 치중하고 있다는 지적도 나온다.올해 연말까지 인터넷은행 3사의 중저신용자 목표 비중은 카뱅 30%, 케이뱅크 32%, 토스뱅크 44%인데 지난 3월 말 기준으로 각각 26%·24%·42%를 기록, 목표치를 모두 밑돌고 있다.카카오뱅크는 올 2분기까지 해당 비율을 27.7%로 끌어올렸다고 발표했지만 하반기 2.3%포인트 더 끌어올려야 하는 상황이다.케이뱅크는 올 2분기 인터넷은행 3사 중 유일하게 중금리 대출을 줄였다. 올 2분기 중금리 대출을 카카오뱅크는 56%, 토스뱅크는 46% 늘렸는데 케이뱅크만 같은 기간 24% 줄였다.금융당국 관계자는 "연체율이 높아지면서 중저신용자에게 대출을 내주는게 쉽지 않지만 설립 취지상 중저신용자 대출 확대가 우선돼야 한다"며 "수익성만 고려하는 것은 아닌지 점검할 필요가 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2023.08.12.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>밀키트 무인매장 이용시 '위생 상태' 꼭 확인하세요</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/053/0000037853?sid=102</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>서울 시내의 한 무인 아이스크림 가게에서 고객이 아이스크림을 구매하고 있다. photo.뉴시스식품을 판매하는 무인매장이 빠르게 늘고 있다. 가장 흔히 볼 수 있는 아이스크림 무인매장부터, 밀키트, 과자 전문점, 심지어 고기나 생선을 파는 곳도 있다. 무인매장의 수도, 무인매장에서 취급하는 식품의 범위도 점점 확대되고 있는 가운데, 일부 무인매장의 위생상태가 도마에 올랐다. 한국소비자원이 무인매장 29곳에서 판매하는 밀키트·과자·생선회·육회 등 35개 식품의 안전성과 표시사항 등을 조사한 결과, 무인매장에서 판매하는 식품 중 일부 육회 제품에서 식중독균이 검출됐다. 또 소비기한이 한참 지난 식품이나, 나트륨 함량이 기준에 부합하지 못한 제품도 나왔다.한국소비자원은 전국 29개 점포를 무작위로 골라, 거기서 판매하는 식품 35개의 안전성과 표시사항을 조사했다.소비자원에 따르면 손질된 육류를 포장·판매하는 무인정육점에서 구매한 육회 2개 제품 중 진성그린푸드가 판매한 1개 제품에서 식중독균인 황색포도상구균이 검출됐다. 무인밀키트 판매점에서 구입한 불고기 제품 10개 중 어라운드에이치큐 1개 제품은 버섯·파·양파 등의 재료가 변질돼 있었다.무인과자점 12개 매장 중 1개 매장은 소비기한이 경과한 과자 4개 제품을 판매했고, 이 중 1개는 소비기한이 100일 이상 지난 것으로 확인됐다. 해당 무인과자점은 현재 폐업한 상태다.전체 조사대상 35개 식품 중 영양성분이 표시된 15개 제품의 실제 나트륨 함량을 확인한 결과, 4개 제품이 표시기준에 부적합했다. 해당 제품은 500 차카니·추억의 옛날 그 맛 월드컵 어포·피시스낵 스파이스맛·피아토스 치즈향 감자칩이었다. 의무표시사항인 소비기한·내용량 등을 기재하지 않은 제품도 5개(오늘쉐프 오늘은 소불고기·요리비책 간장 소불고기·원셰프의 행복식탁 전통소불고기 전골·집어가 소불고기 버섯전골·팔도만찬 광양불고기)가 적발됐다. 또 4개 제품(옐로우스푼 고기듬뿍 소불고기 전골·요리비책 간장 소불고기·원셰프의 행복식탁 전통 소불고기 전골·집어가 소불고기 버섯전골)은 관련 내용을 잘못 표기했다.한국소비자원은 이번 조사결과를 바탕으로 식품을 판매하는 무인매장 사업자에게 식품의약품안전처의 2023년 식품안전관리지침의 '무인 식품취급시설 안전관리'를 참고해 매장을 관리할 것을 권고하고, 식품의약품안전처에는 무인매장 사업자에 대한 위생관리 교육 및 홍보를 요청할 계획이다.※주간조선 온라인 기사입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2023.08.07.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>토스뱅크, '목돈 굴리기' 누르면 kb증권 발행어음 소개</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002153960?sid=105</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>[ⓒ토스뱅크][디지털데일리 박세아 기자] 토스뱅크는 '목돈 굴리기' 서비스에서 연 최대 4.55% 수익률을 제공하는 KB증권 발행어음을 소개한다고 7일 밝혔다.KB증권 발행어음은 토스뱅크를 통해서만 소개되는 특판 상품으로 최소 100만원부터 가입이 가능하고 가입대상은 토스뱅크에서 KB증권 증권계좌를 개설한 고객이다.이번 KB증권 특판 발행어음은 고객의 투자 성향에 따라 수시식 발행어음과 스텝업식 발행어음을 선택할 수 있다.수시식 발행어음은 자유만기식 상품으로 1일부터 360일 이내에서 만기를 자유롭게 가져갈 수 있고 연 3.7%의 수익률을 제공한다. 스텝업식 발행어음은 처음 6개월까지는 연 4.4%의 수익률을 제공하고 이후 6개월 추가 유치시 연 4.55%의 수익률을 제공한다.특히, KB증권의 스텝업식의 발행어음은 고객이 편의에 따라 재투자 여부를 선택할 수 있는 상품으로 처음 가입한 6개월 후에 상환할 수도 있고, 최초 6개월 이후 투자기간을 더 연장하면 더 높은 수익률을 받을 수 있는 KB증권만의 특화된 상품이다.이번 토스뱅크의 KB증권 발행어음 소개 개시를 기념해 8월말까지 다양한 혜택을 제공하는 이벤트도 진행한다. 토스뱅크를 통해 KB증권 증권계좌를 최초 신규로 개설한 고객에게는 해외주식쿠폰 1만원을 지급한다. 지급받은 해외주식쿠폰을 이벤트 기간 내에 사용하면 국내 주식 5000원과 해외주식 5000원 쿠폰을 추가로 지급한다. 국내 주식 수수료도 5년동안 우대 혜택을 제공한다.발행어음 가입을 위한 KB증권 계좌 개설은 토스뱅크 내에서 목돈 굴리기 메뉴를 선택하고 계좌개설에 필요한 본인실명확인 절차 등을 거치면 개설이 가능하다.목돈 굴리기는 지난 해 8월 서비스를 출시한 이후 4일만에 준비한 발행어음 특판 한도를 모두 소진했다. 8월 현재 목돈 굴리기를 통해 소개한 금융투자상품은 2조5000억원에 달한다.토스뱅크 관계자는 "시중금리 보다 높은 수익률을 추구하는 고객들의 니즈를 해소할 수 있는 KB증권의 발행어음 상품을 토스뱅크에서 편리하게 만나볼 수 있다"라며 "국내 대형증권사들의 경쟁력있는 금융투자상품을 더욱 다양하게 소개할 수 있도록 할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>부동산 투자한다면?...10명 중 6명 ‘강남’</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002300695?sid=105</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>카사 공모 건물 위치 선호도 설문조사…"강남 불패신화 건재”부동산 투자 지역으로 강남 지역, 그 중에서 압구정과 청담, 신사에 투자 심리가 높은 것으로 나타났다. ‘강남 불패신화’가 여전히 건재한 것으로 풀이된다.부동산 디지털 수익증권(DABS) 거래 플랫폼 카사가 하반기 신규 공모를 앞두고 ‘공모 건물 위치 선호도 설문조사'를 진행했다고 1일 밝혔다.카사 앱 이용자 2천176명을 대상으로 진행된 이번 설문조사에 따르면 전체 투표 참여자의 56%가 ‘강남지역’에 투자하고 싶다는 응답을 보였다.카사세부적인 응답률로는 압구정·청담·신사 지역이 31%로 1위를 차지했다. 이 지역은 ‘압구정 로데오거리’가 식음료 핫플레이스의 성지로 주목받는 등 MZ세대의 발걸음이 지속 증가하면서 예전의 명성을 되찾고 있는 곳이다. 압구정 지역에는 에르메스 도산 등 명품 스토어를 비롯 노티드, 런던베이글 등 최근 주목받는 식음료매장 또한 즐비하며 올해 1분기 임대가격지수 역시 107.58로 전년 동기(100.89, 출처: 한국부동산원)대비 대폭 상승한 바 있다.2위 또한 강남역·역삼역·삼성역 등 2호선 강남 핵심 지역이 25%로 2위를 차지했다. 해당 지역은 토스, 쿠팡, 마켓컬리 등 국내 주요 스타트업이 위치한 지역으로, ‘테헤란로 밸리'라 불리며 최근 젊은 세대들이 가장 일하고 싶은 지역으로 손꼽힌 곳이다.카사 측은 “GBD(Gangnam Business District·강남업무지구) 지역으로 불리는 범 강남지역에 위치한 상업용 부동산에 대한 압도적인 투자 선호도가 반영된 결과”라고 분석했다.3위는 역시 강남 인근에서 가까운 성수·서울숲이 꼽혔다. 해당 지역은 최근 유명 명품브랜드의 팝업 스토어와 대형 이벤트가 연이어 개최되며 젊은 세대들의 관심이 지속해서 이어지는 곳이다. 과거 오래된 공장 등이 레트로 분위기를 입힌 힙한 음식점으로 변모하면서 한국의 브루클린이라는 별명을 얻기도 했다. 이 곳 역시 젊은 세대들의 발길이 이어지면서 국토교통부 발표 기준 평균 상업용부동산 매매가가 1년 사이 60%이상 껑충 뛴 바 있다. 이어 여의도·국회의사당 인근 및 광화문·을지로 등의 전통적인 업무지구 역시 이용자들의 선택을 받았다.홍재근 카사 대표는 “부동산 투자 불확실성 헷지를 위해 견지해야 할 핵심 가치는 입지”라면서, “복합적인 경제여건 속에서도 ‘강남불패’ 신화는 건재한 것으로 보인다”며 “카사는 이번 투표 결과를 바탕으로 우량한 입지에 있는 매력적인 부동산들을 곧 선보이게 될 것”이라고 밝혔다.조각투자 혁신금융서비스인 카사는 지난 3월 대신파이낸셜그룹에 인수됐다. 카사는 강남, 여의도 등에 위치한 상업용 부동산, 호텔, 물류센터 등 총 384억7천만원 규모의 공모를 진행하며 개인들의 상업용 부동산에 대한 투자 접근성을 높였다는 평가를 받았다.총 6건의 공모 조기완판과 더불어 2건의 매각으로 10%대의 누적 수익률을 기록하며 시장의 주목을 받아온 카사는 이달 10일 대신증권 계좌 개설 오픈을 시작으로 9월 중 공모를 재개할 방침이다. 신규 공모에 맞춰 9일까지 카사의 새로운 공모 지역을 맞추는 SNS이벤트가 카사 인스타그램 공식 계정에서 진행되며, 추첨을 통해 치킨·커피 쿠폰 등의 경품을 지급한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2023.08.09.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>신한카드·토스, 상생금융 '데이터 협력'</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004878091?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>금융 소외계층 신용 평가 대안 모델 공동 개발하기로신한카드(사장 문동권·왼쪽)와 토스 운영사 비바리퍼블리카(대표 이승건·오른쪽)가 금융 소외층을 위한 대안신용평가 모델을 개발하기로 했다. 신한카드는 지난 8일 서울 을지로 본사에서 비바리퍼블리카와 이런 내용의 ‘데이터 공동 사업을 위한 신용평가모델 및 금융 서비스 개발 업무협약’을 맺었다.비바리퍼블리카는 토스 플랫폼 데이터를 활용해 기존 신용평가 시스템을 보완할 신용평가모델 기반을 조성하고, 신한카드는 소비 행동 패턴 정보, 디지털 로그 데이터 등을 제공할 예정이다. 대안신용평가는 온라인 구매 정보, 요금 납부 이력 등 비(非)금융정보를 활용해 신용등급을 평가하는 방식을 말한다. 두 회사는 이를 통해 사회초년생과 주부, 소상공인, 프리랜서 등 금융 이력 부족자(신파일러)가 금융 서비스를 보다 쉽게 이용할 수 있을 것으로 예상했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>"1년 내내 매달 영화티켓 2장 드려요" CGV요금제 나왔다</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005294277?sid=105</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>CGV콤보 할인권을 매달 제공일 5GB·11GB 요금제 신규 가입 시 혜택U+망 알뜰폰 고객에게 영화 2000원 할인도LG유플러스가 1일 "CJ CGV와 함께 알뜰폰(MVNO) 이용 고객을 대상으로 영화 관람권과 콤보 할인권을 제공하는 ‘CGV요금제’를 출시했다"고 밝혔다. CGV요금제는 LG유플러스 망을 사용하는 중소 알뜰폰 사업자인 ‘토스모바일’, ‘KCT’, ‘KG모바일’ 세 업체를 통해 가입할 수 있다. 해당 요금제 신규 가입 고객에게는 12개월간 매월 CGV 일반관 영화 관람권 2매와 팝콘(L) 1개+탄산음료(M) 2잔으로 구성된 ‘CGV콤보’ 2000원 할인권이 제공된다.요금제는 ‘11GB요금제’(3만5200원부터)와 ‘일 5GB요금제’(4만1800원부터) 등 두 종류로 구성됐다. 월 이용요금은 각 사업자별로 상이하다. 중소 알뜰폰 상생 파트너십브랜드인 ‘+알파(https://mvnopartners.uplus.co.kr/)’에서 한 눈에 확인할 수 있다. 이번 CGV요금제는 영화관람을 좋아하는 알뜰폰 고객에게 정기적인 혜택을 제공해 그동안 부족했던 멤버십 서비스를 보완하고, 중소사업자와의 상생을 위해 기획됐다.LG유플러스와 CGV는 요금제 출시를 기념해 CGV 일반관 영화 2000원 할인권을 제공한다. 이 혜택은 U+망 알뜰폰 이용 고객이라면 사용중인 요금제에 관계없이 누구나 받을 수 있다. 유호성 LG유플러스 MVNO사업담당은 “U+망 알뜰폰 사용 고객들이 알뜰폰 멤버십 혜택처럼사용할 수 있도록 CGV요금제를 구상했다”며 “앞으로도 더 많은 고객이 알뜰폰을 경험할 수 있도록 파격적인 혜택을 제공하고, 중소 알뜰폰 사업자와 상생을 위해 다양한 제휴를 추진하도록 노력하겠다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>"예금 비교추천 플랫폼 가장 성공적"…자동차금융·알뜰폰 사업도 후한 점수</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004221365?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>[리빌딩파이낸스 2023]■금융CEO, 혁신금융서비스 평가부동산·지재권 등 조각투자 플랫폼주담대 비교·가족카드도 긍정 평가[서울경제] 혁신금융 서비스로 지정된 250여 개 금융 서비스 가운데 금융회사 최고경영자(CEO)들은 ‘예금 상품 비교 추천 온라인 플랫폼’을 가장 성공적으로 평가하는 것으로 나타났다.1일 서울경제신문이 국내 금융기관 CEO 50명을 대상으로 진행한 ‘국내 금융사의 비이자이익 확대 방안’과 관련한 설문조사 결과 금융 당국이 지정한 혁신금융 서비스 중 가장 성공적으로 평가하는 사례에 대해 절반이 넘는 27명이 예금 상품 비교 추천 온라인 플랫폼을 꼽았다. 예금 상품 비교 추천 서비스는 지난해 신한은행·뱅크샐러드·핀크 등 8개 기업이 신청해 혁신금융 서비스로 지정된 후 올해는 대형 카드사와 핀테크 기업들이 추가 지정을 받아 현재 20여 개사들이 서비스를 제공하거나 준비하고 있다. 예금 상품 비교 추천 플랫폼 서비스를 제공하는 금융사가 많아 가장 성공적인 혁신금융 서비스로 꼽혔을 수 있다는 분석도 가능하다.‘고객 데이터 기반의 자동차 금융 플랫폼’을 성공적인 서비스라고 꼽은 CEO들도 26명이나 됐다. 자동차 금융과 관련해 혁신금융 서비스 지정을 받은 곳은 마이데이터 플랫폼 ‘모니’의 운영사로 알려져 있는 ㈜핀테크의 ‘고객데이터 기반 자동차금융 플랫폼’과 KB국민카드가 제공하는 ‘중고차 개인 직거래 카드 안전결제 서비스’ 등이 있다. 자동차 금융 시장에 대한 금융기관 CEO들의 관심을 반영한 결과로 분석된다.혁신금융 서비스 1호인 알뜰폰에 대한 CEO들의 평가도 후한 편이었다. 20명의 CEO들이 알뜰폰 사업을 성공적이었다고 평가했다. KB국민은행이 알뜰폰 브랜드 ‘리브엠(Liiv M)’을 운영하고 있는데 올해 초 부수 업무로 인가를 받았다. 현재 금융권에서는 토스 운영사 비바리퍼블리카가 지난해 중소 알뜰폰 업체인 머천드코리아를 인수한 후 올해 초부터 새 서비스인 ‘토스 모바일’을 제공하고 있다. 금융 당국으로부터 부수 업무로 인가를 받은 데다 금융사들의 관심도 높은 만큼 앞으로 금융권의 알뜰폰 시장 진출이 활발해질 가능성도 크다.이외에 부동산·저작권 등 조각투자 플랫폼(13명), 대출모집인 활용 주택담보대출 비교 플랫폼(11명), 가족카드 서비스(9명), 음식 주문 중개 플랫폼(6명) 등의 순으로 금융사 CEO들의 관심을 받았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2023.08.09.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>토스뱅크, 최고 연 5% '토스뱅크 자유 적금' 출시</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012021574?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]이주혜 기자 = 토스뱅크가 복잡한 조건 없이 매월 꾸준히 저금만 하면 우대금리를 적용해 최고 연 5% 금리 혜택을 제공하는 '토스뱅크 자유 적금'을 출시한다고 9일 밝혔다.토스뱅크 자유 적금은 복잡한 우대조건 없이 가입한 기간 동안 매달 자동이체로 저금만 하면 누구나 최고금리를 받을 수 있다.가입기간은 최소 3개월부터 최대 36개월까지다. 월 납입한도는 최대 300만원으로 가입 시 설정되는 자동이체 이외에도 한도 범위 내에서 자유롭게 추가 저금이 가능하다. 기본 금리는 가입기간에 따라 차등 적용되며 12개월 이상으로 가입하는 경우 매월 자동이체를 모두 성공하면 최고 연 5% 금리 혜택을 받을 수 있다. 적금 가입 전 고객이 받을 이자도 미리 계산해볼 수 있다. 토스뱅크 자유 적금 가입 과정에서 고객이 원하는 매월 저금액, 기간 등 가입조건을 만들면 만기 시 받을 수 있는 이자(세전)를 확인할 수 있다. 비과세종합저축으로 가입 가능해 대상자인 경우에는 적금 가입 시 손쉽게 비과세 적용하기를 클릭하면 별도 서류제출 없이 비과세 혜택도 누릴 수 있다. 토스뱅크 관계자는 "고객이 적금을 가입하는 과정에서 우대금리를 받기 위한 복잡한 조건을 신경 쓸 필요없이 오로지 저축에만 집중할 수 있도록 돕고 싶었다"며 "앞으로도 고객들이 좋은 혜택을 쉽고 간편하게 누릴 수 있는 은행이 되도록 노력할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2023.08.15.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>헤드헌터로 변신한 벤처캐피탈?...투자는 물론 인재까지 연결</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004925350?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>에이티넘·베이스인베·알토스 등 피투자사 채용 돕는 HR 전문가 속속 영입[이 기사에 나온 스타트업에 대한 보다 다양한 기업정보는 유니콘팩토리 빅데이터 플랫폼 '데이터랩'에서 볼 수 있습니다.] #노코드 기반 홈페이지 제작 플랫폼을 운영하는 '아임웹'은  2021년 창업 8년만에 알토스벤처스로부터 100억원 규모로 첫 투자를 받았다. 투자 후 아임웹이 알토스벤처스에 가장 먼저 도움을 요청한 점은 바로 '채용'이다. 구글 출신의 최고기술책임자(CTO), 골드만삭스 IB 출신 CSO(최고전략책임자) 등 아임웹의 C레벨은 모두 알토스벤처스를 통해서 영입했다. 이수모 아임웹 대표는 "헤드헌터나 외부 채용공고를 통하면 속도도 느리고 적합한 사람을 찾지 못할 수도 있다"며 "투자사와 채용 고민을 나누다 보면 전반적인 기업의 전략, 인사, 해외진출, 마케팅의 다면적 요소를 객관적으로 바라보고 도움을 주기 때문에 적시에 좋은 사람을 찾을 수 있다"고 말했다.최근 벤처캐피탈(VC)들이 피투자사(포트폴리오사)의 인재 확보를 돕기 위해 인적자원(HR) 전문가를 채용하고 있다. 투자 등 재무적 지원 외에 스타트업 성장에 필요한 인재 영입까지 직접 챙기고 나선 것이다. 14일 VC업계에 따르면 에이티넘인베스트는 최근 정보영 전 컬리 HR 리더를 그로스파트너본부 소속의 인사관리(HR) 매니저로 영입했다. 정 매니저는 포트폴리오사의 C레벨 등 주요 인력채용 지원, 조직문화·인사제도 수립 지원 등의 업무를 맡을 예정이다. 에이티넘인베스트 관계자는 "지난해 포트폴리오사의 성장에 필요한 부분을 지원하기 위해 그로스파트너본부를 설립했고 최근 HR 담당자를 영입했다"며 "투자 이후 적극적인 지원을 통해 다방면에서 실질적인 도움을 주는 '파트너'로서의 역할을 강화할 예정"이라고 말했다.━알토스·베이스인베스트먼트도 HR전문가 영입━궁윤식 알토스벤처스 HR팀장(왼쪽), 최푸른 베이스인베스트먼트 매니저/사진제공=각 사우아한형제들(배달의민족), 비바리퍼블리카(토스) 등 '유니콘 제조기'로 불리는 알토스벤처스는 2019년 SKT, 빙글 출신 HR 전문가 궁윤식 HR 팀장을 영입해 포트폴리오사를 지원하고 있다. 지난 5년간 궁 팀장이 채용을 도와준 스타트업은 80여개사, 250여명에 달한다. 이중 약 25%가 팀장급 이상의 리더십 레벨이다. 궁윤식 팀장은 "SKT에서 채용과 인사평가 업무를 담당했고 SK수펙스추구협의회에서는 SK그룹 전체의 인사평가와 보상, 채용 등을 담당해 계열사 사장단의 교육과 관리도 맡았다"며 "알토스벤처스에서는 포트폴리오사의 성장을 돕기 위해 HR 솔루션을 제공하고 있다"고 말했다. 도움을 받은 스타트업의 실적도 눈에 띄게 개선됐다. 케이팝 엔터테인먼트 플랫폼 '메이크스타'는 2020년 삼일회계법인 출신의 고한얼 최고재무책임자(CFO)를, 2021년 글로벌 컨설팅법인 '베인앤컴퍼니' 출신 김유민 최고전략책임자(CSO) 등을 알토스벤처스를 통해 영입했다. 맞춤형 인재 영입에 성공한 메이크스타는 2021년 흑자전환에 성공했고 지난해 매출은 전년보다 60% 성장한 479억원을 기록했다. 초기 스타트업 전문 투자사인 베이스인베스트먼트도 HR 전문가인 최푸른 매니저를 채용했다. 최 매니저는 한국신용데이터와 야놀자 등 스타트업에서 개발자 및 테크분야 전문가 채용 업무를 맡았다. 그는 "초기 스타트업은 채용이 HR의 전부"라며 "성장이 우선인 스타트업 창업자들은 일손이 모자란 직군부터 채용하려는 경우가 많은데 베이스인베스트먼트는 장기적인 관점에서 다음 성장단계에서도 필요한 직무를 파악하고 그에 맞는 인재를 연계하기 위해 창업자와 활발한 소통을 한다"고 말했다.━"투자수익률 올리고 실력있는 창업자까지 먼저 확보"━이처럼 VC들이 HR 전문가까지 채용해 포트폴리오사를 돕는 것은 스타트업의 고질적인 문제인 구인난 때문이다. 스타트업얼라이언스의 '2022년 스타트업 트렌드 리포트'에 따르면 창업자들은 회사 운영과 관련해 자금 확보, 투자 등 금전적인 문제에 이어 성장전략, 조직관리 등에 가장 큰 고민을 갖고 있는 것으로 나타났다. 포트폴리오사의 성장을 도와 투자수익률도 높이는 동시에 훌륭한 창업팀을 확보할 수 있다는 점도 VC들이 HR 서비스 지원에 나서는 이유다.  본업으로 바쁜 창업가들 입장에선 투자 외에 인사 등 경영에 실질적으로 도움을 주는 VC를 선호할 수 밖에 없기 때문이다. 궁 팀장은 "무조건 채용을 돕는 것이 아니라 기존 인력에서 충원이 가능한지, 직무에 맞는 인재상을 뽑고 있는지 등을 종합적으로 고려하기 때문에  창업자의 전략과 비전을 더 잘 이해할 수 있다"며 "포트폴리오사에 맞는 HR 솔루션을 제공하면 기업도 성장하고 VC의 수익률도 올라가는 일석이조"라고 말했다. 신윤호 베이스인베스트먼트 대표도 "후속투자 뿐만 아니라 HR 등 기업이 성장하기 위한 종합적인 솔루션을 지원하고 있다"며 "국내에서 가장 실력있는 창업자가 가장 먼저 찾는 투자사로 자리잡는 것이 최종 목표"라고 말했다. [머니투데이 스타트업 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2023.08.07.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>민주, 16일 로톡·삼쩜삼·닥터나우 찬반논쟁…“결론은 TF에서”</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005053605?sid=100</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>"타다금지법 이후 규제완화 찬반논쟁은 처음…법안 추진 전에 이해관계자 조율부터" 박광온 더불어민주당 원내대표가 3일 서울 마포구 마포 프런트원에서 열린 더불어민주당 민생채움단 혁신성장을 위한 플랫폼 스타트업 간담회에서 모두발언을 하고 있다. 2023.8.3/뉴스1 ⓒ News1 임세영 기자 /사진=뉴스1 [파이낸셜뉴스] 더불어민주당이 오는 16일 로톡, 삼쩜삼, 닥터나우 등 플랫폼 기업 규제혁신을 두고 찬반논쟁을 한다. 정책의원총회를 열어 플랫폼 스타트업과 이에 반발하는 기존 산업 직역단체 양측 입장을 공유하고 찬반토론을 벌인다는 것이다.     변호사 광고규정 주체변경·비대면진료 범위확대 등 법안 계류…추진 여부 찬반토론 박광온 민주당 원내대표는 앞서 신·구산업 상생을 위한 규제혁신에 나서겠다며 원내 ‘신·구산업 상생 혁신 태스크포스(TF)’를 출범시키고, 플랫폼 스타트업 대표들을 만났다. 16일 의총은 신·구산업 양측 입장을 바탕으로 당 입장을 정리하는 자리다.   한 민주당 의원은 본지와 통화에서 “로톡과 대한변호사협회(변협), 삼쩜삼과 한국세무사회, 닥터나우와 대한의사협회(의협) 문제 모두 해결 법안이 이미 국회에 계류돼있다. 광고규정 권한을 변협에서 대통령령으로 바꾸는 변호사법 개정안, 비대면진료 허용범위를 확대하는 의료법 개정안 등”이라며 “추진할지 말지 결정만 남았는데 당내 의원들 의견이 다른 상태라서 이를 주요주제로 16일에 의총을 하려는 것이다. 지난 20대 국회 때 타다금지법 이후로 규제완화 찬반논쟁은 처음”이라고 밝혔다.     "일반국민 서비스 해 시장 확대" 플랫폼기업 논리 전달해 신·구산업 양측 입장 정리 의총은 신·구산업 양측 주장을 공유하는 것부터 시작한다. 플랫폼 스타트업 측은 기존 산업의 시장을 잠식하는 게 아닌 시장을 확대해 공생한다는 점을 내세우고, 기존 산업은 불법적으로 시장을 빼앗는다는 대립적인 입장이다. 이후 의원들이 자유롭게 나서 찬반 의견을 낸다.   이 의원은 “삼쩜삼에선 세무사 주요 고객층은 연매출 3억 원 이상 사업자·법인 위주이지만 자신들은 일반국민과 영세사업자들에 서비스를 제공해 시장을 확대한다는 의미가 있다는 주장이다. 이는 일반 국민에 법률서비스를 제공하는 로톡도 같은 논리”라며 “비대면진료의 경우 닥터나우에선 기존 의사와 약국을 연결해 더 많은 사람들이 이용할 수 있도록 하는 것이라 의료민영화보다 시장 확대 역할을 한다는 입장”이라고 설명했다.     이해관계자 조율 못했던 타다금지법 교훈에 당 총의 모아 법안 추진 전에 갈등 조율 민주당이 신·구산업 양측 입장 공유부터 시작하는 이유는 타다 사태 때의 교훈 때문이라는 설명이다. 법안을 추진하기 전에 이해관계자 조율부터 해놓으면 갈등을 피할 수 있다는 것이다. 강훈식 민주당 의원은 스타트업 간담회에서 그때 저희로선 (택시기사가) 한 주에 한 사람씩 돌아가시는 일이 벌어져 국회의원으로서 무시할 수 없었다”며 “마음에 남았던 건 사전에 조정하고 풀 수 있었던 건데 못 풀었다는 자책과 자괴감”이라고 말한 바 있다.   관련해 다른 민주당 의원은 “타다금지법 이후 토스가 타다를 인수하고 나서 여러 조율을 거쳐 7~9인승 자체 승합차 고급택시 서비스로 규제를 해소하는 데 성공했는데, 갈등이 격화되기 전에 법안을 내기 전에 조율했었어야 했다는 것”이라며 “의총에서 총의를 모으고 갈등을 조율하려는 것”이라고 부연했다.     정치권 영향력 큰 변협·의협 등 직역단체…비대면진료는 당내 극렬 반대도 다만 찬반 의견차가 큰 의원들이 많아 총의를 모으기 쉽지 않을 전망이다. 변협과 의협, 세무사회가 정치권과 교류가 활발하고 내년 4월 총선에서도 영향을 끼칠 수 있기에 더욱 그렇다. 특히 비대면진료의 경우 의료민영화 우려가 커 극구 반대하는 의원들이 있다. 서비스산업발전기본법(서발법)을 두고 국회가 12년째 결론을 내지 못하는 원인 중 하나이기도 하다.   또 다른 민주당 의원은 “비대면진료는 디테일이 중요한 사안이라 의총에서의 몇 사람 발언으로 정리할 내용이 아니다. 혁신 대 비혁신 프레임으로 보기엔 민초의 삶이 걸려 있는 문제”라며 “장진호 닥터나우 대표와 간담회에서 만난 뒤 통화해서도 비대면진료가 국민건강에 도움이 되는지를 두고 의료계와 사업자가 의견을 모아야지, 단순히 찬반 논의를 해선 안 된다고 했다”고 말했다. 이어 “비대면진료는 플랫폼 기업이 정보 쏠림으로 독점적 지위를 얻는 방향으로 갈 수 있다”고 우려했다.     의총서 결론 내긴 어려워 TF에서 세부논의…"신·구산업 이슈 의원 관심 끌기만도 진전" 때문에 민주당은 의총에서 곧바로 결론이 나긴 어렵다고 보고, 의총 논의 내용을 바탕으로 TF에서 구체적인 방향을 정한다는 방침이다.   한 원내관계자는 “의총에서 결론이 안 날 것이라 생각하고 있고, 바로 추진되지 못하더라도 신·구산업 이슈에 대한 의원들의 관심을 일으키는 것 자체가 진전이라고 본다”며 “세부적인 건 여러 국회 상임위원회와 연결돼있는 TF에서 논의할 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>'2위' 빗썸, 업비트 추격 위한 승부수…수수료 무료 가상자산 확대</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000345720?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>국내 시장점유율 2위 가상자산 거래소 빗썸이 1위 업비트와의 간격을 줄이기 위해 일부 가상자산의 수수료를 받지 않기로 했습니다.빗썸은 오늘(1일)부터 빗썸 원화마켓에 상장(거래 지원)돼 있는 일부 가상자산에 대한 수수료를 없앤다고 밝혔습니다.이날 오전 9시부터 앱토스(APT), 스택스(STX), 플로우(FLOW), 수이(SUI), 비트코인 골드(BTG), 피르마체인(FCT2), 블러(BLUR), 웨이브(WAVES), 메탈(MTL), 룸네트워크(LOOM) 등 10종의 가상자산 거래 시 수수료가 부과되지 않습니다.이번에 적용된 가상자산 10종을 시작으로 1주일 간격으로 10종씩 추가됩니다. 수수료 무료 대상 가상자산은 종목명에 별도로 파란색의 '무료' 배지로 구분할 수 있습니다.수수료 무료 정책은 별도 공지 전까지 진행됩니다. 빗썸 관계자는 "앞으로 수수료 무료 적용을 받을 가상자산들은 국내외 투자가 활발히 이뤄지고 있는 종목들"이라면서 "투자자들의 투자 진입 장벽을 낮추고, 신규 유입 증대를 통한 유동성을 확보하는 것이 목적"이라고 설명했습니다. 당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>토스뱅크, 고객 700만명 돌파…'새로운 은행 경험' 선언</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012006868?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]이주혜 기자 = 토스뱅크가 출범 1년9개월 만에 가입 고객이 700만명을 넘어섰다고 1일 밝혔다. 새 기업 미션으로 '이전으로 돌아갈 수 없는 새로운 은행경험'을 선언했다.토스뱅크에 따르면 7월 말 기준 누적 가입 고객이 총 700만명에 달했다. 2021년 말 125만명의 고객이 이용한 토스뱅크는 지난해 상반기에 360만명의 고객을 모았다. 이어 일평균 1만1000명이 새 고객으로 유입되며 1년 만에 2배 가까이 늘었다. 연령대별 비중은 20대가 26%로 가장 많았다. 30대(23%) 40대(23%) 50대 이상(22%)이 근소한 차이를 유지했다. 10대의 경우 6%로 가장 적었는데 이는 은행 가입 고객 연령이 만 17세 이상으로 제한됐기 때문이다.토스뱅크통장 고객은 1인당 평균 274만 원을 맡기고 사용했다. '지금 이자 받기'는 373만명의 고객이 총 2억4000만회를 이용했다. 예치 즉시 이자를 먼저 지급하는 '먼저 이자 받는 정기예금'은 4개월 만에 3조5000억원을 넘어섰다.고객 10명 중 7명 이상(71.4%)은 '토스뱅크 체크카드'를 사용했다. '목돈 굴리기'는 채권을 소개하며 누적 판매액이 2조5000억원에 달했다.토스뱅크는 출범 만 2년을 앞두고 '이전으로 돌아갈 수 없는 새로운 은행 경험을 제공한다'를 새로운 기업 미션으로 선언했다. 시장 점유율을 높이는 대신 새롭게 시장을 창출하고 고객의 인지를 높이는 데서 나아가 고객의 삶을 바꾸는 한편, 우수한 상품 대신 한 번 쓰면 포기할 수 없는 상품과 서비스를 지속적으로 만들어 나가겠다는 것이다.토스뱅크 관계자는 "고객들에게 최고의 혜택을 드리겠다는 일념으로 이어온 도전이 700만 고객들의 발걸음으로 인정받았다고 생각한다"며 "'이전으로 돌아갈 수 없는 새로운 은행 경험'을 새로운 미션으로 고객의 모든 삶에 녹아드는 은행이 될 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>'시장점유율 높이자'…빗썸, 수수료 무료 가상자산 확대한다</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014104251?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>1일부터 1주일 간격으로 무료 적용 가상자산 10종씩 추가가상자산거래소 빗썸[연합뉴스TV 제공]    (서울=연합뉴스) 박대한 기자 = 국내 시장점유율 2위 가상자산거래소인 빗썸이 1위 업비트와의 간격을 줄이기 위해 대대적인 거래 수수료 무료 이벤트를 진행한다.    빗썸은 1일부터 빗썸 원화마켓에 상장(거래 지원)돼 있는 일부 가상자산에 대해 수수료 무료 이벤트를 진행한다고 밝혔다.    우선 이날부터 앱토스(APT), 스택스(STX), 플로우(FLOW), 수이(SUI), 비트코인 골드(BTG), 피르마체인(FCT2), 블러(BLUR), 웨이브(WAVES), 메탈(MTL), 룸네트워크(LOOM) 등 10종의 가상자산 거래 시 수수료가 부과되지 않는다.    이벤트는 별도 공지전까지 진행될 예정으로, 수수료 무료 적용 대상 가상자산은 앞으로 1주일 간격으로 10종씩 추가된다.     빗썸 관계자는 "앞으로 공개될 가상자산들은 국내외 투자가 활발히 이뤄지고 있는 종목들"이라며 "유동성을 확대시킬 수 있는 가상자산들을 전략적으로 선정해 선보일 예정"이라고 설명했다.    수수료 없이 거래할 수 있는 가상자산은 종목명에 표시된 파란색의 '무료' 배지로 쉽게 구분이 가능하며, 차트 상단의 '수수료 무료' 카테고리를 통해서도 확인할 수 있다.    빗썸은 이번 수수료 무료 이벤트를 통해 가상자산 투자자들의 자산 포트폴리오 다양화를 지원함과 동시에 자사 거래소 이용자 유입을 증가시켜 거래 유동성을 높인다는 계획이다.    pdhis959@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2023.08.09.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>토스뱅크, 조건 없이 최고 '연 5%' 자유적금 출시</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000346804?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>토스뱅크는 오늘(9일) 복잡한 조건 없이 매월 꾸준히 저금만 하면 우대금리를 적용해 최고 연 5% 금리 혜택을 제공하는 '토스뱅크 자유 적금'을 출시한다고 밝혔습니다.'토스뱅크 자유 적금'의 가입기간은 최소 3개월부터 최대 36개월까지로 고객이 원하는 기간으로 가입 가능합니다. 월 납입한도는 최대 300만원으로 가입 시 설정되는 자동이체 이외에도 한도 범위 내에서 자유롭게 추가 저금이 가능합니다. 기본 금리는 가입기간에 따라 차등 적용되며 12개월 이상으로 가입하는 경우, 매월 자동이체를 모두 성공하면 최고 연 5% 금리 혜택을 받을 수 있습니다.  적금 가입 전 고객이 받을 이자도 미리 계산해볼 수도 있습니다. '토스뱅크 자유 적금' 가입 과정에서 고객이 원하는 매월 저금액, 기간 등 가입조건을 만들면 만기 시 받을 수 있는 이자(세전)를 확인할 수 있습니다. 또 비과세종합저축으로 가입 가능해 대상자인 경우에는 적금 가입 시 손쉽게 비과세 적용하기를 클릭하면 별도 서류제출 없이 비과세 혜택도 누릴 수 있습니다.  토스뱅크 관계자는 "앞으로도 고객 분들이 좋은 혜택들을 쉽고 간편하게 누릴 수 있는 은행이 되도록 노력할 것"이라고 말했습니다. 당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>카사 이용자 56% "가장 투자하고 싶은 상업용 부동산은 강남"</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000762892?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>9월 중 공모 재개 예정국내 최초 부동산 디지털 수익증권(DABS) 거래 플랫폼 카사가 하반기 신규 공모를 앞두고 '공모 건물 위치 선호도 설문조사'를 진행했다고 1일 밝혔다.부동산 조각투자 플랫폼 카사가 회원을 대상으로 가장 투자하고 싶은 부동산 위치 설문조사를 진행했다.  [사진=카사]카사 앱 이용자 2,176명을 대상으로 진행된 이번 설문조사에 따르면 전체 투표 참여자의 56%가 '강남지역’에 투자하고 싶다는 응답을 보였다.세부적인 응답률로는 압구정·청담·신사 지역이 31%로 1위를 차지했다. 이 지역은 '압구정 로데오거리’가 식음료 핫플레이스의 성지로 주목받는 등 MZ세대의 발걸음이 지속 증가하면서 예전의 명성을 되찾고 있는 곳이다. 압구정 지역에는 에르메스 도산 등 명품 스토어를 비롯 노티드, 런던베이글 등 최근 주목받는 식음료매장 또한 즐비하며 올해 1분기 임대가격지수 역시 107.58로 전년 동기 대비 대폭 상승한 바 있다.2위 또한 강남역·역삼역·삼성역 등 2호선 강남 핵심 지역이 25%로 2위를 차지했다. 해당 지역은 토스, 쿠팡, 마켓컬리 등 국내 주요 스타트업이 위치한 지역으로, '테헤란로 밸리'라 불리며 최근 젊은 세대들이 가장 일하고 싶은 지역으로 손꼽힌 곳이다.카사 측은 "강남업무지구(Gangnam Business District·GBD) 지역으로 불리는 범 강남지역에 위치한 상업용 부동산에 대한 압도적인 투자 선호도가 반영된 결과"라고 분석했다.3위는 역시 강남 인근에서 가까운 성수·서울숲이 꼽혔다. 해당 지역은 최근 유명 명품브랜드의 팝업 스토어와 대형 이벤트가 연이어 개최되며 젊은 세대들의 관심이 지속해서 이어지는 곳이다. 과거 오래된 공장 등이 레트로 분위기를 입힌 힙한 음식점으로 변모하면서 한국의 브루클린이라는 별명을 얻기도 했다. 이 곳 역시 젊은 세대들의 발길이 이어지면서 국토교통부 발표 기준 평균 상업용부동산 매매가가 1년 사이 60%이상 껑충 뛴 바 있다. 이어 여의도·국회의사당 인근 · 광화문·을지로 등의 전통적인 업무지구 역시 이용자들의 선택을 받았다.홍재근 대표는 "부동산 투자 불확실성 헷지를 위해 견지해야 할 핵심 가치는 입지"라면서, "복합적인 경제여건 속에서도 '강남불패’ 신화는 건재한 것으로 보인다" 며 "카사는 이번 투표 결과를 바탕으로 우량한 입지에 있는 매력적인 부동산들을 곧 선보이게 될 것"이라고 밝혔다.금융위원회 최초의 조각투자 혁신금융서비스인 카사는 지난 3월 대신파이낸셜그룹에 인수됐다.카사는 강남, 여의도 등에 위치한 상업용 부동산, 호텔, 물류센터 등 총 384억7천만원 규모의 공모를 진행하며 개인들의 상업용 부동산에 대한 투자 접근성을 높였다는 평가를 받았다.총 6건의 공모 조기완판과 더불어 2건의 매각으로 10%대의 누적 수익률을 선사하며 시장의 주목을 받아온 카사는 오는 10일 대신증권 계좌 개설 오픈을 시작으로 9월 중 공모를 재개할 방침이다.신규 공모에 맞춰 오는 9일까지 카사의 새로운 공모 지역을 맞추는 SNS이벤트가 카사 인스타그램 공식 계정에서 진행되며, 추첨을 통해 치킨·커피 쿠폰 등의 경품을 지급한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2023.08.12.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>예적금도 이색 경쟁…우대금리는 쉽지 않네</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005299472?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>광주銀 '텐텐양궁적금', 우리銀 '유미의 세포들' 제휴적금양궁경기 우승, 저탄소 활동 인증서 제출해야 우대금리은행들이 수신 확보를 위해 고금리 예·적금을 잇달아 내놓고 있는 가운데 이색 상품도 눈길을 끌고 있다. 하지만 까다로운 우대금리 조건을 내건 경우도 있어 가입 전 꼼꼼히 살펴볼 필요가 있다.10년 만에 기준금리 3% 시대가 열리면서 시중은행들이 잇달아 수신금리를 올려 은행 정기예금 금리가 연5%선에 근접해진 26일 서울 한 시중은행에 정기적금 이율 현수막이 붙어 있다./강진형 기자aymsdream@12일 은행권에 따르면 광주은행은 지난 7일 최고 연 5% 금리의 '텐텐(TenTen)양궁적금'을 출시했다. 기본금리 연 3.4%(정액적립식 기준)에 스마트뱅킹, 모바일웹뱅킹 등 비대면 채널을 통해 가입할 경우 연 0.2%포인트 우대금리가 붙는다.이 적금은 오는 10월 중국에서 열리는 국제스포츠대회 양궁 경기에 출전하는 광주은행 양궁단 및 광주여대 양궁단 소속 선수들의 선전을 응원하는 의미로 출시돼, 대회 최종 결과에 따라 추가 우대금리를 준다. 선수별 우승 1회당 연 0.3%포인트, 준우승 1회당 연 0.2%포인트, 3위 1회당 연 0.1%포인트이며, 최대 연 1.4%포인트까지 제공한다. 예컨대 선수 두 명이 출전해 우승 4회, 준우승 1회를 하는 경우 추가 우대금리를 최대로 받을 수 있다. 가입 한도는 월 20만원(1인 1계좌), 1년 만기로 광주은행 전 영업점, 스마트뱅킹(애플리케이션), 모바일웹뱅킹에서 가입 가능하다.우리은행은 같은 날 인기 웹툰 ‘유미의 세포들’과 제휴해 최고 연 6%를 주는 ‘N일 적금’을 내놨다. 유미의 세포들의 세계관을 활용해 적금 납입 시 주인공 ‘유미’의 감정을 의인화한 ‘감정스탬프’가 감정다이어리에 적립된다. 기본금리는 2%이며, 가입 시점에 우리은행 예·적금 상품에 가입하지 않은 경우 1.0%포인트, 가입기간의 절반 이상 납입하고 4분의 3 이상 감정다이어리를 채운 경우 3.0%포인트가 추가로 붙는다.BNK부산은행은 지난 4일부터 저탄소 활동 시 우대금리를 제공하는 ‘저탄소 실천 예금’을 판매 중이다. 기본금리 연 2.85%, 특판 금리 0.7%포인트를 주고 대중교통 이용, 탄소 포인트제 참여, 친환경 자동차 보유 시 최대 0.4%포인트를 추가 제공해 최고 연 3.95%의 금리를 받을 수 있다. 부산은행은 지난달에는 가입기간 중 결혼하면 5.0%포인트 우대금리를 적용해 최고 연 9.0%를 주는 결혼특화상품인 ‘너만 솔로(Solo)’ 적금을 출시하기도 했다.예금의 경우 연 4%, 적금은 연 9%에 이르는 고금리를 내세우지만, 실제 이 금리를 받으려면 선수들이 스포츠대회에서 우승해야 한다거나 탄소포인트제 참여 후 가입 확인서를 은행에 제시해야 해 ‘미끼 상품’이라는 지적이 나온다.반면 복잡한 조건 없이 최고금리를 받을 수 있는 상품들도 눈에 띈다. 토스뱅크 자유적금은 자동이체 설정만 하면 최고 연 5% 금리를 적용하고, SC제일은행의 수시입출식 상품 '제일EZ통장'은 첫 거래 고객이면 개설 후 6개월간 1.0%포인트 우대금리를 적용해 최고 연 3.6%를 주고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2023.08.11.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>토스뱅크 흑자 달성…카카오뱅크보다 빨랐다</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002301649?sid=105</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>대출 재개 이후 19개월 만 10억원 규모인터넷전문은행 '토스뱅크'가 2021년 10월 출범 이후 22개월 만에 흑자 전환에 성공했다.11일 토스뱅크는 7월말 기준으로 10억원 규모로 흑자를 냈다고 밝혔다.출범 후 22개월 만이지만, 출범 직후 9일만에 대출 영업을 중단했다는 점을 감안하면 대출 영업 재개 19개월 만이다. 대출 영업은 2022년 1월부터 다시 진행됐다.(사진=토스뱅크)이는 카카오뱅크가 2017년 10월 출범한 이후 1년 8개월 만에 흑자를 낸 것보다 더 빠른 속도다.토스뱅크 측은 "큰 외부 변수가 없는 한 7월 흑자 전환이 올해 3분기 분기 흑자로 이어질 가능성이 높다"며 "경기 침체 여파가 여전히 존재하고 있으므로 건전성과 손실 흡수 능력 확보에 만전을 기하겠다"고 설명했다.올 7월 말 기준 토스뱅크의 가입 고객 수는 700만명을 넘어서며 일평균 1만1천명의 신규 고객이 유입되고 있다. 실사용 고객이 10명 중 8명(76%)에 달한다고 회사 측은 설명했다.토스뱅크는 하반기 전·월세 자금 대출 및 지방은행 연계 대출 등을 선보일 전망이다.토스뱅크는 최근 취득한 외환 라이센스(인가)를 바탕으로 외환 사업까지 확장한다는 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2023.08.08.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>2023 뉴스1 대학생 미래캠프, 질문 하는 대학생 참가자</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006977790?sid=102</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>(서울=뉴스1) 김도우 기자 = 8일 오전 서울 종로구 SC제일은행 본사 대강당에서 열린 '2023 뉴스1 대학생 미래캠프'에서 한 참가자가 박준하 토스뱅크 CTO에게 질문을 하고 있다.뉴스1과 청년재단이 개최한 이번 행사는 청년들에게 정치, 경제, 금융 등 각계각층의 전문가 강연과 산업현장 탐방을 통해 다양한 진로탐색 기회를 제공하고 국내 미래산업 전반에 대한 견문을 넓혀주고자 마련됐다. 2023.8.8/뉴스1</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2023.08.09.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>카드도 `상생`… 금융소외계층 품는다</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002818623?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>사회초년생·주부·소상공인 위한신용평가모델 개발·강화하기로신한·토스, 데이터 공동 사업하나·국민도 '상생금융' 속도이승건 토스 대표(오른쪽)와 문동권 신한카드 사장이 데이터 공동 사업을 위한 신용평가모델 및 금융서비스 개발 업무협약식에 참석해 기념촬영을 하고 있다. 토스 제공.    카드사들이 금융 소외계층을 위한 대안 신용평가모델 개발과 강화에 나서고 있다.  일단 사회초년생이나 주부, 소상공인, 프리랜서 등 금융 이력은 부족하지만 상환능력이 있는 소비자에게 현재 상황에 걸맞은 금융서비스를 제공하기 위한 '상생 금융' 차원의 움직임이다. 카드사들은 신용평가능력을 강화해 잠재적 고객을 확대할 수 있고, 마이데이터(본인신용정보관리) 사업과 연계할 수 있어 '미래 먹거리' 차원에서도 적극성을 보이고 있다. 신한카드와 비바리퍼블리카(토스)는 지난 8일 서울 을지로 신한카드 본사에서 '데이터 공동 사업을 위한 신용평가모델 및 금융서비스 개발 업무협약(MOU)'을 체결했다고 9일 밝혔다.  이날 협약식에서 문동권 신한카드 사장과 이승건 토스 대표는 다양한 대안정보 중심 신용평가모델을 개발해 금융이력 부족자(Thin Filer, 씬파일러)에게 필요한 혁신서비스를 만들겠다는 데 뜻을 모았다. 토스는 플랫폼 내 데이터를 활용해 기존 금융 불이익 정보 위주의 신용평가 시스템을 보완할 신용평가모델 기반을 만들 계획이다. 토스는 약 2600만 가입자를 보유하고 있으며 매달 1500만 이상 유저가 사용하는 국민 금융 플랫폼으로 차별적인 데이터 모델링이 가능하는 게 토스 측의 설명이다.신한카드는 소비행동패턴정보, 디지털 로그 데이터 등 빅데이터 정보 제공으로 대안신용평가모델을 강화할 예정이다. 토스는 이번 신한카드와의 협업을 시작으로 다양한 제휴사와 금융소외계층을 포용하는 데이터 공동 사업을 전개할 계획이다. 양사는 익명처리된 소비정보를 기반으로 한 통계정보로 인사이트 데이터를 만드는 사업 영역까지 협업할 예정이다. 인사이트 데이터를 통해 기업은 시장 분석이 가능하고 향후 마케팅, 기획 전략 수립에까지 도움을 받을 수 있다. 하나카드는 중소기업중앙회와 소기업·소상공인 금융지원을 위한 업무협약을 맺고 개인사업자 신용평가모델을 개발했다. 소상공인 금융우대 기반 마련을 위해 중소기업중앙회의 노란우산, 공제사업기금, 파란우산 공제 등 'KBIZ 데이터'를 활용하고 있다. KB국민카드도  LG유플러스, 한국평가데이터와 손잡고 대안신용평가모델을 개발, 소상공인 등 개인사업자에 특화된 금융상품을 내놓고 있다. 롯데카드는 나이스평가정보와 제휴해 대안신용평가모델을 개발해 관련 서비스를 출시했다. 현재는 이 노하우를 바탕으로 신용평가업에 진출하는 방안도 모색중이다.BC카드는 핵심 데이터 면허들을 기반으로 금융 사각지대 해소를 위해 대안신용평가, 온라인 소상공인 대출프로그램 등 다양한 서비스 출시를 계획중이다. BC카드의 '비즈 크레딧' (Biz Credit) 서비스는 영세사업자가 대출 신청 시 실제 매출 데이터를 기반으로 신용등급을 재산정해 거절됐던 대출을 가능케 하거나 대출 금리를 인하해주고 있다. 여기에 비금융 데이터까지 적용할 경우 고객에게 더 높은 신용등급을 부여하거나 대출 금리를 더 낮출 것으로 기대하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2023.08.10.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>비대면 대출 갈아타기, 은행·앱 창구 거래 7000억 vs 핀테크 3000억</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004923454?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>은행의 앱과 창구에서 이뤄진 '비대면 신용대출 갈아타기'가 플랫폼사 앱 내에서 이뤄진 거래보다 2배 이상 많은 것으로 확인됐다. 은행들이 플랫폼사에 제공한 비대면 대환대출 전용 상품보다 자사 앱에서 갈아탈 수 있는 상품 경쟁력이 좋은 경우도 있어서다.9일 금융업권에 따르면 지난달 26일 기준 비대면 대환대출 서비스를 통해 이동된 대출 1조48억원 가운데 7000억원 정도가 시중은행·인터넷은행·지방은행의 앱과 창구에서 대환대출됐다. 토스, 카카오페이, 핀다 등 플랫폼사에서 성사된 대환대출은 3000억원 가량으로 은행에서 이뤄진 거래의 절반 이하 수준이었다. 비대면 대환대출은 '비대면-원스톱'으로 여러 금융사의 대출상품을 비교한 후 갈아탈 수 있도록 돕는 서비스다. 그동안은 고객이 대환대출을 하려면 오프라인 영업점을 방문해야 하는 등 번거로운 절차를 거쳐야만 했다. 19개 은행, 18개 저축은행, 7개 카드사, 9개 캐피탈사와 23개 플랫폼사가 참여했다. 비대면 대환대출 서비스가 시작된 지 두 달이 지났지만, 우려와 달리 금융권의 플랫폼 종속 문제는 아직 두드러지지 않았다. 은행과 플랫폼사간 7대 3의 거래 비중은 서비스 시작 당시부터 지금까지 이어져 온 것으로 전해졌다.  금융당국이 비대면 대출 갈아타기를 추진한다고 밝혔던 2021년부터 은행들은 자신들이 플랫폼에 종속될 것이라 토로해왔다. 고객들이 은행이 아닌 플랫폼을 통해서만 금융서비스를 이용해 본인들은 상품 납품업체로 전락할 것이라고 주장했다. 실제로 일부 지방은행은 신규 신용대출 70%가 플랫폼에서 이뤄지고 있는데, 비대면 갈아타기를 통해 종속 현상이 더욱 심해질 것이라고 분석한 것이다. 비대면 대환대출에서 종속 현상이 나타나지 않은 이유는 은행들이 플랫폼사에 제공한 전용 상품이 제한적이기 때문이다. 은행들은 최소 1개 이상의 플랫폼사와 상품 협약을 맺고 비대면 전용 대출상품을 만들어 플랫폼사에 입점시켰는데, 기존에 은행들이 판매하고 있는 대출상품의 금리가 더 낮은 경우도 있다. 예컨대 고객이 A플랫폼사 앱에서 갈아탈 대출을 비교했을 땐 B은행 상품의 최저금리가 6%로 나타나는 반면, B은행 앱에서는 5.5% 금리의 상품이 존재할 수 있다는 뜻이다. 오프라인 지점 창구영업 강화도 비대면 갈아타기 점유율을 높이는 데 일조했다. 창구 직원이 찾아온 고객에게 비대면 대환대출을 권유해 갈아타기를 성사시키는 식이다. 비대면 대환대출은 금융결제원이 운영하는 인프라를 통해서만 가능해 창구에서 이뤄진 대출 갈아타기도 실적으로 집계된다. 플랫폼사들은 아직 서비스 초기인 만큼 고객 편익 극대화에 집중해 점유율을 높이겠다는 방침이다. 한 플랫폼사 관계자는 "상품 입점에서 주도권을 가진 은행이 플랫폼에 제한적으로 대출 상품을 공급하면 자연스레 점유율에서 밀릴 수밖에 없다"며 "플랫폼사들이 정책 취지에 맞게 단기적 이익보다 고객 편의 극대화에 초점을 맞춰 서비스를 고도화해 나가는 만큼 금융당국에서도 플랫폼사의 경쟁력을 강화할 수 있는 다양한 지원책을 마련했으면 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2023.08.02.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>케이뱅크, 중저신용자 신용대출 최대 1%포인트 인하</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002650675?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>자영업자·소상공인 신용대출도 최대 0.4%포인트 내려케이뱅크 본사 사옥 전경. 케이뱅크 제공인터넷전문은행 케이뱅크가 중저신용자와 자영업자 차주의 금리 부담을 낮추기 위한 ‘포용 금융’의 일환으로 이 고객층 전용 신용대출상품 금리를 일괄 인하했다.2일 케이뱅크는 이날부터 중저신용자 전용 신용대출 상품인 ‘신용대출플러스’ 금리를 최대 연 1%포인트 내린다고 밝혔다. 이에 따라 이 상품 금리는 최저 연 5.25%로 낮아졌다. 이날부터 신규 대출을 받으려는 차주는 인하된 금리를 적용받게 된다. 자영업자와 소상공인을 대상으로 한 ‘사장님 신용대출’ 금리도 최대 0.4%포인트 내렸다. 최저 금리는 5.42% 수준이다. 이번 결정에는 중저신용자 대출 비중 규제를 맞춰야 한다는 판단이 작용한 것으로 보인다. 지난 3월 말 기준 케이뱅크의 중저신용자 대출 비중은 23.9%로 연말까지 이 비중을 32%까지 높여야 한다. 현재는 카카오뱅크(27.7%·6월 말 기준)나 토스뱅크(42.06%)에 뒤진 상황이다. 이 비중을 맞추기 위해 케이뱅크는 지난 15일부터 고신용자에 대한 신규 신용대출과 마이너스통장 신청을 일시 중단한 상태다. 케이뱅크 관계자는 “시장 금리 상승으로 대출 이자 부담이 커지는 상황을 고려해 중저신용·자영업자 고객이 이자 부담을 덜길 기대하며 금리 인하를 결정했다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2023.08.08.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>빅테크 'BNPL' 제도화 앞두고… 카드사 "동일규제"</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005054317?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>최대 30만원까지 선구매 후결제"신용카드와 사실상 같은 서비스연체율 급등에 건전성 규제 필요"빅테크 "고객·목적 다른 신사업"  금융거래 이력이 부족한 사회초년생, 대학생, 주부 등 이른바 씬파일러(thin-filer)를 위한 후불결제 대출서비스(BNPL·Buy Now Pay Later) 가 본격적인 제도화를 앞두고 빅테크와 신용카드사 간 건전성 규제를 놓고 신경전이 고조되고 있다. 금융당국이 지난 2021년 11월 혁신금융 서비스로 지정해 빅테크 3사가 서비스를 제공하고 있는 BNPL의 연체율이 급증한 것으로 나타나자 여신업계가 '동일서비스 동일규제'를 요구하고 있다. 하지만 빅테크 3사는 BNPL은 신용카드사와 고객층이 다른 서비스로 동일 규제는 시기상조라는 입장이다.   8일 금융권과 금융당국, 정치권에 따르면 금융위원회로부터 승인을 받은 선불업자가 소액후불결제 서비스를 겸영할 수 있도록 제도화하는 '전자금융거래법(전금법) 개정안'이 지난 5월 국회 정무원원회를 전체회의를 통과해 국회 법제사법위원회 상정을 앞두고 있다. 소액후불결제 서비스는 선불충전금이 없어도 최대 30만원까지 후불결제를 가능하도록 하는 선결제 후지불 서비스로, BNPL이 혁심금융 서비스에서 제도화되는 것이다.   현재 네이버파이낸셜, 카카오페이, 토스(비바리퍼블리카)가 BNPL 서비스를 무이자로 씬파일러에게 제공하고 있다. 금융위는 BNPL서비스가 신용카드 결제 서비스로 오해하지 않도록 '신용카드' 등 표현을 쓰지 못하게 했고 이자가 발생할 수 있는 할부서비스, 리볼빙, 현금서비스를 막았다.   BNPL의 가장 큰 특징은 업체 간 '연체정보'가 공유되지 않는다는 것이다. BNPL이 씬파일러, 즉, 금융소외계층이 금융상품 이력을 쌓아서 제도권 금융을 이용할 수 있는 기회를 제공하는 취지에서 운영되는 만큼 연체정보 공유를 제한한 것이다.   하지만 최승재 국민의힘 의원실에 따르면 빅테크 3사가 BNPL 서비스를 시작한 지 약 1년인 지난 3월 말 기준 평균 연체율이 약 4.4%에 달하는 것으로 나타나면서 BNPL 서비스도 관리감독해야 한다는 지적이 나왔다.   카드사들은 BNPL과 카드사의 후불결제가 사실상 동일 서비스로 전자금융법 개정안이 국회를 통과하고 시행령을 논의할 때 여신전문금융업법과 같은 수준으로 건전성 규제를 해야 한다는 입장이다. 카드업계 관계자는 "빅테크 연체율이 상당히 빨리 올라가고 있고 해외에서도 BNPL 건전성 이슈가 있으니 신용정보 공유 등이 규제가 필요하다"고 말했다.   반면 빅테크는 BNPL과 신용카드 후불결제 서비스는 서비스 목적과 고객층이 전혀 다른 데다 대안신용평가 모델 고도화와 제도 안착을 위해 카드사와 같은 동일규제는 성급하다고 맞서고 있다. 빅테크 업계 관계자는 "BNPL과 카드사의 고객층은 전혀 다르고 카드사의 신용평가모델은 오랜 시간 노하우가 있는 반면 빅테크의 대안신용평가는 이제 1년 넘은 서비스로 고도화할 시간이 더 필요하다"고 말했다.   금융당국은 우선 법안의 국회 본회의 통과 이후 업계 간 의견수렴 절차를 거쳐 시행령에 담을 규제 방안을 마련할 계획이다. 씬파일러를 고려한 '포용금융'과 기존 업권과의 '규제 형평성' 사이에서 어디에 방점을 찍을 지가 관건이다.   금융위 관계자는 "법이 통과되면 의무를 준수하는 누구나 선불업자 겸영업무에 진입할 수 있게 되기 때문에 재무건전성 등 규정이 추가될 수 있다"고 말했다.   gogosing@fnnews.com 박소현 김나경 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2023.08.09.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>"1년 이상 저금만 하면 적금금리 5% 줘요"</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005547519?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>토스뱅크, 자유 적금 상품 출시월 납입 한도 최대 300만원(사진=토스뱅크)[이데일리 김국배 기자] 토스뱅크가 매월 꾸준히 저금만 하면 최고 연 5% 금리를 주는 적금을 내놨다.9일 토스뱅크에 따르면 이날 출시한 ‘토스뱅크 자유 적금’ 상품은 복잡한 우대조건 없이 가입 기간 동안 매달 자동이체로 저금만 하면 최고 금리를 받을 수 있다. 통상 예·적금 가입 시 고객이 우대 금리 혜택을 누리려면 까다로운 가입 조건이나 카드 실적, 통신비 자동이체 등의 우대 조건을 충족해야 하는 경우가 많다. 토스뱅크 측은 “고객이 목돈을 모으는 데에만 집중할 수 있도록 상품을 기획했다”고 했다.토스뱅크 자유 적금의 가입 기간은 최소 3개월부터 최대 36개월이다. 월 납입 한도는 최대 300만원이며 가입 시 설정하는 자동이체 외에도 한도 범위 내에서 추가 저금이 가능하다. 기본 금리는 가입 기간에 따라 차등 적용되며 12개월 이상 가입하는 경우 매월 자동이체에 성공하면 최고 연 5% 금리 혜택이 제공된다.가입 과정에서 원하는 월 저금액, 기간 등을 입력하면 만기 시 받을 이자(세전)를 미리 확인할 수 있다. 또한 비과세 종합저축으로 가입할 수 있어 대상자는 적금 가입 시 ‘비과세 적용하기’를 클릭해 별도 서류제출 없이 비과세 혜택을 받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2023.08.07.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>클룩, '토스페이' 간편결제 도입…해외 액티비티 15% 할인</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002301071?sid=105</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>41개 간편결제 옵션 제공글로벌 여행 및 레저 이커머스 플랫폼 클룩이 간편결제 수단으로 '토스페이'를 추가 도입하고  할인 행사를 진행한다고 7일 밝혔다.클룩은 전 세계 고객들의 편리한 여행 예약과 결제를 돕기 위해 15개 언어와 41개의 간편결제 옵션을 제공하고 있다. 한국에서는 네이버페이, 카카오페이, 페이코에 이어 이번 토스페이 도입을 통해 결제 인프라를 확대하고 한국 고객들의 결제 편의성을 높인다는 방침이다.클룩에서 여행 상품 결제 시 결제 수단으로 '토스페이'를 선택하면 토스 앱과 연동돼 비밀번호나 생체 인식으로 간편하게 결제할 수 있다.클룩, ‘토스페이’ 도입클룩은 토스페이 출시를 기념해 이달 28일까지 풍성한 할인 혜택도 제공한다. 먼저 해외 액티비티 15% 할인 쿠폰을 준비했다. 홈페이지에서 쿠폰을 다운로드 받은 후 토스페이를 이용해 해외여행 상품 8만 원 이상 결제 시 최대 5만 원까지 15% 할인 혜택을 받을 수 있다.생애 첫 토스페이 결제 고객에게는 5천 원 캐시백 혜택을 지원한다. 캐시백 혜택은 선착순 6천 명에게 제공되며 해외 액티비티 15% 할인 쿠폰과 중복 적용 가능하다.토스페이 출시 혜택을 이용하면 ▲도쿄 LA 파리 디즈니랜드 ▲싱가포르 유니버설 스튜디오 등 유명 테마파크는 물론 ▲도쿄 시부야 스카이 전망대 ▲다낭 썬월드 바나힐 등 인기 관광지 ▲런던 토트넘 홋스퍼 FC 프리미어 리그 경기까지 클룩의 다양한 액티비티를 할인가에 즐길 수 있다.이준호 클룩 한국 지사장은 "토스페이 도입에 맞춰 푸짐한 혜택을 준비했으니 여름 여행을 준비하는 많은 분들이 클룩과 토스페이를 이용해 합리적인 해외여행을 즐기시길 바란다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2023.08.09.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>토스뱅크, 자동이체만 하면 '연 5%' 금리 주는 적금 출시</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004923162?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>토스뱅크가 다른 우대 조건 없이 매월 꾸준히 저금만 하면 우대금리를 적용해 최고 연 5% 금리 혜택을 제공하는 '토스뱅크 자유 적금'을 출시한다고 9일 밝혔다.'토스뱅크 자유 적금'의 가장 큰 특징은 복잡한 우대조건 없이 가입한 기간 동안 매달 자동이체로 저금만 하면 누구나가 최고금리를 받을 수 있다는 점이다.가입기간은 최소 3개월부터 최대 36개월까지로 고객이 원하는 기간으로 가입 가능하다. 기본금리는 가입기간에 따라 차등 적용되며 12개월 이상으로 가입하는 경우, 매월 자동이체를 모두 성공하면 최고 연 5% 금리 혜택을 받을 수 있다. 월 납입한도는 최대 300만원으로 가입 시 설정되는 자동이체 이외에도 한도 범위 내에서 자유롭게 추가 저금이 가능하다.통상 예적금 가입 시 고객이 우대금리 혜택을 누리려면 까다로운 가입 조건이나 카드 실적, 통신비 자동이체 등 복잡한 우대 조건을 모두 충족해야 하거나 최초 가입자들만 혜택을 받을 수 있었다. 반면에 토스뱅크는 고객이 목돈을 모으는 데에만 집중할 수 있도록 상품을 기획했다.적금 가입 전 고객이 받을 이자도 미리 계산해볼 수 있다. '토스뱅크 자유 적금' 가입 과정에서 고객이 원하는 매월 저금액, 기간 등 가입조건을 만들면 만기 시 받을 수 있는 이자(세전)를 확인할 수 있다. 또 비과세종합저축으로 가입 가능해 대상자인 경우에는 적금 가입 시 손쉽게 비과세 적용하기를 클릭하면 별도 서류제출 없이 비과세 혜택도 누릴 수 있다.토스뱅크 관계자는 "고객이 적금을 가입하는 과정에서 우대금리를 받기 위한 복잡한 조건을 신경 쓸 필요없이 오로지 저축에만 집중할 수 있도록 돕고 싶었다"며 "앞으로도 고객 분들이 좋은 혜택들을 쉽고 간편하게 누릴 수 있는 은행이 되도록 노력할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2023.08.11.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>“엄카 말고 내 카드”…청소년 카드 봇물에 ‘기대반’ ‘우려반’</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000083898?sid=102</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>금융위, 12세 이상 신용카드 가능토록 규제 완화은행·카드사 미성년자 대상 신용카드 출시 잇따라“무분별 과소비 우려” vs “업종·금액 제한 있어 안전” (롯데카드 제공)최근 금융·카드업계에서 어린이·청소년을 공략하며 ‘미래 고객’ 모시기에 열을 올리고 있다.금융위원회가 만 12세 이상 미성년자도 신용카드를 만들 수 있도록 규제를 일시적으로 완화함에 따라 카드사들이 새로운 시장 공략에 나서고 있다.7일 롯데카드는 최근 미성년자 고객을 겨냥해 부모가 설정한 용돈 범위 안에서 자유롭게 사용할 수 있는 ‘티니카드’를 출시했다. 부모의 신용으로 사용하는 선불카드다.이는 기존의 청소년 카드와 달리 미리 용돈을 충전해야 하거나 계좌에 현금이 있어야 쓸 수 있는 체크카드의 개념이 아니다. 부모가 매월 한도를 설정하면 자녀가 이용한 금액 만큼 결제하는 신용카드의 개념이다. 한 달 용돈 한도는 최대 50만원까지 설정할 수 있으며 추가 용돈 지급이 가능하다.카드사들이 최근 10대 고객을 타기팅하고 있는 것은 미래 고객 모시기 싸움이다.최근 명품업계의 ‘키즈 명품’ 역시 몇 개월 입지도 못하는 옷에 수백만원가량 지불할 사람이 몇이나 될까라는 생각에 논란이 됐으나, 기업들은 유아기에 심어진 브랜드 이미지는 성장할 때까지 크게 영향력을 끼친다는 점을 가장 중요한 마케팅 전략으로 삼았던 것이다. 실제로 자기 자식에게 아기 때부터 특별한 옷을 입히려는 부모는 차고 넘쳤다.토스 역시 어린이·청소년용 선불카드 ‘유스카드’를 지난 2021년 12월 출시한 바 있다. 유스카드는 만 7세부터 만 16세가 자신의 이름으로 만들어 사용할 수 있는 청소년 전용 체크카드다. 또한 토스에서 만 7세부터 만 18세 이하의 사용자를 의미하는 ‘틴즈’ 가입자는 194만명을 돌파했다.한편 누리꾼들의 반응은 “촉법소년 연령도 낮추자는 분위기에 왜 청소년에게 경제권을 주냐. 그것도 부모 신용으로”라는 시각과 “한도가 낮은 편이라 괜찮지 않냐. 어릴 적부터 경제 개념을 배워야 한다”는 시각이 대립하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2023.08.09.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>토스뱅크, 최고 연 5% 자유 적금 출시</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002301409?sid=105</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>매월 자동 이체 시 우대금리 제공인터넷전문은행 '토스뱅크'가 매월 꾸준히 저금만 하면 우대금리를 적용해 최고 연 5% 금리를 제공하는 '토스뱅크 자유 적금'을 출시한다고 9일 밝혔다.가입기간은 최소 3개월부터 최대 36개월까지다. 월 납입한도는 최대 300만원이다. 가입 시 설정한 자동이체 금액 이외에도 한도 범위 내에서 자유롭게 추가 저금이 가능하다.기본 금리는 가입기간에 따라 차등 적용되며 12개월 이상으로 가입하는 경우, 매월 자동이체를 모두 성공하면 최고 연 5% 금리 혜택을 받을 수 있다.토스뱅크 관계자는 “고객이 적금을 가입하는 과정에서 우대금리를 받기 위한 복잡한 조건을 신경 쓸 필요없이 오로지 저축에만 집중할 수 있도록 돕고 싶었다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2023.08.03.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>현금 쪼들리는 대기업, 비주력 계열사 줄줄이 매각</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005167924?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>인수한 기업 낮은 실적에 발목SK·롯데 등 유동성 확보 총력계열사 매각 전년比 8% 증가금리 인상과 경기 악화로 현금이 부족해진 국내 기업들이 비주력 계열사를 매각하고 있다. 대기업은 자산 값이 폭등하던 코로나19 시기 가용 자원을 총동원해 대규모 인수·합병(M&amp;A)을 진행했지만, 당시 막대한 자금을 투입해 사들인 기업 실적이 기대에 부합하지 못하며 유동성 부족에 시달리게 됐다. M&amp;A 업계는 하반기 대기업 비주력 계열사·사업부 매물이 시장을 이끌 것으로 보고 있다.3일 매일경제 레이더엠 리그테이블 자료를 분석한 결과 올해 상반기 국내 기업을 대상으로 하는 카브아웃(carve-out) 거래(발표 기준·50억원 이상)는 4조8048억원으로 전년 동기 4조4390억원 대비 약 8% 증가했다. 카브아웃은 기업이 계열사 또는 사업부를 매각하는 거래를 의미한다. 이와 대조적으로 같은 기간 국내 바이아웃(경영권 거래) 시장은 19조1957억원에서 18조7180억원으로 축소됐다.대기업이 규모 있는 자회사를 내다 팔며 카브아웃 시장 성장을 견인했다. 지난 3월 SK스퀘어가 스웨덴 발렌베리가 사모투자펀드(PEF) 운용사 EQT파트너스에 SK쉴더스를 3조원에 넘긴 거래가 대표적이다. SK스퀘어는 SK쉴더스를 기업공개(IPO)할 예정이었으나, 난항을 겪다가 해외 재무적투자자(FI)에게 전격 매각했다.롯데케미칼은 지난 1월 파키스탄 PTA 자회사 롯데케미칼 파키스탄을 2000억원에 정리했다. LG화학은 진단사업부를 국내 PEF 운용사 글랜우드프라이빗에쿼티(PE)에 1500억원에 매각했다. 솔루스첨단소재는 솔루스바이오텍을 영국 크로다오버시스홀딩스에 3500억원에 넘겼다.금융회사의 카브아웃도 잇달았다. 다올투자증권은 연초 다올인베스트먼트(현 우리벤처파트너스·2125억원)와 다올신용정보(130억원)를 매각하는 계약을 체결했다. 산업계와 투자은행(IB)업계에서는 하반기에 카브아웃이 더욱 늘어날 것이란 관측이 나온다. 한 IB업계 관계자는 "금리 인상의 불확실성은 여전하지만, 상반기보다는 다소 줄어든 것으로 보인다"며 "거래 가격에 대한 매매 양방의 눈높이를 맞추는 게 보다 수월해지면서 그동안 논의만 돼오던 계열사·사업부 매매 계약이 본격적으로 체결될 것"이라고 봤다.시장에서는 코로나19 기간에 M&amp;A에 적극적이었던 SK LG 롯데 한화 CJ 등이 카브아웃 시장을 통해 자금을 조달할 것으로 보고 있다. 실제로 현재 이들 계열사에 대한 거래가 활발히 논의되고 있다. SKC는 반도체 소재·부품 자회사인 SK엔펄스의 파인세라믹스 사업부 매각을 추진하고 있다. 이 회사는 해당 내용을 바탕으로 최근 PEF 운용사 한앤컴퍼니와 양해각서(MOU)를 체결했다. 거래 가격은 약 4000억원으로 알려졌다. SKC는 반도체·2차전지·친환경 소재 사업 중심으로 비즈니스 모델을 재편하기 위해 근래 들어 M&amp;A 시장 문을 자주 두드리고 있다. 지난해 한앤컴퍼니에 필름 사업 부문을 매각했으며, 폴리우레탄 원료사업 자회사 SK피유코어를 글랜우드PE에 넘기는 것도 검토하고 있다.신세계그룹은 간편결제 서비스인 SSG페이(쓱페이)와 스마일페이를 인수할 우선협상대상자로 토스를 선정했다. 신세계그룹은 하반기 유통 업황 악화에 선제적으로 대비하는 차원에서 회사채 수요예측을 진행하는 등 자금 확보에 열을 올리고 있다. [박창영 기자]</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2023.08.09.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>"조건없이 최대 연 5% 우대금리"…토스뱅크, 자유 적금 출시</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006980503?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>(토스뱅크 제공) /뉴스1(서울=뉴스1) 김정현 기자 = 토스뱅크가 매월 꾸준히 저금만 하면 우대금리를 적용해 최고 연 5% 금리 혜택을 제공하는 토스뱅크 자유 적금을 출시한다고 9일 밝혔다. 이번 토스뱅크 자유 적금의 가장 큰 특징은 복잡한 우대조건 없이 가입한 기간 동안 매달 자동이체로 저금만 하면 누구나 최고금리를 받을 수 있다는 점이다. 가입기간은 최소 3개월부터 최대 36개월까지다. 월 납입한도는 최대 300만원으로, 가입 시 설정되는 자동이체 이외에도 한도 범위 내에서 자유롭게 추가 저금이 가능하다. 기본 금리는 가입기간에 따라 차등 적용되며 12개월 이상으로 가입하는 경우, 매월 자동이체를 모두 성공하면 최고 연 5% 금리 혜택을 받을 수 있다.   적금 가입 전 만기시 받을 이자(세전)도 미리 계산해볼 수 있다. 토스뱅크 자유 적금 가입 과정에서 고객이 원하는 매월 저금액, 기간 등 가입조건을 입력하면 된다. 비과세종합저축으로도 가입할 수 있어 대상자인 경우 서류제출없이 적금 가입 시 비과세 적용하기만 클릭하면 된다. 토스뱅크 관계자는 "고객이 적금을 가입하는 과정에서 우대금리를 받기 위한 복잡한 조건을 신경 쓸 필요없이 오로지 저축에만 집중할 수 있도록 돕고 싶었다"며 "앞으로도 고객 분들이 좋은 혜택들을 쉽고 간편하게 누릴 수 있는 은행이 되도록 노력할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2023.08.03.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>무인매장서 파는 육회서 식중독균이?...식품 위생 조사해보니</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012011502?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>밀키트 재료 변질 사례 (사진=소비자원 제공) *재판매 및 DB 금지[서울=뉴시스]박미선 기자 = 무인매장에서 판매하는 식품 중 일부 육회 제품에서 식중독균이 검출된 것으로 나타났다. 3일 한국소비자원이 무인매장 29곳에서 판매하는 밀키트·과자·생선회·육회 등 35개 식품의 안전성과 표시사항 등을 조사한 결과, 육회(1개 제품)에서 식중독균(황색포도상구균)이 검출됐다. 또 일부매장에서는 소비(유통)기한이 지난 식품도 판매되고 있어 식품 안전을 위한 위생관리 강화가 시급한 것으로 나타났다.손질된 육류를 포장·판매하는 무인정육점에서 구매한 육회 2개 제품 중 진성그린푸드가 판매한 1개 제품에서 식중독균인 황색포도상구균이 검출됐다. 또 무인밀키트판매점에서 구입한 불고기 제품 10개 중 어라운드에이치큐 1개 제품은 버섯·파·양파 등의 재료가 변질돼 있었다. 무인과자점 12개 매장 중 1개 매장에서 소비기한이 경과한 과자 4개 제품을 판매했고, 그중 1개 제품은 소비기한이 100일 이상 지난 것으로 확인됐다. 해당 무인과자점은 현재 폐업한 상태다. 전체 조사대상 35개 식품 중 영양성분이 표시된 15개 제품의 실제 나트륨 함량을 조사한 결과, 4개 제품(▲500 차카니 ▲추억의 옛날 그 맛 월드컵 어포 ▲피시스낵 스파이스맛 ▲피아토스 치즈향 감자칩)이 표시기준에 부적합했다. 또 의무표시사항인 소비기한·내용량 등을 기재하지 않은 곳 5개 제품(▲오늘쉐프 오늘은 소불고기 ▲요리비책 간장 소불고기 ▲원셰프의 행복식탁 전통소불고기 전골 ▲집어가 소불고기 버섯 전골 ▲팔도만찬 광양불고기), 잘못 표시한 경우 4개 제품(▲옐로우스푼 고기듬뿍 소불고기 전골 ▲요리비책 간장 소불고기 ▲원셰프의 행복식탁 전통 소불고기 전골 ▲집어가 소불고기 버섯 전골)이 있었다.이중 오늘쉐프 오늘은 소불고기, 원셰프의 행복식탁 전통소불고기 전골, 옐로우스푼 고기듬뿍 소불고기 전골을 각각 판매하는 사업자 일가브라더스, 굿푸드, 어라운드에이치큐는 원재료·소비자주의사항 등 표시개선계획을 회신했다. 한국소비자원은 이번 조사결과를 바탕으로 식품을 판매하는 무인매장 사업자에 식품의약품안전처의 '2023년 식품안전관리지침'의 '무인 식품취급시설 안전관리'를 참고해 매장을 관리할 것을 권고하고, 식품의약품안전처에는 무인매장 사업자에 대한 위생관리 교육 및 홍보를 요청할 계획이다.아울러 소비자에게는 무인매장에서 식품을 구매할 때 포장 상태 및 소비기한·원재료·영양성분 등 표시사항을 꼼꼼히 확인할 것을 당부했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2023.08.07.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>14일은 '택배 없는 날'…새벽배송·편의점 반값택배는 '정상 운영'</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004876927?sid=103</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>유통가 자체 배송하는 새벽·익일배송 정상운영편의점 반값 택배도 운영 이어가사진=뉴스1이달 14일 택배 종사자의 휴식보장을 위한 '택배 없는 날'이 돌아오면서 CJ대한통운·한진택배·롯데글로벌로지스 등 주요 택배사들의 배송 업무가 잠시 멈춘다. 그러나 유통기업들이 자체 운영하는 주간 및 새벽 배송 서비스는 정상 운영되고, 편의점의 경우 자체 배송차량을 이용한 점포 간 '반값 택배'는 서비스를 이어간다. 7일 업계에 따르면 한국통합물류협회 소속 주요 택배사들은 오는 14일을 택배 없는 날로 정했다. 이에 따라 일요일인 오는 13일부터 광복절인 15일까지 해당 택배사들의 배송 업무가 중단된다.토요일인 12일 접수한 택배는 16일 이후부터 배송된다. 업무 중단 택배사를 이용하는 편의점 택배도 일부 중단된다.이에 따라 해당 기간 관련 택배사를 이용하는 온라인 쇼핑몰에서 물품을 주문할 경우, 배송이 지연될 수 있다.사진=뉴스1택배 없는 날은 택배기사들의 휴식을 보장하기 위해 한국통합물류협회 소속 택배사들이 운행을 중단하는 날이다. 고용노동부와 다수 택배사업자가 합의해 2020년부터 매년 8월14일로 정했다.다만 택배사가 아닌 유통사가 자체 배송망으로 운영하는 익일배송과 새벽배송 서비스는 정상 운영한다. 쿠팡의 '로켓배송'과 SSG닷컴의 '쓱배송', 마켓컬리의 '샛별배송' 등은 평소와 같이 주문과 배송을 이어간다.사진=연합뉴스또한 편의점들이 자체 물류망을 이용하는 점포 간 '반값 택배' 역시 수거와 배송이 평소와 같이 진행된다. CU는 오는 20일까지 토스나 번개장터에서 이 회사 반값택배 서비스인 '알뜰택배'를 접수하면 500원을 할인해주는 프로모션을 진행한다. 이에 더해 8월 한 달간 매주 월요일에 포켓CU 애플리케이션(앱)에서 알뜰택배를 예약하면 아메리카노 무료 쿠폰을 제공하는 이벤트도 진행한다.CU에 따르면 택배 없는 날에는 편의점으로 택배 수요가 몰린 바 있다. 2021년과 2022년 택배 쉬는 날의 알뜰택배 이용건수는 직전 주보다 각각 70%, 95% 뛰었다.사진=BGF리테일박희진 BGF리테일 서비스플랫폼팀장은 “매년 택배 쉬는 날에는 알뜰택배의 이용 수요가 크게 증가했다”며 “고객 편의성을 높이기 위해 CU매장을 활용한 보다 다양한 생활서비스를 고민할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2023.08.09.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>토스뱅크, 최고 연 5% '토스뱅크 자유 적금' 출시</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/448/0000422251?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>토스뱅크가 복잡한 조건 없이 매월 꾸준히 저금만 하면 우대금리를 적용해 최고 연 5% 금리 혜택을 제공하는 '토스뱅크 자유 적금'을 출시한다고 9일 밝혔다.'토스뱅크 자유 적금'의 가입기간은 최소 3개월부터 최대 36개월까지로 고객이 원하는 기간으로 가입 가능하다. 월 납입한도는 최대 300만원으로 가입 시 설정되는 자동이체 이외에도 한도 범위 내에서 자유롭게 추가 저금이 가능하다. 기본 금리는 가입기간에 따라 차등 적용되며 12개월 이상으로 가입하는 경우, 매월 자동이체를 모두 성공하면 최고 연 5% 금리 혜택을 받을 수 있다.  적금 가입 전 고객이 받을 이자도 미리 계산해볼 수 있다. '토스뱅크 자유 적금' 가입 과정에서 고객이 원하는 매월 저금액, 기간 등 가입조건을 만들면 만기 시 받을 수 있는 이자(세전)를 확인할 수 있다. 또한 비과세종합저축으로 가입 가능해 대상자인 경우에는 적금 가입 시 손쉽게 비과세 적용하기를 클릭하면 별도 서류제출 없이 비과세 혜택도 누릴 수 있다.  토스뱅크 관계자는 "고객이 적금을 가입하는 과정에서 우대금리를 받기 위한 복잡한 조건을 덜어내고 오로지 저축에만 집중할 수 있는 상품을 준비했다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2023.08.10.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>토스뱅크, '수익+안정' 두마리 토끼 잡았다… 월별실적 '흑자전환' 성공</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000941458?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>서울 강남구 토스뱅크/사진=토스뱅크 토스뱅크가 월별 실적 기준 처음으로 흑자 전환에 성공했다. 대출 영업을 재개한 지 19개월 만이다.토스뱅크는 지난달 말 기준 약 10억원의 흑자를 기록했다고 10일 밝혔다. 현재의 현금 흐름과 재무적 요소들을 고려할 때 큰 외부 변수가 없는 한 오는 3분기에는 분기 기준 흑자가 이어질 가능성이 높은 것으로 전망된다.토스뱅크 관계자는 "녹록지 않은 대외 환경 속에서도 포용 금융을 소홀히 하지 않고 고객 관점에서 새로운 은행 경험을 만들고자 한 노력이 빛을 본 것으로 평가된다"고 설명했다.토스뱅크는 향후 건전선과 손실흡수능력 확보에 주목하며 수익성에 기반한 경영 안정성도 한층 강화한다. 실제 인터넷은행 중 가장 먼저 선보인 자산관리 사업은 지난달 말 기준 누적 판매액 2조5000억원을 돌파했다.특히 하반기에는 다양한 상품과 서비스를 선보일 계획이다. 토스뱅크는 광주은행과 함께 상생모델인 '공동대출' 상품을 준비 중이다. 또 외환 사업에도 본격 진출한다.토스뱅크의 지난달 말 기준 가입 고객 수는 700만명을 넘어섰다. 일평균 1만1000명의 신규 고객이 유입되는 것으로 실사용 고객이 10명 중 8명(76%)에 달한다.토스뱅크 관계자는 "인터넷전문은행 중 가장 후발주자였던 토스뱅크가 이러한 성과를 낼 수 있었던 원동력은 무엇보다도 고객의 신뢰와 성원" 이라며 "이에 보답하기 위해 새롭게 밝힌 기업 미션 '이전으로 돌아갈 수 없는 새로운 은행 경험'을 실천하며 성장성과 안정성을 이어가기 위해 노력할 것"이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2023.08.07.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>오는 14일은 '택배 없는 날'…편의점 반값 택배는 정상 운영</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/057/0001760989?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>자체 배송망 운영 쿠팡·SSG닷컴·마켓컬리는 평소대로 배송"택배 하루 쉽니다" (CG) / 사진=연합뉴스오는 14일 '택배 없는 날'을 맞아 주요 택배사들이 연휴에 돌입하지만 편의점 반값 택배는 정상 운영됩니다.오늘(7일) 업계에 따르면 CJ대한통운과 한진, 롯데글로벌로지스 등 주요 택배사들은 오는 14일을 택배 없는 날로 정하고 일요일인 13일부터 광복절인 15일까지 배송 업무를 하지 않습니다.이에 따라 12일에 접수한 택배는 16일 이후부터 배송됩니다. 이들 택배사를 이용하는 편의점 택배도 일부 중단됩니다.다만 GS25와 CU 편의점의 자체 배송망을 이용하는 '반값 택배'는 휴무 없이 수거와 배송이 이뤄집니다.CU는 오는 20일까지 토스나 번개장터에서 '알뜰택배'(반값택배)를 접수하면 500원을 할인해주는 프로모션을 진행합니다.또 8월 한 달간은 매주 월요일에 포켓CU 애플리케이션에서 알뜰택배를 예약하면 아메리카노 무료 쿠폰을 제공합니다.CU에 따르면 지난해 택배 없는 날에는 편의점으로 택배 수요가 몰리면서 알뜰택배 이용 건수가 직전 주보다 95%가량 증가했습니다.택배사가 아닌 자체 배송망을 활용하는 쿠팡 로켓배송과 SSG닷컴의 쓱배송, 마켓컬리의 샛별배송도 평소대로 이뤄집니다.11번가는 택배 없는 날을 고려해 매달 11일에 진행해오던 할인 행사 '월간 십일절'을 7∼11일로 앞당겨 진행하기로 했습니다.11번가는 월간 십일절 행사를 그대로 진행할 경우 주말과 광복절 등에 배송 물량이 누적돼 택배기사들의 부담이 가중될 수 있다고 보고 일정을 조정했다고 설명했습니다.앞서 고용노동부는 지난 2020년 주요 택배사와 함께 '택배 종사자의 휴식 보장을 위한 공동선언'을 발표하면서 매년 8월 14일을 택배 쉬는 날로 정례화하기로 했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2023.08.10.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>토스뱅크, 출범 이후 첫 月흑자 전환…10억 규모</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002739040?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>출범 후 22개월 만서울 강남구 토스뱅크. ⓒ토스뱅크[데일리안 = 김효숙 기자] 토스뱅크는 출범 후 처음으로 월 흑자 전환했다고 10일 밝혔다.토스뱅크에 따르면 지난달 말 기준 흑자 규모는 약 10억원 규모다. 현재의 현금흐름 및 재무적 요소들을 고려할 때 큰 외부 변수가 없는 한 지난달 흑자 전환이 오는 3분기 기준 첫 분기 흑자로 이어질 가능성이 높다는 전망이다.토스뱅크는 2021년 10월 출범했으나 출범 9일만에 대출영업을 중단, 지난해 1월부터 대출영업을 재개했다. 출범 후 22개월 만, 대출 영업 재개 19개월 만의 성과라는 설명이다.토스뱅크는 "코로나 팬데믹이 한창이던 시기에 출범하여 이어지는 글로벌 경기침체 및 인플레이션, 고금리 기조 등 녹록지 않은 대외 환경이었지만 포용금융을 소홀히 하지 않고 고객 관점에서 새로운 은행 경험을 만들고자 노력했다"며 "경기 침체의 여파가 여전히 존재하고 있으므로 건전성과 손실흡수능력 확보에 만전을 기하며, 수익성에 기반한 경영 안정성도 강화해 나가겠다"고 말했다.지난달 말 기준 가입 고객 수는 700만명을 넘어서며 일평균 1만1000명의 신규 고객이 유입됐고 실사용 고객이 10명 중 8명(76%)에 달했다.토스뱅크는 하반기에도 다양한 상품과 서비스 선보이며 이례적인 성장 속도를 이어나가겠다고 했다.하반기 출시를 목표하고 있는 전월세자금대출 및 인터넷전문은행-지방은행 상생모델인 '공동대출' 등 여신 포트폴리오 강화를 통해 이자이익 규모와 여신 안전성을 개선할 방침이다.인터넷은행 중 가장 먼저 선보인 자산관리 사업은 지난달 말 기준 누적 판매액 2조5000억원을 넘어섰으며, 한국투자증권부터 시작해 한화투자증권, KB증권, 미래에셋증권 등 확산, 비이자 이익 규모도 늘고 있다.토스뱅크는 또 최근 취득한 외환 라이센스를 바탕으로 외환 사업까지 확장하겠다는 계획이다.토스뱅크 관계자는 "인터넷전문은행 중 가장 후발주자였던 토스뱅크가 이러한 성과를 낼 수 있었던 원동력은 무엇보다도 고객의 신뢰와 성원"이라며 "이에 보답하기 위해 새롭게 밝힌 기업 미션, 이전으로 돌아갈 수 없는 새로운 은행 경험을 실천하며 성장성과 안정성을 이어가기 위해 노력하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2023.08.08.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>"새시대 새롭게 도전하는 청년"…조언·격려 쏟아진 '뉴스1 미래캠프'(종합)</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006978785?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>청년재단 함께하는 '뉴스1 대학생 미래캠프' 첫날 강연 성료 원희룡 장관, 토스뱅크 박준하 CTO 등 비전·경험 나눔 '호응'원희룡 국토부장관이 8일 오전 서울 종로구 SC제일은행 본사 대강당에서 열린 '2023 뉴스1 대학생 미래캠프'에서 '공간과 이동의 새로운 미래'를 주제로 특별강연을 하고 있다. 2023.8.8/뉴스1 ⓒ News1 김도우 기자(서울=뉴스1) 박기현 김정현 고승아 기자 = 원희룡 국토교통부 장관, 박준하 토스뱅크 최고기술책임자(CTO), 가수 김장훈 등 다양한 분야의 인사들이 100여 명의 대학생 앞에서 자신의 비전, 경험 등을 소개했다.8일 서울 종로구 SC제일은행빌딩 대강당에서 열린 '청년재단과 함께하는 2023 뉴스1 대학생 미래캠프' 1일차 강연이 성황리에 마무리됐다. ◇원희룡 "국토·교통 혁신으로 새로운 세상 열린다"원 장관은 '공간과 이동의 새로운 미래'라는 주제의 강연을 통해 국토·교통 분야의 청사진을 제시했다. 그는 "가장 깊숙이 미래의 소용돌이 속에 들어온 분야가 바로 국토·교통"이라며 "청년들이 스마트폰이 없는 세상을 상상하기 어렵듯 미래에는 국토·교통의 혁신으로 새로운 세상이 열려 지금과 같은 상황을 상상하기 어려울 것"이라고 말했다.원 장관은 미래 교통체계의 '입체화'를 강조했다. 그는 "지금의 철도는 철길 양옆을 가르고, 도로는 신경망에 따른 구획화·단절화의 한계가 있다"며 "수평적인 확장을 그만두고 이제는 지하로 가야 한다"고 말했다. 아울러 지하화 외에도 지상에 2층 규모의 도로·철도를 설치하는 방안이 가능하다고 전했다.또 다른 키워드로 '스마트화'를 꼽은 원 장관은 스마트도시의 개념에 관해 설명하며 새로운 가능성을 제시했다. 그는 "인식능력을 갖춘 도시로 개념이 발전하고 있다"며 "아직은 초보적이지만 수도·전력 사용량 등이 스마트계량으로 이뤄진다든지 도시 내에서의 버스 노선도 빅데이터를 통해서 구성되는 등 스마트기술이 적용되고 있다"고 설명했다.원희룡 국토부장관이 8일 오전 서울 종로구 SC제일은행 본사 대강당에서 열린 '2023 뉴스1 대학생 미래캠프'에서 '공간과 이동의 새로운 미래'를 주제로 특별강연을 하고 있다. 2023.8.8/뉴스1 ⓒ News1 김도우 기자◇"제약을 깨는 정신" "끌리는 대로 살아라" 조언·격려 이어져박준하 토스뱅크 CTO는 개발자와 스타트업 창업을 꿈꾸는 대학생들에게 '제한과 제약을 깨는 정신'과 끊임없는 '테스트'의 중요성을 강조했다. 그는 "원래 은행을 직접 경영하는 대신 플랫폼만 운영할 생각이었는데, 기존 금융에서 안 되는 것들이 많아 IT 기반 회사라면 뭔가 바꿔볼 수 있지 않을까 하는 생각이 있었다"고 말했다.그러면서 "또 기존 토스의 선불 전자지급 사업자의 송금한도인 200만원의 한계를 넘으려면 은행을 해야한다는 목소리도 있었다"며 "이 같은 200만원의 한계 때문에 은행을 한다는 결정까지 갈 정도로 제약을 깨는 일을 계속해야 한다"고 당부했다. 박 CTO는 이로 인한 성과로 현재 토스뱅크의 '중저신용자 대출'이 있다고 덧붙였다.박준하 토스뱅크 CTO가 8일 오전 서울 종로구 SC제일은행 본사 대강당에서 열린 '2023 뉴스1 대학생 미래캠프'에서 '토스뱅크 이야기'를 주제로 특별강연을 하고 있다. 2023.8.8/뉴스1 ⓒ News1 김도우 기자김장훈은 자신만의 스타일이 돋보이는 올블랙 옷을 입고 와 "진짜 끌리는 대로, 나의 행복의 최선"을 찾아가라는 진심 어린 조언을 건넸다.그는 "행복은 각자에게 이유가 있고 남들이 전혀 이해할 필요가 없다"며 "여러분이 소위 끌리는 대로 사는 세대라고 하지 않냐, 그렇다면 진정 끌리는 대로 살아야 한다"고 했다. 또 "나의 행복이 이게 최선인가, 내가 좇을 길이 이것밖에 없나 다시 생각하자"고 덧붙였다.대학생들의 질의도 이어졌다. 국토교통 분야 신기술이 약자를 소외시킬 수 있다는 의견부터, 창업을 꿈꾸는 학생의 기업 내 의사결정 구조와 관련한 깊이 있는 질문도 나왔다. 강연자들은 성심성의껏 대답했고 때로는 격려를 아끼지 않았다.'청년재단'과 함께하는 2023 뉴스1 대학생 미래캠프'는 이날부터 양일간 정치, 경제, 금융 등 각계각층의 전문가 강연과 산업현장 탐방을 통해 청년들이 다양한 진로를 탐색하고 국내 미래산업 전반에 대한 견문을 넓히기 위해 마련된 행사다.캠프 주최 측인 이영섭 뉴스1 대표는 "기나긴 팬데믹을 지나 일상이 회복되는 시기를 맞이해 대학생들을 위해 무엇을 할 수 있을까 고민한 끝에 자리를 마련했다"며 "선배 세대와 친구들의 고민, 경험, 비전을 경청하고 진로 준비를 가다듬는 기회가 됐으면 좋겠다"고 전했다.가수 김장훈이 8일 오전 서울 종로구 SC제일은행 본사 대강당에서 열린 '2023 뉴스1 대학생 미래캠프'에서 특별강연을 하고 있다. 2023.8.8/뉴스1 ⓒ News1 김도우 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>LGU+망 알뜰폰 토스·KCT·KG모바일, 1년 영화 관람권 준다</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012006735?sid=105</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>LGU+, CJ CGV 협력…12개월간 매월 영화 관람권·콤보 할인권 제공대상 요금제 2종…알뜰폰 상생 브랜드 '+알파'서 공개[서울=뉴시스] LG유플러스가 CJ CGV와 함께 알뜰폰(MVNO) 가입자를 대상으로 영화 관람권과 콤보 할인권을 제공하는 'CGV요금제'를 출시했다. (사진=LGU+ 제공) *재판매 및 DB 금지[서울=뉴시스] 심지혜 기자 = LG유플러스는 CJ CGV와 함께 알뜰폰(MVNO) 가입자를 대상으로 영화 관람권과 콤보 할인권을 제공하는 'CGV요금제'를 출시했다고 1일 밝혔다.CGV요금제는 LG유플러스 망을 사용하는 중소 알뜰폰 사업자인 토스모바일, KCT,  KG모바일 등 세 업체를 통해 가입할 수 있다. 해당 요금제 신규 가입 고객에게는 12개월간 매월 CGV 일반관 영화 관람권 2매와 팝콘(L) 1개+탄산음료(M) 2잔으로 구성된 'CGV콤보' 2000원 할인권이 제공된다.요금제는 '11GB요금제'(3만5200원부터, VAT포함)와 '일 5GB요금제'(4만1800원부터, VAT포함) 두 종류다. 11GB요금제는 데이터를 다 소진하면 일 2GB가 추가되며 이마저도 다 사용하면 3Mbps 속도로 제공된다. 5GB 요금제는 데이터를 모두 사용하면 5Mpbs 속도로 계속 이용할 수 있다. 월 이용요금은 각 사업자별로 다르고 중소 알뜰폰 상생 파트너십 브랜드인 '+알파'에서 확인할 수 있다.LG유플러스는 이번 CGV요금제 출시와 관련 "영화 관람을 좋아하는 알뜰폰 고객에게 정기적인 혜택을 제공해 그동안 부족했던 멤버십 서비스를 보완하고, 중소 사업자와의 상생을 위해 기획했다"고 설명했다. LG유플러스와 CGV는 CGV 일반관 영화 2000원 할인권도 제공한다. 이 혜택은 U+망 알뜰폰 이용자라면 사용중인 요금제에 관계없이 누구나 받을 수 있다.유호성 LG유플러스 MVNO사업담당은 "U+망 알뜰폰 사용 고객들이 알뜰폰 멤버십 혜택처럼 사용할 수 있도록 CGV요금제를 구상했다"며 "앞으로도 더 많은 고객이 알뜰폰을 경험할 수 있도록 파격적인 혜택을 제공하고, 중소 알뜰폰 사업자와 상생을 위해 다양한 제휴를 추진하도록 노력하겠다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2023.08.10.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>토스뱅크, 출범 22개월 만인 7월 첫 월 단위 흑자…"10억원 규모"</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006984702?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>토스뱅크가 지난 2021년 10월 출범 이후 22개월 만인 올해 7월말 기준 첫 월 단위 흑자를 달성했다고 10일 밝혔다. 2021.10.5/뉴스1 ⓒ News1 박세연 기자(서울=뉴스1) 김정현 기자 = 토스뱅크가 지난 2021년 10월 출범 이후 22개월 만인 올해 7월말 기준 첫 월 단위 흑자를 달성했다고 10일 밝혔다.이날 토스뱅크는 "7월말 기준 흑자 규모는 약 10억원 수준 "이라며 "큰 외부 변수가 없는 한 7월 흑자 전환이 23년 3분기 분기 흑자로 이어질 가능성이 높은 것으로 전망된다"고 설명했다.이같은 내용은 토스뱅크 경영진이 지난 9일 사내 게시판을 통해 공지하면서 알려졌다. 토스뱅크는 출범 이후 매 분기 손실을 기록했으나, 올해 들어 당기순손실 규모를 줄여가던 중 지난달 흑자 전환에 성공한 것으로 보인다.토스뱅크 관계자는 "인터넷전문은행 중 가장 후발주자였던 토스뱅크가 이러한 성과를 낼 수 있었던 원동력은 무엇보다도 고객의 신뢰와 성원"이라며 "이에 보답하기 위해 새롭게 밝힌 기업 미션인 '이전으로 돌아갈 수 없는 새로운 은행 경험'을 실천하며 성장성과 안정성을 이어가기 위해 노력할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2023.08.09.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>신한카드-토스, 빅데이터 상생 경영 협력</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002312728?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>◆…문동권 신한카드 사장(왼쪽)과 이승건 토스 대표 [신한카드 제공]신한카드는 토스와 '데이터 공동 사업을 위한 신용평가모델 및 금융서비스 개발 업무협약'을 체결했다고 9일 밝혔다.   이번 협약식은 문동권 신한카드 사장, 이승건 토스 대표 및 관계자들이 참석한 가운데 서울 을지로 신한카드 본사에서 전날 오후 진행됐다.   양사는 신한카드가 보유한 소비행동패턴정보, 디지털 로그 데이터 등 빅데이터 역량과 '토스'가 보유한 데이터, 플랫폼 경쟁력을 활용해, 사회초년생 및 소상공인 등 금융소외계층을 비롯한 개인 및 개인사업자가 다양한 금융서비스를 이용할 수 있도록 정밀한 대안평가지표와 특화된 금융상품 및 서비스를 개발하기로 했다.   향후 개발한 대안평가지표를 개인 또는 개인사업자들이 이용할 수 있는 대출 상품에 활용하고, 개인사업자용 신용관리 서비스를 공동 개발해 토스에 적용해 소상공인들이 편리하게 이용할 수 있도록 할 예정이다.   민간 기업을 대상으로 한 데이터 사업도 추진한다. 통계화된 소비정보를 기반으로 시장, 경쟁환경, 고객 및 고객여정에 대한 인사이트를 도출, 이용 기업에 구독형식으로 제공하는 비즈니스 모델 출시에 협업하기로 했다.   신한카드는 2021년 9월 금융사 최초로 개인사업자 신용정보업 허가를 획득해 개인사업자 신용평가(CB) 사업 '마이크레딧(MyCredit)'을 진행하고 있다. 개인사업자 신용평가, 매출 추정, 휴폐업 지수 등을 개발해 관련 데이터를 금융, 공공기관에 제공하고 있다.   또 신용카드 거래 데이터, 신한pLay(신한플레이) 플랫폼 데이터를 바탕으로 분석한 '소비행동패턴정보서비스(BPS)'를 개인사업자CB와 함께 사업화하고 있다. 상품별 카드 거래 패턴, 디지털 로그, 라이프스타일 등을 종합적으로 분석한다.   신한카드 관계자는 "3100만 고객을 바탕으로 당사가 보유한 빅데이터와 CB사업 역량은 2600만 고객의 토스 데이터와 함께 다양성과 정교한 분석을 바탕으로 금융 소외 계층을 비롯한 자영업자, 소상공인에 대한 더욱 촘촘한 금융서비스를 가능케할 것으로 기대한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2023.08.09.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>컬리, 앱테크 게임 도입…8년 연속 적자 ‘탈출구’ 될까</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/468/0000969517?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>컬리 이미지. 사진 | 컬리[스포츠서울 | 최규리기자] 이커머스 시장의 선발주자였던 컬리가 올해도 뚜렷한 성장 동력을 찾지 못하고 있다. 컬리는 ‘마이컬리팜’ 모바일 게임을 출시하며 돌파구 찾기에 나섰지만, 이조차 본질적인 성장동력이 될 수 없다는 지적이다. 아울러 지나친 상업적 변모는 충성고객마저 등을 돌릴 수 있다는 평가마저 따른다. ‘앱테크’(앱+재테크) 트렌드 속에서 이를 통해 새로운 모멘텀을 마련하겠다는 컬리의 행보가 더욱 주목된다.최근 금융권, 포털, 모빌리티 등 업계에서는 토스, 캐시워크와 같은 앱테크 서비스로 MAU(월간 활성 이용자 수)를 늘려가고 있다. 앱테크 서비스로 사용자들을 앱 내에서 장시간 체류하게 하고, 신규 고객을 유입시키려는 마케팅이다. 이들은 간단한 클릭, 걷기 등으로 혜택을 제공해 소비자들의 사용을 확장하고 있다.일례로 ‘캐시워크’는 돈 버는 만보기라는 콘셉트로 걸음 수로 캐시를 모아 실제 상품과 교환할 수 있다. ‘토스’도 걸음 수, 페이지 방문, 행운복권 등으로 앱테크 서비스를 제공하고 있다.마이컬리팜. 사진 | 컬리컬리도 지난 1일 앱테크 게임 서비스 ‘마이컬리팜’을 출시했다. 컬리 관계자는 “최근 시간과 장소에 구애받지 않고 간편하게 재테크를 할 수 있는 ‘앱테크’가 주목받고 있다”며 “이러한 트렌드에 따라 간단한 활동만으로 혜택을 제공하는 서비스를 출시했다”고 밝혔다.‘마이컬리팜’은 가상의 테라스에 있는 화분에 작물을 키우면 그 작물을 실제 컬리를 통해 배송받을 수 있는 서비스로 별도의 앱 다운로드 없이 컬리 앱에서 이용할 수 있다.컬리 측은 “구매 유도 요소를 없앤 데다 상점을 통해 다 키운 작물을 직접 받거나 타 상품으로 교환할 수 있게 해 고객 참여를 높였다”며 “고객들이 직접 매일의 재미를 느끼며 혜택도 받을 수 있는 ‘마이컬리팜’을 통해 더 자주 컬리를 방문하고 이용하는 기회가 될 것”이라고 설명했다.마이컬리팜. 사진 | 최규리기자 gyuri@sportsseoul.com실제 게임을 진행하면 원하는 작물 2개를 고를 수 있다. 종류는 토마토, 양파, 오이, 아보카도 네 가지다. 또 친구 초대 기능으로 작물 개수를 늘릴 수 있다. 일정 시간마다 물을 주면 작물이 자라나게 돼 있다. 그렇게 키운 작물을 수확해  진짜 농작물과 교환하거나 다른 상품으로 교환구매할 수 있다는 점이 강점으로 꼽힌다. 교환구매 상품은 생수, 비빔면 등이 있다.이 같은 컬리 앱 내의 ‘앱테크’는 신선한 시도이기도 하면서 ‘앱 내 체류시간’을 장시간으로 늘려 이를 ‘구매전환’으로 이어가려는 마케팅이기도 하다.일각에서는 “‘마이컬리팜’ 출시는 색다른 시도라기보단 결국 컬리가 고질적인 적자를 필사적으로 막으려는 것이다”라는 평가도 나오고 있다. 컬리는 왜 식품 플랫폼에서 ‘모바일 게임’을 출시해 적자를 탈출하려 했을까. 업계 한 관계자는 “모바일 게임이 아닌 컬리의 본질을 지키고 식품·서비스 부분에서 이를 보강하는 것이 마땅하다”고 지적했다.컬리는 이커머스 시장 출범 당시 ‘프리미엄 식품’과 ‘익일배송’으로 충성 고객들을 모았다. 최근엔 쿠팡, SSG닷컴, 위메프 등 익일배송 플랫폼들이 넘쳐나지만 컬리가 익일배송을 시작했을 당시 컬리는 유일한 콜드체인 익일배송 플랫폼이었다.그렇게 컬리는 업계 최초 익일배송 서비스로 충성 고객들을 모으며 매출 안정화에 접어드는 듯했다. 하지만 포화상태가 된 이커머스 시장 내에서 큰 성과를 내지 못하고 계속해서 지지부진한 모습을 보였다. 업계 1위라는 컬리의 영광은 다른 경쟁 플랫폼에 밀리며 제자리걸음 수준에 머물렀다.컬리 이미지. 사진 | 컬리고질적인 적자 구조를 탈피하지 못한 컬리는 2014년 창사 이래 지난해까지도 8년 연속 적자를 기록하고 있다. 이에 지난해 컬리가 신사업으로 ‘뷰티컬리’를 출시했지만 이마저도 아직 소비자들의 마음을 사로잡지 못한 형국이다.결국 컬리는 적자 탈출구로 ‘모바일 게임’이라는 칼을 빼 들었다. 자칫 컬리의 충성 고객들이 남아있는 이유인 ‘프리미엄’이라는 정체성 훼손 우려를 감수하고 적극적으로 적자 탈출에 나선 것이다.유통업계 한 관계자는 ‘마이팜컬리’ 출시에 “앱 내 체류시간을 늘리려는 시도는 좋았지만, 과도하게 상업적으로 변모될 시 남아있는 고객들마저 등을 돌릴 수 있다”라며 “앞으로 컬리는 본질을 잃어버리지 않고 고객들에게 서비스를 제공하는 게 중요하다”라고 말했다.gyuri@sportsseoul.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2023.08.02.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>원격진료 꽃피는 美…떡잎부터 자르는 韓</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003122380?sid=102</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>아마존 클리닉, 美 전역 서비스축농증·탈모 등 모든 약국 처방韓, 시범사업 계도기간 종료 눈앞복지부 '초진환자 불가 방안' 발목PPDS·플랫폼 간 연계도 어려워게티이미지뱅크아마존이 미국에서 비대면 진료 서비스 '아마존 클리닉' 사업을 시작했다. 축농증, 알레르기, 여드름, 탈모, 편두통 등 경증 질환자를 대상으로 진료하고, 온라인 약국을 포함해 모든 약국에서 처방 받을 수 있는 서비스다. 반면 우리나라는 이달 말 비대면 진료 시범사업 계도기간이 끝난다. 대부분 비대면 진료 플랫폼이 사업 중단 기로에 섰다. 모빌리티 분야 '타다'에 이어 또 하나의 혁신 신서비스가 제도와 기득권 장벽에 막혀 좌초될 것이라는 우려다.2일 비대면 진료 플랫폼 업계에 따르면 이달 말 시범사업 계도기간 종료를 기점으로 대부분의 비대면 진료 서비스가 중단되고, 남은 일부 서비스도 사업전환(피봇)을 준비 중이다.현재 시범사업 방안에 따르면 초진 환자는 비대면 진료를 받을 수 없고, 약 배송도 안 된다. 초진 환자의 이용을 허가하지 않으면 사업을 접어야 한다는 우려가 현실화됐다. 이미 대다수 비대면 진료 플랫폼 기업은 서비스를 종료했다. 그나마 벤처캐피털(VC) 등 외부 투자유치에 성공해 여력이 남아 있는 일부 기업만이 시범사업 기간동안 명맥을 유지하고 있는 실정이다. 이들마저 생존을 위해 피봇을 준비 중이다. 계도기간이 끝나면 플랫폼을 통한 비대면 진료 이용은 어려워지고, 전화상담 같은 기존 형태만 남을 것으로 보인다. 이른바 혁신의 퇴보다.실제로 룰루메딕, 메듭, 썰즈, 파닥, 체킷, 바로필, MO가 비대면 진료 서비스를 종료했다. 이용자 규모가 대폭 줄어도 서비스 유지보수료, CS 대응 등 쏟아야 하는 시간과 비용은 이전과 마찬가지로 소요되기 때문이다.비대면 진료 플랫폼 업계 관계자는 “복지부가 시범사업 안을 바꾸지 않는 이상 내달부터 비대면 진료 서비스 진행이 힘들 것 같다”면서 “계도기간이 한 달도 안 남았는데, 시범사업 이후에는 처벌을 받으니까 먼저 서비스를 중단하는 곳이 많다”고 말했다. 이 관계자는 “비대면 진료가 최소화될 것 같아 피봇을 준비 중”이라고 덧붙였다.다른 플랫폼 업체 나만의닥터 관계자는 “이달 말부터 헬스케어나 메디컬의 맥락을 유지하면서 기업과 소비자간 거래(B2C) 대상으로 콘텐츠 서비스를 제공할 예정”이라며 “토스처럼 한 명이 쓸 수 있는 유틸리티 기능을 다양하게 넣어 이용자를 붙잡으려 한다”고 전했다.복지부는 플랫폼사들의 연이은 서비스 종료를 지켜보면서도 별다른 대책을 내놓지 않고 있다. 오히려 '초·재진 대결 구도로 몰고가지 말라'며 플랫폼 업체에 경고했다. 비대면진료 시범사업 자문단 회의를 통해 풀어가겠다는 입장을 밝혔지만 이마저도 원활하지 않다. 6월 자문단 회의 출범 후 7월에는 회의가 단 한번 열리는데 그쳤다.원격의료산업협의회 관계자는 “회의라도 주기적으로 열어야 소통이 되는데, 복지부가 필요하면 부르고 당일까지도 논의 주제가 무엇인지 공지하지 않는다”면서 “갑작스레 회의를 소집하다 보니 필요한 데이터도 준비하지 못한 채 자문단 회의에 참석하는 상황”이라고 지적했다.대한약사회가 구축한 처방전달시스템(PPDS)과 플랫폼간 연계도 요원한 상황이다. 약 배송이 막히면서 플랫폼사들이 PPDS와 연계할 이유가 크게 없기 때문이다. 현재 굿닥만 연계돼 있다. 굿닥은 비대면 진료 처방전 전송을 약사회 처방전달시스템으로 전달한다. 전달시스템 가입 약국이 1만3000여곳인데, 하루 평균 10여건의 비대면 처방전만 이 시스템을 이용해 약국에 전송되고 있다.업계 관계자는 “약국에 처방전을 PPDS로 보내주는 것은 팩스로 보내는 것과 다를 게 없다”면서 “약 배송 문제가 풀려야 플랫폼사들이 PPDS 사용할 동기가 생기는 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>여의도 3배 부지서 4천여 명 캠핑…세계스카우트 잼버리 개막</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/057/0001760010?sid=102</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>【 앵커멘트 】  '청소년의 문화올림픽'으로 불리는 세계스카우트 잼버리가 오늘 우리나라 새만금에서 개막됐습니다.  여의도 면적의 3배나 되는 부지에서 4만여 명의 청소년들이 텐트 2천여 개를 설치하고 야영에 들어갔습니다.  강세훈 기자입니다.【 기자 】  이곳은 전북 부안군에 있는 새만금 부지입니다.  제 뒤로 보이는 곳이 세계스카우트 잼버리 행사장인데요.  부지가 267만 평, 여의도 3배 면적입니다.  세계 최대의 청소년 국제행사인 세계스카우트 잼버리가 시작됐습니다.▶ 인터뷰 : 서은배 / 스카우트잼버리 기획조정본부장- "(세계 청소년들이) 저들의 시각으로 세계를 보고 저들의 생각을 서로 나누면서 미래를 꿈꾸기도 하고요. 그리고 캠핑도 하고…."  이번 스카우트 잼버리는 세계 158개 나라에서 4만 3천여 명이 참가했는데요. 역대 최대 규모입니다.  개막에 맞춰 참가자들이 이렇게 행사장에 도착하고 있습니다.▶ 인터뷰 : 리스키 / 말레이시아 참가자- "스카우트 잼버리를 통해서 많은 친구를 사귀고 싶고 활동을 열심히 해 모든 뺏지를 받고 싶어요."  잼버리 행사장에는 텐트가 2만 2천 개 설치됐습니다.  참가자들은 여기서 밥을 해먹고 잠을 자는 등 야영활동을 하게 됩니다.  하지만, 연일 계속되는 폭염이 걱정입니다.  현재 시각이 오후 2시인데요. 기온은 벌써 35도를 넘어섰습니다.  이렇게 중간에 그늘막이 있기는 하지만, 개막 첫날에만 온열질환자가 수십 명 발생했습니다.▶ 인터뷰 : 기멧부토스 / 프랑스 참가자- "프랑스는 이렇게 뜨겁지 않은데 한국에 와서 (날씨가) 뜨겁다고 생각했어요."▶ 인터뷰 : 이준호 / 스카우트잼버리 종합상황팀장- "잼버리 내 소방서와 병원 등을 통해서 안전사고에 충분히 대응하고 있습니다."  스카우트 잼버리는 오는 12일까지 계속됩니다.  스카우트 회원 말고도 일반인들도 일일 프로그램에 참가할 수 있다고 하니 여름 휴가철을 맞아 현장을 방문하는 것도 좋을 것 같습니다.  MBN뉴스 강세훈입니다.  영상취재 : 조계홍 기자  영상편집 : 김혜영  #MBN #세계스카우트잼버리 #전북부안군 #새만금 #강세훈기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>[사설]K-간편결제 글로벌 시장 진출 환영한다</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003122072?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>한국 빅테크기업이 잇따라 간편결제 플랫폼을 해외로 이식한다. 내수시장 기반 간편결제 서비스가 이제 글로벌 무대로 외연을 확대하면서 'K-간편결제' 지배력 확대에 기대가 모아지고 있다.사실 한국은 신용카드 강국이다. 하지만 간편결제 역사는 길지 않다.간편결제, 좀더 쉽게 말하면 스마트폰 기반 지급결제 시장은 2013년 3월 스마트폰이 도입되면서 전통 금융사 중심으로 모바일 앱카드 형태 결제 수단이 등장한 게 시초다. 공인인증서 의무사용으로 전자상거래 결제 환경에 제한은 있지만 2014년 10월 PG사(전자결제 대행) 신용카드 정보보관 허용과 다음해 전자금융거래시 공인인증서 의무사용이 폐지되면서 간편결제 서비스는 새로운 전기를 맞이했다. 2019년 12월, 금융권에 오픈뱅킹이 시행되면서 금융결제망이 개방돼 핀테크사의 금융시장 참여가 급증하면서 간편결제 시장은 외연을 확대했다. 하지만 어디까지나 내수기반 서비스에 머물고 있는 실정이다.전통금융사는 물론 빅테크, 핀테크, 스마트폰 제조사에 이르기까지 다양한 간편결제 플랫폼을 들고 시장에 진출했지만 해외 시장에서 지배력을 갖고 있는 플랫폼은 삼성페이 정도다.그런데 분위기가 변했다. 네이버파이낸셜, 카카오페이, 토스, 페이코 등 한국을 대표하는 빅테크 기업이 토종 간편결제를 해외에 이식하기 시작했다. 현지화를 위해 내로라하는 글로벌 간편결제, 금융사와도 합종연횡이 활발하다.이제 한국도 간편결제 시장에서 자생력과 글로벌 경쟁력을 갖춰야 한다. 빅테크기업의 잇따른 해외 무대 진출을 환영한다. 금융당국도 이들 기업이 해외에서 경쟁하고 지배력을 확대할 수 있도록 다양한 지원방안을 마련해야 한다. 규제가 되는 장애물을 없애거나 완화해야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2023.08.09.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>10대→ '잘파세대'까지…출시 3년 '카카오뱅크 미니' 변신</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002301460?sid=105</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>하교 시간 때 일상 공유하는 '미니 생활' 서비스 인기10대 전용 금융 플랫폼으로 첫 발을 내디뎠던 '카카오뱅크 미니'가 출시 3주년을 앞둔 가운데, 이용 연령을 낮춰 '잘파세대(Z세대+알파세대) 금융 플랫폼'으로 거듭난다.9일 카카오뱅크는 8월 중순께부터 만 14~18세였던 카카오뱅크 미니 가입 연령을 만 7~18세로 확대한다고 밝혔다. 토스 유스카드를 발급받을 수 있는 최소 연령이 만 7세로 낮아짐에 따라 후속 조치에 나선 것이다.2020년 10월 출시된 카카오뱅크 미니는 3년만에 청소년 가입자 180만명(2023년 2분기 기준)을 끌어모았다. 작년 2분기 139만명였던 가입자 수는 1년여 만에 12% 가량 증가했다.카카오뱅크 미니.카카오뱅크 미니는 선불충전 방식의 체크카드도 발급받을 수 있게 해 원하는 한도 내에서 결제는 물론이고 자동화기기(ATM) 출금, 자동 이체도 가능하게 만들었다. 미니 카드 이용금액은 올해 2분기 4천375억원으로 전년 동기 3천170억원과 비교해 27.5% 늘어났다.카카오뱅크 측은 금융뿐만 아니라 10대들의 일상을 기록할 수 있는 '미니 생활' 서비스를 지난 5월 오픈하면서, 월간 활성 이용자 수도 늘고 있다고 귀띔했다. 미니 생활 내 '우리학교 급식표·시간표' 서비스를 오픈한 것. 우리학교 급식표·시간표 기능을 통해 학교, 학년 및 반 정보를 입력하면 자동으로 급식표와 시간표를 불러올 수 있다.카카오뱅크 관계자는 "10대들의 일상과 연계된 서비스를 담은 미니 생활을 런칭해 금융에서 라이프로 서비스 맥락을 확장했다"며 "미니 생활 고객은 미니만 가입한 고객보다 높은 활동성 보유한 것으로 집계됐다"고 설명했다.카카오뱅크 미니 생활.미니만 가입한 고객은 한 주당 7.9회를 애플리케이션(앱)에 접속하지만, 미니 생활까지 가입한 고객은 10회로 1.3배 높았다. 주 1회 이상 앱을 방문하는 고객 비중도 미니 가입자는 65%지만 미니 생활 가입자는 96%로 1.5배 많았다.미니 생활 가입자의 이용 패턴을 분석한 자료에 따르면 하교 시간인 오후 4시에 크게 높아지는 것으로 나타났다. 미니 생활의 급식표에서 '좋아요'를 누를 수 있는데 오후 4시에 4천287회, 오후 5시 3천607회로 이 시간에 집중됐다.카카오뱅크 관계자는 "미니는 모바일에 익숙한 청소년들이 스스로, 편리하게 금융을 경험할 수 있도록 하는데 중점을 뒀다"며 "미니 생활 등 다양한 주요 서비스를 많은 고객이 이용할 수 있게 연령을 확대하고 14세 미만 고객을 위한 차별화 서비스를 내놓을 것"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2023.08.11.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>“분기 흑자도 보인다”…토스뱅크, 출범 22개월 만에 첫 月 흑자</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005171339?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>[사진 제공 = 토스뱅크]토스뱅크가 올해 7월말 기준 최초로 월별 흑자전환에 성공했다.이같은 성과는 인터넷전문은행 후발주자로 이례적인 속도라는 평가다.코로나 팬데믹이 한창이던 시기에 출범해 이어지는 글로벌 경기침체와 인플레이션, 고금리 기조 등 녹록지 않은 환경에서 이룬 성과라서다.11일 토스뱅크에 따르면 올 7월말 기준 흑자 규모는 약 10억원이다.이는 지난 2021년 10월 출범 후 22개월 만이며, 대출영업 재개 기준으로는 19개월 만의 성과다.토스뱅크는 고무적이다. 현재의 현금 흐름 및 재무적 요소들을 고려할 때 큰 외부 변수가 없는 한 이번 흑자전환이 올 3분기 분기 흑자로 이어질 것이란 기대감이 그것.토스뱅크는 올 하반기 출시를 목표로 하고 있는 전월세자금대출과 인뱅-지방은행 상생모델인 ‘공동대출’ 등 여신 포트폴리오 강화를 통해 수익성은 더 개선될 것으로 전망하고 있다.인터넷전문은행 중 가장 먼저 선보인 ‘WM 사업’은 7월말 기준 누적 판매액 2조5000억원을 넘어섰으며, 한국투자증권부터 시작해 한화투자증권, KB증권, 미래에셋증권 등으로 확산, 비이자 이익 규모도 늘고 있다.최근 취득한 외환 라이센스를 바탕으로 외환 사업도 확장한다는 계획이다.신규 고객 유입도 순조롭다. 금융권 최초로 시도한 ‘고금리 수시입출금 통장’, ‘상시 금리 인하 요구권’, ‘지금 이자 받기’ 등을 앞세워 올 7월말 기준 토스뱅크 가입 고객 수는 700만명을 넘어서며 일평균 1만1000명의 신규 고객이 유입되고 있다. 실사용 고객은 10명 중 8명(76%)에 달한다.토스뱅크 관계자는 “인터넷전문은행 중 가장 후발주자였던 토스뱅크가 이러한 성과를 낼 수 있었던 원동력은 무엇보다도 고객의 신뢰와 성원”이라며 “이에 보답하기 위해 새롭게 밝힌 기업 미션, ‘이전으로 돌아갈 수 없는 새로운 은행 경험’을 실천하며 성장성과 안정성을 이어가기 위해 노력할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2023.08.15.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>자동이체만 걸어도 5%…금융권 줄줄이 예적금 금리인상 왜</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003300704?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>최근 금융권에서 연 4%대 고금리 예금 상품이 속속 출시되고 있다. 지난해 말과 비교하면 금리가 다소 낮지만, 까다로운 조건 없이 비교적 높은 금리를 주는 상품들이라는 평가다.      14일 금융권에 따르면 수협중앙회는 국내 수산물을 구매하면 0.5~1%포인트의 금리를 추가로 적용해 최대 연 5% 이자를 주는 ‘바다가득(得) 정기예금’을 21일부터 1000억원 한도로 특별 판매한다. 일본 후쿠시마 오염수 문제로 어려움을 겪고 있는 어업인을 지원하기 위해 나온 상품이다. 기본 금리는 4%지만, 온라인 쇼핑몰인 수협 쇼핑에서 11월말까지 수산물을 10만원 이상 구매하면 0.5%포인트, 20만원 이상 구매하면 1%포인트 금리를 더 얹어준다. 오는 11월 말까지 판매되며 전국 90곳의 수협에서 1인당 1계좌만 가입할 수 있다. 납입 한도는 2000만원까지다.     서울에 위치한 한 금융회사에 4.5% 예금 금리 안내문이 붙어 있다.  [뉴스1]           토스뱅크는 최고 연 5%의 금리를 주는 ‘토스뱅크 자유적금’ 상품을 내놨다. 통상 우대금리를 받기 위해 충족해야 할 카드 실적, 통신비 자동 이체 등 복잡한 조건을 없앴다. 가입한 기간에 매달 자동이체 시스템을 통해 납입만 하면 누구나 최고 금리(연 5%ㆍ12개월 이상 가입 조건)를 적용받을 수 있다. 월 납입 한도는 최대 300만원이다.      저축은행 업계에선 연 4.5%의 정기예금이 다시 등장했다. 저축은행중앙회에 따르면 8월 11일 기준 연 4.50%의 정기예금 판매하는 저축은행은 ▶HB저축은행 ▶JT친애저축은행 ▶대백저축은행 ▶스카이저축은행 ▶유니온저축은행 등 5곳이다. OK저축은행은 특별한 우대 조건 없이 연 4.41%의 금리를 제공하는 ‘OK e-안심앱플러스 정기예금’을 출시했고, 상상인저축은행ㆍ상상인플러스저축은행은 업계 처음으로 9개월 만기에 연 4.2%의 금리를 제공하는 ‘9개월 회전정기예금’을 선보였다      일부 새마을금고 지점에선 현재 연 5%대 정기예금 상품을 판매하고 있다. 서울 종로중앙새마을금고가 지난달 31일 내놓은 연 7.7% 정기적금 특판은 이틀 만에 완판되기도 했다.      ━   SC제일은행 최고 4.1% 예금       2금융권을 중심으로 최근 예적금 금리를 올리는 이유는 지난해 레고랜드 사태 등 자금시장 경색으로 내놓은 고금리 특판 상품 만기가 가까워져서다. 수신 잔액이 줄어들 가능성을 대비, 고객을 재유치해 수신고를 채워두자는 것으로 풀이된다.        1금융권인 시중은행에서도 4%대 정기예금도 다시 등장했다. SC제일은행의 ‘e-그린세이브예금’은 기본금리가 3.80%로 우대금리를 더하면 최대 4.10%의 금리가 적용된다. 우리은행의 ‘우리 첫거래우대 정기예금’도 최대 4.10%의 금리를 받을 수 있다. 은행권의 예금금리 상승은 은행채 등 시장금리 상승이 주요 원인이지만, 신종 코로나바이러스 감염증(코로나19)으로 완화했던 예대율(예금잔액 대비 대출잔액 비율) 규제를 정상화한 것도 영향을 준 것으로 분석된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2023.08.14.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>"혁신 맞나?"…핀테크 후불결제 연체율 '고공행진'</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000347440?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>[앵커] 물건이나 서비스를 당장 받으면서도 돈은 나중에 낼 수 있는 새로운 결제 방식을 후불결제 서비스, 다른 말로 BNPL이라고 합니다. 국내에는 재작년 규제가 일시적으로 풀리면서 도입됐는데 최근 이 서비스의 연체율이 치솟고 있는 것으로 나타났습니다. 류정현 기자의 보도입니다. [기자] BNPL은 '지금 사고 나중에 결제한다'는 뜻의 지난 2021년 금융위원회가 혁신금융서비스로 지정해 규제를 풀어줬고 네이버파이낸셜, 카카오페이, 토스 등 굵직한 핀테크 기업들이 서비스를 제공하고 있습니다. 소비자가 물건을 구매하면 이 값을 일단 핀테크 기업이 치르고 나중에 여러 차례에 걸쳐서 소비자에게 돌려받는 구조입니다. 특히 학생이나 사회초년생 등 금융이력이 많지 않은 이른바 '씬파일러'들이 주로 이용합니다. 기능과 구조는 같지만 발급이 까다로운 신용카드를 대체할 수 있기 때문입니다. 문제는 최근 이 BNPL을 이용한 사람들이 갚아야 할 돈을 제대로 갚지 못하고 있다는 겁니다. 지난 6월 말 기준 국내 핀테크 3사의 BNPL 평균 연체율은 5.8%로 3개월 사이 1.4%p 증가했습니다. 카드사 연체율이 1%대에 머무는 것과 비교하면 확연히 높은 수치입니다. 특히 BNPL 가입자가 200만 명이 넘는 토스의 연체율이 2%p 넘게 오르면서 상황이 유독 심각합니다. 토스는 "연체율 관리를 위한 정책을 강화하고 있고 지난달부터는 연체율이 하락하고 있는 상황"이라고 설명했습니다. [최승재 / 국민의힘 의원 : 급증하는 연체율을 방치하다가 '루비콘강'을 건너는 사태가 발생하기 전에 빅테크 업체들의 서비스를 점검하고 건전성 확보를 위한 논의를 시작해야 될 필요가 있습니다.] 이런 가운데 국회에서는 BNPL 서비스의 완전한 법제화가 추진되고 있는데 연체율을 제도적으로 관리할 장치도 마련해야 한다는 지적이 나옵니다. SBS Biz 류정현입니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2023.08.03.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>"연인과 추억도 남기세요"…토스뱅크, '커플통장' 서비스 출시</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005543785?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>모임통장에 커플통장 기능 탑재기념일·여행 사진 업로드도 가능[이데일리 유은실 기자] 토스뱅크는 연인이나 부부가 자신들만의 통장을 만들고 금전관리와 함께 소중한 순간을 남길 수 있는 ‘커플통장 서비스’를 출시했다고 3일 밝혔다.(사진=토스뱅크)기존 ‘토스뱅크 모임통장’에 추가되는 기능인 커플통장은 통장 메인 화면을 원하는 사진으로 꾸밀 수 있는 커스터마이징 기능을 제공한다. 또한 입출금 내역이나 카드 결제 내역에 댓글을 남겨 데이트나 여행, 기념일 등 소중한 순간들을 저장하고 함께 나눌 수도 있다.토스뱅크가 모임통장을 통해 은행권 최초로 선보인 ‘공동모임장’ 기능이 커플통장에서도 그대로 구현된다. 기존 모임통장에선 모임장 한 명만 이체나 카드 발급, 결제가 가능해 커플 중 한 사람이 금전 관리나 결제 부담을 다 가져야 하는 불편함이 따랐다.토스뱅크 커플통장 역시 함께하는 상대방을 공동모임장으로 지정하면 출금 및 송금, 카드 발급 및 결제 권한을 함께 나눌 수 있다. 이러한 기능은 부부가 함께하는 생활비 통장이나 연인 사이의 데이트 통장 등에서 요긴하게 활용될 수 있다.커플통장은 기존 모임통장 계좌가 없던 고객은 물론, 이미 토스뱅크 모임통장을 보유하고 있는 고객이라도 모임통장 계좌 상세에서 ‘커플통장으로 바꾸기’를 클릭해 손쉽게 전환할 수 있다.토스뱅크 커플통장 역시 혜택은 모임통장과 동일하다. 하루만 맡겨도 연 2%(세전)의 금리 혜택이 적용된다. 별도의 공간으로 자금을 이동해 출금, 결제가 안 되도록 묶어 놓을 필요가 없다. 모임활동에 특화된 캐시백을 제공하는 ‘토스뱅크 모임카드’ 혜택도 그대로 제공된다. 또한 ‘공동모임장’ 제도를 통해 카드도 함께 발급받아 각자 사용할 수 있다.카드 혜택도 다양하다. 데이트를 하는 순간에도 캐시백 혜택을 받을 수 있다. 혜택을 제공하는 주요 3대 영역으로는 △외식(음식점·주점에서 19시~24시까지 결제 시 캐시백 혜택) △놀이(노래방, 볼링장, 당구장, 골프장, 골프연습장 업종) △장 보기(이마트, 이마트트레이더스·농협하나로마트) 등으로 구분된다. 1만원 이상 결제 시 건당 500원, 1만원 미만 결제 시에는 건당 100원의 즉시 캐시백 혜택이 적용된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2023.08.08.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>[보안칼럼]'공격적 보안'이 필요한 시대</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003124191?sid=110</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>장세인 비바리퍼블리카 최고정보보호책임자(CISO)핀테크(FinTech)는 금융(Finance)과 기술(Technology)의 합성어로, 금융과 정보기술(IT)의 융합을 통한 금융 서비스 및 산업의 변화를 통칭한다. 핀테크라는 용어가 본격적으로 등장한 것은 2014년 즈음으로, 지금으로부터 불과 약 10년 전이다. 당시엔 핀테크 개념 자체가 생소했고, 관련 사업을 하는 업계 플레이어도 소수였다.이제 핀테크는 너무도 익숙한 단어가 됐다. 그만큼 사람들의 금융하는 방식에 많은 변화를 초래했다. 직접 발품을 팔지 않아도 다양한 금융사의 대출 상품을 비교할 수 있고, 휴대폰 애플리케이션 하나로 편의점에서 물건을 살 수 있는 시대가 됐다.금융의 디지털 전환은 효율성과 편리성을 높이지만 동시에 보안 측면에선 새롭고 어려운 도전 과제들이 많아진다는 말이기도 하다. 금융업은 규제 범위에서 지켜야 할 규칙이 많고, 그 기준 또한 촘촘하다. 때문에 규제 테두리에서 최선을 다하는 것만으로도 이미 훌륭한 수준의 보안을 갖췄다고 평가할 수 있다.그러나 접근성이 높은 핀테크 사업자들은 특히 보안에 있어 규제 범위를 넘어선 '공격적인' 접근이 필요하다. 태생이 테크에 있어 업계에 등장한 새로운 기술이나 새로운 방식의 보안, 프레임워크를 적용하고 운영하는 데 주저함이 없기 때문이다.실제로 토스에선 다양한 제품과 인프라 환경을 통해 공격적 보안을 진행하고 있다. 특히, 기술적인 부분에선 '인텔리전스' 기반의 보안을 진행 중이다. 이전엔 주로 알려진 공격을 중심으로 탐지, 차단하는 패턴 위주의 방어였다면 지금은 정보를 빠르게 수집하고 선제적으로 제거해 나가는 방식의 업무를 진행하고 있다. 외부에 있는 위협 정보와 공격자의 프로파일을 수집해 행동을 파악, 신속하게 탐지하고 대응하는 체계를 만드는 작업을 진행하고 있다.보안팀 이외 여러 팀도 함께 노력 중이다. 토스의 개인정보보호팀에선 선제적으로 모든 서비스에서 개인정보가 과도하게 사용되지 않도록 검토한다. 화이트해커로 구성된 보안기술팀도 모의해킹을 통해 알려지지 않은 공격들을 리서치하고, 공격자가 아직 파악하지 못한 토스의 약점을 찾고 제거한다.선제적 탐지와 보상 또한 이뤄지고 있다. 대표적으로 악성 앱 탐지 시스템 '토스 피싱제로', 이상거래 탐지 시스템 등을 포함해 토스 앱의 보안 환경을 구축하는 '토스 가드'를 개발해 운영 중이다. 또, 송금 시 상대방 계좌가 기존의 경찰청, 더치트 등에 사기로 신고된 계좌인지를 확인해 경고 화면을 보여주는 '사기 의심 사이렌', 금융 사고나 중고거래 사기 피해 시 선제적으로 구제하는 '안심보상제'도 있다. 토스는 지난 한 달간 집중적으로 '보안 캠페인'을 실시하며 이러한 노력을 알렸다.공격적이고 선제적인 보안을 위해선 현재 마주하고 있는 상대의 위험이 무엇인지 알아야 한다. '적을 알고 나를 알면 백번 싸워도 위태로움이 없으며, 적을 알지 못하고 나를 알면 한 번 이기고 한 번 지며, 적을 모르고 나를 모르면 싸움마다 반드시 위태롭다'는 손자병법 문구처럼 다양한 형태의 보안 위협과 보안 약점을 선제적으로 찾아내고 방어해나가는 것이야말로 공격적인 보안의 참된 모습이라 할 수 있다.장세인 비바리퍼블리카 최고정보보호책임자(CISO) toss.security@toss.im</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2023.08.07.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>“한여름 오면 어쩌려고”…한겨울인데 기온 37도 찍은 이곳, 어디길래</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005169500?sid=104</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>한겨울인 남미 안데스산맥에서도 기온이 37도까지 올랐다. [사진출처 = 연합뉴스]남미 안데스산맥에서도 기온이 37도까지 오르는 이상 고온 현상이 남반구에서도 발생하고 있다고 영국 일간 가디언이 6일(현지시간) 보도했다.남반구는 북반구와 달리 현재 겨울이다. 그런데 기온이 한여름 날씨인 37도까지 올라간 것이다.전문가들은 안데스 산맥의 폭염으로 해발 3000m 이하 지역에 쌓인 눈이 녹아 봄과 여름이면 해빙수에 의지해야 하는 현지 주민들에게 연쇄 파급효과가 일어날 수 있다고 우려하고 있다.네덜란드 흐로닝언대학의 기후학자인 라울 코르데로 교수는 칠레 북부 코킴보의 비쿠냐 로스 피미엔토스 관측소에서 지난 1일 기온이 37도까지 올랐으며, 이날이 칠레에서 72년 만에 가장 무더운 날이었을 가능성이 있다고 말했다.코르데로 교수는 이처럼 기온이 높아진 것은 엘니뇨와 현지에서 ‘테랄풍’으로 불리는 뜨겁고 건조한 바람이 복합적으로 작용한 결과라고 분석했다.‘세계의 극단적 기온’ 블로그에 따르면 현재 한겨울인 남미 각지 해발 1000m 이상의 수십개 기상관측소 수은주도 35도를 넘어갔다.그는 “가장 큰 문제는 고온으로 인해 가뭄이 악화하고 눈이 빨리 녹는 것”이라고 말했다.이미 우루과이의 수도 몬테비데오와 그 일대 저수지들이 모두 말라가고 있고 더 이상 수돗물을 마실 수 없을 정도로 물 부족 사태가 심각하다.남미도 올해 1~7월 역대 최고 기온을 보인 지역 중 하나다. 특히 칠레는 연초의 화재에 이어 현재 가뭄을 겪고 있다.볼리비아 수도 라파스에 있는 산안드레스대학의 마르코스 안드라데 대기물리학 교수는 볼리비아와 페루의 안데스 고원은 연초부터 비정상 기후를 경험했다고 밝혔다.그는 “티티카카 호수 반대편에 있는 푸노에서는 59년 전 관측이 시작된 이래 가장 건조한 1월을 보냈고, 5월에는 평년 강수량의 20%에 해당하는 폭우가 쏟아졌으며, 이번 겨울도 유난히 따뜻해 볼리비아에서 최고기온을 경신한 곳이 여러 곳”이라고 말했다.현지 환경컨설턴트인 칼라 벨트란씨는 “올해 아르헨티나의 부에노스아이레스는 3월 11일 38.6도로 역대 최고기온을 기록했고 우루과이의 메르세데스시도 최근 40.5도로 최고점을 찍었다”고 밝혔다.최근 연구에 따르면 아마존 지역과 아타카마 사막에 이르는 태평양 연안 등 남미 북부에서 폭염이 더 빈번해지고 강해질 것으로 예상된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2023.08.03.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>토스뱅크, 커플통장 서비스 출시</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000921875?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>토스뱅크는 커플통장 서비스를 출시했다. /토스뱅크 제공        토스뱅크는 연인이나 부부가 함께 사용할 수 있는 ‘커플통장 서비스’를 출시했다고 3일 밝혔다.이 서비스는 기존 토스뱅크 모임통장에 추가될 예정이다. 커플통장 이용자는 통장 메인 화면을 원하는 사진으로 꾸밀 수 있는 커스터마이징 기능을 사용할 수 있으며 입·출금 내역이나 카드 결제 내역에 댓글을 남겨 데이트나 여행, 기념일 등을 저장할 수 있다.커플통장에는 모임통장의 공동모임장을 사용할 수 있다. 연인, 부부를 공동 모임장으로 지정해 출금, 송금, 카드 발급, 결제 권한을 공유할 수 있다. 카드 발급도 각자 할 수 있다. 고객은 모임통장 계좌 상세 화면에서 ‘커플통장으로 바꾸기’를 눌러 손쉽게 전환할 수 있다.커플통장 혜택은 모임통장과 같다. 하루만 맡겨도 연 2%(세전)의 금리 혜택이 적용되며 모임 활동에 특화된 캐시백을 제공한다. 카드 사용 시에도 ▲외식(음식점, 주점에서 오후 7시~자정 사이 결제 시) ▲놀이(노래방, 볼링장, 당구장, 골프장, 골프연습장 등) ▲장보기(이마트, 이마트트레이더스, 농협하나로마트·클럽 등) 영역에서 1만원 이상 결제한 경우 건당 500원, 1만원 미만 결제한 경우 건당 100원을 즉시 돌려받는다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2023.08.12.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>토스, 새소식 알리미 '캐치' 인형 만든다</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014127656?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>비바리퍼블리카의 새소식 알리미 '캐치'[토스 애플리케이션 캡처. 재판매 및 DB 금지](서울=연합뉴스) 오규진 기자 = 모바일 금융 애플리케이션 '토스'를 운영하는 비바리퍼블리카가 새소식 알리미 '캐치'로 지식재산(IP) 사업에 나선다.    12일 정보기술(IT) 업계에 따르면 비바리퍼블리카는 새로 나온 기능 및 개선사항을 알리는 병아리 캐릭터 캐치 인형을 제작하고 있다.    회사는 "캐치가 토스를 대표하는 캐릭터는 아니"라면서도 "이용자들에게 친근하게 다가가 새소식을 전달한다는 점에서 인기를 끌고 있다"고 소개했다.    인형으로 만들 도안은 이용자 투표로 부쳤으며 여기에 약 54만 명이 호응했다.    비바리퍼블리카는 이 가운데 18만 명이 선택한 '학교 가는 캐치' 인형을 만들기로 했으며, 시제품의 뒷모습을 담은 사진을 이달 3일 공개했다.    회사는 투표에 참여한 이용자 10명을 추첨해 캐치 인형을 증정하고, 구매를 원하는 이용자들을 위해 사전 판매도 진행한다.    비바리퍼블리카 관계자는 "투표의 뜨거운 성원에 힘입어 사전 판매까지 고려하게 됐다"면서 "아직 구체적인 출시 일정은 확정되지 않았다"고 말했다.    acdc@yna.co.kr캐치 인형의 뒷모습을 담은 사진[토스 애플리케이션 캡처. 재판매 및 DB 금지]</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2023.08.08.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>2023 뉴스1 대학생 미래캠프, 특별강연 하는 박준하 토스뱅크 CTO</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006977495?sid=102</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>(서울=뉴스1) 김도우 기자 = 박준하 토스뱅크 CTO가 8일 오전 서울 종로구 SC제일은행 본사 대강당에서 열린 '2023 뉴스1 대학생 미래캠프'에서 '토스뱅크 이야기'를 주제로 특별강연을 하고 있다.뉴스1과 청년재단이 개최한 이번 행사는 청년들에게 정치, 경제, 금융 등 각계각층의 전문가 강연과 산업현장 탐방을 통해 다양한 진로탐색 기회를 제공하고 국내 미래산업 전반에 대한 견문을 넓혀주고자 마련됐다. 2023.8.8/뉴스1</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2023.08.02.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>충당금 더 쌓았는데도… 카뱅 상반기 순익 1838억 `역대 최대`</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002817324?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>지난해 동기 대비 48.5% 늘어16개 은행중 주담대 금리 최저주담대 고객 늘려 수익 확보해케뱅·토뱅도 이달중 실적발표인터넷은행도 실적 '방긋'카카오뱅크가 올 상반기 역대 최대 실적을 또 한번 갈아치우며 기분 좋은 출발을 알렸다.  최근 인터넷은행 3사(카카오·케이·토스뱅크)는 주택담보대출(주담대) 경쟁력 강화 등에 적극 나서며 성장세를 이어가고 있는 모습이다.  이달 중순 이후 발표되는 케이뱅크와 토스뱅크의 실적이 주목된다.  카카오뱅크는 2일 실적 발표를 통해 올 상반기 1838억원의 순이익을 거뒀다고 밝혔다. 전년 동기 대비 48.5% 증가로, 반기 기준 역대 최고 실적이다.  앞서 카카오뱅크는 올 1분기 지난해 같은 기간보다 52.5% 늘어난 1019억원을 기록, 분기 기준 역대 최대치를 달성한 바 있다.  영업이익은 전년보다 52% 증가한 2482억원을 냈다. 영업이익 역시 반기 기준 최대 실적이다.윤호영 카카오뱅크 대표. 카카오뱅크 제공.    카카오뱅크의 대손충당금 잔액은 2분기 말 기준 3264억원으로 집계됐다. 1분기(2923억원)보다 341억원 늘었다. 보수적인 충당금 적립에도 카카오뱅크가 호실적을 낼 수 있었던 이유는 '주담대 고객을 통한 수신 경쟁력 강화' 등이 꼽힌다.지난 2분기 기준 카카오뱅크의 주담대 잔액은 약 5조5000억원으로, 전분기(2조4000억원)에 비해 3조원 가량 늘었다. 2분기 신규 취급액은 약 3조5000억원으로 이중 약 60%가 대환목적으로 집계됐다. 은행연합회 공시에 따르면 카카오뱅크가 지난 6월 취급한 분할상환방식 주담대 평균 금리는 4.02%로, 16개 은행 중 가장 낮았다. 카카오뱅크 관계자는 "기존 주담대 보유 고객들이 카카오뱅크의 낮은 금리에 매력을 느껴 카카오뱅크를 찾은 것으로 분석된다"고 설명했다.서호성 케이뱅크 은행장. 케이뱅크 제공.     케이뱅크는 올 상반기에만 자사 주담대 상품인 아파트담보대출을 1조4000억원 취급했다. 홍민택 토스뱅크 대표. 토스뱅크 제공.     토스뱅크의 경우 담보대출 상품을 선보이고 있지 않지만, 최근 가입자 수가 700만명을 넘어서는 등 빠른 성장세를 보이고 있다. 지난 2021년 말 출범한 이후 1년 만에 2배 가까이 고객이 늘었다.하지만 인터넷은행들의 대출 포트폴리오 확장 등이 반드시 순이익 개선으로 이어진다는 보장은 없다. 게다가 인터넷은행들은 올 연말까지 각자 제시한 중저신용자 대출 비중 목표를 맞춰야한다. 당초 카카오뱅크와 케이뱅크, 토스뱅크는 중저신용자 대출 비중 목표치로 각각 30%, 32%,44%를 제시했다. 1분기 기준 3사의 중저신용자 비중은 25.7%, 23.9%, 42.06%로 집계됐다. 이같은 '포용금융'을 위해 인터넷은행들이 중저신용자 대출을 늘리면 건전성이 악화되는 딜레마에 빠질 수 밖에 없다.다만 카카오뱅크가 중저신용자 대출 규모가 커졌음에도 연체율이 하락했을 뿐만아니라 올 2분기 충당금을 전분기보다 늘렸는데도 역대급 실적을 달성하면서 타 인터넷은행들에 대한 실적 개선 기대감이 커지고 있다.카카오뱅크의 2분기 중저신용대출 잔액은 3조9184억원으로, 전년 동기(2조9583억원)에 비해 32.5% 가량 늘었다. 중저신용대출 비중은 27.7%로 1분기(25.7%)보다 2%포인트(p) 증가했다. 같은 기간 연체율은 0.52%로 전분기보다 0.06%p 감소했다.카카오뱅크 측은 "지난해 9월 업계 최초로 개발한 대안신용평가모형인 '카카오뱅크 스코어'를 통해 금융 이력이 부족한 고객, 사회 초년생 등의 중저신용 고객의 대출 심사에 적극 활용하고 있다"며 "신용평가모형 고도화 등을 통한 철저한 리스크 관리를 통해 연체율이 상대적으로 양호해지고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2023.08.09.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>토스·신한카드, 금융 소외계층 위한 신용평가모델 만든다</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005055054?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>다양한 대안정보 활용해 보완"데이터 협업으로 혁신 서비스" 8일 서울 중구 신한카드 본사에서 열린 업무협약식에서 문동권 신한카드 사장(왼쪽)과 이승건 토스 대표가 기념촬영을 하고 있다. 토스 제공 신한카드와 토스 운영사 비바리퍼블리카가 손잡고 대안신용평가 모델 고도화와 개인사업자 신용평가(CB) 사업 활성화에 나선다. 특히 금융 거래이력이 부족한 씬파일러(thin-filer)을 위해 금융위원회가 혁신금융서비스로 지정한 선구매 후결제 서비스(BNPL·Buy Now Pay Later)의 본격적인 제도화를 앞두고 카드사와 빅테크 간 물밑 신경전이 벌어지는 가운데 신한카드와 토스의 협력이 낼 시너지에 업계의 관심이 높아질 전망이다.   신한카드와 토스는 지난 8일 '데이터 공동 사업을 위한 신용평가모델 및 금융서비스 개발 업무협약'을 체결했다고 9일 밝혔다.   토스는 월간활성사용자수(MAU) 1500만명이 이용하는 금융 플랫폼 내 데이터를 바탕으로 기존 금융 불이익 정보 위주의 신용평가모델을 보완할 수 있는 대안신용평가모델을 주도적으로 개발하겠다는 각오다. 빅테크 3사가 지난해 출시한 BNPL이 카드사와 비교해 연체율이 높은 것으로 조사되면서 BNPL의 건전성 이슈가 불거진 만큼 토스는 업계 1위인 신한카드가 오랜 기간 운영하면서 보유한 신용평가모델 노하우가 필요하다.   신한카드도 빅테크인 토스가 특화된 대안신용평가모델을 활용해 신한카드의 개인사업자 CB사업 활성화에 나설 계획이다. 개인사업자 CB사업은 소상공인인 개인사업자에 대한 정밀한 신용평가, 매출 정보 등을 금융기관에 판매하는 데이터 비즈니스로, 신한카드는 개인사업자 CB 본허가를 지난 2019년 금융사 최초로 취득했다. 이미 신한카드가 보유한 소상공인, 가맹점에 대한 데이터와 토스의 비정형데이터 등 대안신용평가모델을 활용하면 CB 모델 고도화를 통해 데이터 비즈니스 경쟁에서 앞설 수 있다는 것이 신한카드의 판단이다.   신한카드 측은 "향후 개발한 대안평가지표를 개인사업자가 이용할 수 있는 대출 상품에 활용하고 개인사업자용 신용관리 서비스를 공동 개발해 소상공인이 편리하게 이용할 수 있도록 할 예정"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2023.08.09.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>신한카드, 토스와 신용평가 및 금융서비스 개발 협약 체결</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000923099?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>문동권 신한카드 사장(왼쪽)과 이승건 토스 대표가 지난 8일 신한카드 본사에서 열린 '신용평가모델 및 금융 서비스 개발 업무 협약식'에서 기념사진 촬영을 갖고 있다. /신한카드 제공        신한카드는 토스와 ‘데이터 공동 사업을 위한 신용평가모델 및 금융 서비스 개발 업무협약’을 체결했다고 9일 밝혔다.이번 협약식은 문동권 신한카드 사장, 이승건 토스 대표 및 관계자들이 참석한 가운데 서울 을지로 신한카드 본사에서 8일 오후 진행됐다.이를 통해 양사는 신한카드가 보유한 소비행동패턴정보, 디지털 로그 데이터 등 빅데이터 역량과 토스가 보유한 데이터, 플랫폼 경쟁력을 활용해, 사회 초년생 및 소상공인 등 금융소외계층을 비롯한 개인 및 개인사업자가 다양한 금융 서비스를 이용할 수 있도록 정밀한 대안평가지표와 특화된 금융상품 및 서비스를 개발하기로 했다.양사는 향후 개발한 대안평가지표를 개인 또는 개인사업자들이 이용할 수 있는 대출 상품에 활용하고, 개인사업자용 신용 관리 서비스를 공동 개발, 토스에 적용해 소상공인들이 편리하게 이용할 수 있도록 할 예정이다.더불어 민간 기업을 대상으로 한 데이터 사업도 추진한다. 통계화된 소비 정보를 기반으로 시장, 경쟁 환경 등에 대한 인사이트를 도출, 이용 기업에게 구독 형식으로 제공하는 비즈니스 모델 출시에 협업하기로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2023.08.07.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>신한카드 “직급 무관 팀장 선발” 파격 인사 공언 1년…‘사원급 팀장’ 왜 안 나오나요?</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003241241?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>“보수적 금융권서 사실상 불가능”‘워라밸 탓, 부서장 기피’ 해석도업계 1위인 신한카드가 ‘능력만 있으면 사원도 팀장이 될 수 있다’며 파격적인 제도를 시행했지만 1년 넘게 ‘깜짝 인사’는 없었던 것으로 나타났다. 업계에서는 정보기술(IT) 등 특정 분야와 달리 보수적인 금융사 분위기를 고려하면 당분간 실현 가능성은 작다는 전망이 나온다.7일 금융권에 따르면 임영진 전 대표 등 신한카드 임원 및 부서장은 지난해 7월 경영전략회의를 열고 신인사 제도를 시행하겠다고 밝혔다. 애자일 조직(소규모 팀)은 직급과 연령에 상관없이 전문성과 리더십만 검증되면 사내 공모로 팀장을 정하기로 한 것이다. “창의성과 주도성이 강한 인재를 육성하기 위한 인사 혁신”이라고 강조했다.1년이 지난 지금까지 신한카드의 사원급 팀장은 나오지 않았다. 신한카드 관계자는 “지금까지 사원이나 대리급 직원 중에 팀장을 하겠다고 나선 지원자가 없었다”면서 “장기적으로 가야 할 방향이라고 생각하는 만큼 제도는 계속 유지하고 있다”고 말했다.신한카드의 지난해 말 기준 정규직 근로자는 2409명, 평균 근속연수는 17년7개월이었다. 매년 30~50명을 신입사원으로 채용한다. 통상적으로 사원과 대리를 각각 4년씩 경험한 후 과장으로 승진한다.카드업계에서는 신한카드의 지난해 ‘선언’이 처음부터 현실성이 떨어졌다는 분위기가 많다. 한 카드업계 관계자는 “카드사는 워낙 보수적인 조직이어서 과장급이면 몰라도 사원이나 대리가 팀장을 하기는 사실상 불가능한 분위기”라면서 “수익성 못지않게 건전성과 안전성이 중요한 금융사가 IT 기업이나 핀테크·빅테크가 될 수는 없다”고 말했다.예컨대 토스에서는 최근 20대 프론트엔드(기술) 개발자가 입사 1년여 만에 30여명을 이끄는 팀장이 됐지만, 금융사는 분위기가 다르다는 것이다. 다른 금융권 관계자는 “이론적으로는 사원도 팀장이 될 수 있도록 제도를 만들어도 금융사별로 발탁 기준이라는 게 있는데 인사 조건을 만족하는 직원은 많지 않을 것”이라고 말했다.금융권 일각에서는 상대적으로 급여가 높은 금융사에서 일하는 젊은 세대가 워라밸(일과 삶의 균형)을 추구하려면 위와 아래에서 모두 치이는 부서장을 기피하는 분위기 때문이라는 해석도 나오고 있다. 금융권에서도 파격적인 인사는 더러 있었다. 국민은행은 2002년 3월 1125개 지점장 중 419개 점포장을 임명했는데 대리급(4급) 직원 60명이 포함됐다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2023.08.01~2023.08.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.08.01~2023.08.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>"거래 수수료 무료"…빗썸, 점유율 확대 안간힘</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000018370?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>8월부터 앱토스·수이 등 적용…매주 10종씩 추가시장 점유율 회복에 사활을 걸고 있는 빗썸(대표 이재원)이 거래 수수료 무료 카드까지 꺼내 들었다.빗썸은 이달부터 원화마켓에 상장된 일부 가상자산 거래시 수수료 무료 이벤트를 진행한다고 1일 밝혔다. 이날 10종을 시작으로 앞으로 매주 10종의 가상자산을 추가할 예정이다.첫 수수료 무료가 적용되는 가상자산은 ▲앱토스(APT) ▲스택스(STX) ▲플로우(FLOW) ▲수이(SUI) ▲비트코인 골드(BTG) ▲피르마체인(FCT2) ▲블러(BLUR) ▲웨이브(WAVES) ▲메탈(MTL) ▲룸네트워크(LOOM) 등 10종이다.수수료 없이 거래할 수 있는 가상자산은 종목명에 표시된 파란색의 ‘무료’ 배지로 쉽게 구분이 가능하며, 차트 상단의 ‘수수료 무료’ 카테고리를 통해서도 확인 가능하다. 이번 이벤트는 별도 공지 전까지 진행될 예정이다.빗썸이 원화마켓 유망 코인들을 대상으로 수수료 무료 이벤트를 진행하는 것은 거래 확대로 시장 점유율을 회복하기 위해서다. 지난해 까지만 해도 빗썸은 국내 가상자산 시장에서 두자릿수 점유율을 지켜왔지만 올해 들어 거래량이 줄고 점유율도 한자릿수로 떨어지면서 입지가 흔들리고 있다.빗썸 관계자는 “앞으로 공개될 수수료 무료 가상자산들은 국내외 투자가 활발히 이뤄지고 있는 종목들로, 빗썸은 유동성을 확대시킬 수 있는 가상자산들을 전략적으로 선정해 선보일 예정이다”고 말했다.한편 빗썸은 지난 2021년 6월에도 수수료 무료 이벤트를 진행한 바 있다. 당시 위믹스, 도지, 클레이튼, 보라 등 가상자산 100종을 대상으로 한달간 수수료 무료 혜택을 제공했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2023.08.13.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>"투자 업무 효율성 높이세요"…로고스시스템, '킵스' 출시</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012028260?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>클라우드 토대로 한 SaaS 형태 웹 플랫폼[서울=뉴시스] '킵스' 로고. (사진=로고스시스템 제공) 2023.08.11. photo@newsis.com[서울=뉴시스]이수정 기자 = 로고스시스템이 투자 관리 플랫폼 '킵스'를 신규 출시했다고 13일 밝혔다. 로고스시스템은 벤처 투자 운용사(GP) 및 출자자(LP)를 위한 투자 관리 시스템을 만들어 온 기업이다. 킵스는 투자, 전자결재, 회계, LP 투자심사 관리 등 GP와 LP 사이에 필요한 투자 제반 업무 효율화를 돕는 플랫폼이다. 기존 서비스인 VC-ERP는 설치형이었던 데 반해, 킵스는 클라우드를 토대로 한 SaaS(서비스형 소프트웨어) 형태의 웹 플랫폼으로 개발됐다. 사용자는 시간과 장소의 제약 없이 서비스를 이용할 수 있고, iOS와 안드로이드 모바일 애플리케이션이 지원돼 언제 어디서든 업무를 볼 수 있다. 이번 출시에는 외부 서비스와의 연계도 포함된다. 토스, 오늘의집, 클래스101 등 4400여개 기업이 이용 중인 증권 관리 플랫폼 쿼타북과의 연동을 통해 GP는 포트폴리오 기업으로부터 취합한 데이터를 킵스에 연동해 이용할 수 있다. GP와 수탁은행 간 업무를 연계·자동화하는 한국예탁결제원의 벤처넷과도 연동될 계획이다. 이외에도 국내 법인카드 및 펌뱅킹 서비스를 연동해 GP의 본계정 업무를 처리할 수 있다. 메일이나 문자, 카카오톡 등 연동도 예정돼 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2023.08.03.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>중고거래 늘며 편의점 반값택배 뜬다</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005168020?sid=103</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>500g 미만 배송에 1800원배송 느려도 초저가로 인기GS25, 지난해 1000만건 이용CU 알뜰택배도 3년새 20배세븐일레븐에서 한 고객이 사전예약 택배 서비스를 이용하기 위해 예약 바코드를 찍고 있다.  세븐일레븐 편의점 자체 물류 시스템을 활용한 택배 서비스가 기존 택배사보다 30%넘게 할인된 가격으로 최저가 경쟁을 벌이며 고객들의 시선을 사로잡고 있다. 이른바 '반값택배' '알뜰택배'로 불린다. 개인 간 중고거래가 대폭 늘면서 이용이 늘었는데, 물건이 이틀 정도 늦게 전달되지만 배송비가 현저히 싸다는 장점이 있다. 또한 추석 연휴 등 명절이나 일요일에도 쉬지 않아 근처 편의점에서 손쉽게 물건을 찾을 수 있다는 점에서 이용자 편의성이 높다.3일 업계에 따르면 GS25의 자체 물류 시스템을 활용한 반값택배는 전체 편의점 택배 서비스에서 70% 이상의 점유율을 차지하며 순항하고 있다. 2019년 GS리테일이 선보인 반값택배는 고객이 GS25 점포에서 택배 발송을 접수하고 택배를 받는 상대방도 본인이 있는 곳 인근 점포에서 찾아가는 구조의 택배 서비스다.500g 미만의 경우 최소 요금인 1800원이 적용되는 반값택배는 올해 5월 기준 월간 이용 건수가 100만건을 넘어섰다. 서비스 시작 첫해인 2019년에 9만여 건 수준이었던 이용 건수는 지난해 연간 1000만건을 돌파하며 100배 급성장했다. GS25에서 이용 가능한 택배 서비스는 반값택배와 일반택배로 나뉘는데, 반값택배 비중이 전체 택배 서비스의 65%까지 급성장했다.GS25 측은 "반값택배의 급성장은 일반 편의점 택배의 절반 수준인 파격적인 운임료 이외에도 코로나19 사태 이후 급증한 비대면 중고거래 등이 한몫했다"고 분석했다. 실제로 각종 중고거래 사이트에서는 'GS25 반값택배 환영'이라는 게시물을 많이 찾아볼 수 있다. 반값택배 이용 고객 3000명을 대상으로 분석한 자료에서도 반값택배를 이용하는 주목적에 '중고 거래'(72%), '선물 배송'(21%) 등이 있었다.통상 편의점 자체 물류를 이용하기 때문에 배송 기간이 일반택배보다 최대 이틀은 더 느린 게 일반적이었다. 하지만 최근 중고거래가 활성화돼 규모의 경제가 만들어졌고, 동일 구역 내에서는 하루 만에 배송되는 경우도 많다. 하루 만에 배송되는 경우는 전체의 40%, 이틀 만에 배송이 완료되는 경우도 전체의 70% 수준까지 올라섰다.반값택배는 택배 발송인과 수취인이 각각 GS25를 방문해야 하기 때문에 연간 2500만명이 넘는 고객이 매장을 추가 방문하는 효과도 있다. 이를 통해 다른 상품을 추가로 구매하게 하는 미끼 효과로 연 500억원이 넘는 추가 매출이 발생하는 것으로 추산된다.CU가 자체 물류 시스템을 활용한 'CU알뜰택배'도 2020년 1.8% 수준에서 올해 7월 기준 24.2%까지 비율을 늘렸다. 특히 오는 7~20일 토스나 번개장터에서 알뜰택배 접수 시 1300원(기존 0.5㎏ 이하 1800원)에 이용할 수 있다. 일반택배 대비 40% 저렴한 수준이다. 여기에 8월 한 달 동안 매주 월요일 포켓CU에서 알뜰택배를 예약하면 2000원 상당의 'get아이스아메리카노' 무료 쿠폰을 제공하는 이벤트도 진행된다.한편 근거리 소비 채널로 편의점업계가 꾸준히 성장하면서 편의점에서 외부 택배사 물류망을 사용하는 일반택배 수요도 늘고 있다. 일반택배와 동일하게 택배를 이용하고 싶지만 안전 등을 이유로 접수를 편의점에서 시작하려는 여성 고객 등 수요가 있다는 것이다. 세븐일레븐에서 운용하는 일반택배 서비스는 올해 2분기(4~6월) 매출이 전년 동기 대비 30% 늘었다.이에 세븐일레븐은 오는 31일까지 로지아이 택배 애플리케이션(앱)인 '택배파인더'를 이용해 예약하면, 지역과 상관없이 기존 요금에 비해 20% 할인된 가격인 2890원에 서비스를 이용할 수 있도록 프로모션을 준비했다. [홍성용 기자]</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2023.08.02.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>뜨거운 '초전도 테마주' 주의보…일부는 치솟던 주가 '와르르'</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014108158?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>동학·서학개미 '묻지마 투자' 우려한국 연구진이 개발했다고 주장하는 상온 초전도체[유튜브 캡처. 재판매 및 DB 금지]    (서울=연합뉴스) 송은경 기자 = 국내외 증시에서 상온 초전도체에 대한 관심이 커지면서 관련 주식들이 주가가 급등하고 있다.    국내 연구진이 개발했다는 '과학계 꿈의 물질' 상온 초전도체에 대한 관심이 투자 열기로 이어지고 있지만 아직 학계의 검증 과정이 끝나지 않아 '묻지마'식 접근에 대한 주의가 요구된다.    2일 한국거래소에 따르면 서남(30.00%), 서원(29.98%), 파워로직스(29.97%), 신성델타테크(29.75%) 등은 상한가를 기록했고, 비츠로테크(24.33%), 대창(18.41%), 인지디스플레(15.60%), 국일신동(12.48%) 등도 크게 올랐다.    이날 코스피는 1.9% 코스닥지수는 3.18% 내렸지만, '초전도체 테마'로 분류된 종목들은 시장 분위기와 정반대로 일제히 급등세를 보인 셈이다.    1일(현지시간) 미국 증시에서는 나스닥 상장사 아메리칸 수퍼컨덕터(AMSC)가 주가가 60.02% 급등해 16.13달러에 거래를 마쳤다.    아메리칸 수퍼컨덕터는 키움증권을 통해 해외 주식을 거래하는 투자자들 사이에서 일간 미국 주식 매수 상위 종목 4위에 올랐다.    서학개미들이 평소 많이 투자하는 디렉시온 데일리 세미컨덕터 베어 3X(SOXS), 프로셰어스 울트라프로 QQQ(TQQQ) 등 레버리지 상장지수펀드(ETF)들이나 테슬라보다 순위가 높았다.    해외 주식을 거래하는 개인투자자들이 많이 이용하는 토스증권 모바일트레이딩시스템(MTS)에서도 이날 오후 1시께를 기준으로 아메리칸 수퍼컨덕터의 거래량은 10일 전보다 41배 급증한 것으로 나타났다.    아메리칸 수퍼컨덕터를 비롯해 주가가 오르고 거래량이 급등한 이들 종목은 시장에서 상온 초전도체 테마주로 받아들여지고 있으나 상당수가 초전도체와의 관련성이 뚜렷하게 확인되지 않은 상태다.    상온 초전도체 테마주였던 대정화금은 이날 오전 가격제한폭에 근접한 28.22%까지 올랐으나 회사 측 주식담당자가 홈페이지를 통해 "초전도체와 관련해 퀀텀에너지연구소와 구리 등을 포함한 거래 내역이 없다"고 밝히자 상승 폭을 대부분 되돌리고 7.04% 오른 채 마감했다.    퀀텀에너지연구소 연구진 등은 지난달 22일 논문 사전공개 사이트 '아카이브'를 통해 상온과 대기압 조건에서 초전도 현상을 보이는 초전도체 물질 'LK-99'에 관한 논문을 공개했다.    이번 연구 결과는 국내 인터넷 커뮤니티와 유튜브 등에서도 다뤄지며 화제의 중심에 섰다. 해외에서도 외신을 통해 소개되며 주목받고 있지만 과학계에서는 검증 결과를 기다려봐야 한다는 분위기다.    일부 해외 연구자들이 자체 검증결과를 내놓으며 혼란이 커지자 한국초전도저온학회는 이날 전문가들로 구성된 검증위원회를 발족해 대응에 나섰다.    검증위원회에서 현재까지 논의된 바에 따르면 논문을 통해 발표된 데이터와 공개된 영상으로는 LK-99가 상온초전도체라 할 수 없다고 결론지었다.    증권업계 한 관계자는 "최근 시장을 주도했던 이차전지주가 대거 약세를 보이는 날 관련 자금이 새로운 테마인 상온 초전도체로 움직이는 것으로 보인다"며 "주식은 꿈을 먹고 산다는 말이 있을 만큼 '꿈의 물질'에 투자하는 것은 자연스러운 일이지만 제대로 알아보지도 않고 투자하는 것은 지양해야 한다"고 말했다.[그래픽] 초전도체 관련 종목 주가 급등(서울=연합뉴스) 반종빈 기자  bjbin@yna.co.kr    페이스북 tuney.kr/LeYN1 트위터 @yonhap_graphics    norae@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2023.08.07.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>타다 매각 협상 결국 무산... 토스 “당분간 자체 운영”</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000922702?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>타다 차량 모습./타다 제공        모빌리티 서비스 ‘타다’ 운영사인 브이씨엔씨(VCNC)의 매각 작업이 최종 결렬됐다.타다의 모회사인 비바리퍼블리카는 인수 후보자였던 더스윙에 타다를 매각하지 않기로 결정했다고 7일 밝혔다. 비바리퍼블리카 측은 “더스윙은 타다 인수의 유력한 후보였지만, 다양한 측면에서 검토한 결과 최적의 인수처라는 결론에 이르지 못했다”고 밝혔다.비바리퍼블리카는 당분간 타다를 자체 운영하며 매각 작업을 이어나갈 계획이다.공유 전동킥보드 ‘스윙’의 운영사인 더스윙은 지난달 비바리퍼블리카가 보유한 타다 경영권 지분 60%를 인수하기로 합의했다. 지분 100%를 기준으로 한 기업가치는 400억원대 수준으로 알려졌다. 경영권 프리미엄을 포함한 지분 인수가는 약 240억원으로 추산된다.그러나 더스윙과 브이씨엔씨의 2대 주주인 쏘카(지분율 40%) 간 협상이 무산되면서 결국 매각이 결렬된 것으로 전해졌다. 쏘카는 브이씨엔씨에 대여한 70억원의 차입금과 이자에 해당하는 더스윙 지분이나 이사회 참석권 등을 더스윙에 제안한 것으로 전해졌다. 더스윙이 이를 받아들이지 않으면서 갈등이 커졌다. 타다의 모기업이었던 차량 공유 플랫폼 ‘쏘카’는 2021년 비바리퍼블리카에 경영권을 매각했다.‘아이엠택시’를 운영하는 진모빌리티도 지난 1월 VCNC 인수 의사를 밝혔지만, 지난 6월 이를 철회했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2023.08.10.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>[단독] 토스뱅크, 첫 月 흑자…인뱅 경쟁 달아오른다</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004878485?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>토스뱅크, 출범 21개월 만에7월 순이익 추정치 10억원3분기엔 분기 기준 흑자 전망인터넷銀 3사 모두 이익 내'금융 메기' 역할 본격화할 듯인터넷 전문은행 토스뱅크(대표 홍민택·사진)가 지난달 처음으로 월 단위 당기순이익을 냈다. 2021년 10월 출범한 이후 약 21개월 만에 달성한 첫 번째 흑자다. 토스뱅크의 실적 개선 추세가 뚜렷한 만큼 올 3분기엔 분기 기준 흑자 전환도 유력하다는 분석이 나온다. 카카오뱅크 케이뱅크에 이어 토스뱅크까지 인터넷은행 3사가 모두 흑자를 내기 시작하면서 금융시장의 ‘메기’ 역할을 자처해온 인터넷은행들의 경쟁이 한층 치열해질 전망이다.10일 금융권에 따르면 토스뱅크는 지난 7월 출범 후 최초로 약 10억원의 순이익을 올린 것으로 전해졌다. 그동안 분기별 순이익 규모만 공시해온 토스뱅크가 내부적으로 추산한 결과다. 토스뱅크 경영진은 전날 사내 게시판을 통해 이 같은 사실을 직원들에게 알렸다.토스뱅크가 월단위 흑자를 기록한 것은 2021년 10월 5일 인터넷은행 3사 중 가장 마지막으로 영업을 시작한 이후 약 21개월 만이다. 다만 토스뱅크는 출범 9일 만인 같은 달 14일부터 그해 말까지 약 3개월 동안 정부의 ‘대출총량제’ 규제에 막혀 대출 취급을 전면 중단한 적이 있었다. 이에 규제가 풀린 지난해 1월 이후 사실상 18개월 만에 흑자 전환에 성공했다는 평가가 나온다.2017년 4월 출범한 케이뱅크는 약 4년 뒤인 2021년 2분기에 흑자를 내기 시작했다. 인터넷은행 1위(총자산 기준)인 카카오뱅크는 2017년 7월 영업을 시작해 2019년 1분기 흑자를 내기까지 약 20개월이 걸렸다. 카카오뱅크는 월단위 흑자를 올린 시점을 공개하진 않았다.토스뱅크가 흑자 전환에 성공한 비결로는 기존 시중은행에선 볼 수 없던 서비스 경쟁력이 꼽힌다. 이 은행이 작년 3월 국내 은행 중 처음으로 도입한 ‘지금 이자받기’ 서비스는 입출금계좌 이자를 언제든 원하는 날짜에 받아 복리 효과를 극대화할 수 있다는 게 알려지면서 지난달 말 기준 누적 이용 횟수가 2억4000만 회를 넘어섰다. 토스뱅크의 누적 가입자 수는 지난달 말 기준 700만 명을 돌파했다.토스뱅크 내부적으로는 지난달 거둔 호실적을 바탕으로 흑자 규모를 빠르게 늘려갈 것으로 예상했다. 아직까지는 신용대출 중심으로 대출 상품을 판매하고 있는 토스뱅크가 올 하반기 전·월세자금대출을 출시할 예정이어서 포트폴리오가 다양해지면 보다 안정적으로 수익을 창출할 것으로 금융권은 보고 있다. 토스뱅크는 올해 안에 광주은행과 함께 은행권 최초 공동대출 상품도 내놓기로 했다. 토스뱅크 관계자는 “월별 실적은 구체적으로 확인해줄 수 없다”면서도 “2분기에 이미 상당한 수익성 개선을 이뤄냈고, 3분기에는 분기 흑자 가능성이 높다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2023.08.11.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>'가뭄 통항 제한' 파나마운하 선박정체 심각…물류비 상승</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014125647?sid=104</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>평소 1.8배 많은 160여척 대기 '병목현상'…컨테이너 운송 기간↑파나마 운하 전경[EPA 연합뉴스 자료사진. 재판매 및 DB 금지](멕시코시티=연합뉴스) 이재림 특파원 = 태평양과 카리브해를 연결하는 글로벌 물류의 동맥인 파나마 운하 인근에 통항 대기 선박 숫자가 대폭 늘어난 것으로 나타났다.    가뭄 탓에 줄어든 수량이 선박 통항에 영향을 미쳤기 때문인데, 당국은 병목현상을 완화하기 위해 안간힘을 쓰고 있다.    파나마운하청은 10일(현지시간) 파나마운하 네오파나막스 화물 선박(2016년 6월 파나마운하 확장 후 통과할 수 있는 선박)의 최대 흘수(물속에 잠긴 선체 깊이)를 앞으로 수개월간 13.41ｍ(44.0피트)로 제한할 예정이라고 밝혔다.    이는 지난 5월 중순 13.72ｍ(45.0피트)와 비교해 0.31ｍ 감소한 수치다. 네오파나막스 최대 흘수는 고정적이지 않으나, 현재와 같은 수준을 유지하는 건 이례적인 상황이라고 업계에서는 보고 있다.    파나마운하청은 홈페이지에 공개한 안내문에서 그 원인을 '가뭄에 따른 가툰호수 수량' 때문이라고 설명했다. 파나마 운하를 구성하는 가툰 호수는 선박 흘수 조정에 결정적인 역할을 한다.    최근 파나마 지역 강수량이 늘기는 했으나, 중미 국가 기후를 건조하게 만드는 경향이 있는 엘니뇨 영향으로 파나마 운하 운영을 소극적으로 할 수밖에 없는 상황이라고 현지에서는 분석하고 있다.    파나마운하청은 또 지난 달 30일부터 통항 선박 총수를 평상시 하루 36척에서 32척으로 제한하고 있다고 덧붙였다.지난 3일(현지시간) 파나마 운하 가툰 호수에서 대기 중인 컨테이너 선박[AP 연합뉴스 자료사진. 재판매 및 DB 금지]통항 선박 예약 건수도 오는 21일까지 일시적으로 제한하기로 했다. 이는 예약 없이 파나마 운하를 지나려는 선박 수가 최근 급증한 데 따른 것이다.    실제 파나마 운하 주변에는 160여척의 컨테이너선이 통항을 위해 대기 중이라고 로이터통신은 보도했다. 이는 평소 90여척이 대기하는 것에 비해 1.8배 많은 상황이다.    중남미 지역 해상정보 전문 매체인 '문도마리티모'는 현재 선박당 15∼19일의 통항 지연이 발생하고 있다고 전했다. 컨테이너 운송 기간이 크게 늘었다는 뜻이다.    이는 고스란히 물류비용 증가로 이어지고 있다. 물류정보업체 프레이토스의 지난 1일 기준 주간 해상 컨테이너 운임지수(FBX)는 아시아∼미국 동부(USEC) 기준 3% 상승한 것으로 파악됐다.    walden@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2023.08.03.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>“응답하라 빅테크” 짠테크족 외침에...‘네카토’의 화답은</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005051625?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>거지방·무지출 챌린지 확산… 사회 흐름 된 '짠테크'네이버파이낸셜·카카오페이·토스 '일상 속 적립 혜택' 제공  [파이낸셜뉴스]  네이버파이낸셜 제공   #말복을 앞두고 삼계탕을 사 먹기 부담스러웠던 A씨는 삼계탕을 끓이기 위해 재료를 사러 갔다. 그러나 치솟아버린 닭 가격에 놀라 집으로 돌아왔다. (지난달 닭고기 도매가격은 ㎏당 3954원, 지난해 같은 달(3477원)과 비교해 13.7% 상승) 친구 B씨에게 이를 하소연하자, B씨는 네이버쇼핑 포인트 적립 노하우를 소개했다. 네이버쇼핑에서 닭을 구매할 경우 기본 포인트가 1% 적립되고 멤버십에 가입하면 최대 4%까지 포인트를 적립받을 수 있다. 네이버 장보기 브랜드 직영관에서 상품을 구매할 경우, 추가적립 2%를 받을 수 있고 포인트를 충전해 결제하자 1.5% 추가적립 혜택이 제공됐다. A씨는 만족스러운 쇼핑을 마친 후 배송받은 닭 사진을 찍어 리뷰를 작성하고 150원을 추가 적립받았다. #최근 C씨는 카카오페이 제휴 브랜드의 카카오톡 채널, SNS를 팔로우하거나 홈페이지를 방문하는 등의 미션에만 참여해도 카카오페이 포인트를 쌓을 수 있다는 사실을 알게 됐다. 카카오페이 내 '매일 모으기'에 출석체크만 해도 매일 기본 6포인트를 적립받을 수 있어 만족스러웠던 C씨는 가족들에게도 이를 소개했다.     #쇼핑을 좋아하지만 요즘 한 푼이 아쉬웠던 D씨는 생활 속에서 절약하고, 쇼핑 방송을 시청하는 것을 취미로 삼고 있다. 물가가 올라 쇼핑을 충분히 하지 못하고 있던 차 D씨는 토스에서 제휴사의 '라이브 쇼핑보기' 방송을 보면 3원씩 포인트를 적립해주는 이벤트를 실시하자 주기적으로 참여하고 있다.  고물가가 지속되며 2030세대 중심으로 한 푼이라도 아끼려는 ‘짠테크’ 기조가 확산되는 추세다. 사회관계망서비스(SNS)상에서 개인의 소비·지출 내역을 통해 공유하고 평가하는 ‘거지방’이나 하루 지출을 0원으로 만드는 ‘무지출 챌린지’가 유행하는 등 짠테크는 하나의 사회 흐름으로 자리잡았다. 이런 상황에서 유행에 민감한 빅테크 3사(네이버파이낸셜, 카카오페이, 비바리퍼블리카(토스)) 역시 ‘짠테크족’에 특화된 혜택을 내놓기 위해 분주하다. 알아두면 좋은 각 사의 혜택을 소개한다.     네이버에서는 '쇼핑만 해도' 무조건 1% 포인트 적립   네이버에서 쇼핑할 경우 구매 시점부터 다양한 적립 혜택을 받을 수 있다. 사진=네이버파이낸셜 제공 네이버파이낸셜이 제시한 짠테크 비법은 '포인트 적립'이다. 네이버페이 포인트는 쇼핑 결제, 이벤트 참여, 제휴카드 사용 등 혜택으로 적립받은 포인트를 뜻한다.   먼저 네이버에서 쇼핑하기만 해도 기본으로 1%의 포인트가 적립된다. 예를 들어 156만9000원짜리 냉장고를 구매할 때 네이버에서 결제하면, 1만5690원이 자동으로 적립된다. 여기에 네이버플러스 멤버십 가입자는 쇼핑할 때마다 월 쇼핑금액 20만원까지 4%의 포인트가 적립되며, 이를 초과해 300만원까지 쇼핑할 경우에도 1% 적립 혜택을 누릴 수 있다. 이렇게 되면 위의 냉장고를 구매한다고 가정했을 때 추가 적립 2만원을 더 받을 수 있다.   결제 수단에 따라 적용되는 적립 혜택도 있다. 네이버페이와 연결된 계좌나 카드에서 결제 금액만큼의 포인트를 충전해 결제할 경우 1.5%만큼의 포인트가 추가 적립된다. 이외에도 네이버페이 머니 하나 통장으로 결제 시 0.5%, 네이버페이 머니 하나 체크카드 결제 시 1.2%. 미래에셋증권 CMA-RP 네이버통장으로 결제 시 0.5%, 네이버 현대카드로 결제 시 최대 5%의 적립 혜택이 주어진다.   또 매일 특정 제품을 '1+1' 또는 '1+α(추가 혜택)'로 72시간 동안 판매하는 '원쁠딜' 서비스를 통해 상품을 구매할 경우 가격이 낮은 생필품부터 고가의 가전제품까지 특가에 구매할 수 있다. 여기에 '원쁠딜' 상품을 친구에게 공유한 후 구매하면 1% 추가 적립 혜택도 얻을 수 있다.   이외에 네이버 장보기에서 브랜드 직영관 제품을 선택해 구매할 경우 2% 추가 적립을 받을 수 있으며, 쇼핑검색광고나 파워링크 등을 통해 제품을 구매할 경우에도 1% 이상의 포인트가 적립된다. 또 상품을 받은 후 텍스트 리뷰 작성 시 50원, 포토·동영상 리뷰 작성 시 150원이 적립된다.   오프라인 고객들을 위한 혜택도 있다. 네이버페이로 삼성페이 현장 결제 시 '포인트 뽑기' 기회가 제공된다. 이때 네이버플러스 멤버십에 가입되어 있을 경우 2배, 네이버페이 머니 하나통장 가입자일 경우 4배의 포인트가 적립된다.     결제와 펀드 투자를 한번에? 카카오페이로는 가능  카카오페이의 '동전 모으기' 서비스 관련 이미지. 카카오페이 제공 카카오페이 역시 결제와 포인트 적립 등으로 생활 속에서 돈을 버는 방법을 소개했다.   우선 카카오페이는 결제와 동시에 펀드 투자를 가능하도록 한 '동전 모으기' 서비스를 제공하고 있다. 이는 카카오페이로 온·오프라인에서 결제 시 1000원 미만으로 남은 동전을 미리 지정한 펀드에 투자하는 방식으로 진행된다. 예를 들어 편의점에서 1200원짜리 상품을 구매할 경우 2000원 결제를 기준으로 남은 800원이 바로 사용자가 지정한 카카오페이증권의 펀드 상품에 자동으로 카카오페이증권의 펀드 상품에 투자된다.   다음으로 '춘식이 포인트 받아쓰기'는 카카오페이의 온·오프라인 가맹점에서 일주일 동안 카카오페이로 1000원 이상 결제 시 지급되는 스탬프를 모으면 카카오페이 포인트를 최대 1000포인트 받을 수 있는 혜택이다. 스탬프가 4개가 되었을 때 '받기'를 누르면 500포인트를, 스탬프가 7개가 되었을 때 '받기'를 누르면 추가로 500포인트를 더 받을 수 있다.   또 카카오페이 '혜택' 탭 내에 있는 '매일 모으기'를 통해 '팔로우하기', '참여하기', '방문하기', '쇼핑하기' 등의 미션을 수행할 경우 카카오페이 포인트를 모을 수 있다. 출석체크만 해도 6포인트가 적립되며 추가 적립일에는 12포인트까지 적립 가능하다.     내 옆에 토스 사용자 있으면...포인트가 쏟아진다  토스의 '브랜드콘 뿌리기' 관련 이미지. 사진=비바리퍼블리카(토스) 제공 토스 또한 일상 맥락 속에서 금융 혜택을 구현하기 위한 혜택을 제시했다.   지난 4월 만우절 이벤트로 시작했던 '브랜드콘 뿌리기'의 경우, 유저가 이벤트에 따라 랜덤으로 브랜드콘을 지급받아 편의점에서 상품으로 교환이 가능한 서비스다. 친구들끼리 자연스럽게 브랜드콘을 주고받는 경험을 유도한 것으로, 누적 사용자는 800만명이다.   '함께 토스 켜고 포인트 받기'는 블루투스 활성화 시 다른 사용자가 있을 때 해당 사용자의 아이콘을 클릭하면 토스 포인트를 제공하는 서비스다. 지난 1월 출시됐으며 누적 사용자는 660만명이다. 해당 서비스가 확대됨에 따라 최근 코레일유통 등과의 협업으로 오프라인 '토스존' 설치 후 추가 리워드를 받아가는 형태의 서비스도 고도화되고 있는 양상이다.   이 밖에도 휴대폰으로 측정한 걸음 수나 특정 장소 방문에 따른 리워드를 일 최대 140원 포인트로 제공하는 '만보기' 서비스와 토스 제휴사의 '방송 보러가기' 버튼을 누르고 해당 페이지에 진입한 경우 100% 포인트를 지급하는 '라이브 쇼핑 보기' 서비스를 통해 '소소하게' 돈을 벌 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2023.08.10.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>불붙는 수신 경쟁에 대출금리 '들썩'…주담대 7% '육박'</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001118710?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>&lt;앵커&gt;기준금리 동결이 거듭되고 있지만, 금융권 예적금 금리는 계속 오르고 있습니다.문제는 그만큼 대출금리도 따라 오른다는 것인데요.당장 다음주면 변동형 주택담보대출과 전세대출 금리가 또한번 상승할 것으로 전망됩니다.김보미 기자가 보도합니다.&lt;기자&gt;광주은행 연 5%, 우리은행 연 6% 적금에 이어, 이번에는 토스뱅크가 별다른 조건 없이 연 5% 금리를 제공하는 적금을 내놨습니다.상반기까지만 하더라도 3%대 초반까지 떨어졌던 예금금리가 다시 앞다퉈 오르고 있는 것입니다.미국 채권금리 상승, 새마을금고 뱅크런 우려 여파 등으로 은행채 금리가 오름세를 나타내자, 은행들이 자금조달의 또다른 수단 중 하나인 예적금도 적극 활용하고 나선 결과입니다.여기에 금융당국의 유동성 규제가 다시 정상화되고 있는 점도 은행으로 하여금 자금 확보 수요를 높이고 있습니다.문제는 수신금리 오름세가 결국엔 대출금리 상승으로 이어진다는 점입니다.시중은행 주택담보대출 변동형 금리는 연 4.08~6.93%. 불과 3개월 전만 하더라도 금리 하단은 연 3%대였습니다.전문가들은 가계대출이 다시 확대되고 있는 상황에서 금리 상승세가 이어질 경우, 경기 둔화 우려를 다시 키울 수 있다고 지적합니다.[김대종 세종대학교 경영학부 교수: 전반적인 물가상승, 금리 인상이 이뤄진다면 국민들의 가처분소득이 감소하게 됩니다. (이로 인해) 연체율 증가라든지 우리나라 경제 전체에 가계부채가 악영향을 주는 것이 가장 크게 우려가 됩니다.]집중호우와 폭염으로 인한 채소류 가격 상승, 공공요금 인상에대출이자부담 확대까지 더해질 경우 소비증가 둔화세가 당초 예상보다 더 커질 수 있다는 겁니다.오는 16일 코픽스 금리가 재공시되면 주택담보대출 변동형과 전세대출 금리는 또다시 오를 것으로 예상되는 상황.금융당국은 하반기 가계대출 관리 대응책 마련을 고심하고 있습니다.한국경제TV 김보미입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2023.08.10.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>자영업자 신용평가 직접 나서…카드사·핀테크 '각축전'</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012024509?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>카드사들, 새 동력원 찾아 데이터산업 진출 가속화토스 vs 핀다…대출비교 핀테크社 자영업CB서 '재격돌'[서울=뉴시스] 황준선 기자 = 31일 오전 서울 마포구 망원시장의 한 점포에서 점주가 신용카드로 물건을 결제하고 있다. 31일부터 연간 매출액 3억원 이하의 영세 가맹점에는 신용카드 0.5%, 체크카드 0.25%의 수수료가 적용되는 등 신용카드 가맹점 전체(313만6000개)의 95.8%에 해당되는 300만4000개의 가맹점에 대해 매출액 구간별로 우대수수료(0.5~1.5%)가 적용된다. 2023.07.31. hwang@newsis.com[서울=뉴시스] 한재혁 기자 = 국내 카드사와 핀테크사들의 자영업자 대상 신용평가(CB)사업에 적극적으로 뛰어들면서 관련 대출 상품이나 서비스 역시 출시할 것으로 보인다. 특히 카드사의 경우 근래 겪는 신용판매 수익 부진을 CB업을 통한 데이터 수집 등 '신사업'으로 만회하겠다는 복안이다.10일 금융권에 따르면 이승건 토스 대표와 문동권 신한카드 사장은 최근 신한카드 본사에서 '데이터 공동 사업을 위한 신용평가모델 및 금융서비스 개발 업무협약(MOU)'을 체결했다.이 업무협약으로 토스는 플랫폼 내 데이터를 활용해 기존 금융 불이익 정보 위주의 신용평가(CB) 시스템을 보완할 수 있는 신용평가모델을 만들 계획이며 신한카드는 소비 행동패턴 정보, 디지털 로그 데이터 등 빅데이터 정보 제공으로 대안신용평가 모델을 강화할 계획이다.같은날 대출비교 플랫폼업체 핀다는 개인사업자를 대상으로 한 신용관리 서비스를 출시했다. 해당 서비스는 사용자가 개인사업자번호만 입력하면 개인과 사업자로서 사용한 대출·카드·연체 등 금융상품 이용 내역을 한 번에 확인할 수 있다. 핀다는 토스·카카오페이에 이어 대출비교 시장 내 점유율 3위를 차지하고 있는 핀테크사다.카드사와 핀테크사들이 CB업 진출에 열을 올리는 것은 대출상품 개발을 위한 데이터 수집이 배경으로 작용했다. 자영업자를 대상으로 신용평가를 거치면서 모인 매출액 등 데이터를 활용, 맞춤형 대출상품을 개발할 수 있다는 점에서다.특히 카드사의 경우 본업인 신용판매에서 부진을 겪어 대출상품 다양화 등 신사업 발굴에 공을 들이고 있다. 여신금융협회에 따르면 지난 2분기 전체카드 승인금액과 승인건수는 292조1000억원, 70억7000만건으로 지난해 같은 기간보다 각각 4.1%, 6.9% 증가했지만 현재까지 공개된 카드사들의 상반기 실적은 전년 동기 대비 저조한 수준이다.이에 카드업계는 대출상품 취급을 통한 이지이익 확보에 나섰다. 특히 자영업자 대출이 꾸준히 늘고 개업도 다시금 이뤄지고 있어 시장이 확대될 것으로 내다보고 있다. 한국은행에 따르면 올해 1분기 현재 자영업자의 전체 금융기관 대출 잔액은 1033조7000억원이다. 지난해 4분기 1019조9000억원 이후 3개월 사이 13조9000억원이 증가했다.업계는 온라인 자영업자들을 공략하는 등 데이터산업 진출은 꾸준히 이어질 전망이다. BC카드는 지난해 금융위로부터 CB업 본허가를 받을 당시 운영중이던 '비즈크레딧(Biz Credit)' 서비스를 개선해 매출 데이터로만 산정됐던 기존 산정 방식을 온라인 사업자의 매출 활성도 온라인 특화 업종별 매출 특성, 업력 등의 데이터를 추가로 활용해 보다 정확하고 합리적인 신용등급을 부여할 수 있게했다.2위사인 삼성카드도 최근 금융위원회에 개인사업자 CB업 본허가를 신청했다. 기존 금융위로부터 CB업 정식인가를 받은 신한·KB·BC카드에 이어 삼성카드가 추가되면 카드업계 1~3위사가 모두 CB업에 진출하게 된다.이 외에도 금융보안원에 따르면 지난 4월 기준 금융데이터거래소에 등록된 4817개의 데이터 상품 중 75.2%는 국내 카드사가 등록했다. 이 플랫폼은 금융보안원이 운영하는 금융 데이터 중개 플랫폼이다. 한 업계 관계자는 "최근 확대하고 있는 (비카드 영역) 사업들이 신용판매를 완전히 대체하는 것은 어려울 것"이라면서도 "다만 그간 축적된 소비 데이터 등을 기반으로 '미래 먹거리'를 준비하는 차원애선 타 업권보다 유리할 것"이라고 설명했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2023.08.13.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>"시중은행서 '자동차대출' 안 받는다"...2년 반 만에 30% 급감</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005056391?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>내리막길 타는 시중은행 오토론 잔액2년 7개월 만에 1조6070억원 빠져DSR 규제 받는 사이 카드·캐피탈사 점유율↑인뱅·핀테크 등 경쟁사는 늘어나는 추세 차량 들어찬 인천국제공항 주차장. 사진=연합뉴스 [파이낸셜뉴스]자동차담보대출(오토론) 시장에서 시중은행의 존재감이 약해지는 추세다. 은행이 총부채원리금상환비율(DSR) 규제에 발목 잡힌 틈을 타 카드·캐피탈사가 공격적인 마케팅을 펼치고 있기 때문이다. 최근 인터넷전문은행과 핀테크사들도 자동차대출 시장 진출을 선언한 상태라 시중은행의 오토론 점유율은 향후 더 낮아질 위기에 놓였다.     ■급감하는 시중은행 오토론 취급액  13일 금융권에 따르면 4대 시중은행(KB국민·신한·하나·우리)의 7월 말 기준 오토론 잔액은 3조4310억원으로 2년 7개월 전인 2021년 말(5조380억원)과 비교해 31.9%(1조6070억원) 급감했다. 지난 2017년 말 2조5517억원 이후 약 6년 만에 가장 낮은 수치다.   특히 최근 감소폭이 가파르다. 4대 은행의 오토론 잔액은 지난해 말 4조128억원을 기록한 후 불과 일곱 달 만에 5818억원 감소했다. 지난 2017년(2조5854억원)과 2018년(5조2274억원)에 오토론 잔액이 전년 대비 각각 85.95%(1조1950억원), 102.19%(2조5854억원) 늘어나며 뚜렷한 성장세를 기록한 것과 대조적이다.   시중은행 중 오토른 취급 자체를 중단한 곳도 있다. NH농협은행의 경우 2020년 ‘채움오토론’을 중단한 후 1년 뒤 ‘오토론 전환대출’ 판매를 종료하고 지난해부터는 ‘NH간편오토론’ 판매도 중단하며 오토론 상품 취급을 멈췄다.     ■DSR 규제 영향으로 카드·캐피탈사에 밀려 이는 은행의 오토론이 카드·캐피탈사의 자동차 할부금융에 비해 경쟁력이 낮아졌기 때문이다. 은행의 오토론의 경우 지난 2018년 10월부터 DSR 산정에 포함됐다. 반면 오토론과 비슷한 카드·캐피탈사의 자동차 할부금융은 DSR 규제 대상에 포함되지 않는다. 한도도 은행의 경우 2019년에 6000만원으로 낮아졌으나 카드사는 1억원이며 대출 이력도 남지 않는다.   아울러 카드·캐피탈사의 자동차 할부금융은 금리도 낮아지는 추세다. 여신금융협회에 따르면 이날 6개 전업카드사(신한·삼성·KB국민·롯데·우리·하나)의 신차 기준(현대 그랜저·현금구매 비율 20%·36개월) 자동차 할부 금리 하단은 5.2%로 지난해 말(7.3%)보다 하단이 2%p 넘게 내려갔다. 캐피탈사들도 완성차 제조업체 계열은 0%대 초저금리 상품을 출시하는 등 공격적인 고객 유치에 나섰다.   이에 국내 자동차대출 시장에서 카드·캐피탈사가 차지하는 비중은 점점 커지고 있다. 6개 전업카드사의 자동차할부금융 자산은 올해 1분기 10조3734억원으로 전년 동기(10조1769억원) 대비 1.93%(1954억원) 증가했다. 같은 기간 캐피털사의 자동차 할부 금융자산도 9.32%(2조5952억원) 늘었다.     ■인뱅 진출 가시화에 비교 서비스 출시하는 핀테크까지 이에 더해 인터넷은행까지 오토론 진출을 예고한 상태라 시중은행의 시장 점유율은 더 낮아질 수 있다. 케이뱅크는 이달 중 캐피탈을 이용하는 소비자를 대상으로 대환대출 성격의 자동차 금융을 선보인다. 신용정보를 바탕으로 캐피탈보다 저금리 대출을 공급해 갈아탈 수 있게 한다는 전략이다. 카카오뱅크도 올해 4·4분기 중고차 구매 자금으로 대출받을 수 있는 100% 모바일 오토론 상품을 출시한다.   핀테크사들은 대출 비교 서비스를 중심으로 자동차 금융시장에 진출하고 있다. 대출 비교 플랫폼 '핀다'는 지난 4월 핀테크 업계 최초로 자동차 리스 및 렌트 시장에 진출했다. 카카오페이는 ‘신차 사고 캐시백 받기’를 통해 신차 구매 시 카드 일시불 캐시백 혜택과 할부 금리 비교 서비스를 제공 중이다. 토스도 신차 구매를 위한 카드 할부 비교 서비스를 3·4분기 중 출시할 계획이다.   금융권 관계자는 “여신 포트폴리오 다각화를 위해 오토론 시장 진출을 노리는 금융사가 늘어나면서 경쟁이 치열해지고 있다”며 “DSR 규제도 받고 금리 매력도도 크지 않은 시중은행 입장에서는 영업에 한계가 있다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2023.08.07.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>토스뱅크, 연 4.55% KB증권 특판 발행어음 중개판매 개시</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004877028?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>토스뱅크 제공토스뱅크는 ‘목돈 굴리기’ 서비스를 통해 최대 연 4.55% 수익률을 제공하는 KB증권 특판 발행어음을 소개(중개판매)한다고 7일 밝혔다.KB증권 발행어음은 토스뱅크를 통해서만 소개되는 특판 상품으로, 최소 100만원부터 가입이 가능하다. 가입 대상은 토스뱅크에서 KB증권 증권계좌를 개설한 고객이다.이번 KB증권 특판 발행어음은 고객의 투자 성향에 따라 수시식 발행어음과 스텝업식 발행어음으로 나뉜다.수시식 발행어음은 자유만기식 상품으로 1일부터 360일 이내에서 만기를 자유롭게 선택할 수 있고 연 3.7%의 수익률을 제공한다. 스텝업식 발행어음은 처음 6개월까지는 연 4.4%의 수익률을 제공하고, 이후 6개월 추가 유치시 연 4.55%의 수익률을 제공한다.KB증권의 스텝업식의 발행어음은 고객이 편의에 따라 재투자 여부를 선택할 수 있는 상품으로 처음 가입한 6개월 후에 상환할 수도 있고, 최초 6개월 이후 투자기간을 더 연장하면 더 높은 수익률을 받을 수 있는 KB증권만의 특화된 상품이다.토스뱅크는 이번 발행어음 소개 개시를 기념해 이달 말까지 다양한 혜택을 제공하는 이벤트도 진행한다. 토스뱅크를 통해 KB증권 증권계좌를 최초 신규로 개설한 고객에게는 해외주식쿠폰 1만원을 지급하고, 지급받은 해외주식쿠폰을 이벤트 기간 내에 사용하면 국내 주식 5000원과 해외주식 5000원 쿠폰을 추가로 지급한다. 국내 주식 수수료도 5년 동안 우대하는 혜택을 제공한다.발행어음 가입을 위한 KB증권 계좌 개설은 토스뱅크 앱 내에서 ‘목돈 굴리기’ 메뉴를 선택하고 계좌개설에 필요한 본인 실명확인 절차 등을 거치면 된다.토스뱅크의 ‘목돈 굴리기’는 다양한 금융투자상품들 가운데 최고 수준의 경쟁력을 가진 상품들을 토스뱅크가 선별해 소개하는 서비스다. 토스뱅크가 지난해 8월 서비스를 출시한 이후 4일 만에 준비한 발행어음 특판 한도를 모두 소진하는 등 큰 인기를 끌었다. 토스뱅크가 ‘목돈 굴리기’를 통해 소개한 누적 금융투자상품은 이날까지 2조5000억원에 달한다.토스뱅크 관계자는 “시중 금리보다 높은 수익률을 추구하는 고객의 니즈를 충족할 수 있는 KB증권의 발행어음 상품을 토스뱅크에서 편리하게 만나볼 수 있다”며 “국내 대형 증권사의 경쟁력 있는 금융투자상품을 더욱 다양하게 소개할 계획”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2023.08.08.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>14일 '택배 없는 날'…이커머스 "주문 접수 미리 서두르세요"</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012018540?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>CJ대한통운 등 주요 택배사 14일 배송 업무 안 해G마켓, 지연 가능성 안내…11번가, '월간 십일절' 앞당겨알뜰택배 (사진=CU 제공) *재판매 및 DB 금지[서울=뉴시스] 이혜원 기자 = 택배기사의 휴식권을 보장하기 위해 주요 택배사가 오는 14일을 '택배 없는 날'로 지정한 가운데, 온라인 유통기업들이 '조기 마감 접수'를 공지했다. 8일 유통업계에 따르면 CJ대한통운·한진 등 주요 택배사들은 오는 14일을 '택배 없는 날'로 정했다. 13일은 일요일, 15일은 광복절이기 때문에 사실상 13일부터 15일까지 3일간 배송 업무를 하지 않는다.이에 G마켓 등 오픈마켓 기반의 플랫폼들은 조기 접수 마감을 안내했다.G마켓 관계자는 "일부 상품의 경우 12일 이전에 주문해도 판매자가 조기에 접수를 마감할 수 있다"며 "16일 이후 배송이 재개되더라도 배송량에 따라 추가 지연이 발생할 수 있으니 기간에 여유를 두고 주문해 달라"고 말했다. 11번가는 통상 매달 11일부터 5일간 진행되는 '월간 십일절' 행사를 앞당겨 전날부터 오는 11일까지 진행한다. 이와 함께 태풍 '카눈'의 북상으로, 전국이 영향권에 들 가능성이 높아지면서 일부 지역에서의 배송 차질을 안내했다. G마켓은 홈페이지를 통해 "태풍 '카눈'의 영향으로 택배사별 일부지역에서의 조기 배송 마감 또는 지연될 수 있고, 제주지역은 선박결항으로인해 대부분의 택배·화물배송이 중단되고 있다"며 "생물 및 긴급을 요하는 상품 집화가 금지되니 주문 및 반품시 참고하라"고 전했다. 한편, 자체 배송망을 갖춘 편의점 CU·GS25의 '반값 택배'와 쿠팡·SSG닷컴 등은 '택배 없는 날'과 관계없이 운영된다.특히 CU는 오는 20일까지 토스나 번개장터에서 '알뜰택배' 접수 시 추가로 500원을 할인해 준다. 500원 할인 시 최저 1300원에 이용이 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2023.08.04.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>요동치는 '주담대 대환대출'…영끌족 인뱅 찾는다</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012013021?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>인터넷은행 주담대 최저금리 3%대신규 취급액 절반 이상은 '대환대출'[서울=뉴시스]이주혜 기자 = 인터넷은행이 낮은 금리를 내세워 주택담보대출 대환대출 고객을 늘리고 있다. 주담대 시장의 후발주자로서 시장을 빠르게 장악하고자 시중은행보다 경쟁력 있는 금리를 내세웠다. 덕분에 금융 소비자들의 선택지가 넓어질 것으로 보인다. 4일 금융권에 따르면 인터넷은행들은 주담대 대환대출에 최저 3%대 금리를 제공하고 있다.전날 기준 카카오뱅크의 주담대 혼합금리는 최저 연 3.879%다. 케이뱅크의 아파트담보대출 상품의 대환대출 변동금리는 최저 연 3.78%다. 대다수 시중은행의 주담대 최저금리가 4%대인 것을 고려하면 상대적으로 낮은 수준이다. 전날 기준 KB국민·신한·하나·우리·NH농협은행의 주담대 혼합형(고정형) 금리는 연 3.81~6.232%, 변동금리는 연 4.08~6.935%로 집계됐다.이에 인터넷은행의 낮은 금리에 매력을 느낀 주담대 차주들의 대출 갈아타기가 이어지고 있다. 인터넷은행이 취급한 주담대의 절반 이상은 대환대출이 차지한다. 카카오뱅크의 2분기 주담대 신규 취급액은 3조5000억원으로 이중 약 60%가 대환목적으로 집계됐다. 2분기 기준 카카오뱅크의 주담대 잔액은 5조5000억원으로 전 분기 대비 3조원가량 늘었다.김석 카카오뱅크 최고운영책임자(COO)는 2일 2분기 실적발표 컨퍼런스콜에서 "신규 진입자로서 빠른 시장 장악을 위해 경쟁력 있는 금리로 접근한 결과 주담대 취급분 중 대환목적 용도가 지속적으로 상향 조정되고 있다"고 설명했다.케이뱅크는 올해 상반기 약 1조4000억원의 아파트담보대출을 취급했는데 이중 절반인 약 7000억원이 대환대출이다. 상반기 아담대 가입자의 약 47%는 연 3%대 금리로 대출을 실행했다. 연 4%대 금리까지 포함하면 아담대 실행 고객 전체의 약 98%가 연 3~4%대 금리를 받았다. 케이뱅크는 지난달 25일에도 대환대출 변동금리를 최대 0.38%포인트 인하했다.인터넷은행의 주담대 확대 전략은 향후에도 계속될 전망이다. 김 COO는 "신용대출 중심 대출 포트폴리오에서 건전성 관리가 중요하다"며 "주담대 같은 상품을 중점적으로 취급해야 하는 상황"이라고 말했다. 주담대와 같은 담보대출은 연체가 발생해도 담보물을 경매로 매각하거나 정부기관 등으로부터 대위변제를 받으면 원금을 회수할 수 있다. 카카오뱅크는 주담대 증가에 힘입어 2분기 연체율이 0.52%로 전 분기 대비 0.06%포인트 감소했다. 은행권 대출금리 공시가 강화된 점도 경쟁 심화 요인으로 작용할 전망이다. 김 COO는 "최근 은행연합회 공시 기준이 바뀌면서 신규 취급 외에 잔액 기준이 추가돼 은행간 금리 경쟁이 치열해질 것"이라고 언급했다. 지난달부터 은행권 예대금리차 공시는 신규 취급액 기준에서 잔액 기준까지 확대됐다. 전월 말에 은행이 보유하고 있는 모든 대출과 예금의 금리로 계산한 예대금리차가 공시된다. 은행의 수익에 대한 정보를 비교할 수 있게 됐다.한편 토스뱅크는 올해 하반기 전월세대출을 출시하고 내년에는 주담대 상품을 선보이며 시장에 새롭게 나설 예정이다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2023.08.08.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>엎어진 ‘타다 매각’ 협상대…“일방적 철회” vs “흔한 의사결정”</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002154080?sid=105</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>[ⓒ VCNC][디지털데일리 이나연 기자] 타다 모회사이자 토스를 운영하는 비바리퍼블리카가 공유 퍼스널 모빌리티 스윙 운영사 더스윙에 타다를 매각하지 않기로 한 가운데, 이번 협상 불발을 두고 양측 입장이 엇갈리고 있다.8일 정보기술(IT)업계에 따르면 더스윙은 지난 주말 타다 측으로부터 더 이상 매각을 진행하지 않겠다는 의사를 전달받았다. 비바리퍼블리카가 더스윙과 타다 운영사 브이씨엔씨(VCNC) 경영권 지분 60% 매매 계약을 체결하지 않기로 한 것이다.비바리퍼블리카 관계자는 “다양한 측면에서 검토한 결과, (더스윙이) 최적의 인수처라는 결론에 이르지 못했다”고 말했다.이와 관련해 더스윙은 이번 협상 결렬이 비바리퍼블리카의 일방적인 매각 철회 때문이라고 토로했다. 일각에서는 더스윙이 타다 인수 절차를 밟는 과정에서 VCNC 2대 주주인 쏘카와 갈등이 불거지며 협상에 난항을 겪은 탓이라고 해석했지만, 이 또한 사실과 다르다는 설명이다.앞서 쏘카는 매각 논의 과정에서 VCNC에 대여한 70억원 차입금과 이자에 해당하는 수준만큼 더스윙 측 지분이나 이사회 참석권 등을 요구했다. 하지만 더스윙이 이를 받아들이지 않으면서 협상은 안갯속으로 빠지는 모양새였다.더스윙 관계자는 “타다 인수 준비를 다 마쳤는데 매각 결정권자인 비바리퍼블리카가 변덕을 부린 것”이라며 “몇 주 전 비바리퍼블리카가 우리 측 실사 작업을 끝냈고 별다른 문제가 없다는 것도 확인했기 때문에 쏘카와 합의도 적극적으로 시도했다”고 설명했다.이 관계자는 “지난달 말에는 쏘카가 제시한 제안들도 상당 부분 수용하기로 해 합의했다”면서 “합의안을 전달한 후 비바리퍼블리카로부터 최종적인 답을 기다리고 있었는데, 매각 대신 타다를 계속 운영해 보기로 결론 냈다는 회신을 받았다”고 덧붙였다.더스윙은 스윙 앱에서 타다를 부르는 서비스 개발까지 이미 끝낸 상황에서 비바리퍼블리카가 구체적인 사유를 제시하지도 않고 입장을 번복해 당혹스럽다는 태도다. 앞서 더스윙은 타다를 인수해 기존 주력 서비스인 이륜차에 이어 사륜차까지 모빌리티 사업 영역을 확장하겠다는 목표를 세운 바 있다.반면, 비바리퍼블리카는 협상 과정에서 매도자와 매수자 간 이견이 생겨 매각 논의 자체가 무산되는 경우는 흔하다고 선을 그었다.비바리퍼블리카 관계자는 “스윙(안)은 유력안 중 하나였던 것은 맞으나 최종안으로 결정하지 않기로 했다”며 “최근 구조조정의 자구책과 수익성 개선도 나타난 만큼 자체운영하며 더 효율적인 운영안을 찾아갈 계획”이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2023.08.04.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>[단독]전세대출도 온라인 갈아타기 허용 검토</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003513150?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>신용-주담대 이어 대환대출 확대당국자 “이르면 이달말 가닥 잡힐듯”금융당국이 전세자금대출도 온라인에서 대환대출을 받을 수 있도록 하는 방안에 대해 검토에 착수했다. 올해 말 주택담보대출 대환대출을 온라인 플랫폼에서 할 수 있게 되는데, 향후 전세자금대출까지 대상을 넓힐 가능성을 검토하는 것이다. 실현될 경우 금융권의 전세자금대출 고객 유치 경쟁이 벌어져 소비자 혜택이 커질 것으로 보인다. 2일 금융권에 따르면 금융당국은 전날 은행연합회, 시중은행, 인터넷전문은행 등 업계 관계자를 불러 전세자금대출 대환대출의 온라인 플랫폼 적용에 대한 의견을 들었다. 금융위원회 관계자는 “이달 말에서 다음 달 초 정도에 정책의 가닥이 나올 것으로 보인다”면서 “업계의 이야기를 종합한 다음 결론을 낼 것”이라고 설명했다. 금융당국이 이 같은 가능성을 검토하는 것은 최근 부동산 경기가 다시 살아날 조짐을 보이며 전세자금대출 잔액 역시 상승세로 돌아선 영향 때문으로 풀이된다. 한국은행에 따르면 전세자금대출 잔액은 올 4, 5월 감소했지만 6월 들어 1000억 원 늘었다. 전세자금대출 잔액은 20개 은행 기준 최근 3년(2020∼2022년) 동안 70% 가까이 증가하는 등 가계대출 폭증의 주된 원인으로 꼽힌다. 5월 말 시작된 온라인 대환대출 플랫폼은 금융 소비자들 사이에서 상당한 호응을 얻고 있다. 지난달 26일까지 총 1조 원이 넘는 대출 자산이 이 플랫폼을 통해 다른 상품으로 이동했다. 현재는 신용대출만 갈아타기를 할 수 있는데 올해 말에는 주택담보대출도 이동이 가능해진다. 금융권에선 온라인을 통해 전세자금대출 대환이 이뤄지면 은행권의 금리 인하 경쟁이 치열해질 수 있다는 전망이 나온다. 현재 전세자금대출 금리는 인터넷전문은행이 시중은행에 비해 다소 낮은 편이다. 카카오뱅크와 케이뱅크의 지난달 전세자금대출 평균 금리는 각각 3.73%와 4.02%였지만 5대 시중은행에선 3.95∼4.37%였다. 토스뱅크도 이달 말 전세자금대출 상품 출시를 예고하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>토스뱅크, 고객수 700만명 돌파</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002177523?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>출범 만 2년을 앞둔 토스뱅크의 고객 수가 700만명을 넘어섰다.1일 토스뱅크는 7월말 기준 누적 가입 고객이 총 700만명에 달했다고 밝혔다. 2021년말 125만명의 고객이 이용했던 토스뱅크는 지난해 상반기에만 약 360만명의 고객을 모았다. 아울러 일평균 1.1만명의 고객이 신규 가입하며 1년 만에 고객 수가 2배 가까이 늘었다.고객 연령대는 20대가 전체 26%로 가장 많았다. 하지만 ▷30대 23% ▷40대 23% ▷50대 이상 22% 등으로 근소한 차이를 보였다. 10대의 경우 6%로 가장 적었다. 토스뱅크는 은행 가입 고객 연령이 만 17세 이상으로 제한된 데 따른 것이라고 설명했다.토스뱅크를 실사용하는 고객은 약 10명 중 8명(76%)에 달했다. 토스뱅크 통장 고객은 1인당 평균 274만원을 맡기고 사용했다.토스뱅크 관계자는 “고객 중심의 혁신 서비스가 두터운 고객층 형성에 기여했다”며 “‘지금 이자 받기’ 서비스는 약 373만명의 고객이 2억4000만회가량 이용해 다른 은행으로 확산됐으며, ‘먼저 이자 받는 정기예금’ 서비스는 4개월 만에 누적액 3조5000억원을 넘어섰다”고 설명했다.한편 토스뱅크는 ‘이전으로 돌아갈 수 없는 새로운 은행 경험을 제공한다’를 새로운 기업 미션으로 선언했다. 이는 지난 5개월간 국내외 혁신 기업 사례를 참고하고, 전 직원의 의견을 수립해 만들어진 미션이다.김광우 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2023.08.09.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>신한카드-토스 대안신용평가 모델 공동 개발 나선다</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005054920?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>BNPL 제도화 앞두고 카드사 빅테크 협력 사례 주목토스 대안신용평가모델로 BNPL 서비스 시너지신한카드는 개인사업자 신용평가 사업 활성화인사이트 데이터도 협력 지난 8일 서울 신한카드 본사에서 문동권 신한카드 사장(왼쪽)과 이승건 비바리퍼블리카 대표가 '데이터 공동 사업을 위한 신용평가모델 및 금융서비스 개발 업무협약'을 체결하고 기념촬영을 하고 있다. 사진=신한카드·비바리퍼블리카 제공 [파이낸셜뉴스]신한카드와 토스 운영사 비바리퍼블리카가 손잡고 대안신용평가 모델 고도화와 개인사업자 신용평가(CB) 사업 활성화에 나선다. 특히 금융 거래이력이 부족한 씬파일러(thin-filer)을 위해 금융위원회가 혁신금융서비스로 지정한 선구매 후결제 서비스(BNPL·Buy Now Pay Later)의 본격적인 제도화를 앞두고 카드사와 빅테크 간 물밑 신경전이 벌어지는 가운데 신한카드와 토스의 협력이 낼 시너지에 업계의 관심이 높아질 전망이다.   신한카드와 토스는 지난 8일 '데이터 공동 사업을 위한 신용평가모델 및 금융서비스 개발 업무협약'을 체결했다고 9일 밝혔다. 업무협약식에는 문동권 신한카드 사장과 이승건 비바리퍼블리카 대표가 참석해 양사의 데이터 협력에 대한 의지를 드러냈다.   토스는 월간활성사용자수(MAU) 1500만명이 이용하는 금융 플랫폼 내 데이터를 바탕으로 기존 금융 불이익 정보 위주의 신용평가모델을 보완할 수 있는 대안신용평가모델을 주도적으로 개발하겠다는 각오다. 빅테크 3사가 지난해 출시한 BNPL이 카드사와 비교해 연체율이 높은 것으로 조사되면서 BNPL의 건전성 이슈가 불거진 만큼 토스는 업계 1위인 신한카드가 오랜 기간 운영하면서 보유한 신용평가모델 노하우가 필요하다.   신한카드도 빅테크인 토스가 특화된 대안신용평가모델을 활용해 신한카드의 개인사업자 CB사업 활성화에 나설 계획이다. 개인사업자 CB사업은 소상공인인 개인사업자에 대한 정밀한 신용평가, 매출 정보 등을 금융기관에 판매하는 데이터 비즈니스로, 신한카드는 개인사업자 CB 본허가를 지난 2019년 금융사 최초로 취득했다. 이미 신한카드가 보유한 소상공인, 가맹점에 대한 데이터와 토스의 비정형데이터 등 대안신용평가모델을 활용하면 CB 모델 고도화를 통해 데이터 비즈니스 경쟁에서 앞설 수 있다는 것이 신한카드의 판단이다. 개인사업자 CB사업은 신한카드 뿐만 아니라 국민카드, BC카드도 본허가를 취득해 데이터 비즈니스 사업에 뛰어든 상황이다.   신한카드 측은 "향후 개발한 대안평가지표를 개인사업자가 이용할 수 있는 대출 상품에 활용하고 개인사업자용 신용관리 서비스를 공동 개발해 소상공인이 편리하게 이용할 수 있도록 할 예정"이라고 말했다.   양사는 또 익명처리된 소비정보를 기반으로 한 통계정보로 '인사이트 데이터'를 만드는 사업 영역도 협업하기로 했다. 인사이트 데이터 사업은 카드사와 빅테크의 데이터 협력이 시너지를 낼 수 있는 영역으로 인사이트 데이터를 기업에 판매하면 기업은 시장분석과 마케팅, 기획 전략 수립에 활용할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2023.08.04.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>“택배상자 쌓느라 정신 없어요”...때아닌 ‘택배 핫플’ 된 이곳, 무슨 일</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005168147?sid=103</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>500g 미만 배송에 1800원 ‘반값택배’일반택배보다 배송 느려도 초저가 인기중고거래 늘면서 싼 택배 찾는 고객 늘어GS25, 지난해 1000만건 이용건수 돌파CU 알뜰택배도 3년새 스무배 성장세 GS25에서 한 고객이 자체 물류망을 활용한 ‘반값택배’ 서비스를 이용하고 있다. [사진 = GS리테일]편의점이 자체 물류 시스템을 활용한 택배 서비스가 기존 택배사보다 30%넘게 할인된 가격으로 최저가 경쟁을 벌이며 고객들의 시선을 사로잡고 있다. 이른바 ‘반값택배’ ‘알뜰택배’로 불린다. 개인 간 중고거래가 대폭 늘면서 물건이 이틀 정도 늦게 전달됨에도 배송비가 현저히 싸다는 장점이 크다. 더구나 추석연휴 등 명절이나 일요일에도 쉬지 않아 근처 편의점에서 손쉽게 물건을 찾을 수 있다는 점에서 이용자 편의성이 높다.3일 업계에 따르면 GS25의 자체 물류시스템을 활용한 ‘반값택배’는 전체 편의점 500택배 서비스의 70% 이상의 점유율을 차지하며 순항 중이다. 2019년 GS리테일이 선보인 반값택배는 고객이 GS25 점포에서 택배 발송을 접수하고 택배를 받는 상대방도 본인 인근의 점포에서 찾아가는 구조의 택배서비스다.500g미만의 경우 최소 요금인 1800원이 적용되는 반값택배는 올해 5월 기준 월간 이용 건수가 100만 건을 넘어섰다. 서비스 시작 첫해인 2019년에 9만여건 수준이었던 이용 건수는 지난해 연간 1000만 건의 이용건 수를 돌파하며 100배 급성장했다. GS25에서 이용가능한 택배서비스는 반값택배와 일반택배로 나뉘는데 비중이 반값택배가 전체 택배 서비스의 65%까지 급성장한 것이다.GS25 측은 “반값택배의 급성장은 일반 편의점 택배의 절반 수준인 파격적인 운임료 이외에도 코로나19 이후 급증한 비대면 중고거래 등이 한몫했다”고 분석했다. 실제로 각종 중고거래 사이트에서는 ‘GS25 반값택배 환영’이라는 게시물을 많이 찾아 볼 수 있다. 반값택배를 이용 고객 3000명을 대상으로 분석한 자료에서도 반값택배를 이용하는 주목적에 ‘중고 거래’(72%), ‘선물 배송’(21%) 등 순이었다.통상 편의점 자체 물류를 이용하기 때문에 배송 기간이 일반택배보다 최대 이틀은 더 느린 게 일반적이었다. 하지만 최근 중고거래가 활성화돼 규모의 경제가 만들어졌고, 동일 구역내의 소요 기간은 하루만에 배송되는 경우도 많다. 하루 만에 배송되는 경우의 비율은 전체 40%, 이틀만에 배송 완료되는 건도 전체 70% 수준까지 올라섰다.반값택배는 택배 발송인과 수취인이 각각 2명은 GS25를 방문해야하기 때문에 연간 2500만명이 넘는 고객이 매장을 추가 방문하는 효과도 있다. 이를 통해 다른 상품을 추가로 구매하게 하는 미끼효과로 연 500억 넘는 추가 매출이 발생하는 것으로 추산된다.CU가 자체 물류 시스템을 활용한 ‘CU알뜰택배’도 2020년 1.8% 수준에서 올해 7월 기준 24.2%까지 비율을 늘렸다. 특히 이달 7~20일까지 토스나 번개장터에서 알뜰택배 접수 시 1300원(기존 0.5kg 이하 1800원)에 이용할 수 있다. 일반 택배 대비 40% 저렴한 수준이다. 여기에 8월 한 달 동안 매주 월요일 포켓CU에서 알뜰택배를 예약하면 2000원 상당의 ‘get아이스아메리카노’ 무료 쿠폰을 제공하는 이벤트도 진행한다.한편 근거리 소비 채널로 편의점 업계가 꾸준히 성장하면서 편의점에서 외부 택배사 물류망을 사용하는 일반택배 수요도 늘고 있다. 일반택배와 동일하게 택배를 이용하고 싶지만, 안전 등을 이유로 접수를 편의점에서 시작하려는 여성 고객 등 수요가 있다는 것이다. 세븐일레븐에서 운용하는 일반택배 서비스는 올해 2분기(4~6월) 매출이 전년 동기 대비 30% 늘었다.이에 세븐일레븐은 이달 31일까지 로지아이 택배앱인 ‘택배파인더’ 앱을 이용해 예약하면, 기존 요금에 비해 20% 할인가격인 2890원에 지역 상관없이 서비스를 이용할 수 있도록 프로모션을 준비했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2023.08.03.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>식중독균 육회 판매…무인매장 식품 관리 엉망</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001628338?sid=102</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>진성그린푸드가 판매한 1개 제품서 식중독균 황색포도상구균 검출어라운드에이치큐 1개 제품은 버섯·파·양파 등 재료가 변질무인매장에서 판매하는 식품 중 일부 육회 제품에서 식중독균이 검출됐다. 이 외에도 몇몇 무인매장에서는 소비기한이 지난 식품, 변질된 재료를 포함한 식품 등을 판매하고 있었다.3일 한국소비자원이 서울 경기 등 무인매장 29곳에서 판매하는 밀키트·과자·생선회·육회 등 35개 식품의 안전성과 표시사항 등을 조사한 결과 특정 육회 제품에서 식중독균(황색포도상구균)이 나왔다. 일부 매장에서는 소비기한이 지난 식품도 판매되고 있었다.소비자원에 따르면 손질된 육류를 포장·판매하는 무인정육점에서 구매한 육회 2개 제품 중 진성그린푸드가 판매한 1개 제품에서 식중독균인 황색포도상구균이 검출됐다. 무인밀키트 판매점에서 구입한 불고기 제품 10개 중 어라운드에이치큐 1개 제품은 버섯·파·양파 등의 재료가 변질돼 있었다.무인과자점 12개 매장 중 1개 매장은 소비기한이 경과한 과자 4개 제품을 판매했다. 이 중 1개 제품은 소비기한이 100일 이상 지난 것으로 확인됐다. 해당 무인과자점은 현재 폐업한 상태다.전체 조사대상 35개 식품 중 영양성분이 표시된 15개 제품의 실제 나트륨 함량을 확인한 결과 4개 제품(500 차카니·추억의 옛날 그 맛 월드컵 어포 ·피시스낵 스파이스맛·피아토스 치즈향 감자칩)이 표시기준에 부적합했다.의무표시사항인 소비기한·내용량 등을 기재하지 않은 5개 제품(오늘쉐프 오늘은 소불고기·요리비책 간장 소불고기·원셰프의 행복식탁 전통소불고기 전골·집어가 소불고기 버섯전골·팔도만찬 광양불고기)을 비롯해 잘못 표시한 4개 제품도(옐로우스푼 고기듬뿍 소불고기 전골·요리비책 간장 소불고기 ·원셰프의 행복식탁 전통 소불고기 전골·집어가 소불고기 버섯전골) 나왔다.소비자원은 이번 조사를 토대로 무인매장 사업자에게 식품의약품안전처의 ‘2023년 식품안전관리지침’의 ‘무인 식품취급시설 안전관리’에 따라 매장을 관리할 것을 권고했다. 또 식품의약품안전처에는 무인매장 사업자에 대한 위생관리 교육을 요청할 계획이다. 소비자원 관계자는 “무인매장에서 식품을 구매할 때는 포장 상태 및 소비기한·원재료·영양성분 등 표시사항을 꼼꼼히 확인해야 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>엔픽셀, 웹3 '그랑사가: 언리미티드' 커뮤니티 테스트 성료</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003121914?sid=105</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>그랑사가: 언리미티드엔픽셀은 웹3 기반 PC 다중접속역할수행게임(MMORPG) '그랑사가: 언리미티드' 2차 커뮤니티 테스트를 성황리에 마쳤다고 1일 밝혔다.전세계 8000여명 글로벌 이용자를 대상으로 약 2주 동안 진행된 이번 테스트는 그랑사가: 언리미티드 정식 출시에 앞서 플레이 환경을 개선하고 커뮤니티 콘텐츠를 강화하기 위해 마련됐다.이번 테스트를 통해 이용자는 신규 던전 및 16인 레이드를 비롯해 PVP 전장 '카오스 필드', '클랜' 시스템 등 다양한 콘텐츠를 체험했다. 사전에 SBT(Soul Bound Token, 소울 바운드 토큰)를 발급받은 글로벌 인플루언서 100명이 '아이돌'로 참여해 '팬덤'과 함께 다양한 콘텐츠를 만들어 나갈 수 있는 '아이돌&amp;팬' 시스템이 큰 호응을 얻었다.개발진 또한 직접 테스트에 참여해 이용자와 함께 던전 공략 및 커뮤니티 활동을 했다. 실시간으로 이용자와 소통하며 피드백 및 의견을 수용해 '이용자들과 함께 만들어 나가는 게임'을 구현했다.그랑사가: 언리미티드 주요 특징 중 하나인 '프루프 오브 플레이(Proof of Play)' 기술을 통해 독자적인 경제 생태계도 제시했다. 게임 내 주요 아이템과 재화를 블록체인에 기록하고 아이템 획득 랜덤성 결과를 투명하게 공개하는 기술이다. 게임 내 수요에 따라 중요 아이템의 획득 난이도가 결정되며 이용자는 아이템 공급량, 공급 시점, 소유자, 랜덤 확률 등을 실시간으로 검색 및 확인할 수 있다.엔픽셀은 테스트 기간 동안 받은 이용자 피드백과 의견을 적극 검토해 완성도를 더욱 끌어올린 후 웹 기반 게임 생태계 '메타픽셀(METAPIXEL)을 통해 그랑사가: 언리미티드를 정식 서비스할 예정이다.메타픽셀은 레이어1(Layer-1) 블록체인 네트워크인 '앱토스(Aptos)'를 기반으로 구축될 예정이다. 엔픽셀은 지난해 11월 '앱토스'와 최초로 게임 부문 파트너십을 체결했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2023.08.15.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>[에듀플러스]진학 정했니? 진로·학과 가이드 ⑤금융학과, “금융 등 다양한 분야 진출…관련 진로탐색 권유·수학 등 폭넓은 지식 필요”</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003125987?sid=105</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>에듀플러스와 진학사가 학과로 보는 진로·진학 가이드 공동기획 시리즈를 격주로 총 10회 연재한다. 시리즈 다섯 번째 순서로 소개할 학과는 금융학과다. 금융학과는 금융 전반에 대한 기초적 이해를 바탕으로 금융 전문가 양성을 위한 심층 금융 전문 지식 및 통합 능력을 기른다.금융학과 기초과목은 금융수학입문, 미시경제원론, 거시경제원론, 경영학원론, 금융거래법, 금융통계학,증권투자론, 재무회계원리, 부동산학개론, 보험학개론, 재무관리, 경영분석론, 기업재무론 등이 있다. 심화과목은 금융경제학, 자산관리개론, 금융공학, 금융정책, 금융데이터분석, 매크로마케팅, 재무세미나, 부동산법, 자본시장법, 금융실무영어, 글로벌금융론 등을 3~4학년 과정에서 배운다.금융 관련 진로를 꿈 꾼다면 은행원, 보험중개사 인터뷰 및 금융감독원 탐방, 학과 탐방과 같은 진로 탐색을 해 보는 것이 좋다. 평소 관련 수업 시간에 적극적으로 참여해 전공 적합성, 문제해결 능력, 학업 역량 등이 학생부 교과 세부능력 및 특기사항으로 기록되도록 하는 것도 중요하다. 수학, 경제학, 철학, 심리학 등 폭넓은 분야 독서로 기본적 소양을 키우는 것도 중요하다.금융 관련 학과 현황은 가천대 금융수학과, 국민대 재무금융학과, 동아대 금융학과, 상명대 경제금융학부, 서경대 금융정보공학과, 순천향대 IT금융경영학과, 숭실대 금융학부, 아주대 금융공학과, 영남대 경제금융학부, 인하대 글로벌금융학과, 전주대 IT금융학과, 중앙대 글로벌금융학과, 한국외대(글로벌) 국제금융학과, 한림대 경제금융학부, 한양대 경제금융학과 등이 있다.금융 관련 전공 졸업 후 대부분이 기업체, 정부 및 교육기관, 연구기관 등 다양한 방면으로 진출한다. 기업체는 은행, 증권회사, 부동산 관련 회사, 보험 회사, 투자 신탁 및 자산 운영 회사, 금융 기관, 무역 회사, 금융 컨설턴트 등이 있다. 정부 및 공공기관은 금융·무역·수출입 관련 공공기관, 중앙 정부 및 지방 자치 단체, 보험협회, 신용보증기금, 금융감독원, 국민연금공단, 한국무역보험공사, 한국산업인력공단 등이 있다.예금, 송금, 간편 결제 등 금융 환경이 핀테크 기반으로 전환된다. 보스턴컨설팅그룹(BCG)·QED인베스터즈의 '2023년 글로벌 핀테크: 금융의 미래 재해석' 보고서에 따르면 , 삼성페이, 카카오페이, 토스 등으로 대표되는 핀테크 산업이 활발해짐에 따라 2030년까지 글로벌 핀테크 시장 규모는 현재보다 6배 늘어난 1조5000억달러(약 1990조원) 규모로 성장한다. 대형 ICT 기업의 핀테크 시장이 폭발적으로 커지고 고도화됨에 따라 금융 관련 학과 미래는 매우 밝다.우연철 진학사 입시전략연구소장 hades94@jinhak.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2023.08.08.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>'타다' 매각 철회…더스윙 "앱에 타다부르기 개발했는데 물거품"</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006977066?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>비바리퍼블리카, 지난주말 더스윙에 매각 철회 통보더스윙 "모든 인수 노력 물거품…받아들이기 어려워"타다 밴과 더스윙 전동스쿠터·킥보드·자전거 이미지(뉴스1DB, 더스윙 제공)(서울=뉴스1) 김민석 기자 = 토스 운영사 비바리퍼블리카가 '타다'를 더스윙에 매각하지 않기로 했다.비바리퍼블리카는 당분간 타다를 자체운영하면서 최적의 매수자에게 매각 협의를 이어나간다는 입장이지만 더스윙 측에는 타다를 직접 운영한다는 의사를 내비친 것으로 전해졌다.더스윙 측은 자사의 '스윙앱'에 타다 부르기 개발 기능까지 끝낸 상황에서 딜이 무산돼 난감한 상황이라고 밝혔다.8일 업계에 따르면 비바리퍼블리카는 지난 주말 유력한 매각안 중 하나였던 '스윙안'을 최종안으로 결정하지 않기로 했다.비바리퍼블리카 측은 "다양한 측면서 검토한 결과 최적의 인수처라는 결론에 이르지 못했다"며 "최근 구조조정의 자구책과 수익성 개선이 나타난 만큼 자체 운영하며 더 효율적인 운영안을 찾아갈 계획"이라고 말했다.다만 더스윙엔 '타다 매각보다는 직접 더 운영하겠다'는 의사를 최종적으로 회신한 것으로 확인됐다.이와 관련 더스윙은 쏘카(타다 운영사 VCNC 40% 지분 2대주주)와 지난달 말 합의에 이르렀고 비바리퍼블리카 최종 결정만 남았는데 갑작스럽게 매각 의사를 철회해 곤란하게 됐다고 토로했다.더스윙 관계자는 "타다 인수 과정에서 쏘카와 합의가 필요했고 쏘카와는 지난달말 합의했다"며 "토스(비바리퍼블리카)로부터 최종적인 답을 기다리고 있었는데 지난 주말 매각을 하지 않는다는 의사를 밝혀왔다. 인수를 준비해온 저희 입장에선 받아들이기 쉽지 않다"고 했다.그러면서 "타다를 계속 더 운영해보기로 결론 냈다는게 비바리퍼블리카의 최종 회신이었다"면서 "스윙앱을 통해 타다를 부르는 개발까지 다 끝내놨는데 굉장히 난감하다"고 말했다.당초 더스윙은 타다 인수를 통해 이륜차에 이어 사륜차에도 '공급주도형 성장모델'을 이식해 종합 모빌리티 도약한다는 목표를 세웠다.스윙앱으로 타다를 이용할 수 있도록 시스템을 구축해 수익성과 규모의 경제를 동시에 달성한다는 계획이었다.타다의 모기업이던 차량 공유 플랫폼 '쏘카'는 2021년 비바리퍼블리카에 경영권을 매각했다. '아이엠택시'를 운영하는 진모빌리티도 지난 1월 VCNC와 합병 의사를 내비쳤지만 지난 6월 각 사 재무 상황 등을 이유로 인수를 철회했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2023.08.02.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>KB스타뱅킹, 앱 이용자 증가에서 카카오뱅크 눌렀다</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005167301?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>2020년 6월~2023년 6월까지 3년간 은행앱 사용자 증감.&lt;자료=모바일인덱스&gt;3년간 사용자 가장 많이 늘어난 은행앱은 토스토스 335만명 증가, 스타뱅킹은 288만명 늘어카카오뱅크는 273만명 증가해 3위 차지시중은행은 우리-하나-신한 순서대로 늘어10대들은 카카오뱅크를 압도적으로 선호지난 3년간 사용자가 가장 많이 증가한 은행앱은 335만명이 증가한 토스였다. KB국민은행 스타뱅킹이 288만9000명으로 그 뒤를 이었다. 카카오뱅크는 273만명으로 3위를 차지했다. 기존 금융사들의 슈퍼앱 프로젝트가 성과를 낸 것으로 보인다.2일 모바일인덱스에 따르면 지난 2020년 6월부터 올해 6월까지 3년간 전체 은행앱 이용자는1353만9000명 증가했다. 토스가 증가 인원의 24.7%를 차지했고, KB국민은행이 21.3%, 카카오뱅크가 20.2%를 차지했다. 우리은행 우리원(WON)뱅킹(165만명, 12.2%), 하나은행 하나원큐(158만9000명, 11.7%), 신한 쏠(133만1000명, 9.8%)이 뒤를 이었다.10대 사용자가 가장 많이 증가한 은행앱은 카카오뱅크였다. 51만명이 증가했다. 토스가 31만명, 우리은행이 3만명, KB국민은행이 2만9000명, 하나은행이 1만9000명 순이다. 신한은행은 오히려 3만9000명 줄었다. 카카오뱅크는 지난 2020년 10월 10대를 타겟으로한 미니(mini)를 출시한 이후 앱 신규설치가 전월 대비 390% 증가했고 10대 사용자 수도 꾸준히 증가하고 있다.20대의 경우는 KB국민은행이 58만명 증가하면서 1위를 차지했다.  28개의 앱을 ‘KB스타뱅킹’으로 통합한 효과가 컸다는게 업계의 평가다. 그 뒤를 하나은행이 36만명, 카카오뱅크가 34만명, 신한은행이 32만명 증가한 것으로 나타났다. 30대는 토스(66만명), 카카오뱅크(40만명), KB국민은행(37만명) 순으로 나타났다. 40대는 토스(151만명), 카카오뱅크(116만명), KB국민은행(115만명)순, 50대는 KB국민은행(76만명), 토스(70만명), 우리은행(46만명)순이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2023.08.02.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>갤럭시 워치6, 대중교통 손목 결제 더 스마트하게 강화</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/144/0000903999?sid=103</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>스마트한 이동과 결제 서비스로 ‘이동을 편하게, 세상을 이롭게’ 만들고 있는 ㈜티머니(대표이사 김태극)가 갤럭시 워치6 출시에 맞춰 ‘티머니 갤럭시워치’ 앱 이용 고객 혜택을 강화한다고 1일 전했다.이를 통해 티머니는 갤럭시 워치6를 더 스마트하게 사용할 수 있는 필수앱으로 ‘티머니 갤럭시워치’ 앱을 강조하는 한편, 대중교통 활성화에도 앞장선다는 전략이다.‘티머니 갤럭시워치’ 앱은 구글플레이 ‘2021년 올해를 빛낸 웨어 앱 최우수상’을 수상하는 등 갤럭시 워치 필수앱으로 자리매김해 왔다. ‘티머니 갤럭시워치’ 앱 하나면 지갑이나 카드 없이도 대중교통을 간편하게 이용할 수 있다. 갤럭시 워치에서 간편하게 잔액 조회가 가능하고, T마일리지 적립 등 다양한 혜택을 받을 수 있다. 대중교통뿐만 아니라, 편의점, 카페 등 티머니 유통 가맹점에서도 사용 가능하다.티머니는 갤럭시 워치6 출시를 기념하여 ‘티머니 갤럭시워치’ 앱 이용 고객들에게 풍성한 혜택을 제공한다. 오늘부터 삼성전자가 운영하는 갤럭시 워치6 프로모션 페이지에 접속하여 ‘티머니 미션(대중교통 이용하기 미션)’에 응모하면 된다.첫 번째 미션은 ▲‘티머니 갤럭시워치 앱 설치, 가입/로그인 후 갤럭시 워치6로 대중교통 결제하기’이다. 미션 완료 고객에겐 5천 T마일리지를 지급한다. 두 번째 미션은 ▲‘갤럭시 워치6로 대중교통 결제하는 모습 SNS 인증하기’이다. 마찬가지로 미션 완료 고객에겐 5천 T마일리지를 지급한다. 미션 1,2를 모두 수행하면 최대 1만 T마일리지를 받을 수 있다. T마일리지는 ‘티머니 갤럭시워치’ 앱에서 티머니로 충전하여 사용할 수 있다. 선착순 3만명 지급이므로 서두르는 것이 좋다.티머니 갤럭시워치 앱은 갤럭시 워치6에 안드로이드 스마트폰을 연동만 하면 간편하게 사용할 수 있다. 앱이나 화면을 켜지 않고 갤럭시 워치를 단말기에 태그만 하면 결제되기 때문에 아주 간편하다. 신용/체크카드, 간편결제(토스, 카카오페이) 등 다양한 충전수단을 제공하며, 자동충전도 미리 설정할 수 있다. 또한, 신용카드를 등록하면 후불청구형 서비스도 이용 가능하고, 대중교통 할인이 제공되는 신용카드 등록 시 동일한 할인 혜택이 적용된다.㈜티머니 Payment사업부장 김정열 상무는 “갤럭시 워치6가 지난달 26일 공개되어 큰 관심을 받고 있다”고 하며 “티머니 갤럭시워치 고객 혜택을 지속적으로 강화해 더 많은 고객이 갤럭시 워치로 대중교통을 스마트하게 이용할 수 있도록 최선을 다하겠다”고 소감을 밝혔다.티머니는 ‘모바일티머니’와 ‘티머니 갤럭시워치’를 통해 고객들에게 ‘가장 스마트한 교통 결제’ 서비스를 제공하고 있다. 또, 대중교통 업계 종사자들과 상생 발전하며 대중교통 활성화에 앞장서고 있다.손봉석 기자 paulsohn@kyunghyang.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2023.08.14.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>오늘 '택배 없는 날' 두고…'CJ vs 쿠팡' 갈등 빚는 이유</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004879563?sid=103</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>한국통합물류협회 소속 택배사 운영 잠시 멈춰유통가 자체 배송 새벽·익일배송 정상운영CJ-쿠팡 갈등 또 빚어져사진=뉴스114일은 택배 종사자의 휴식 보장을 위한 '택배 없는 날'이다. 주요 택배사들의 배송 업무가 이날 멈추지만 유통기업들이 자체 운영하는 주간 및 새벽 배송 서비스는 정상 운영된다. 편의점에선 자체 배송차량을 이용한 점포간 '반값 택배'는 그대로 진행한다. 업계에선 택배 없는 날을 둘러싸고 다시 한번 CJ그룹 계열사와 쿠팡의 갈등이 불거진 데 시선이 모이고 있다. 새벽배송·편의점 반값택배는 '정상 운영'사진=연합뉴스업계에 따르면 한국통합물류협회 소속 CJ대한통운·한진택배·롯데글로벌로지스 등 주요 택배사들은 이날을 택배 없는 날로 정하고 이날 업무를 중단했다. 일요일인 지난 13일부터 광복절인 15일까지 해당 택배사들의 배송 업무가 중단된 것. 이에 따라 토요일인 지난 12일 접수한 택배는 16일 이후부터 배송된다. 이에 따라 해당 기간 이들 택배사를 이용하는 온라인 쇼핑몰에서 물품을 주문할 경우 배송이 지연될 수 있다. 업무 중단 택배사를 이용하는 편의점 택배도 일부 중단된다.택배 없는 날은 택배기사들 휴식을 보장하기 위해 한국통합물류협회 소속 택배사들이 운행을 중단하는 날이다. 고용노동부와 다수 택배사업자가 합의해 2020년부터 매년 8월14일로 정했다.다만 택배사가 아닌 유통사가 자체 배송망으로 운영하는 익일배송과 새벽배송 서비스는 정상 운영한다. 쿠팡의 물류배송 자회사 쿠팡로지스틱스서비스(CLS)가 운영하는 '로켓배송'을 비롯해 SSG닷컴 '쓱배송', 마켓컬리 '샛별배송' 등은 평소와 같이 주문과 배송을 이어간다.또한 편의점들이 자체 물류망을 이용하는 점포 간 '반값 택배' 역시 수거와 배송이 그대로 진행된다. CU는 오는 20일까지 토스나 번개장터에서 이 회사 반값택배 서비스인 '알뜰택배'를 접수하면 500원을 할인해주는 프로모션을 진행한다. 8월 한 달간 매주 월요일에 포켓CU 애플리케이션(앱)에서 알뜰택배를 예약하면 아메리카노 무료 쿠폰을 제공하는 이벤트도 하고 있다.택배 없는 날에는 편의점으로 택배 수요가 몰렸다. 2021년과 2022년 택배 쉬는 날의 알뜰택배 이용건수는 직전 주보다 각각 70%, 95% 뛰었다. 택배 없는 날 둘러싼 CJ-쿠팡 갈등 사진=연합뉴스업계에선 택배 없는 날을 둘러싸고 CJ그룹 계열사와 전자상거래(이커머스) 강자 쿠팡의 갈등이 다시 한번 불거져 관심을 끌었다. CJ대한통운이 택배 없는 날 참여 여부를 놓고 쿠팡을 에둘러 비판하고 나선 것이다. CJ대한통운은 지난 11일 보도자료를 내고 "사실을 왜곡하는 프레임으로 택배업계의 자발적 노력을 폄훼하는 일부 업체의 행태에 강한 유감을 표시한다”고 밝혔다. CJ대한통운은 "대형 택배사가 '우리는 잘 쉬기 때문에 택배 쉬는 날이 필요 없다'며 동참하지 않을 경우 고객을 빼앗길 우려를 가진 중소 택배사들의 참여가 원천 봉쇄된다는 것이 업계의 일반적 시각"이라며 "택배사들은 쉬고 싶을 때 마음대로 쉴 수 없어 '택배 없는 날'을 만들었다는 왜곡된 주장을 바탕으로 기존 업계를 비난하는 것은 산업 발전에 아무런 도움이 되지 않는다"고 주장했다. CJ대한통운이 거론한 '일부 업체'는 쿠팡으로 추정된다. 민주노총 서비스연맹 산하 전국택배노조 등은 쿠팡의 물류배송 자회사인 CLS 역시 택배 없는 날에 동참해야 한다고 주장하고 있다. 그러나 쿠팡은 "쿠팡 퀵플렉서(쿠팡 상품을 배송하는 대리점 소속의 택배기사)는 쉬고 싶을 때 쉴 수 있다"는 입장이다.앞서 쿠팡은 지난 4일 "일반 택배업계는 독점 노선을 책임져야 하기 때문에 쉬고 싶으면 하루 25만원가량 드는 외부 택배기사(용차)를 택배기사 본인 부담으로 투입해야 한다. 그러나 쿠팡로지스틱스서비스에서는 대리점이 '백업 기사'를 둬야 계약을 체결하고 있고 CLS 직영 배송 인력인 쿠팡친구도 있어 쿠팡 퀵플렉서는 용차 비용 없이 휴가를 낼 수 있다"고 언급한 바 있다.사진=뉴스1CJ대한통운은 이를 염두에 둔듯 "'쉬고 싶으면 하루 25만원가량 드는 외부 택배기사(용차)를 택배기사 본인의 부담으로 투입해야 한다' 등 왜곡된 주장을 펼치고 있다"고 반박했다. 휴가를 가는 택배기사 물량을 동료들이 대신 배송해주면 별도 비용이 들지 않고 CJ대한통운은 경조사 발생 시 별도 용차비를 지원하고 있다고 강조했다.CJ대한통운 측은 "존재감을 부각시키기 위해 수년간 진행된 택배업계 전체의 노력을 폄훼하는 행위를 소비자들이 '혁신'이라고 받아들일지 의문"이라며 "시장에서 영향력을 인정받고 있는 기업이라면 법적 구속력이 없다고 매몰차게 외면하지 말고, 최소한 업계의 노력을 존중하는 모습을 보이는 것이 바람직하다"고 주장했다.업계에서는 앞서 빚어진 CJ제일제당, CJ올리브영 등 CJ그룹 계열사와 쿠팡 간 갈등이 다시 한번 벌어진 것으로 풀이한다.쿠팡은 CJ그룹 계열사와 대립각을 세우고 있다. 가격 결정권을 둘러싸고 쿠팡과 갈등을 벌인 CJ제일제당은 지난해 말부터 쿠팡에 즉석밥 '햇반' 등 제품 납품을 중단했다. 이에 쿠팡은 중소형사 제품 중심 프로모션으로 맞대응에 나섰다. 또한 쿠팡은 지난달 공정거래위원회에 CJ올리브영을 중소 화장품업체의 쿠팡 납품과 거래를 막았다는 이유로 신고한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2023.08.04.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>토스뱅크, 정보보호 관리체계 인증 획득</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002179023?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>[토스뱅크 제공][헤럴드경제=홍승희 기자] 토스뱅크는 금융보안원으로부터 대표 홈페이지 및 인터넷뱅킹 서비스 운영에 관한 정보보호 관리체계(ISMS) 인증을 획득했다고 4일 밝혔다. 토스뱅크는 지난해 정보 보호 부문 투자액을 전년 대비 3배 이상 늘렸다.정보보호 우수성에 대한 자신감을 바탕으로 토스뱅크는 인터넷전문은행 중 유일하게 한국인터넷진흥원 정보보호 공시 종합 포털에 매년 자발적으로 공시도 해오고 있다.ISMS인증은 기업이 정보자산을 안전하게 관리하기 위한 관리체계 정책 수립과 보호대책 요구사항 영역에서 80개의 인증기준에 적합해야만 인증이 부여된다. 이를 위해 토스뱅크는 금융보안원으로부터 관리체계 기반 마련은 물론 위험관리와 물리적 보안, 사고 예방 및 대응 등에 대한 평가를 받았다. 특히 토스뱅크는 인증 준비와 관련된 전 과정을 외부 컨설팅 도움 없이 자체적으로 진행해 내재된 정보보호 관련 기술 및 역량이 매우 높은 수준임을 입증했다.토스뱅크의 정보보호 부문에 대한 투자액은 매년 증가하고 있다. 토스뱅크의 2022년 말 기준 정보보호 부문 투자액은 약 66억1385만원으로 이는 전년도(20억2024만원) 대비 3.3배 증가했으며, 정보기술부문 투자액 역시 674억원으로 역시 3.2배가량 늘어났다.또한 토스뱅크는 카드 부정 사용과 정보 유출 방지를 위한 산업 표준인 PCI-DSS 인증을 국내 은행 최초로 획득한 바 있다. 지난 1월에는 세계적으로 권위있는 인증 기관인 BSI(영국 왕립 표준협회)로부터 정보보호 관리체계의 국제표준인 ‘ISO27001’ 및 개인정보보호 관리체계 국제표준인 ‘ISO27701’를 동시 취득한 바 있다.토스뱅크 관계자는 "디지털 기반의 인터넷전문은행인 만큼 정보보호에 대한 철저한 대비와 관련 기술 내재화, 이 과정에서 투명한 공개와 소통은 무엇보다 중요하다고 생각한다"며 "700만 명 이상의 고객 분들이 안전한 금융 서비스를 하실 수 있도록 정보보호 관리 체계를 지속적으로 발전시켜 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2023.08.10.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>은행권 횡령 7년간 1500억…사람 손 덜 타는 인뱅3사는'0'</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004923439?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>최근 경남은행에서 560억원의 횡령이 발생하는 등 은행권 횡령이 끊이지 않고 있지만 인터넷전문은행에서는 출범 이후 단 한 건의 횡령도 없는 것으로 드러났다. 인터넷은행이 소매금융에 집중돼 있어 사고발생 가능성이 상대적으로 적다는 풀이가 나온다.9일 인터넷전문은행 3사(카카오뱅크·케이뱅크·토스뱅크)의 공시자료 등에 따르면 2017년 인터넷은행이 출범한 이후 올 1분기까지 인뱅 3사의 횡령은 없는 것으로 나타났다. 반면 은행권 횡령은 끊이지 않고 있다. 강민국 국민의힘 의원이 금융감독원에서 제출받은 자료에 따르면 2017년부터 올해 7월까지 전체 은행권 횡령액은 1509억8000만원으로 집계됐다.금융권에서는 횡령사고 상당이 기업금융과 부동산 PF(프로젝트 파이낸싱) 등 투자금융 부문에서 발생했다는 점에 주목한다. 특히 일반적인 여수신과 달리 거래금액이 적게는 수십억원에서 많게는 수백억원에 달하면서 횡령규모도 크다. 실제 최근 562억원을 횡령한 것으로 드러난 경남은행 직원은 부동산 PF 업무를 담당했다. 앞서 700억원대 횡령 혐의로 기소된 우리은행 직원은 기업개선부에서 8년 가량 근무하며 범행을 저질렀다. 2금융권도 마찬가지다. 지난해 KB저축은행에서 발생한 94억원 횡령도 부동산 PF 대출 관련이었다. 반면 인뱅 3사는 현재 PF를 운용하지 않고 있다. 또 인뱅 3사의 총여신 가운데 기업부문이 차지하는 비율은 올 1분기 기준 4.6%에 불과하다. 대형은행은 원화대출 중 기업부문 비중이 절반 가량이다. 개인사업자대출(SME)만 취급하고 있어 거래금액도 적다. 은행권 관계자는 "은행원들 사이에서는 '돈이 돈으로 보이면 퇴사해야 한다'는 말이 있다"며 "인뱅은 다루는 금액도 적고, 시중은행 대비 상당 업무가 전산화·자동화돼있어 '사람의 손'을 탈 일이 없다"고 말했다.그렇다고 안전지대는 아니다. 자산 규모와 직원 수 등 관리해야할 리스크가 커지고 있기 때문이다. 카카오뱅크 총자산은 지난 1분기 기준으로 46조원을 넘어섰고 케이뱅크와 토스뱅크도 각각 자산이 18조7871억원, 24조7625억원 수준이다. 직원 수도 3사 합쳐 2310명으로 매년 빠르게 늘고 있다.이에 인뱅 3사도 내부통제를 위해 애쓰고 있다. 케이뱅크는 장기근무 제한, 명령휴가, 직무 분리, 내부고발제도 활성화 등을 운영 중이며, 카카오뱅크와 케이뱅크도 명령휴가나 장기근무 제한, 직무 분리를 철저하게 지키고 있다. 인터넷은행 관계자는 "금감원의 내부통제 혁신방안은 지점과 관련된 부분을 제외하고는 인뱅도 다른 은행과 동일하게 적용돼 대부분 따르고 있다"며 "동시에 공개적이고 유연한 협업구조나 유연하고 건전한 기업문화를 구축하기 위해 힘쓰는 점도 금융사고 예방에 도움이 되는 것으로 보고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2023.08.08.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>더스윙, '타다' 인수 문턱 앞에서 불발...각자도생 결론</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002301314?sid=105</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>비바리퍼블리카 "자체 운영해 효율적인 방법 찾을 것"…더스윙 타 플랫폼 '물색'퍼스널 모빌리티(PM) 기업 더스윙과 타다 운영사 VCNC 간 인수 협상이 결렬됐다. 거래 막바지 단계까지 갔었지만, 끝내 합의점을 찾지 못했다. 더스윙은 다른 매물을 물색한다는 방침이다.8일 관련 업계에 따르면 VCNC 모회사 겸 모바일 금융 서비스 토스를 운영하는 비바리퍼블리카는 더스윙에 타다를 매각하지 않기로 했다. 비바리퍼블리카가 보유한 VCNC 지분 60%를 더스윙에 넘기는 방안이 유력했지만, 협상이 최종 무산된 것.비바리퍼블리카 측은 “다양한 측면에서 검토한 결과 더스윙이 최적의 인수처라는 결론에 이르지 못했다”며 “최근 타다 내 구조조정 자구책과 수익성 개선이 나타난 가운데, 서비스를 자체 운영해 효율적인 방법을 찾아갈 것”이라고 밝혔다.타다더스윙은 당초 800억원 가까이 평가받던 VCNC 기업가치가 400억~500억원 수준까지 낮아진 데 따라 지분 매입에 속도를 내려 했다. 다만, 차입금을 놓고 이견차를 좁히지 못했다. VCNC는 2대주주인 쏘카로부터 70억원을 빌렸는데, 이 중 50억원은 올 초 만기일을 넘겼고 나머지는 내달까지 상환해야 했다.VCNC 측에서는 단기 차입금까지 더스윙이 떠안거나, 쏘카가 차입금을 받지 않는 대신 이에 상응하는 더스윙 지분을 받아 이사회 멤버에 합류하는 조건을 제시한 것으로 알려졌다. 더스윙은 보름간 논의 끝에 지난달 말 쏘카가 제안한 대부분 요구사항들을 받아들이기로 했다.이어 더스윙은 쏘카와 합의안을 비바리퍼블리카에 전달했지만, 지난 주말 매각 의사 철회를 통보받은 것으로 전해졌다. 이 사정에 정통한 관계자는 “차입금 문제도 사실상 VCNC 내부 문제지만, 비바리퍼블리카 제안으로 더스윙이 접점을 마련하고자 나선 것”이라며 “인수를 위한 실사 역시 긍정적으로 마무리된 것으로 안다”고 했다.(사진=스윙)한편 더스윙은 타다와 유사한 선택지를 살펴본다는 계획이다. 더스윙이 가진 킥보드와 자전거, 배달 오토바이 등과 연계할 만한 택시 호출 기반 플랫폼을 곁들여, 서비스 간 시너지를 창출해 ‘슈퍼앱’으로 자리매김하겠다는 시나리오다.더스윙 관계자는 “2륜에 이어, 4륜까지 아우르며 종합 모빌리티 기업으로 성장하겠다는 우리 전략은 아직 유효하다”며 “유동성이 넘치던 시절 높은 적자 폭을 감내하면서 성장한 1세대 스타트업과 달리, 우린 수익성을 증명하며 커나가야 할 다음 세대 스타트업”이라고 했다. 이어 “실리적인 측면에서 발 빠르게 다음 방향을 모색해, 연내 슈퍼앱 단초를 보여드릴 것”이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>카사, 다음 달부터 부동산조각투자 공모 재개한다</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004919846?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>공모 앞서 설문조사 진행…56% "강남지역 투자 원해"/사진=카사대신파이낸셜그룹에 인수된 국내 최초 부동산 디지털 수익증권(DABS) 거래 플랫폼 카사가 다음 달부터 공모를 재개한다. 1일 카사는 오는 10일 대신증권 계좌 개설 오픈을 시작으로 다음 달 중 공모를 재개할 방침이라고 밝혔다. 이에 카사는 하반기 신규 공모를 앞두고 공모 건물 위치 선호도 설문조사를 진행했다.카사 앱(애플리케이션) 이용자 2176명을 대상으로 진행된 이번 설문조사에 따르면 전체 투표 참여자의 56%가 '강남지역'에 투자하고 싶다고 응답했다. 세부적인 응답률로는 압구정·청담·신사 지역이 31%로 1위를 차지했다. 이 지역은 '압구정 로데오거리'가 식음료 핫플레이스의 성지로 주목받는 등 MZ세대의 발걸음이 지속 증가하면서 예전의 명성을 되찾고 있는 곳이다. 압구정 지역에는 에르메스 도산 등 명품 스토어를 비롯 노티드, 런던베이글 등 최근 주목받는 식음료매장 또한 즐비하며 올해 1분기 임대가격지수 역시 107.58로 전년 동기(출처 한국부동산원)대비 대폭 상승한 바 있다.강남역·역삼역·삼성역 등 2호선 강남 핵심 지역이 25%로 2위를 차지했다. 해당 지역은 토스, 쿠팡, 마켓컬리 등 국내 주요 스타트업이 위치한 지역이다. '테헤란로 밸리'라 불리며 최근 젊은 세대들이 가장 일하고 싶은 지역으로 손꼽힌 곳이다.카사 관계자는 "GBD(Gangnam Business District·강남업무지구) 지역으로 불리는 범 강남지역에 위치한 상업용 부동산에 대한 압도적인 투자 선호도가 반영된 결과" 라고 분석했다.3위는 강남 인근에서 가까운 성수·서울숲이 꼽혔다. 해당 지역은 최근 유명 명품브랜드의 팝업 스토어와 대형 이벤트가 연이어 열리며 젊은 세대들의 관심이 지속해서 이어지는 곳이다. 이곳 역시 젊은 세대들의 발길이 이어지면서 국토교통부 발표 기준 평균 상업용부동산 매매가가 1년 사이 60%이상 껑충 뛴 바 있다. 이어 여의도·국회의사당 인근 및 광화문·을지로 등의 전통적인 업무지구 역시 이용자들의 선택을 받았다.홍재근 카사 대표는 "부동산 투자 불확실성 헷지를 위해 견지해야 할 핵심 가치는 입지"라며 "복합적인 경제여건 속에서도 강남불패 신화는 건재한 것으로 보인다"고 말했다. 이어 "카사는 이번 투표 결과를 바탕으로 우량한 입지에 있는 매력적인 부동산들을 곧 선보일 것"이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2023.08.10.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>토스뱅크, 7월말 첫 '흑자'…"대출영업 재개 19개월만의 성과"</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001118720?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>토스뱅크가 올 7월 말 기준 최초로 월별 흑자 전환했다고 10일 밝혔다.출범 후 22개월 만, 대출 영업 재개 19개월 만의 성과이다.인터넷전문은행 후발주자로서는 이례적인 속도라는 평가가 나온다.토스뱅크에 따르면, 7월말 기준 흑자 규모는 약 10억 원 규모로, 큰 외부 변수가 없는 한 올해 3분기 분기 흑자로 이어질 가능성이 높다는 관측이 나온다.올 7월 말 기준 토스뱅크 가입 고객 수는 700만 명을 넘어서며 일평균 1.1만 명의 신규 고객이 유입된 것으로 나타났으며, 실사용 고객이 10명 중 8명(76%)에 달하는 것으로 집계됐다.또 인터넷은행 중 가장 먼저 선보인 ‘WM 사업’은 7월 말 기준 누적 판매액 2.5조 원을 넘어섰으며, 한국투자증권부터 시작해 한화투자증권, KB증권, 미래에셋증권 등 범위를 넓혀 비이자 이익 규모도 늘고 있다는 것이 토스뱅크의 설명이다.토스뱅크는 하반기에도 다양한 상품과 서비스를 선보이며 이례적인 성장속도를 이어간다는 목표다.최근 취득한 외환 라이센스를 바탕으로 외환 사업까지 확장하는 것은 물론, 하반기 출시를 목표하고 있는 전월세자금대출 및 인뱅-지방은행 상생모델인 '공동대출' 등 여신 포트폴리오 강화를 통해 이자이익 규모와 여신 안전성을 한층 더 개선해 나가겠다는 것이다.토스뱅크 관계자는 “인터넷전문은행 중 가장 후발주자였던 토스뱅크가 이러한 성과를 낼 수 있었던 원동력은 무엇보다도 고객의 신뢰와 성원” 이라며 “이에 보답하기 위해 새롭게 밝힌 기업 미션, ‘이전으로 돌아갈 수 없는 새로운 은행 경험’을 실천하며 성장성과 안정성을 이어가기 위해 노력할 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2023.08.13.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>토스 인증, LH청약 뚫었다</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003125687?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>토스하반기 한국토지주택공사(LH) 서비스에 토스 인증이 적용된다. 토스를 운영하는 비바리퍼블리카는 인증 시장에서 공신력을 더해 관련 사업에 박차를 가한다.LH와 비바리퍼블리카는 최근 인증 업무에서 협력하기로 했다. 이르면 3분기부터 LH청약홈에 토스 인증을 적용할 계획이다. 현재 LH청약홈에서는 공동인증서(구 공인인증서), 금융인증서(금융결제원), 네이버 인증서 3종을 쓸 수 있다. 그동안 민간 인증서는 네이버가 유일했지만 토스 합류로 2종으로 늘어난다.비바리퍼블리카는 2021년 본격적으로 토스 인증서 사업을 시작했다. 토스 인증서는 별도 앱이나 공동인증서 없이 토스 앱만 사용해 빠르고 간편하게 본인인증과 본인확인을 할 수 있다. 비바리퍼블리카는 본인확인기관인 동시에 전자서명인증사업자로 토스 인증서는 공동인증서·금융인증서와 똑같은 지위를 가진다. 사용이 간편한데다 금융과 관련한 대부분 서비스에서 전자서명을 활용할 수 있어서 장점이 큰 것으로 평가받는다.이번 적용으로 LH는 사용자 인증서 선택권을 늘리고, 비바리퍼블리카는 인증서 사업에서 공신력을 얻을 것으로 관측된다. 대기업이 아닌 비바리퍼블리카가 국내에서 인증서를 가장 활발히 사용하는 공공기관 중 하나인 LH에 인증 서비스를 제공한다는 점에서 의미가 크다.비바리퍼블리카에 따르면 토스 인증서는 8월 기준 2000여개 공공기관, 민간사업자가 활용 중이다. 지난 해에만 고객사를 800곳 늘렸고 올해도 비슷한 증가 추세를 이어가고 있다토스 인증서는 LH 이전에도 공공영역에서 행안부 국민비서, 정부24, 홈택스, 국민건강보험공단, 대한법률구조공단, 민방위사이버교육센터, 경기도청, 대구광역시청, 광주광역시청 등에서 사용됐다.민간에서는 토스 계열사 외에 부산은행, 대구은행, SC제일은행, 전북은행, 삼성생명, 교보생명, KB생명 등 주요 지방은행과 생명 보험사에 인증 서비스를 제공한다. 토스는 최근 국내 5대 은행인 하나은행과 NH농협은행에도 인증서를 제공하며 공격적으로 사업을 확장 중이다. 사실상 경쟁사인 금융사도 활발히 쓸만큼 신뢰·편의성이 높다는 것이다.비바리퍼블리카 관계자는 “토스인증서는 이미 많은 공공 및 금융분야에서 활용하고 있는 신뢰성 높은 인증서”라면서 “향후에도 공공기관을 비롯한 다양한 도입기관 확대로 사용자들에게 편의성을 전달하기 위해 노력할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2023.08.07.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>14일은 ‘택배 없는 날’…쿠팡·SSG닷컴 등은 그대로 운영</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/144/0000905127?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>택배업계가 올해 8월 14일도 ‘택배 없는 날’로 정해 쉬기로 했다.앞서 고용노동부는 택배 종사자들의 휴식 보장을 위해 택배업계와 함께 지난 2020년, 매년 8월 14일 배송업무를 일시 중단키로 합의하고 이 날을 ‘택배 없는 날’을 도입해 운영해 왔다. 지난 해에는 8월 14일이 일요일인 점을 고려해 8월 13일을 택배 없는 날로 정했다.지난 1일 오전 서울 광진구 동서울우편물류센터에서 한 작업자가 땀에 젖은 옷을 입고 폭염의 날씨 속에 우체국 택배 등 분류 배송 작업을 하고 있다. 연합뉴스7일 업계에 따르면 CJ대한통운과 한진, 롯데글로벌로지스 등 주요 택배사들은 오는 14일을 택배 없는 날로 정하고 일요일인 13일부터 광복절인 15일까지 배송 업무를 하지 않는다.이에따라 12일에 접수한 택배는 16일 이후부터 배송되고, 이들 택배사를 이용하는 편의점 택배도 일부 중단된다.다만 GS25와 CU 편의점의 자체 배송망을 이용하는 ‘반값 택배’는 휴무 없이 수거와 배송이 이뤄진다.CU에 따르면 지난해 택배 없는 날에는 편의점으로 택배 수요가 몰리면서 알뜰택배 이용 건수가 직전 주보다 95%가량 증가했다. CU는 ‘택배없는날’ 소비자들의 불편을 줄이기 위해 오는 20일까지 토스나 번개장터에서 이 회사 반값택배 서비스인 ‘알뜰택배’를 접수하면 500원을 할인해주는 프로모션을 진행한다. 이에 더해 8월 한 달간 매주 월요일에 포켓CU 애플리케이션(앱)에서 알뜰택배를 예약하면 아메리카노 무료 쿠폰을 제공하는 이벤트도 진행한다.CU에 따르면 택배 없는 날에는 편의점으로 택배 수요가 몰린 바 있다. 2021년과 2022년 택배 쉬는 날의 알뜰택배 이용건수는 직전 주보다 각각 70%, 95% 뛰었다.또한 쿠팡 로켓배송과 SSG닷컴의 쓱배송, 마켓컬리의 샛별배송 등은 택배사가 아닌 자체 배송망을 활용하기 때문에 중단 없이 평소대로 배송이 이뤄질 예정이다.이충진 기자 hot@kyunghyang.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2023.08.14.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>계약협상에 AI챗봇 투입한 獨지멘스…공급망 관리에 AI 도입 잰걸음</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005299943?sid=104</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>다국적 기업들 AI챗봇 속속 도입'생성형 인공지능(AI)' 기술이 다국적 기업들의 공급망 관리에도 빠르게 침투하고 있다. 지정학적 변수들과 기후변화·인권 문제 등 공급망 안정을 위협하는 불확실성이 다변화되는 가운데 복잡한 연산을 단숨에 처리하는 AI 기술이 공급망 관리를 대체하는 움직임이 분주해지고 있다. 13일(현지시간) 주요 외신에 따르면 미국 최대 유통업체 월마트는 최근 AI 기반 공급망 관리 소프트웨어 기업인 '팩텀'에서 개발한 AI 챗봇 서비스를 구매 업무에 투입했다. 과거 고객 취향 분석과 경험 개선 등 서비스 분야에 집중됐던 AI 기술을 상품 구매 협상과 가격 책정 등의 업무로 확장한 것이다. 세계 1위 해운사인 머스크도 팩텀과의 AI 협력을 확대하기 위해 지난해 말 팩텀에 2000만달러(약 266억원)를 투자했다. 해운·물류분야는 생성형 AI 기술 도입에 가장 적극적인 분야 중 하나다. 툭하면 터지는 공장 가동 중단과 선적·세관 등 수많은 돌발변수를 관리해야 하는 산업 특성상 이 변수들을 예측하고 통제하는 업무에 AI의 활용도가 높아지고 있다. 화물운송 관련 정보업체인 프레이토스가 이달 초 전 세계 물류기업 임원 55명을 대상으로 진행한 설문조사 결과, 글로벌 공급망 전문가의 최대 96%가 생성형 AI 기술을 이미 도입했거나 도입할 예정이라고 답했다. 현재 팩텀은 포춘 500대 기업들을 대신해 최대 100만달러 상당의 공급망 관련 협상을 진행하고 있다. 팩텀 공동 창업자인 카스파 코르주스는 "우리의 AI챗봇 서비스는 코로나19 팬데믹, 우크라이나 전쟁 같은 지정학적 변수들이 연이어 출몰하는 상황에서 수만개에 달하는 공급업체에 접촉하고 대응하는 시간을 획기적으로 줄여준다"고 말했다. 외신들은 공급망 안정을 위협하는 중국과의 디커플링 전략이 확대되고, 기후변화와 관련한 규정 준수, 인권 문제 등이 급부상하면서 점차 복잡해지는 공급망 리스크 관리에 생성형 AI가 핵심 역할을 하고 있다고 평가했다. [이미지출처=로이터연합뉴스]중국 공급망 리스크를 줄이기 위해 생성형 AI 기술을 도입하는 기업도 있다. 독일 지멘스와 영국 유니레버는 독일 AI 스타트업 스카우트비의 AI챗봇 서비스를 활용해 노동 인권 이슈가 있는 중국 기업을 대체할 신규 공급망을 찾는 업무를 자동화하고 있다. 코로나19 팬데믹을 거치면서 중국발 공급망 교란에 상당한 압박을 받아왔던 이들 기업들은 생성형 AI 기술을 활용해 공급망 탈(脫) 중국화에 속도를 내고 있다. 외신들은 "중국의 리오프닝(경제재개) 이후 물류 지연과 공급망 혼란 문제는 다소 해소됐으며, 원자재와 부품 공급 병목 문제는 여전히 생산을 압박하고 있다"면서 "중국 공급업체에 대한 의존도를 낮추기 위해 더 많은 기업이 생성형 AI 도입을 가속화할 것"이라고 내다봤다.  글로벌 공급망에 대한 인권실사 의무화 법안도 생성형 AI 도입 속도를 빠르게 하는 계기가 될 것으로 외신들은 전망했다. 앞서 영국과 프랑스는 2015년, 2017년 이 법안을 도입했고, 독일도 올 초부터 해당 법안을 시행 중이다. 자국 기업뿐만 아니라 자국 내 활동하는 외국 대기업들을 대상으로 한 이 법안은 직간접 공급업체들의 노동 인권과 환경 문제 등에 부정적인 영향을 주는 요소들을 관리하고 이를 위반한 기업에는 매출액 기준 벌금을 부과하도록 하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2023.08.15.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>SBS 스브스프리미엄 콘텐츠 3종 책 출간</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/127/0000034439?sid=102</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>‘어쩌다’ ‘마부뉴스’ ‘개척자들’ 등 SBS 지식구독플랫폼 스브스프리미엄(스프) 주요 콘텐츠들이 책 3권으로 출간됐다. 북저널리즘을 표방하는 출판사 스리체어스와의 협업을 통해서다.책 &lt;욕망으로 쓰는 트렌드 보고서&gt;는 정혜경 SBS 기자가 트렌드를 분석하는 롱폼 콘텐츠 ‘어쩌다’가 바탕이 됐다. ‘욕망’이라는 키워드를 통해 트렌드가 생긴 이유와 구조를 분석하는 책이다. ‘웨딩 스냅과 프로필 사진에 지갑을 여는 이유’ ‘유튜브 생태계에서 어떻게 2000년대 시트콤을 찾아보는 MZ세대와 피식대학의 구독자가 공존하는지’ 등 질문의 답을 찾는다.&lt;설명하기 지친 사람을 위한 데이터&gt;는 SBS 데이터저널리즘팀 마부작침의 뉴스레터 ‘마부뉴스’를 새로 엮은 책이다. 데이터를 통해 우리 사회가 당면한 사회 갈등과 이슈를 분석하며 환경, 젠더 등 감수성의 간극을 좁히는 방법을 소개하는 내용이다. 혁신 스타트업 20곳을 분석한 콘텐츠 ‘개척자들’은 책 &lt;리디파이닝 REDEFINING&gt;으로 재탄생했다. 토스, 당근마켓, 리멤버, 오늘의집, 런드리고 등 5개 스타트업의 성공 전략을 분석한다.SBS 홈페이지와는 별도로 운영되는 스프는 SBS 디지털 오리지널 콘텐츠를 제공하는 지식구독플랫폼이다. 콘텐츠를 보기 위해선 회원 가입이 필요한 ‘로그인 월(login wall)’을 적용한 데 이어 다음 달 자체 앱 출시를 계획하고 있다. 정명원 SBS 디지털뉴스 기획부장은 책 발간에 대해 “충성도 높은 구독자를 대상으로 오프라인 모임 등 기회를 늘려가려 하는데 앱 출시를 앞두고 이들에게 물성으로 드릴 수 있는 수단이 종이책이 될 수 있겠다는 생각이 들었다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2023.08.11.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>론칭 두달 신세계유니버스, '진검 승부' 이제부터</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000018653?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>"내부 교차 쇼핑 늘고 객단가 증가해"회원수 공개는 불가…"혜택 확장 집중"신세계가 통합 멤버십 서비스 '신세계 유니버스 클럽'을 선보인 후 50일간의 성과를 공개했다. 멤버십 회원들의 내부 교차 쇼핑이 늘고 객단가가 늘었다는 게 신세계 측의 설명이다. 다만 핵심인 회원 수 증가에 대해서는 공개하지 않았다. 이를 두고 일각에선 기대 이하의 초반 흥행을 기록한 것 아니냐고 꼬집고 있다. 실제로 아직 유니버스 클럽은 경쟁 멤버십에 비해 '킬러 혜택'이 없다는 지적이 많다. 신세계 측은 아직 판단은 이르다며 혜택 확장에 집중하겠다는 입장이다. 출범 50일간의 성과는지난 7일 신세계그룹은 '신세계 유니버스 클럽' 개시 후 50일간(6월8일~7월27일)의 데이터 분석 결과를 공개했다. 유니버스 클럽은 이마트·쓱닷컴·신세계백화점·스타벅스·신세계면세점·G마켓 등 6개 온·오프라인 계열사가 참여한 통합 멤버십이다. 어디로 가입하든 해당 가입처에 연회비 3만원에 상응하는 쿠폰이나 캐시를 준다. 국내 주요 업체 멤버십 특징 /그래픽=비즈워치신세계에 따르면 멤버십 회원들은 평균 3개의 계열사를 이용하는 것으로 나타났다. 멤버십 회원들의 객단가는 비회원 대비 67% 높았다. 대부분 참여 계열사에서 이런 효과가 나타났다고 신세계 측은 설명했다. 일례로 SSG닷컴의 경우 멤버십 회원이 쓴 금액은 지난해 같은 기간 일반 고객으로 이용한 금액보다 42% 많았다. 신세계 측은 고객들이 유니버스안에서 혜택을 누리게 하겠다는 멤버십 출범 목적이 구현되고 있다고 자평했다. 신세계 관계자는 "회원들의 이용액 증대가 혜택 증대로 이어지는 선순환이 나타났다"면서 "앞으로도 회원들이 보다 많은 혜택을 누릴 수 있도록 이벤트를 늘리고 외부 제휴도 본격 실행할 것"이라고 예고했다. 그래서 회원수는요다만 신세계는 회원수 증감에 대해선 공개하지 않았다. 사실 멤버십의 가장 큰 성과는 회원수다. 혜택의 매력도를 가늠할 대표적인 척도라서다. 현재 네이버(네이버 플러스 멤버십), 쿠팡(와우 멤버십)은 멤버십 회원수를 대대적으로 알리고 있다. 가입 회원의 교차 쇼핑이 늘어나고 객단가가 늘어나는 것은 당연한 설명이다. 강희석 이마트 대표 /사진=이명근 기자 qwe123@신세계는 유니버스 클럽 출시부터 홍보를 이어왔다. 출시 간담회에서 강희석 이마트 대표가 "멤버십을 잘 쓰면 연봉이 5%가량 올라가는 효과가 있다"고 자신감을 내비칠 정도였다. 여기에 비춰보면 다소 아쉬운 성과 발표라는 반응이 많다. 신세계 관계자는 회원수 비공개 방침에 대해 "멤버십 운영사에서 공식적으로 가입자 수를 공개하는 것은 드문 경우"라며 "네이버와 쿠팡도 일정 회원을 확보하기 전까지는 회원수를 구체적으로 공개하지 않았다"고 설명했다. 이어 "유니버스 클럽의 목적은 신규 고객 유입도 있지만 기존 가입 회원들의 혜택 확대"라고 강조했다. 사실 앞서 유니버스 클럽은 출시 당시 '미완'이라는 지적이 많았다. 경쟁사보다 혜택 범위가 넓어도 '결정적 한방'이 없다는 비판이었다. 현재 유니버스 클럽 주요 혜택은 가입시 돌려주는 3만원 캐시백과 주요 계열사 5%할인, 스타벅스 별 쿠폰 적립 정도다. 이외에도 각종 계열사 앱 설치, 가입으로 진입 장벽이 높은 것도 문제로 꼽힌다.진검 승부는 지금부터현재 멤버십 서비스는 유통업계의 화두다. 목적은 신규 고객을 유입시켜 충성고객으로 만드는 데 있다. 소비 중심이 온라인으로 바뀌면서 온오프라인의 경계가 사라지고 있는 것이 배경이다. 가격과 상품에 따라 소비플랫폼을 바꾸는 '체리피커'가 많다. 이를 방지하고 안정적인 매출을 발생시키는 것이 그 무엇보다 중요해졌다. 쿠팡 실적 / 그래픽=비즈워치대표적인 성공 사례가 쿠팡이다. 쿠팡은 지난 2분기 최대 매출과 영업이익을 기록했다. 분기 매출이 7조원을 기록하면서 이젠 이마트까지 앞지르는 모양새다. 와우멤버십의 탄탄한 혜택에 따른 1100만 회원 수가 호실적을 이끈 배경이다. 로켓배송 무료 반품 등 이른바 킬러 혜택이 많다. 유니버스 클럽과 대비되는 부분이다. 신세계도 추가 혜택 마련을 고심 중이다. 여행 플랫폼과 OTT 등과도 협업을 구상하고 있다. 유니버스 클럽은 그 범위를 그룹 계열사로 한정하지 않은 오픈 플랫폼 구조로 설계됐다는 것이 신세계의 설명이다. 최근에는 토스와 손을 잡기도 했다. 유니버스 멤버십 가입부터 할인 적립까지 전방위적인 협력이 예상되고 있다. 업계 관계자는 "온·오프라인에서 일상적으로 쉽게 다가갈 사업이 많다는 점이 신세계의 강점"이라며 "아직 강력한 혜택은 보이지 않지만 대내외적 협업을 이어가 시너지를 내기 시작하면 경쟁력을 갖출 수 있을 것"이라고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2023.08.08.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>"택시비 비싸서 못타요" 불만에…타다, 업계 첫 요금 인하</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004922676?sid=105</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>타다, 이달부터 탄력요금제 할증률↓더스윙 매각 무산…자구책 마련 일환(카 법인, VCNC 법인에도 무죄가 확정됐다. 2023.6.1/뉴스1  Copyright (C) 뉴스1. All rights reserved. 무단 전재 및 재배포 금지.퍼스널모빌리티(PM) 공유업체 더스윙으로 매각이 무산된 '타다'가 자구책으로 요금인하 카드를 꺼내 들었다. 대형택시 업계 최초로 요금을 인하해 이용자 저변을 확대한다는 목표다.8일 업계에 따르면 타다를 운영하는 VCNC (브이씨앤씨)는 이달부터 타다의 탄력요금제 할증률을 인하했다. 타다는 호출이 몰리는 출퇴근 및 심야시간 등에 중형택시 대비 1.5~1.9배 비싼 요금을 받아왔는데, 이달부터 할증률을 1.3~1.5배로 낮췄다. 타다 넥스트·플러스 같은 대형·고급택시는 실시간 도로상황과 수요·공급에 따라 최대 4배까지 요금을 올려받을 수 있다. 단 기본요금(5000원)과 거리·시간 요금은 그대로다.VCNC는 이번 조치로 이용요금이 평균 5000원 저렴해졌다고 강조한다. 잠실역↔도산대로 구간(약 8km) 예상 이용요금은 2만2000원에서 1만7800원으로, 삼성역↔서울월드컵경기장(약 24km) 구간도 3만5800원에서 2만9300원으로 각각 4400원, 6500원 줄었다는 설명이다. 다만 도로사정 및 이동날짜·시간대에 따라 실제 이용요금은 달라질 수 있다.최근 택시비 부담을 호소하는 승객이 많은 가운데, 타다는 피크시간대 요금을 낮춰 이용자를 확대한다는 전략이다. VCNC 관계자는 "그동안 타다는 호출·이동 서비스뿐 아니라 이용요금도 혁신해 왔다. 이번 할증률 인하는 경쟁력 있는 고객 서비스를 위한 결정"이라며 "장기적으로는 타다 고객 확장에 기여할 수 있다고 본다"고 말했다.━"더스윙 인수 무산…당분간 자구책 찾아야"━요금 인하가 타다 부활로 이어질지 관심사다. 모바일인덱스에 따르면 타다 앱 MAU(월간활성이용자)는 심야 택시 대란이 한창이던 지난해 10월 15만1800명으로 정점을 찍은 후 올해 2월(6만6900명) 반토막 났다. 지난달 MAU는 9만2600명으로 일부 회복되긴 했으나 여전히 전년 동기 대비 32% 줄어든 수치다. 같은기간 경쟁사인 아이엠택시(9만2100명)와도 큰 차이가 없다.더욱이 VCNC는 사업 운영을 위한 자구책을 마련해야 하는 상황이다. 최대주주인 비바리퍼블리카(토스 운영사)와 유력 인수자였던 더스윙 간 매각협상이 결렬돼서다. 전날 비바리퍼블리카는 "VCNC는 구조조정의 자구책과 수익성 개선이 나타난 만큼 자체 운영하며 더 효율적인 운영안을 찾아갈 계획"이라고 밝혔다.한편, 지난해 VCNC는 매출 41억8804만원, 영업손실 262억3715만원을 기록했다. 지난해 같은 기간보다 매출이 10% 늘었지만 영업손실도 48% 커졌다. 이에 VCNC는 수익성 개선을 위해 지난달 전 직원 대상 희망퇴직을 진행했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2023.08.09.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>토스뱅크, 연 최고 5% 자유적금 출시…"복잡한 조건 NO"</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002738515?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>토스뱅크 자유적금 관련 포스터. ⓒ토스뱅크[데일리안 = 김효숙 기자] 토스뱅크는 복잡한 조건 없이 매월 꾸준히 저금만 하면 우대금리를 적용해 최고 연 5% 금리 혜택을 제공하는 '토스뱅크 자유 적금'을 출시한다고 9일 밝혔다.토스뱅크 자유 적금의 가장 큰 특징은 복잡한 우대조건 없이 가입한 기간 동안 매달 자동이체로 저금만 하면 누구나 최고금리를 받을 수 있다는 점이다.통상 예적금 가입 시 고객이 우대금리 혜택을 누리려면 까다로운 가입 조건이나 카드 실적, 통신비 자동이체 등 복잡한 우대 조건을 모두 충족해야 하거나 최초 가입자들만 혜택을 받을 수 있었다. 반면에 토스뱅크는 고객이 목돈을 모으는 데에만 집중할 수 있도록 상품을 기획했다.토스뱅크 자유 적금의 가입기간은 최소 3개월부터 최대 36개월까지로 고객이 원하는 기간으로 가입 가능하다. 월 납입한도는 최대 300만원으로 가입 시 설정되는 자동이체 이외에도 한도 범위 내에서 자유롭게 추가 저금이 가능하다. 기본 금리는 가입기간에 따라 차등 적용되며 12개월 이상으로 가입하는 경우, 매월 자동이체를 모두 성공하면 최고 연 5% 금리 혜택을 받을 수 있다.적금 가입 전 고객이 받을 이자도 미리 계산해볼 수 있다. 토스뱅크 자유 적금 가입 과정에서 고객이 원하는 매월 저금액, 기간 등 가입조건을 만들면 만기 시 받을 수 있는 이자를 확인할 수 있다. 또한 비과세종합저축으로 가입 가능해 대상자인 경우에는 적금 가입 시 손쉽게 비과세 적용하기를 클릭하면 별도 서류제출 없이 비과세 혜택도 누릴 수 있다.토스뱅크 관계자는 "고객이 적금을 가입하는 과정에서 우대금리를 받기 위한 복잡한 조건을 신경 쓸 필요없이 오로지 저축에만 집중할 수 있도록 돕고 싶었다"며 "앞으로도 고객 분들이 좋은 혜택들을 쉽고 간편하게 누릴 수 있는 은행이 되도록 노력할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2023.08.09.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>연 5% 이자 준다…"복잡한 우대조건 없어"</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001118380?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>인터넷전문은행 토스뱅크가 최고 연 5% 금리를 제공하는 '토스뱅크 자유적금'을 출시한다고 9일 밝혔다.'토스뱅크 자유 적금'은 복잡한 우대조건 없이 가입한 기간 동안 매달 자동이체로 저금만 하면 누구나가 최고금리를 받을 수 있는 점이 특징이다.가입 기간은 3개월부터 36개월까지이며, 월 납입 한도는 300만원이다.기본 금리는 가입 기간에 따라 차등 적용되며 12개월 이상으로 가입하는 경우, 매월 자동이체를 하면 최고 연 5% 금리 혜택을 받을 수 있다.비과세종합저축으로 가입 가능해 대상자인 경우 적금 가입 시 비과세 적용하기를 클릭하기만 하면 별도 서류제출 없이 비과세 혜택도 누릴 수 있다. 토스뱅크 관계자는 "고객이 우대금리를 받기 위한 복잡한 조건을 신경 쓸 필요 없이 저축에만 집중할 수 있도록 돕고 싶었다"며 "고객들이 좋은 혜택을 쉽고 간편하게 누릴 수 있는 은행이 되도록 노력할 것"이라고 밝혔다.(사진=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2023.08.13.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>빅테크 3사 후불결제서비스 연체율 가파르게 상승···6% 육박</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003242277?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>신용카드 서비스를 이용할 수 없는 금융소비자가 주로 이용하는 빅테크 후불결제서비스(BNPL) 평균 연체율이 6%에 육박하는 것으로 나타났다. 이용자 수와 금액이 가장 많은 토스의 연체율은 7.7%를 넘어섰다.  이용자 심사를 강화하고 건전성 관리에 힘써야 한다는 지적이 나온다.국회 정무위원회 소속 국민의힘 최승재 의원은 13일 금융감독원이 제출한 자료를 분석한 결과 네이버파이낸셜(네이버페이)·카카오페이·비바리퍼블리카(토스)의 후불결제서비스 연체율은 올 6월 말 기준 5.8%로 3월 말(4.4%)보다 1.4%포인트 상승했다고 밝혔다.후불결제서비스는 소비자가 물건을 살 때 토스 등 서비스업자가 가맹점에 먼저 대금을 지급하고, 소비자는 나중에 서비스업자에 돈을 갚는 일종의 외상 서비스이다. 신용카드 발급이 어려운 학생·주부·사회초년생이나 신용불량자 등이 주로 이용한다.후불결제서비스 연체율은 이용자 특성상 은행 대출(0.40%·원화대출 5월 말 기준) 등 고신용자가 이용하는 상품보다 높다. 특히 이용자 수와 이용금액이 가장 많은 토스의 상승 폭이 컸다.토스의 후불결제서비스 연체율은 지난 3월 말 5%에서 6월 말 7.76%로 2.76%포인트 올랐다. 총채권이 320억원에서 221억원으로 30.8% 감소했지만, 연체채권은 15억9000만원에서 17억1000만원으로 7.4% 증가한 데 따른 것이다. 연체율이 계속 높아지자 채권을 회수하면서 규모를 줄인 것으로 보인다.같은 기간 카카오페이 후불결제서비스 연체율은 0.51%에서 0.54%로 0.03%포인트 높아졌고, 네이버파이낸셜은 2.7%에서 2.5%로 0.2%포인트 낮아졌다.6월 말 기준 서비스 가입자 수는 토스가 223만2015명으로 가장 많았다. 이어 네이버페이 74만3941명, 카카오페이 4만5259명 순이었다. 네이버페이와 카카오페이의 총채권은 각각 122억원과 2억4300만원이었다.후불결제서비스는 네이버페이가 2021년 4월부터 시작했다. 이어 카카오페이(2022년 1월), 토스(2022년 3월)도 사업을 개시했다.최승재 의원 “씬파일러(금융 이력 부족자)를 위한 금융 상품은 필요하지만 급증하는 연체율을 방치해서는 안 된다”면서 “빅테크 업체가 더 큰 문제가 발생하기 전에 각종 금융서비스를 재점검하고 건전성 확보에 힘써야 한다”고 말했다.토스 관계자는 “신용평가모형 고도화와 이용자 심사 강화, 채권 회수 내용 알림 등 고객이 장기 연체 위험에 노출되지 않도록 노력하고 있다”면서 “7월 말 연체율은 감소했다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2023.08.03.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>온라인에서 오프라인으로, 국내서 해외로… 영토 확장하는 네·카·토</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000921861?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>토스도 쓱페이 손잡고 현장결제 시장 진출동남아 넘어 유럽까지 영토 넓히는 네·카·토고객 확대, 소비 데이터 확보 목표네이버파이낸셜 제공        네이버파이낸셜과 카카오페이, 토스 등 대형 핀테크 업체 세 곳이 기존 온라인 중심의 사업을 벗어나 오프라인 간편결제(현장 결제) 시장을 공략하는데 집중하고 있다. 이들 업체는 또 외연 확장을 위해 해외 시장 진출도 추진 중이다.3일 금융권에 따르면 카카오페이는 올해 2분기 결제 매출액이 전년 동기 대비 15.3% 증가한 1081억원을 기록했다. 오프라인 결제와 해외 결제 거래액이 크게 늘면서 전체 매출이 증가한 것이다. 특히 한국을 찾은 외국인들이 늘어난 데다, 해외 결제처도 확대되면서 해외 결제 매출은 90.2% 늘어난 것으로 나타났다. 전체 결제서비스 매출에서 해외 결제가 차지하는 비중은 처음으로 두 자릿수를 기록했다.카카오페이는 동남아시아뿐 아니라 유럽까지 결제 서비스 가능 영역을 넓히고 있다. 현재 일본·중국·태국을 비롯해 프랑스·이탈리아·독일·영국·호주 등 10개가 넘는 국가에서 카카오페이 결제 서비스 이용이 가능하거나 테스트를 진행 중이다. 최근에는 이탈리아의 대표 핀테크 기업인 티나바(Tinaba) 사용자들이 한국에서 결제 서비스를 이용할 수 있도록 네트워크를 구축하기도 했다.카카오페이 제공        네이버파이낸셜(네이버페이)도 알리페이플러스, 유니온페이(BC카드)와 각각 제휴해 올해 안에 중국 서비스를 개시할 계획이다. 중국 간편결제 시장에서 알리페이플러스와 유니온페이의 가맹점은 약 5900만개에 달하는 것으로 알려졌다. 사실상 중국 대부분의 가맹점에서 결제가 가능해지는 셈이다.올해 1분기 기준 네이버의 페이서비스·디지털금융 등 핀테크 부문 결제액은 13조4000억원을 기록했다. 직전 분기 대비 1.5%, 1년 전과 비교해서는 19.2% 증가한 수치다. 네이버파이낸셜은 현재 일본을 중심으로 결제 서비스를 선보이고 있지만, 중국에 진출할 경우 더 빠른 속도로 성장할 것으로 예상된다.그동안 온라인 결제 서비스만 지원했던 토스도 최근 현장 결제 경쟁에 뛰어들었다. 토스는 지난달부터 편의점 CU의 전국 1만7000여개 지점에서 토스페이 오프라인 결제를 지원하고 있다.해외 시장도 공략하고 있다. 토스페이는 하나은행 해외간편결제서비스 자회사인 GNL과 제휴해 태국, 싱가포르, 대만, 괌·사이판, 라오스 등 동남아시아 국가에서 해외결제 서비스를 제공하고 있다./토스 제공        후발 주자인 토스는 기존 간편결제 업체를 흡수하는 한편 오프라인 매장 수를 점진적으로 늘려간다는 전략도 가동 중이다. 토스는 지난 6월 신세계그룹의 간편결제 서비스 ‘SSG페이(쓱페이)’와 스마일페이의 인수 우선협상대상자로 선정돼 실사를 진행했다. 현재 시장 점유율은 카카오페이 42.4%, 삼성페이 24%, 네이버페이 24% 등이다.대형 핀테크 업체들이 오프라인과 해외 결제 사업에 투자를 늘리고 있는 이유는 최근 이들 시장이 빠르게 성장하고 있기 때문이다. 한국은행에 따르면 지난해 대면결제 시 스마트폰 등 모바일 기기를 결제 단말기에 접촉하거나, QR코드로 결제한 거래 금액은 전년 대비 46.9% 증가했다.금융권 관계자는 “환전을 하지 않아도 해외에서 바로 결제가 가능하고, 현지 현금자동인출기(ATM)에서 외화를 바로 출금할 수 있다”며 “해외 결제 매출은 빠른 속도로 증가할 가능성이 크다”고 말했다. 그는 “대형 핀테크사들이 당장 수수료 수익 증가를 노리기 보다는, 회원 가입을 통한 잠재 고객과 데이터를 확보하는 데 집중할 것”이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>LGU+, 매월 영화 관람권·팝콘 할인권 제공 알뜰폰 요금제 출시</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014104202?sid=105</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>[LGU+ 제공. 재판매 및 DB 금지](서울=연합뉴스) 임은진 기자 = LG유플러스는 CJ CGV와 함께 알뜰폰(MVNO) 이용 고객을 대상으로 영화 관람권과 팝콘 세트 할인권을 제공하는 'CGV 요금제'를 출시했다고 1일 밝혔다.    CGV 요금제는 LG유플러스 망을 사용하는 중소 알뜰폰 사업자인 토스모바일, KCT, KG모바일 등 3개 업체를 통해 가입할 수 있다.     해당 요금제 신규 가입 고객에게는 12개월간 매월 CGV 일반관 영화 관람권 2매, 팝콘 1개와 탄산 음료 2잔으로 구성된 'CGV 콤보' 2천원 할인권이 제공된다.    요금제는 '11GB 요금제'(3만5천200원부터)와 '일 5GB 요금제'(4만1천800원부터) 등 2개로 구성됐다.    LG유플러스는 "CGV 요금제는 영화 관람을 좋아하는 알뜰폰 고객에게 정기적인 혜택을 제공해 그동안 부족했던 멤버십 서비스를 보완하고 중소 사업자와의 상생을 위해 기획됐다"고 말했다.    engine@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2023.08.11.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>"외면받던 적금 부활하나"...'챌린지 문화' 겨냥한 도전형저축 인기</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002312988?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>카뱅의 '26주 적금', 금리 올려 최대 연 7.0% 제공우리은행, 최고 연 6% 금리 제공하는 ‘N일 적금’ 출시 ◆…자료사진=로이터통신     #.올해 직장 생활을 시작한 사회 초년생 A(27)씨는 외식이나 배달음식을 시켜먹고 싶은 유혹이 생길 때마다 단기 적금에 해당 금액을 저금하고 있다. 그는 "불필요한 지출을 줄이고 돈 관리하는 습관이 키워졌다"며 "소액이지만 꾸준히 돈을 모아 목표금액을 달성할 계획"이라고 말했다.    소소하지만 확실한 성취감을 얻을 수 있는 목표를 세우고, 이를 실천하는 것을 인증하는 챌린지 문화가 MZ세대를 중심으로 확산되면서 도전형 저축도 덩달아 관심을 끌고 있다.   도전형 저축은 도전 금액과 기간을 스스로 설정하고 목표를 달성하면 우대금리가 적용되는 저축 상품 등들 말한다.시중은행과 인터넷은행이 '도전형 저축' 상품을 통해 호흡이 짧은 MZ세대 고객 유치 경쟁에 나섰다.   가장 대표적인 상품은 카카오뱅크의 26주 적금이다. 기본 금리는 연 3.50%이지만, 26주 적금 만기 시 우대 금리를 3.5%p 제공해 최대 연 7.0%의 금리를 받을 수 있다. 저축액 납입 때마다 성공을 알리는 귀여운 캐릭터 스탬프가 찍히는 것도 특징이다.   토스의 '키워봐요 적금'은 상품가입시 지급받은 동물 알을 25번 자동이체에 연속 성공하면 전설의 동물로 진화시키는 스토리를 담고 있다. 금리는 6개월 만기시 최고 4.5%다. 가입금액은 1000원부터 최고 20만원이며 한달 최대 저축 가능 금액은 100만원이다. 토스는 또 매월 꾸준히 저금만 하면 우대금리를 주는 '토스뱅크 자유 적금'도 내놨다. 가입기간은 최소 3개월부터 최대 36개월까지로 매월 자동이체를 모두 성공하면 최고 연 5% 금리 혜택을 받을 수 있다.   케이뱅크의 '챌린지박스'는 목표금액 및 기간에 따라 매주 적립해야 할 돈이 자동 계산되는 상품으로 매일 1.5%의 이자가 쌓이고 챌린지 성공시 추가 2.5%를 제공해 연 4%의 금리를 부여받을 수 있다. '모으기 금액'은 목표일(만기) 때 받는 원금과 세후 이자의 합계금액의 합계가 목표금액과 일치하도록 계산된다. 목표금액은 최소 1만원부터 최대 500만원까지이며 목표기간은 30~200일이다.   기업은행의 'IBK D-day적금'은 생일이나 결혼기념일·입학·출산 등 일상생활 이벤트에 맞춰 목표금액과 만기일자를 자유롭게 설정할 수 있으며 1인 최대 3계좌까지 가입 가능하다. 만기 일자는 최소 1개월에서 최대 1년까지이며 매달 최대 20만원까지 납입할 수 있다. 기본금리 3.85%에 최대 연 1.5%포인트의 우대금리가 제공된다.   우리은행의 'N일 적금'은 31일·100일·200일 중 원하는 가입기간을 선택해 매일 3만원 이하의 금액을 자동 적립하는 상품이다. 기본금리는 연 2%이며 가입기간의 절반 이상 납입 등 우대금리 요건을 모두 충족하면 최대 연 6%의 금리를 받을 수 있다. 매일매일 적립하는 금액은 웹툰 '유미의 세포들'의 주인공 유미의 감정을 의인화한 '감정스탬프'로 감정다이어리에 적립돼 납입 관리도 하고 우대금리 혜택도 받을 수 있다.   KB국민은행은 'KB 특별한적금'을 판매하고 있다. 원하는 특별한 날을 만기일로 지정하고 변경할 수 있는 단기 적금이다. 만기는 1~6개월, 가입금액은 월 1000원 이상 30만원 이하다. 기본 연 2.0% 금리에 목표금액 달성, 별 모으기 완수, 친구 추천으로 우대금리가 더해진다. 한달 30만원을 저축하면 이자는 세전 기준 3만1500원을 받을 수 있다.   다만 연 5%에 가까운 고금리 적금이어도 우대금리 요건과 적은 납입한도로 실제 이자수령액이 많지 않을 수 있음을 감수해야 한다. 적금 상품의 경우 초단기 적금이든 장기 적금이든 은행 이자는 모두 연이율 기준이기 때문에 만약 1개월짜리 상품중 연 5% 금리를 제공한다고 하면 실질적으로 소비자가 받을 수 있는 금리 혜택은 0.4%라는 것이 업계 관계자의 설명이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2023.08.11.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>로고스시스템, 차세대 투자자산관리시스템 킵스(KiiPS) 서비스 출시... GP LP 업무 편의성 극대화한다</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005171384?sid=105</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>20년 이상 GP LP 시스템 구축하며 축적된 모든 기술과 노하우 집대성설치형 아닌 클라우드 기반 SaaS로 전환하여 사용 용이쿼타북, 한국예탁결제원, 홈택스 등과 연동으로 실무 비용 절감 및 데이터 정확도 제고 기대 킵스 로고1999년부터 약 23년간 벤처 투자 운용사(GP) 및 출자자(LP)를 위한 투자 관리 시스템을 만들어 온 로고스시스템(대표 이동현)이 투자 관리 플랫폼 킵스(KiiPS, Korea Innovation Investment Platform Service)를 신규 출시했다고 11일 밝혔다.이번 출시 소식은 지난 7월 28일 한국과학기술회관 대회의실에서 진행된 ‘킵스 사업설명회’를 통해 발표되었다. 사업설명회에는 로고스시스템의 고객을 다수 포함하여 창업투자회사, 신기술사업금융전문회사, 액셀러레이터, 자산운용사 등 다수의 실무자 및 관계자가 참여하였다.킵스는 투자, 전자결재, 회계, LP 투자심사 관리 등 GP와 LP 사이에 필요한 투자 제반 업무 효율화를 돕는 플랫폼이다. 로고스시스템의 기존 서비스인 VC-ERP가 설치형이었던 데 반해, 킵스는 운영 및 보안 강화를 위해 클라우드를 토대로 한 SaaS 형태의 웹 플랫폼으로 개발되었다. 따라서 사용자는 시간과 장소에 대한 제약 없이 서비스를 이용할 수 있을 뿐 아니라, 더욱 강화된 데이터베이스의 성능 및 보안 등의 이점을 얻게 된다. 나아가 iOS와 안드로이드 모바일 애플리케이션이 지원되어 언제 어디서든 편리하게 업무를 볼 수 있다.이번 출시에는 외부 서비스와의 연계가 포함된다. 토스, 오늘의집, 클래스101 등 4,400여 기업이 이용 중인 증권 관리 플랫폼 쿼타북과의 연동을 통해 GP는 포트폴리오 기업으로부터 취합한 데이터를 킵스에 연동하여 이용할 수 있다. GP와 수탁은행 간 업무를 연계 자동화하는 한국예탁결제원의 벤처넷과도 연동될 계획이다. 그 외에도 국내 법인카드 및 펌뱅킹 서비스를 연동하여 GP의 본계정 업무를 처리할 수 있고, 메일이나 문자, 카카오톡 등도 연동할 예정이다. 킵스라는 하나의 플랫폼 위에 투자에 필요한 서비스와 데이터를 연결하여 한 번에 확인 및 처리 가능하다는 점이 주요한 특징이다.로고스시스템 이동현 대표는 “많은 고객사의 다양한 이해관계자가 서비스를 이용하고 있는 만큼, 킵스를 통해 편의성을 극대화하되 다양한 케이스를 포괄할 수 있는 개인화 기능들도 동시에 확대해 나갈 생각”이라며, “‘벤처 투자’하면 자동으로 생각나는 서비스로 더욱 자리매김할 수 있도록 고객 만족에 박차를 가하겠다”고 전했다.한편 로고스시스템은 대부분의 기관 LP 솔루션을 개발할 정도로 고객의 저변이 넓다. 국내 주요 LP 및 GP들의 3,200개 이상의 펀드가 로고스시스템을 통해 관리되고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2023.08.01.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>U+알뜰폰 CGV요금제 출시…영화 관람권 쏜다</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001224978?sid=105</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>LG유플러스는 CJ CGV와 함께 알뜰폰(MVNO) 이용 고객을 대상으로 영화 관람권과 콤보 할인권을 제공하는 ‘CGV요금제’를 출시했다고 1일 밝혔다.CGV요금제는 LG유플러스 망을 사용하는 중소 알뜰폰 사업자인 ‘토스모바일’, ‘KCT’, ‘KG모바일’ 세 업체를 통해 가입할 수 있다. 해당 요금제 신규 가입 고객에게는 12개월간 매월 CGV 일반관 영화 관람권 2매와 팝콘(L) 1개+탄산음료(M) 2잔으로 구성된 ‘CGV콤보’ 2000원 할인권이 제공된다.요금제는 ‘11GB요금제’(3만5200원부터·VAT포함)와 ‘일 5GB요금제’(4만1800원부터·VAT포함) 등 두 종류로 구성됐다. 월 이용요금은 각 사업자별로 다르다.이번 CGV요금제는 영화 관람을 좋아하는 알뜰폰 고객에게 정기적인 혜택을 제공해 그동안 부족했던 멤버십 서비스를 보완하고, 중소 사업자와의 상생을 위해 기획됐다.이외에도 LG유플러스와 CGV는 요금제 출시를 기념해 더 많은 알뜰폰 이용 고객이 영화 할인 혜택을 받을 수 있도록 CGV 일반관 영화 2천원 할인권을 제공한다. 이 혜택은 U+망 알뜰폰 이용 고객이라면 사용중인 요금제에 관계없이 누구나 받을 수 있다.앞서 LG유플러스는 알뜰폰 이용 고객이 받을 수 있는 혜택을 다양화하고자 카카오 요금제, SPC요금제 등 할인 혜택을 제공하는 요금제도 선보인 바 있다.LG유플러스 유호성 MVNO사업담당은 “U+망 알뜰폰 사용 고객들이 알뜰폰 멤버십 혜택처럼 사용할 수 있도록 CGV요금제를 구상했다”며 “앞으로도 중소 알뜰폰 사업자와 상생을 위해 다양한 제휴를 추진하도록 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2023.08.09.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>인터넷은행 ‘주담대’ 폭풍 성장… 대구銀도 제쳤다</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003780508?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>상반기 순이익도 급증… 설립 목적 취약계층 대출은 목표 미달							카카오뱅크·케이뱅크 등 인터넷 은행들이 낮은 금리를 내세워 주택담보대출 규모를 크게 늘리고 있다. 업계 1위 카카오뱅크(카뱅)의 주담대 규모는 이미 Sh수협은행이나 지방은행들을 제쳤고, 주담대로 벌어들이는 이자 이익 덕분에 실적도 좋아지고 있다. 그러나 정작 인터넷 은행의 설립 목적 중 하나인 ‘중·저 신용자 대출 확대’라는 목표는 충분히 달성하지 못하고 있는 것으로 나타났다.8일 금융감독원에 따르면, 지난 3월 말 기준으로 카뱅의 주담대(전세자금대출 포함) 잔고는 약 13조9000억원을 기록했다. 이는 국내 은행 19곳 중에 8위에 해당하는 규모다. 대구은행(13조7000억원·9위), 부산은행(13조1000억원·10위), 수협(13조원·11위)을 모두 제친 것이다. 카뱅의 전체 주담대 가운데 전세자금대출이 11조5000억원으로 80%를 넘었고, 나머지 주택 구입 등 목적의 일반 주담대는 약 2조4000억원 수준이었다. 그래픽=이진영 카뱅, 주담대 규모 수협 제쳐							카뱅은 지난 2018년 인터넷 은행 업계 최초로 전세자금대출 상품을 내놓은 이후, 5년 새 주담대 규모를 빠르게 키웠다. 3년 전인 2020년 3월 말엔 약 3조원(15위) 수준에 불과했다. 그런데 작년 말엔 13조원(9위)을 돌파했고, 올 들어 또다시 순위를 한 계단 올린 것이다. 후발 주자인 케이뱅크도 지난 3월 주담대 잔고가 약 2조8000억원(14위)으로 씨티은행(2조7000억원)이나 전북은행(2조2000억원)을 제쳤다.인터넷 은행이 주담대 규모를 급격히 늘릴 수 있었던 것은 고금리 상황에서 일반 은행보다 금리를 최대한 끌어내렸기 때문이다. 은행연합회에 따르면, 카뱅은 지난달 분할 상환 주담대(신용 등급 951점 이상) 이자율이 연 4.02%로 전국 19개 은행 가운데 가장 낮았고, 그다음이 케이뱅크(4.09%)였다. 다른 은행들은 연 4.12~4.91% 수준이었다. 비대면으로만 영업하는 인터넷 은행 특성상, 인건비나 점포 유지비를 아껴 낮은 금리를 유지할 수 있기 때문이다.주담대의 ‘폭풍 성장’ 덕분에 인터넷 은행 실적도 좋아지고 있다. 카뱅은 올 상반기 순이익이 1838억원을 기록, 전년 대비 무려 48.5% 증가했다. 특히 이자로 벌어들인 매출인 이자 수익은 올 2분기(4~6월)에만 4946억원으로 전년 동기 대비 68.9% 늘었다. 은행권에선 카뱅의 수익성 개선은 상당 부분 주담대 확대로 인한 것이라고 보고 있다. 케이뱅크는 아직 2분기 실적 발표 전이지만, 역시 주담대 효과로 실적이 개선될 것이라는 전망이 나온다.인뱅 3사 모두 취약 계층 대출 목표 미달							인터넷 은행들이 주담대 상품이라는 과실(果實)은 따 먹으면서도, 정작 업계의 과제라고 할 수 있는 ‘금융 취약 계층 대출’에 대해서는 소홀하다는 지적도 나온다. 금융 당국이 설정한 올해 중·저신용자 대출 비율 목표치를 인터넷 은행 3사가 모두 밑돌고 있기 때문이다. 중·저신용자 대출 비율이란 전체 신용대출금 가운데 신용 평점 하위 50% 고객에 대한 대출금 비율을 말한다. 인터넷 은행 출범의 주요 목표가 취약 계층 대출 확대였던 만큼, 당국이 연도별로 목표치를 설정한 것이다.올해 연말까지 인터넷 은행 3사의 목표 비율은 카뱅 30%, 케이뱅크 32%, 토스뱅크 44%인데, 지난 3월 말 기준으로 각각 26%·24%·42%를 기록해 2~8%포인트 정도 밑돌고 있다. 카뱅은 최근 2분기까지 이 비율을 27.7%로 끌어올렸다고 발표했지만, 하반기에 더 끌어올려야 하는 처지다. 작년엔 카뱅과 케이뱅크가 목표치를 0.1~0.4%포인트 넘겨 ‘턱걸이 달성’했고 토스뱅크는 목표치에 미달했다.특히 케이뱅크는 2분기에 주요 3사 중 유일하게 민간 중금리 대출을 축소했다. 카뱅과 토스뱅크는 2분기에 중금리 대출을 전 분기 대비 각각 56%, 46% 늘렸는데, 케이뱅크만 24% 줄인 것이다. 업계에서는 케이뱅크가 연체율 관리를 위해 작년 10월부터 현재까지 신용 점수 650점 이하의 중·저 신용자 대출을 중단하고 있는 여파라고 보고 있다.이성복 자본시장연구원 연구위원은 “고금리로 연체율이 높아진 상황에서 저신용 고객에 대한 대출을 늘리는 게 녹록지는 않을 것”이라면서도 “인터넷 은행의 출범 목적에 대한 근본적 인식 없이, 오로지 수익성이나 재정 건전성만 고려해서 취약 계층 대출에 소극적인 것은 아니었는지 돌아볼 필요가 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2023.08.08.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>빗썸, 수수료 무료 코인 추가…샌드박스 등 10종</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012019571?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>현재까지 20종 지원앱 사용 시간, 지원 전 대비 20%↑[서울=뉴시스] 빗썸 로고. (사진=빗썸) 2023.08.08 *재판매 및 DB 금지[서울=뉴시스]이지영 기자 = 국내 가상자산 거래소 빗썸이 수수료 무료 이벤트 지원 코인 10종을 새롭게 추가했다고 8일 밝혔다. 현재까지 총 20종의 가상자산에 대해 수수료 무료 정책을 시행 중이다.이날 추가된 10종은 ▲샌드박스(SAND) ▲엑시 인피니티(AXS) ▲비트코인에스브이(BSV) ▲퀸텀(QTUM) ▲쎄타퓨엘(TFUEL) ▲앵커(ANKR) ▲쓰레스홀드(T) ▲카이버 네트워크(KNC) ▲에스티피(STPT) ▲온톨로지가스(ONG) 등이다.앞서 지난 1일 이벤트 시작 당시 먼저 공개된 10종은 ▲앱토스(APT) ▲스택스(STX) ▲플로우(FLOW) ▲수이(SUI) ▲비트코인 골드(BTG) ▲피르마체인(FCT2) ▲블러(BLUR) ▲웨이브(WAVES) ▲메탈(MTL) ▲룸네트워크(LOOM) 등이다.빗썸은 별도 공지전까지 매주 수수료 무료 가상자산을 10종씩 추가할 예정이다. 이와 함께 비트코인(BTC)마켓 거래 수수료 무료 정책도 진행 중이다.수수료 무료 가상자산은 종목명에 파란색으로 '무료' 배지가 붙어있다. 투자자는 해당 배지를 통해 구분하면 된다. 또 차트 상단의 '수수료 무료' 카테고리를 통해서도 모아볼 수 있다.빗썸은 이번 이벤트 이후 사용자 사용 시간이 늘었다고 전했다. 빗썸에 따르면 해당 이벤트 이후 사용자의 애플리케이션(이하 앱) 총사용 평균 시간과 인당 평균 사용 시간은 각각 20% 가까이 증가했다. 또 앱 신규 설치 건수도 전주 대비 10% 증가했다.문선일 빗썸 서비스부문장은 "수수료 무료 정책과 자체 소셜 트레이딩 서비스 빗썸 인사이트 등을 통해 유용한 정보를 제공하고자 한다"며 "단기성에 그치는 것이 아닌 변화되고 있는 빗썸을 체감할 기회로 만들 것"이라고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2023.08.04.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>"신용카드? 빚인데"...미성년 자녀 신용카드 걱정된다면 '용돈카드' 어떠십니까</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005052290?sid=101</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>지난 6월 혁신금융서비스로 지정된 '미성년 자녀를 위한 가족 신용카드 서비스' 놓고 우려 커져"남의 신용으로 카드를 결제하는 건 진정한 금융훈련 아냐" 선불카드 형태의 '용돈카드' 주목도 ↑  [연합뉴스 자료사진] [파이낸셜뉴스] "  부모의 신용으로 카드를 결제하는 것이 금융 훈련인가요? 어릴 때부터 빚을 포함한 신용 거래를 알려주는 것은 옳지 않습니다." (익명의 누리꾼) 지난 6월 금융위원회 정례회의에서 우리카드와 현대카드가 신청한 '미성년 자녀를 위한 가족 신용카드 서비스'가 혁신금융서비스로 지정된 것과 관련, 미성년자가 부모의 신용을 토대로 결제를 하는 것은 진정한 금융 공부가 될 수 없다는 우려가 커지고 있다. 이 같이 미성년자의 신용카드 발급에 대한 거부감이 큰 부모들이 환영할 만한 상품이 있다. 일정한 금액을 미리 지불하고 카드 잔액 범위 내에서 결제하는 선불카드 형태의 '용돈카드'다.   4일 금융권에 따르면, 롯데카드의 '티니카드'와 케이뱅크 '하이틴', 카카오뱅크 '미니', 토스 '유스카드', 신한카드 '밈', 하나은행 '아이부자카드' 등이 대표적인 용돈카드다. 용돈카드는 교통카드, 은행 ATM 입출금 카드, 포인트 적립카드 등으로 사용되면서 주사용자인 미성년자에게 인기를 누리고 있다.     따로 충전할 필요도 없고, 교통카드로도 사용 가능한 롯데카드 '티니카드'  롯데카드 '티니카드' 관련 이미지. 사진=롯데카드 제공 롯데카드의 '티니카드'는 자녀가 용돈카드 및 교통카드로 이용할 수 있는 선불카드다.   부모의 롯데 개인신용카드와 연결한 후 한 달 용돈을 설정하면, 설정한 용돈금액 내에서 자녀가 별도로 충전할 필요 없이 사용할 수 있다.   여기에 후불교통 기능을 탑재해 잔액 확인과 교통카드 충전의 번거로움 없이 대중교통을 이용할 수 있다. 입력한 자녀 생년월일에 따라 청소년·어린이 대중교통 요금이 자동으로 적용되며, 청소년 유해업종에서의 결제도 제한된다.   나아가 자녀가 '디지로카앱'에 준회원으로 가입하면 실시간으로 용돈 잔액과 이용내역을 확인할 수 있으며, 로카페이에 등록 시 온라인 신용카드 가맹점 결제도 가능하다.   부모를 위한 자녀 이용내역 조회 서비스·실시간 승인 알림 서비스도 제공되며, 자녀의 소비패턴을 분석해주는 ‘용돈리포트’와 용돈 절약을 돕는 ‘소원상자’ 서비스도 이용 가능하다. 티니카드 연회비는 없으며, 최초 발급과 재발급 시에 발급비 3000원이 청구된다.     월 최대 2000원 캐시백에 송금 기능까지...케이뱅크 '하이틴'  청소년 전용 선불서비스 '하이틴' 관련 이미지. 사진=케이뱅크 제공 케이뱅크가 지난해 출시한 ‘하이틴(Hi teen)’은 만 14세에서 만 18세 미만의 청소년을 대상으로 한 선불전자지급수단 서비스다.   케이뱅크 앱에서 휴대폰 본인인증, 약관동의, 비밀번호 설정 등으로 간편하게 가입할 수 있으며 입금, 출금, 이체가 모두 가능하다.   하이틴에 연결된 ‘하이틴 카드’의 이용한도는 하루 50만원으로 월 총 200만원이며, 하이틴에 보관할 수 있는 금액 한도는 50만원이다. 선불 충전 교통카드 캐시비를 탑재했으며, 청소년이 입장할 수 없는 주점, 숙박업소 등 청소년유해업종은 이용할 수 없다. 또 전국 은행 및 GS25 편의점 ATM 기기를 통해 현금 입출금도 무료로 가능하다.   특히 하이틴 카드로 결제하면 캐시백을 월 최대 2000원까지 받을 수 있다. △전국 편의점 5개 브랜드(GS25, CU, 세븐일레븐, 이마트24, 미니스톱)에서 결제 금액과 상관없이 이용할 때마다 100원씩 월 최대 10회(1000원) 캐시백을 받을 수 있다. 패션 커머스 플랫폼 에이블리·지그재그·무신사와 네이버웹툰 등 온라인 전 업종에서도 결제금액 관계없이 100원씩 월 최대 5회(500원) 캐시백 된다.   아울러 전월 결제 합계가 10만원 이상이며 총 결제 횟수가 5회 이상이면 500원 캐시백이 다음달 10일 이내 지급된다. 이렇게 월 최대 2000원의 캐시백 혜택을 받으면 연간 최대 2만4000원의 캐시백을 제공받을 수 있다. 만 14세 생일날 가입해 만 18세까지 매달 캐시백을 받는다면 총 9만 6000원의 캐시백 혜택을 받는 셈이다.   또한 하이틴의 ‘연락처 송금’을 이용하면 상대방의 계좌번호를 모르더라도 이름과 휴대폰 번호로 송금하고 카카오톡으로 메시지를 보낼 수 있다.     26일 동안 최대 5만2000원 저금한다...카카오뱅크 '미니'  카카오뱅크 '미니'는 온·오프라인 결제 수단을 제공한다. 미니를 개설하면, 5종의 니니즈 캐릭터가 그려진 ‘미니카드’를 발급받을 수 있다. 사진=카카오뱅크 제공 지난 2020년 출시된 카카오뱅크 '미니(mini)' 또한 만 14세부터 18세 이하 청소년만 개설할 수 있는 선불전자지급수단으로, 은행 계좌 개설이나 연결 없이 이용할 수 있다. 휴대폰 본인인증, 약관 동의, 비밀번호 생성 과정을 통해 개설 후 입금과 이체뿐만 아니라, 카카오톡 친구 간 간편이체도 가능하다. 카카오뱅크는 이달 중으로 현재 만 14~18세의 가입 가능 연령을 만 7~18세로 확대할 계획이다.   미니에 보관할 수 있는 금액 한도는 50만원이며 이체·출금 통합 한도는 1일 30만원, 1개월 200만원이다. 카카오뱅크 체크카드처럼 전국 모든 ATM에서 수수료 없이 입출금이 가능하다. 또 청소년 전용 교통카드 기능을 담았으며, 지난해 12월에는 금융사 최초로 앱에서 실물카드 교통카드를 충전하는 티머니 제휴 서비스를 출시했다.   미니의 가장 큰 특징은 '미니 26일저금'이다. 이는 26일 동안 매일 500원에서 2000원씩 저금하는 상품으로 해당 기간 동안 최대 5만2000원 저금 가능하다. 카카오뱅크 '26주적금'과 유사하며, 저금을 할수록 26일저금 서비스 화면에 '니니즈 캐릭터'가 하나씩 늘어난다. 도전현황은 카카오톡, 페이스북, 인스타그램 등 소셜네트워크서비스(SNS)로 공유 가능하다. 배달의민족, 메가박스, 멜론, 올리브영, GS25 등 청소년들의 주요 소비처와 제휴한 상품이기도 하다.   미니는 지난 5월 '미니 생활' 서비스를 오픈해 급식표, 시간표 등 청소년들의 일상생활 속 도움이 될 정보를 제공하기도 했다. 지난 6월 말 기준 미니 누적 가입자 수 180만명이며, 올해 2·4분기 미니 이용금액은 4375억원이다.     만 7세부터 16세까지 모두 사용 가능한 토스 '유스카드'  '틴즈'의 취향이 반영된 토스 '유스카드' 플레이트. 사진=토스 제공 지난해 출시된 비바리퍼블리카(이하 토스)의 어린이⋅청소년용 선불 카드인 ‘유스카드(USS card)’는 만 7세부터 만 16세의 어린이⋅청소년이 자신의 이름으로 만들어 사용할 수 있는 카드다. 가입 연령대가 넓은 대신 가족관계 증명서 등 가입 시 제출해야 하는 서류가 있어 안전성을 보장한다.   '유스카드'는 연결된 가상 계좌에 이체하거나 CU 편의점에서 현금을 충전해 사용할 수 있고, 오프라인 매장뿐만 아니라 온라인 가맹점에서도 결제할 수 있다. 단 청소년 제한업종, 자동 결제 및 해외 결제에는 사용이 제한된다. 교통카드 기능 또한 제공하며, 토스 앱에서 소비 내역을 확인할 수 있다. 결제 알림, 카드 일시 정지 등의 관리도 쉽게 가능하다.   ‘유스카드’는 출시 이후 1년 6개월 만에 누적 발급량 116만 장을 돌파했다. 출시 이후 하루 평균 발급량이 2천 장이 넘는 셈이다. 지난 7월 기준으로는 발급량이 130만장으로 증가했다. 편의점 충전 누적 횟수는 115만 회, 토스페이 온라인 결제 이용자 월평균은 70만 명을 돌파했다.   이 영향으로 토스에서 만 7세부터 만 18세 이하의 사용자를 의미하는 ‘틴즈(teens)’ 가입자는 지난 6월 기준 200만 명을 돌파했다.     편의점·음원사이트·앱마켓서 포인트가 적립된다...신한카드 '밈'  메타버스, 스티커, 고스트, 플렉스페이스 디자인으로 꾸민 신한 '밈' 이미지. 사진=신한카드 제공 신한카드와 신한은행이 발급하는 '신한 밈(Meme)'은 만 14세에서 18세 청소년이 '신한플레이(신한pLay)'와 '신한쏠(신한SOL)'에서 신청할 수 있다. 신청 즉시 발급돼 충전만 하면 곧바로 사용 가능하다.   충전은 연결계좌 등록 후 계좌이체·충전용 가상계좌를 이용한 무통장 입금·마이신한포인트로도 가능하다. 카드 플레이트도 같이 발급돼 오프라인에서도 자유롭게 사용할 수 있다. 플레이트는 10대들의 감성을 반영해 메타버스, 스티커, 고스트, 플렉스페이스 등 4종의 디자인으로 꾸몄다.   신한 밈으로 결제 시 10대들이 자주 이용하는 편의점(GS25·CU·세븐일레븐·이마트24), 음원 스트리밍(벅스·멜론·지니·FLO), 앱마켓(구글플레이·애플앱스토어·원스토어) 등에서 이용금액의 5%가 마이신한포인트로 특별 적립되며, 전 가맹점에서 이용 시 0.1%를 기본 적립해 준다.   더불어 신한 밈 충전금액으로 신한플레이, 신한쏠에서 수수료 없이 송금이 가능하며 모바일 청소년 교통카드 등의 서비스도 제공된다.     하나은행 '아이부자 카드'  (출처=뉴시스/NEWSIS) /사진=뉴시스 하나은행 '아이부자 앱'의 결제 전용 선불카드인 아이부자카드는 기존 하나은행 거래나 계좌 개설 없이도 본인 명의 휴대폰 인증을 통해 자녀회원이 모바일로 직접 신청할 수 있다. 특히 만 14세 미만 유소년도 부모의 휴대폰 동의 절차를 거치면 신청이 가능하다.   단 만 14세 미만의 경우 일 5만원, 월 50만원 이용한도 제한이 적용되며 청소년 유해업종에서의 사용은 제한된다. 이외에도 T머니 교통카드, 은행 ATM입출금 카드로도 사용이 가능하며 모바일·온라인 결제도 된다.      KB국민 '리브 넥스트 카드'  KB국민 리브 넥스트 카드’는 디자인 스튜디오 ‘덴스(THENCE)’와의 협업을 거친 세가지 디자인 중 하나를 선택해 신청 가능하다. ‘DIY(Do It Yourself)’형을 선택하는 경우 ‘카꾸(카드꾸미기)’를 스스로 할 수 있는 스티커도 함께 제공한다. 사진=KB국민카드 제공 ‘KB국민 리브 넥스트(Next)카드’는 KB국민은행의 Z세대 특화 플랫폼인 ‘리브 넥스트’에서 발급 가능한 만 14세에서 18세 사이의 청소년 전용 상품이다. ‘리브 넥스트’앱에서 ‘리브포켓’을 개설한 청소년 누구나 휴대폰 본인확인만으로 발급 가능하고, ‘리브포켓’에 충전한 금액 내에서 사용한 만큼 차감된다.   이 카드는 전월 이용 실적 상관 없이 편의점(CU·GS25), 커피 및 음료전문점, 올리브영, 다이소, 구글 플레이, 애플 앱스토어에서 5000원 이상 이용 시 5% 할인(월 최대 1000원)을 제공한다. SPC 해피포인트 가맹점에서 1000원 이상 결제하면 최대 5%의 금액이 현장 적립된다. 티머니 선불 충전 시 대중교통도 이용할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2023.08.03.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>"금전관리와 함께 소중한 추억도" 토스뱅크, 커플통장 서비스 선봬</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005052049?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>사진 업로드하며 우리만의 통장으로 꾸밀 수 있어  [파이낸셜뉴스]   토스뱅크는 연인이나 부부가 자신들만의 통장을 만들고 금전관리와 함께 소중한 순간을 남길 수 있는 ‘커플통장 서비스’를 출시했다고 3일 밝혔다.   기존 ‘토스뱅크 모임통장’에 추가되는 기능인 커플통장은 통장 메인 화면을 원하는 사진으로 꾸밀 수 있는 커스터마이징 기능을 제공한다. 또한 입출금 내역이나 카드 결제 내역에 댓글을 남겨 데이트나 여행, 기념일 등 소중한 순간들을 저장하고 함께 나눌 수도 있다.   토스뱅크가 모임통장을 통해 은행권 최초로 선보인 '공동모임장' 기능이 커플통장에서도 그대로 구현된다. 기존 모임통장에선 모임장 한 명만 이체나 카드 발급, 결제가 가능해 커플 중 한 사람이 금전 관리나 결제 부담을 다 가져야 하는 불편함이 따랐다.   토스뱅크 커플통장 역시 함께하는 상대방을 공동모임장으로 지정하면 출금 및 송금, 카드 발급 및 결제 권한을 함께 나눌 수 있다. 이러한 기능은 부부가 함께하는 생활비 통장이나 연인 사이의 데이트 통장 등에서 요긴하게 활용될 수 있다.   커플통장은 기존 모임통장 계좌가 없던 고객은 물론, 이미 토스뱅크 모임통장을 보유하고 있는 고객이라도 모임통장 계좌 상세에서 ‘커플통장으로 바꾸기’를 클릭해 손쉽게 전환할 수 있다.   토스뱅크 커플통장 역시 혜택은 모임통장과 동일하다. 하루만 맡겨도 연 2%(세전)의 금리 혜택이 적용돼 별도의 공간으로 자금을 이동해 출금, 결제가 안 되도록 묶어 놓을 필요 없이 편리하게 고금리 혜택을 받을 수 있다. 모임활동에 특화된 캐시백을 제공하는 '토스뱅크 모임카드' 혜택도 그대로 제공된다. 또한 ‘공동모임장’ 제도를 통해 카드도 함께 발급받아 각자 사용할 수 있다.   카드 혜택도 다양하다. 데이트를 하는 순간에도 캐시백 혜택을 받을 수 있다. 혜택을 제공하는 주요 3대 영역으로는 △외식(음식점/주점에서 19시~24시까지 결제 시 캐시백 혜택) △놀이(노래방, 볼링장, 당구장, 골프장, 골프연습장 업종) △장 보기(이마트, 이마트트레이더스/ 농협하나로마트&amp;클럽) 등으로 구분되며, 1만 원 이상 결제 시 건당 500원, 1만 원 미만 결제 시에는 건당 100원의 즉시 캐시백 혜택이 적용된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2023.08.03.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>무인매장은 위생도 없나?…육회서 식중독균 검출</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/057/0001760432?sid=102</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>무인매장 판매 밀키트 야채는 변질한국소비자원 "위생관리 시급"3일 서울 송파구 한국소비자원 서울지원에서 열린 무인판매점식품 안전실태조사 브리핑에 식중독균이 검출된 무인판매 육회가 진열되어 있다 / 사진 = 연합뉴스최근 무인 매장이 우후죽순처럼 생기고 있는 가운데 손질된 육류를 포장해 판매하는 '무인 정육점'도 등장했습니다. 그런데 무인 정육점에서 판매하는 일부 육회 제품에서 식중독균이 검출돼 주의가 요구됩니다. 한국소비자원은 서울과 경기, 충북 지역 무인 매장 29곳에서 취급하는 식품 35종의 안전성과 표시사항 등을 조사한 결과 진성그린푸드의 육회 제품에서 식중독균인 '황색포도상구균'이 검출됐다고 오늘(3일) 밝혔습니다.서울 은평구의 한 무인 정육점에서 육회 제품 2개를 구입해 분석한 결과 진성그린푸드 제품에서 식중독균을 검출한 겁니다.사진 = 한국소비자원또 인천 청라에 위치한 밀키트를 판매하는 무인 매장에서 구입한 불고기 제품 10개 중 어라운드에이치큐 제품 1개에서 버섯·파·양파 등 재료가 변질돼 있던 것으로 확인됐습니다.과자를 판매하는 무인 매장은 12곳이 조사 대상이었는데, 이 중 1개 매장에서 소비 기한이 지난 과자 4종이 발견됐습니다. 특히 이 과장 4종 중 1개는 소비 기한이 100일 이상 경과한 것으로 파악됐습니다. 해당 무인 과자점은 현재 폐업했습니다. 3일 서울 송파구 한국소비자원 서울지원에서 열린 무인판매점식품 안전실태조사 브리핑에 식중독균이 검출된 무인판매 육회와 소비기한이 지난 식품들이 진열되어 있다 / 사진 = 연합뉴스영양 성분 표시가 부실한 제품도 다수 적발됐습니다.전체 조사 대상 35개 식품 중 영양성분이 표시된 15개 제품의 실제 나트륨 함량을 확인한 결과 '500 차카니', '추억의 옛날 그 맛 월드컵 어포', '피시스낵 스파이스맛', '피아토스 치즈향 감자칩' 등 총 4개 제품이 표시 기준에 부적합했습니다.의무 표시사항인 소비기한·용량 등을 기재하지 않은 경우도 발견됐습니다.사진 = 한국소비자원한국소비자원은 "무인매장에서 식품을 구매할 때는 포장 상태 및 소비기한·원재료·영양성분 등 표시사항을 꼼꼼히 확인해야 한다"고 당부했습니다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
